--- a/PNS테이블.xlsx
+++ b/PNS테이블.xlsx
@@ -5,11 +5,11 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIT-303\Desktop\KDT문서작업\2. 설계\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIT-303\Desktop\gitDirectory\KDTProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28755" windowHeight="11550"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11340"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -55,254 +55,749 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="284">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="291">
+  <x:si>
+    <x:t>생산량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일일 생산량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ppdId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록일, 수정일 규격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조달 계획
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계약 규격 사이즈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소모되는
+자재의 수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mImageUrl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ipTrueNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ipFalseNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bRequireNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>oRemarks</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dppState</x:t>
+  </x:si>
+  <x:si>
+    <x:t>varchar2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>납품 상태(ENUM)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mUnitPrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입고 상태(ENUM)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조달 계획 코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>협력업체
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>oTotalPrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생산 계획 상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>납품 지시
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Supplier(2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업체 자재 재고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업체 자재 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조립 구조
+자재코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>isAvailable</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조립 구조
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검수 상태(ENUM)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자사 자재 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OutPut(5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전체 가용 재고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tsUnitPrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생산 계획 코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진척 검수 차수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Material(3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진척 검수 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InPut(7)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업체 자재
+재고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract(0)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Return(8)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mLeadTime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DeliveryRequest(6)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ProductionPlan(2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SupplierStock(4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InventoryStock(5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StockTrail(4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dppRequireNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업체 자재 재고
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조립 구조
+소모 자재 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tsTotalPrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mComponentType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sAddressExtra</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bComponentType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BaseEntity(0)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sBusinessType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Order(5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업 취급 종류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cMatName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uBirthDay</x:t>
+  </x:si>
   <x:si>
     <x:t>userType</x:t>
   </x:si>
   <x:si>
+    <x:t>출고 상태(ENUM)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uAddress</x:t>
+  </x:si>
+  <x:si>
     <x:t>계약 부품 이름</x:t>
   </x:si>
   <x:si>
-    <x:t>출고 상태(ENUM)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cMatName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uAddress</x:t>
-  </x:si>
-  <x:si>
     <x:t>공급업체(협력회사)</x:t>
   </x:si>
   <x:si>
-    <x:t>Order(5)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업 취급 종류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uBirthDay</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발주 주문 수량</x:t>
+    <x:t>sAddress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계약 서명(갑)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생산 계획 시작일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회사 주소 상세</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공급업체
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생산 계획 종료일</x:t>
   </x:si>
   <x:si>
     <x:t>조달 상태(ENUM)</x:t>
   </x:si>
   <x:si>
-    <x:t>sAddress</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sManager</x:t>
+    <x:t>Product(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디 및 기본키</x:t>
   </x:si>
   <x:si>
     <x:t>생산 계획
 외래키</x:t>
   </x:si>
   <x:si>
-    <x:t>Product(1)</x:t>
+    <x:t>sContract</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cUnitPrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sManager</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리 매니저 이름</x:t>
   </x:si>
   <x:si>
     <x:t>baseEntity</x:t>
   </x:si>
   <x:si>
-    <x:t>아이디 및 기본키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sContract</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공급업체
-외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산 계획 시작일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cUnitPrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계약 서명(갑)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리 매니저 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사 주소 상세</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산 계획 종료일</x:t>
+    <x:t>발주 주문 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계약 서명(을)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최소 공급 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>oExpectDate</x:t>
   </x:si>
   <x:si>
     <x:t>Not Null</x:t>
   </x:si>
   <x:si>
-    <x:t>계약 서명(을)</x:t>
-  </x:si>
-  <x:si>
     <x:t>부품 종류(ENUM)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최소 공급 수량</x:t>
   </x:si>
   <x:si>
     <x:t>생산계획코드
 외래키</x:t>
   </x:si>
   <x:si>
-    <x:t>oExpectDate</x:t>
+    <x:t>유저 외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재고 추적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 승인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ipNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>납품지시 코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>stStock</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cSignA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>opCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>oCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품 코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>반품 코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공급업체 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변동 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>stId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>stDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ppState</x:t>
+  </x:si>
+  <x:si>
+    <x:t>isNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생산 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입고
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>isId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>psId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Assy(4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진척 검수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진척 검수일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자사쪽설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>psDgree</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업체측설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재 공급업체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bom(4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>psDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>납품 희망일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ssNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>반품 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계약 단위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ssId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>psState</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단위 가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ppid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>반품 상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>납품 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>stPrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발주서확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>stNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출고용설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재고 금액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재 재고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>psNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬럼명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무게</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>oId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발주</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>높이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발주서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계약일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계약서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날짜</x:t>
   </x:si>
   <x:si>
     <x:t>비고</x:t>
   </x:si>
   <x:si>
-    <x:t>조립 구조
-소모 자재 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tsTotalPrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mComponentType</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sAddressExtra</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dppRequireNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bComponentType</x:t>
-  </x:si>
-  <x:si>
-    <x:t>StockTrail(4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BaseEntity(0)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업체 자재 재고
+    <x:t>자재</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mWeight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cSignB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sRegNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계약 세액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ppStart</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품 리스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조달 납기일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생산계획</x:t>
+  </x:si>
+  <x:si>
+    <x:t>supId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재분류품목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품 
 외래키</x:t>
   </x:si>
   <x:si>
-    <x:t>sBusinessType</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>높이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발주</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계약서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계약일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발주서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬럼명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무게</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>oId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>재고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출고</x:t>
+    <x:t>dppNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uEmail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cSize</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입고 코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발주 코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조달 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ipCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조달시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>납품 지시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업자등록번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>합격 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회사 전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예상 납기일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생년월일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>oDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>opANum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출고 코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ipId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mMinNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재 
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계약코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요구 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>opId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>키 유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ppNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ipState</x:t>
+  </x:si>
+  <x:si>
+    <x:t>oState</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dppCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조달 계획</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sPhone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발주서
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회사 주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결함 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dppId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dppDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회사이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>반품 물품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>opState</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mDepth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cCode</x:t>
   </x:si>
   <x:si>
     <x:t>rState</x:t>
@@ -311,101 +806,116 @@
     <x:t>tsId</x:t>
   </x:si>
   <x:si>
+    <x:t>테이블 명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mWidth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>협력업체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mHeight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요구수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sAgree</x:t>
+  </x:si>
+  <x:si>
+    <x:t>oNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조립 구조</x:t>
+  </x:si>
+  <x:si>
+    <x:t>drId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생산 계획</x:t>
+  </x:si>
+  <x:si>
+    <x:t>거래 명세서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>거래 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uPhone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ppEnd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공급업체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>drState</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발주 상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cTax</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RegDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단위당 가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>drNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ppCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Null 여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uName</x:t>
+  </x:si>
+  <x:si>
     <x:t>float</x:t>
   </x:si>
   <x:si>
-    <x:t>mName</x:t>
+    <x:t>tsNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>drCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>drDate</x:t>
   </x:si>
   <x:si>
     <x:t>자재
 외래키</x:t>
   </x:si>
   <x:si>
-    <x:t>tsNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>거래 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>drCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>drDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ppEnd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>drId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mWidth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>drNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mHeight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공급업체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>oNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조립 구조</x:t>
-  </x:si>
-  <x:si>
-    <x:t>협력업체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>drState</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요구수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sAgree</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발주 상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cTax</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산 계획</x:t>
-  </x:si>
-  <x:si>
-    <x:t>거래 명세서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uPhone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RegDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단위당 가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ppCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Null 여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uName</x:t>
+    <x:t>테이블 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ppId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ModDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재 코드</x:t>
   </x:si>
   <x:si>
     <x:t>회원정보</x:t>
@@ -417,514 +927,26 @@
     <x:t>총 금액</x:t>
   </x:si>
   <x:si>
-    <x:t>테이블 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ppId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ModDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>number</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uEmail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산계획</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sRegNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입고 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dppNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>supId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발주 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>납품 지시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cSize</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cSignB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>합격 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조달 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ipCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사 전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재분류품목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mWeight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계약 세액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ppStart</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품 
-외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조달시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품 리스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업자등록번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조달 납기일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재 
-외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>opState</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생년월일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요구 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>키 유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dppId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mDepth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>oDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>opId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ppNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mMinNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>opANum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계약코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ipState</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사 주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결함 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>oState</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출고 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ipId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dppCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sPhone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조달 계획</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예상 납기일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발주서
-외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dppDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>반품 물품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ppState</x:t>
-  </x:si>
-  <x:si>
-    <x:t>isNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 승인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>재고 추적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>opCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ipNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>oCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cSignA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>stStock</x:t>
-  </x:si>
-  <x:si>
-    <x:t>반품 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>납품지시 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공급업체 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변동 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>stId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>stDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ssId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>stNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ppid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자사쪽설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>stPrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>psDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>psDgree</x:t>
-  </x:si>
-  <x:si>
-    <x:t>반품 상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업체측설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>납품 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품
-외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>psState</x:t>
-  </x:si>
-  <x:si>
-    <x:t>반품 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>납품 희망일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계약 단위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발주서확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출고용설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>재고 금액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Assy(4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단위 가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재 공급업체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재 재고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입고
-외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>isId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>psId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bom(4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진척 검수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ssNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진척 검수일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>psNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DeliveryRequest(6)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SupplierStock(4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ProductionPlan(2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InventoryStock(5)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록일, 수정일 규격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조달 계획
-외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산 계획 상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>협력업체
-외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>varchar2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>oRemarks</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ipFalseNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소모되는
-자재의 수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dppState</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계약 규격 사이즈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>oTotalPrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>납품 상태(ENUM)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조달 계획 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bRequireNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mImageUrl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mUnitPrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ipTrueNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입고 상태(ENUM)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산 계획 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>납품 지시
-외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업체 자재 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조립 구조
-자재코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>isAvailable</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조립 구조
-외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tsUnitPrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검수 상태(ENUM)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Material(3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자사 자재 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OutPut(5)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진척 검수 차수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전체 가용 재고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진척 검수 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Supplier(2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업체 자재 재고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업체 자재
-재고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Return(8)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract(0)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mLeadTime</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InPut(7)</x:t>
+    <x:t>ProgressInspection(6)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TradeSpecification(4)</x:t>
   </x:si>
   <x:si>
     <x:t>DeliveryProcurementPlan(4)</x:t>
   </x:si>
   <x:si>
-    <x:t>TradeSpecification(4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ProgressInspection(6)</x:t>
+    <x:t>ppdDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ProductionPerDay(3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ppdNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생산 일자
+(1일차, 2일차 ...)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -974,48 +996,17 @@
       <x:color rgb="ff000000"/>
       <x:b val="1"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="굴림"/>
-          <x:sz val="9"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="굴림"/>
-          <x:sz val="9"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="굴림"/>
-          <x:sz val="9"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="굴림"/>
-          <x:sz val="9"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="굴림"/>
+      <x:sz val="9"/>
+      <x:color rgb="ff000000"/>
+      <x:b val="1"/>
+    </x:font>
+    <x:font>
+      <x:name val="굴림"/>
+      <x:sz val="9"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
   </x:fonts>
   <x:fills count="6">
     <x:fill>
@@ -1199,7 +1190,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="72">
+  <x:cellXfs count="73">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -1782,9 +1773,6 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
-    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
@@ -2003,6 +1991,32 @@
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -2016,7 +2030,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2099,7 +2112,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2134,7 +2146,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2179,7 +2190,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2223,7 +2233,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2308,7 +2317,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2329,7 +2337,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2360,7 +2367,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2672,8 +2678,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="B1:Y222"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="M48" activeCellId="0" sqref="M48:M48"/>
+    <x:sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A55" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <x:selection activeCell="J68" activeCellId="0" sqref="J68:O74"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -2696,87 +2702,87 @@
       <x:c r="P1" s="31"/>
     </x:row>
     <x:row r="2" spans="3:16" ht="20.64999999999999857891">
-      <x:c r="C2" s="57" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D2" s="58"/>
-      <x:c r="E2" s="59" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="F2" s="60"/>
-      <x:c r="G2" s="60"/>
-      <x:c r="H2" s="61"/>
-      <x:c r="J2" s="57" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="K2" s="58"/>
-      <x:c r="L2" s="59" t="s">
-        <x:v>202</x:v>
-      </x:c>
-      <x:c r="M2" s="60"/>
-      <x:c r="N2" s="60"/>
-      <x:c r="O2" s="61"/>
+      <x:c r="C2" s="56" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="D2" s="57"/>
+      <x:c r="E2" s="58" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="F2" s="59"/>
+      <x:c r="G2" s="59"/>
+      <x:c r="H2" s="60"/>
+      <x:c r="J2" s="56" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="K2" s="57"/>
+      <x:c r="L2" s="58" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="M2" s="59"/>
+      <x:c r="N2" s="59"/>
+      <x:c r="O2" s="60"/>
       <x:c r="P2" s="31"/>
     </x:row>
     <x:row r="3" spans="3:16" ht="20.64999999999999857891">
-      <x:c r="C3" s="57" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="D3" s="58"/>
-      <x:c r="E3" s="59" t="s">
-        <x:v>242</x:v>
-      </x:c>
-      <x:c r="F3" s="60"/>
-      <x:c r="G3" s="60"/>
-      <x:c r="H3" s="61"/>
-      <x:c r="J3" s="57" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="K3" s="58"/>
-      <x:c r="L3" s="59" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="M3" s="60"/>
-      <x:c r="N3" s="60"/>
-      <x:c r="O3" s="61"/>
+      <x:c r="C3" s="56" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="D3" s="57"/>
+      <x:c r="E3" s="58" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F3" s="59"/>
+      <x:c r="G3" s="59"/>
+      <x:c r="H3" s="60"/>
+      <x:c r="J3" s="56" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="K3" s="57"/>
+      <x:c r="L3" s="58" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="M3" s="59"/>
+      <x:c r="N3" s="59"/>
+      <x:c r="O3" s="60"/>
       <x:c r="P3" s="31"/>
     </x:row>
     <x:row r="4" spans="3:16" ht="17.80000000000000071054">
       <x:c r="C4" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E4" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="F4" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="G4" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="H4" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="J4" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="K4" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="L4" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="M4" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="N4" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="O4" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="P4" s="31"/>
     </x:row>
@@ -2785,37 +2791,37 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D5" s="21" t="s">
-        <x:v>110</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E5" s="21" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F5" s="21" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G5" s="21" t="s">
-        <x:v>15</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H5" s="21" t="s">
-        <x:v>46</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="J5" s="27">
         <x:v>1</x:v>
       </x:c>
       <x:c r="K5" s="28" t="s">
-        <x:v>45</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="L5" s="27" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M5" s="27" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N5" s="27" t="s">
-        <x:v>71</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="O5" s="27" t="s">
-        <x:v>16</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="P5" s="31"/>
     </x:row>
@@ -2824,35 +2830,35 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>121</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="E6" s="22" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F6" s="22" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G6" s="24" t="s">
-        <x:v>15</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>61</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="J6" s="2">
         <x:v>2</x:v>
       </x:c>
       <x:c r="K6" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="L6" s="2" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M6" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N6" s="2"/>
       <x:c r="O6" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="P6" s="31"/>
     </x:row>
@@ -2867,17 +2873,17 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="K7" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="L7" s="2" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M7" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N7" s="2"/>
       <x:c r="O7" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="P7" s="31"/>
       <x:c r="Q7" s="5"/>
@@ -2889,31 +2895,31 @@
       <x:c r="W7" s="5"/>
     </x:row>
     <x:row r="8" spans="3:23" ht="20.64999999999999857891">
-      <x:c r="C8" s="62" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D8" s="62"/>
-      <x:c r="E8" s="63" t="s">
-        <x:v>268</x:v>
-      </x:c>
-      <x:c r="F8" s="63"/>
-      <x:c r="G8" s="63"/>
-      <x:c r="H8" s="63"/>
+      <x:c r="C8" s="61" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="D8" s="61"/>
+      <x:c r="E8" s="62" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="F8" s="62"/>
+      <x:c r="G8" s="62"/>
+      <x:c r="H8" s="62"/>
       <x:c r="J8" s="2">
         <x:v>4</x:v>
       </x:c>
       <x:c r="K8" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L8" s="2" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M8" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N8" s="2"/>
       <x:c r="O8" s="2" t="s">
-        <x:v>130</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="P8" s="31"/>
       <x:c r="Q8" s="5"/>
@@ -2925,31 +2931,31 @@
       <x:c r="W8" s="5"/>
     </x:row>
     <x:row r="9" spans="3:23" ht="20.64999999999999857891">
-      <x:c r="C9" s="62" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="D9" s="62"/>
-      <x:c r="E9" s="63" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="F9" s="63"/>
-      <x:c r="G9" s="63"/>
-      <x:c r="H9" s="63"/>
+      <x:c r="C9" s="61" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="D9" s="61"/>
+      <x:c r="E9" s="62" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="F9" s="62"/>
+      <x:c r="G9" s="62"/>
+      <x:c r="H9" s="62"/>
       <x:c r="J9" s="2">
         <x:v>5</x:v>
       </x:c>
       <x:c r="K9" s="2" t="s">
-        <x:v>123</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="L9" s="2" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M9" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N9" s="2"/>
       <x:c r="O9" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="P9" s="31"/>
       <x:c r="Q9" s="5"/>
@@ -2962,38 +2968,38 @@
     </x:row>
     <x:row r="10" spans="3:23" ht="17.80000000000000071054">
       <x:c r="C10" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D10" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E10" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="F10" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="G10" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="H10" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="J10" s="2">
         <x:v>6</x:v>
       </x:c>
       <x:c r="K10" s="2" t="s">
-        <x:v>109</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="L10" s="2" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M10" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N10" s="2"/>
       <x:c r="O10" s="2" t="s">
-        <x:v>161</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="P10" s="31"/>
       <x:c r="Q10" s="5"/>
@@ -3009,35 +3015,35 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D11" s="27" t="s">
-        <x:v>54</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="E11" s="27" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F11" s="27" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G11" s="27" t="s">
-        <x:v>71</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="H11" s="27" t="s">
-        <x:v>79</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="J11" s="2">
         <x:v>7</x:v>
       </x:c>
       <x:c r="K11" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="L11" s="2" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M11" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N11" s="2"/>
       <x:c r="O11" s="2" t="s">
-        <x:v>157</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="P11" s="31"/>
       <x:c r="Q11" s="5"/>
@@ -3053,35 +3059,35 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D12" s="4" t="s">
-        <x:v>128</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E12" s="8" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F12" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G12" s="4"/>
       <x:c r="H12" s="4" t="s">
-        <x:v>139</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="J12" s="21">
         <x:v>8</x:v>
       </x:c>
       <x:c r="K12" s="21" t="s">
-        <x:v>110</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="L12" s="21" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M12" s="21" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N12" s="21" t="s">
-        <x:v>15</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="O12" s="21" t="s">
-        <x:v>46</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="P12" s="31"/>
       <x:c r="Q12" s="5"/>
@@ -3097,35 +3103,35 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D13" s="7" t="s">
-        <x:v>116</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="E13" s="7" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F13" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G13" s="7"/>
       <x:c r="H13" s="7" t="s">
-        <x:v>144</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="J13" s="25">
         <x:v>9</x:v>
       </x:c>
       <x:c r="K13" s="24" t="s">
-        <x:v>121</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="L13" s="21" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M13" s="21" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N13" s="24" t="s">
-        <x:v>15</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="O13" s="24" t="s">
-        <x:v>61</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="P13" s="31"/>
       <x:c r="Q13" s="5"/>
@@ -3141,17 +3147,17 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D14" s="4" t="s">
-        <x:v>84</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="E14" s="7" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F14" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G14" s="4"/>
       <x:c r="H14" s="4" t="s">
-        <x:v>91</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="P14" s="31"/>
       <x:c r="Q14" s="5"/>
@@ -3167,28 +3173,28 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D15" s="4" t="s">
-        <x:v>257</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E15" s="7" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F15" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G15" s="4"/>
       <x:c r="H15" s="4" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="J15" s="57" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="K15" s="58"/>
-      <x:c r="L15" s="59" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="M15" s="60"/>
-      <x:c r="N15" s="60"/>
-      <x:c r="O15" s="61"/>
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="J15" s="56" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="K15" s="57"/>
+      <x:c r="L15" s="58" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="M15" s="59"/>
+      <x:c r="N15" s="59"/>
+      <x:c r="O15" s="60"/>
       <x:c r="P15" s="31"/>
       <x:c r="Q15" s="5"/>
       <x:c r="R15" s="5"/>
@@ -3203,28 +3209,28 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D16" s="4" t="s">
-        <x:v>167</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E16" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F16" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G16" s="4"/>
       <x:c r="H16" s="4" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="J16" s="57" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="K16" s="58"/>
-      <x:c r="L16" s="59" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="M16" s="60"/>
-      <x:c r="N16" s="60"/>
-      <x:c r="O16" s="61"/>
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="J16" s="56" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="K16" s="57"/>
+      <x:c r="L16" s="58" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="M16" s="59"/>
+      <x:c r="N16" s="59"/>
+      <x:c r="O16" s="60"/>
       <x:c r="P16" s="31"/>
       <x:c r="Q16" s="5"/>
       <x:c r="R16" s="5"/>
@@ -3239,35 +3245,35 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D17" s="4" t="s">
-        <x:v>256</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E17" s="7" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F17" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G17" s="4"/>
       <x:c r="H17" s="4" t="s">
-        <x:v>65</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="J17" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="K17" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="L17" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="M17" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="N17" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="O17" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="P17" s="31"/>
       <x:c r="Q17" s="5"/>
@@ -3283,35 +3289,35 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D18" s="4" t="s">
-        <x:v>162</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="E18" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="F18" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G18" s="4"/>
       <x:c r="H18" s="4" t="s">
-        <x:v>44</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="J18" s="27">
         <x:v>1</x:v>
       </x:c>
       <x:c r="K18" s="27" t="s">
-        <x:v>50</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="L18" s="27" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="M18" s="27" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N18" s="27" t="s">
-        <x:v>71</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="O18" s="27" t="s">
-        <x:v>79</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="P18" s="31"/>
       <x:c r="Q18" s="5"/>
@@ -3327,33 +3333,33 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D19" s="4" t="s">
-        <x:v>96</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="E19" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G19" s="4"/>
       <x:c r="H19" s="4" t="s">
-        <x:v>62</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="J19" s="2">
         <x:v>2</x:v>
       </x:c>
       <x:c r="K19" s="2" t="s">
-        <x:v>146</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="L19" s="2" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M19" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N19" s="2"/>
       <x:c r="O19" s="2" t="s">
-        <x:v>143</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="P19" s="31"/>
       <x:c r="Q19" s="5"/>
@@ -3369,33 +3375,33 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D20" s="4" t="s">
-        <x:v>94</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="E20" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="F20" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G20" s="4"/>
       <x:c r="H20" s="4" t="s">
-        <x:v>49</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="J20" s="2">
         <x:v>3</x:v>
       </x:c>
       <x:c r="K20" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="L20" s="2" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M20" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N20" s="2"/>
       <x:c r="O20" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="P20" s="31"/>
       <x:c r="Q20" s="5"/>
@@ -3411,17 +3417,17 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D21" s="4" t="s">
-        <x:v>145</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="E21" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="F21" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G21" s="4"/>
       <x:c r="H21" s="4" t="s">
-        <x:v>66</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="J21" s="8"/>
       <x:c r="K21" s="8"/>
@@ -3445,35 +3451,35 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D22" s="4" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E22" s="7" t="s">
         <x:v>279</x:v>
       </x:c>
-      <x:c r="E22" s="7" t="s">
-        <x:v>122</x:v>
-      </x:c>
       <x:c r="F22" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G22" s="4"/>
       <x:c r="H22" s="4" t="s">
-        <x:v>150</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="J22" s="21">
         <x:v>5</x:v>
       </x:c>
       <x:c r="K22" s="21" t="s">
-        <x:v>110</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="L22" s="21" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M22" s="21" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N22" s="21" t="s">
-        <x:v>15</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="O22" s="21" t="s">
-        <x:v>46</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="P22" s="31"/>
       <x:c r="Q22" s="5"/>
@@ -3491,35 +3497,35 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D23" s="4" t="s">
-        <x:v>34</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E23" s="7" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F23" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G23" s="4"/>
       <x:c r="H23" s="4" t="s">
-        <x:v>27</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="J23" s="24">
         <x:v>6</x:v>
       </x:c>
       <x:c r="K23" s="24" t="s">
-        <x:v>121</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="L23" s="21" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M23" s="21" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N23" s="24" t="s">
-        <x:v>15</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="O23" s="24" t="s">
-        <x:v>61</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="P23" s="31"/>
       <x:c r="Q23" s="5"/>
@@ -3534,25 +3540,25 @@
     </x:row>
     <x:row r="24" spans="2:25" ht="32.75">
       <x:c r="B24" t="s">
-        <x:v>97</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="C24" s="18">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D24" s="20" t="s">
-        <x:v>132</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E24" s="19" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F24" s="18" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G24" s="20" t="s">
-        <x:v>63</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="H24" s="46" t="s">
-        <x:v>18</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="J24" s="14"/>
       <x:c r="K24" s="14"/>
@@ -3576,19 +3582,19 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D25" s="21" t="s">
-        <x:v>110</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E25" s="21" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F25" s="21" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G25" s="21" t="s">
-        <x:v>15</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H25" s="21" t="s">
-        <x:v>46</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="J25" s="47"/>
       <x:c r="K25" s="47"/>
@@ -3612,30 +3618,30 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D26" s="24" t="s">
-        <x:v>121</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="E26" s="21" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F26" s="21" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G26" s="24" t="s">
-        <x:v>15</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H26" s="24" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="J26" s="64" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="K26" s="65"/>
-      <x:c r="L26" s="66" t="s">
-        <x:v>233</x:v>
-      </x:c>
-      <x:c r="M26" s="67"/>
-      <x:c r="N26" s="67"/>
-      <x:c r="O26" s="68"/>
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="J26" s="63" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="K26" s="64"/>
+      <x:c r="L26" s="65" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="M26" s="66"/>
+      <x:c r="N26" s="66"/>
+      <x:c r="O26" s="67"/>
       <x:c r="P26" s="34"/>
       <x:c r="Q26" s="5"/>
       <x:c r="R26" s="5"/>
@@ -3654,16 +3660,16 @@
       <x:c r="F27" s="13"/>
       <x:c r="G27" s="13"/>
       <x:c r="H27" s="13"/>
-      <x:c r="J27" s="57" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="K27" s="58"/>
-      <x:c r="L27" s="59" t="s">
-        <x:v>152</x:v>
-      </x:c>
-      <x:c r="M27" s="60"/>
-      <x:c r="N27" s="60"/>
-      <x:c r="O27" s="61"/>
+      <x:c r="J27" s="56" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="K27" s="57"/>
+      <x:c r="L27" s="58" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="M27" s="59"/>
+      <x:c r="N27" s="59"/>
+      <x:c r="O27" s="60"/>
       <x:c r="P27" s="34"/>
       <x:c r="Q27" s="9"/>
       <x:c r="R27" s="9"/>
@@ -3681,22 +3687,22 @@
       <x:c r="G28" s="6"/>
       <x:c r="H28" s="6"/>
       <x:c r="J28" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="K28" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="L28" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="M28" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="N28" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="O28" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="P28" s="34"/>
       <x:c r="Q28" s="9"/>
@@ -3708,33 +3714,33 @@
       <x:c r="W28" s="5"/>
     </x:row>
     <x:row r="29" spans="3:23" ht="20.64999999999999857891">
-      <x:c r="C29" s="62" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D29" s="62"/>
-      <x:c r="E29" s="63" t="s">
-        <x:v>274</x:v>
-      </x:c>
-      <x:c r="F29" s="63"/>
-      <x:c r="G29" s="63"/>
-      <x:c r="H29" s="63"/>
+      <x:c r="C29" s="61" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="D29" s="61"/>
+      <x:c r="E29" s="62" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F29" s="62"/>
+      <x:c r="G29" s="62"/>
+      <x:c r="H29" s="62"/>
       <x:c r="J29" s="27">
         <x:v>1</x:v>
       </x:c>
       <x:c r="K29" s="27" t="s">
-        <x:v>43</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="L29" s="27" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="M29" s="27" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N29" s="27" t="s">
-        <x:v>71</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="O29" s="27" t="s">
-        <x:v>79</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="P29" s="34"/>
       <x:c r="Q29" s="10"/>
@@ -3746,31 +3752,31 @@
       <x:c r="W29" s="5"/>
     </x:row>
     <x:row r="30" spans="3:23" ht="20.64999999999999857891">
-      <x:c r="C30" s="62" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="D30" s="62"/>
-      <x:c r="E30" s="63" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F30" s="63"/>
-      <x:c r="G30" s="63"/>
-      <x:c r="H30" s="63"/>
+      <x:c r="C30" s="61" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="D30" s="61"/>
+      <x:c r="E30" s="62" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="F30" s="62"/>
+      <x:c r="G30" s="62"/>
+      <x:c r="H30" s="62"/>
       <x:c r="J30" s="2">
         <x:v>2</x:v>
       </x:c>
       <x:c r="K30" s="2" t="s">
-        <x:v>255</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="L30" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="M30" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N30" s="2"/>
       <x:c r="O30" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="P30" s="34"/>
       <x:c r="Q30" s="9"/>
@@ -3783,38 +3789,38 @@
     </x:row>
     <x:row r="31" spans="3:23" ht="17.80000000000000071054">
       <x:c r="C31" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E31" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="F31" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="G31" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="H31" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="J31" s="2">
         <x:v>3</x:v>
       </x:c>
       <x:c r="K31" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="L31" s="2" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M31" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N31" s="2"/>
       <x:c r="O31" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="P31" s="34"/>
       <x:c r="Q31" s="9"/>
@@ -3830,40 +3836,40 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D32" s="27" t="s">
-        <x:v>77</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="E32" s="27" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F32" s="27" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G32" s="27" t="s">
-        <x:v>71</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="H32" s="27" t="s">
-        <x:v>79</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="J32" s="19">
         <x:v>4</x:v>
       </x:c>
       <x:c r="K32" s="19" t="s">
-        <x:v>54</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="L32" s="19" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="M32" s="19" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N32" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="O32" s="39" t="s">
-        <x:v>85</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="P32" s="34" t="s">
-        <x:v>57</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="Q32" s="9"/>
       <x:c r="R32" s="9"/>
@@ -3878,38 +3884,38 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D33" s="4" t="s">
-        <x:v>151</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="E33" s="8" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F33" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G33" s="4"/>
       <x:c r="H33" s="4" t="s">
-        <x:v>164</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="J33" s="20">
         <x:v>5</x:v>
       </x:c>
       <x:c r="K33" s="20" t="s">
-        <x:v>50</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="L33" s="19" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="M33" s="19" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N33" s="20" t="s">
-        <x:v>63</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="O33" s="46" t="s">
-        <x:v>218</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="P33" s="34" t="s">
-        <x:v>60</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="Q33" s="5"/>
       <x:c r="R33" s="5"/>
@@ -3924,35 +3930,35 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D34" s="7" t="s">
-        <x:v>127</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="E34" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F34" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G34" s="7"/>
       <x:c r="H34" s="7" t="s">
-        <x:v>153</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="J34" s="21">
         <x:v>6</x:v>
       </x:c>
       <x:c r="K34" s="21" t="s">
-        <x:v>110</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="L34" s="21" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M34" s="21" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N34" s="21" t="s">
-        <x:v>15</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="O34" s="21" t="s">
-        <x:v>46</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="P34" s="34"/>
       <x:c r="Q34" s="5"/>
@@ -3968,36 +3974,36 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D35" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E35" s="7" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F35" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G35" s="4"/>
       <x:c r="H35" s="4" t="s">
-        <x:v>173</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="I35" s="17"/>
       <x:c r="J35" s="24">
         <x:v>7</x:v>
       </x:c>
       <x:c r="K35" s="24" t="s">
-        <x:v>121</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="L35" s="21" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M35" s="21" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N35" s="24" t="s">
-        <x:v>15</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="O35" s="24" t="s">
-        <x:v>61</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="P35" s="34"/>
     </x:row>
@@ -4006,17 +4012,17 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D36" s="4" t="s">
-        <x:v>35</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E36" s="7" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F36" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G36" s="4"/>
       <x:c r="H36" s="4" t="s">
-        <x:v>23</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="I36" s="17"/>
       <x:c r="J36" s="16"/>
@@ -4032,29 +4038,29 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D37" s="4" t="s">
-        <x:v>12</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E37" s="7" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F37" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G37" s="4"/>
       <x:c r="H37" s="4" t="s">
-        <x:v>22</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I37" s="17"/>
-      <x:c r="J37" s="57" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="K37" s="58"/>
-      <x:c r="L37" s="59" t="s">
-        <x:v>278</x:v>
-      </x:c>
-      <x:c r="M37" s="60"/>
-      <x:c r="N37" s="60"/>
-      <x:c r="O37" s="61"/>
+      <x:c r="J37" s="56" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="K37" s="57"/>
+      <x:c r="L37" s="58" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="M37" s="59"/>
+      <x:c r="N37" s="59"/>
+      <x:c r="O37" s="60"/>
       <x:c r="P37" s="34"/>
     </x:row>
     <x:row r="38" spans="3:16" ht="20.64999999999999857891">
@@ -4062,29 +4068,29 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D38" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E38" s="7" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F38" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G38" s="4"/>
       <x:c r="H38" s="4" t="s">
-        <x:v>51</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="I38" s="17"/>
-      <x:c r="J38" s="57" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="K38" s="58"/>
-      <x:c r="L38" s="59" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="M38" s="60"/>
-      <x:c r="N38" s="60"/>
-      <x:c r="O38" s="61"/>
+      <x:c r="J38" s="56" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="K38" s="57"/>
+      <x:c r="L38" s="58" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="M38" s="59"/>
+      <x:c r="N38" s="59"/>
+      <x:c r="O38" s="60"/>
       <x:c r="P38" s="34"/>
     </x:row>
     <x:row r="39" spans="3:16" ht="17.80000000000000071054">
@@ -4092,36 +4098,36 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D39" s="4" t="s">
-        <x:v>41</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E39" s="7" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F39" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G39" s="4"/>
       <x:c r="H39" s="4" t="s">
-        <x:v>7</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I39" s="17"/>
       <x:c r="J39" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="K39" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="L39" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="M39" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="N39" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="O39" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="P39" s="34"/>
     </x:row>
@@ -4130,36 +4136,36 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D40" s="4" t="s">
-        <x:v>181</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="E40" s="7" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F40" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G40" s="4"/>
       <x:c r="H40" s="4" t="s">
-        <x:v>142</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="I40" s="17"/>
       <x:c r="J40" s="27">
         <x:v>1</x:v>
       </x:c>
       <x:c r="K40" s="27" t="s">
-        <x:v>72</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="L40" s="27" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="M40" s="27" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N40" s="27" t="s">
-        <x:v>71</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="O40" s="27" t="s">
-        <x:v>79</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="P40" s="34"/>
     </x:row>
@@ -4168,75 +4174,75 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D41" s="4" t="s">
-        <x:v>104</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="E41" s="7" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F41" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G41" s="4"/>
       <x:c r="H41" s="4" t="s">
-        <x:v>190</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I41" s="17"/>
       <x:c r="J41" s="2">
         <x:v>2</x:v>
       </x:c>
       <x:c r="K41" s="2" t="s">
-        <x:v>174</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="L41" s="2" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M41" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N41" s="2"/>
       <x:c r="O41" s="2" t="s">
-        <x:v>170</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="P41" s="34"/>
     </x:row>
     <x:row r="42" spans="2:16">
       <x:c r="B42" t="s">
-        <x:v>115</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="C42" s="18">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D42" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="E42" s="19" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F42" s="19" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G42" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="H42" s="19" t="s">
-        <x:v>194</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I42" s="17"/>
       <x:c r="J42" s="2">
         <x:v>3</x:v>
       </x:c>
       <x:c r="K42" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="L42" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="M42" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N42" s="2"/>
       <x:c r="O42" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="P42" s="34"/>
     </x:row>
@@ -4245,36 +4251,36 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D43" s="21" t="s">
-        <x:v>110</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E43" s="21" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F43" s="21" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G43" s="21" t="s">
-        <x:v>15</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H43" s="21" t="s">
-        <x:v>46</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="I43" s="17"/>
       <x:c r="J43" s="2">
         <x:v>4</x:v>
       </x:c>
       <x:c r="K43" s="2" t="s">
-        <x:v>135</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="L43" s="2" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M43" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N43" s="2"/>
       <x:c r="O43" s="2" t="s">
-        <x:v>251</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="P43" s="34"/>
     </x:row>
@@ -4283,36 +4289,36 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D44" s="24" t="s">
-        <x:v>121</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="E44" s="21" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F44" s="21" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G44" s="24" t="s">
-        <x:v>15</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H44" s="24" t="s">
-        <x:v>61</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="I44" s="17"/>
       <x:c r="J44" s="2">
         <x:v>5</x:v>
       </x:c>
       <x:c r="K44" s="4" t="s">
-        <x:v>20</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="L44" s="2" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M44" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N44" s="4"/>
       <x:c r="O44" s="4" t="s">
-        <x:v>222</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="P44" s="34"/>
     </x:row>
@@ -4328,17 +4334,17 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="K45" s="2" t="s">
-        <x:v>106</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="L45" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="M45" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N45" s="2"/>
       <x:c r="O45" s="2" t="s">
-        <x:v>147</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="P45" s="34"/>
     </x:row>
@@ -4354,117 +4360,117 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="K46" s="4" t="s">
-        <x:v>196</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="L46" s="2" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M46" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N46" s="4"/>
       <x:c r="O46" s="4" t="s">
-        <x:v>21</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="P46" s="34"/>
     </x:row>
     <x:row r="47" spans="3:16" ht="20.64999999999999857891">
-      <x:c r="C47" s="62" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D47" s="62"/>
-      <x:c r="E47" s="63" t="s">
-        <x:v>281</x:v>
-      </x:c>
-      <x:c r="F47" s="63"/>
-      <x:c r="G47" s="63"/>
-      <x:c r="H47" s="63"/>
+      <x:c r="C47" s="61" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="D47" s="61"/>
+      <x:c r="E47" s="62" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="F47" s="62"/>
+      <x:c r="G47" s="62"/>
+      <x:c r="H47" s="62"/>
       <x:c r="I47" s="17"/>
       <x:c r="J47" s="2">
         <x:v>8</x:v>
       </x:c>
       <x:c r="K47" s="4" t="s">
-        <x:v>136</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="L47" s="2" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M47" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N47" s="4"/>
       <x:c r="O47" s="4" t="s">
-        <x:v>26</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="P47" s="34"/>
     </x:row>
     <x:row r="48" spans="3:16" ht="20.64999999999999857891">
-      <x:c r="C48" s="62" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="D48" s="62"/>
-      <x:c r="E48" s="63" t="s">
-        <x:v>182</x:v>
-      </x:c>
-      <x:c r="F48" s="63"/>
-      <x:c r="G48" s="63"/>
-      <x:c r="H48" s="63"/>
+      <x:c r="C48" s="61" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="D48" s="61"/>
+      <x:c r="E48" s="62" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="F48" s="62"/>
+      <x:c r="G48" s="62"/>
+      <x:c r="H48" s="62"/>
       <x:c r="I48" s="17"/>
       <x:c r="J48" s="2">
         <x:v>9</x:v>
       </x:c>
       <x:c r="K48" s="4" t="s">
-        <x:v>137</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="L48" s="2" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M48" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N48" s="4"/>
       <x:c r="O48" s="4" t="s">
-        <x:v>53</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="P48" s="34"/>
     </x:row>
     <x:row r="49" spans="3:16" ht="17.80000000000000071054">
       <x:c r="C49" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D49" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E49" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="F49" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="G49" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="H49" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="I49" s="17"/>
       <x:c r="J49" s="21">
         <x:v>10</x:v>
       </x:c>
       <x:c r="K49" s="21" t="s">
-        <x:v>110</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="L49" s="21" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M49" s="21" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N49" s="21" t="s">
-        <x:v>15</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="O49" s="21" t="s">
-        <x:v>46</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="P49" s="34"/>
     </x:row>
@@ -4473,38 +4479,38 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D50" s="27" t="s">
-        <x:v>160</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="E50" s="27" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F50" s="27" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G50" s="27" t="s">
-        <x:v>71</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="H50" s="27" t="s">
-        <x:v>79</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="I50" s="17"/>
       <x:c r="J50" s="21">
         <x:v>11</x:v>
       </x:c>
       <x:c r="K50" s="24" t="s">
-        <x:v>121</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="L50" s="21" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M50" s="21" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N50" s="24" t="s">
-        <x:v>15</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="O50" s="24" t="s">
-        <x:v>61</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="P50" s="34"/>
     </x:row>
@@ -4513,17 +4519,17 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D51" s="4" t="s">
-        <x:v>180</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="E51" s="8" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F51" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G51" s="4"/>
       <x:c r="H51" s="4" t="s">
-        <x:v>254</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I51" s="17"/>
       <x:c r="J51" s="16"/>
@@ -4539,29 +4545,29 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D52" s="4" t="s">
-        <x:v>36</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E52" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F52" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G52" s="4"/>
       <x:c r="H52" s="4" t="s">
-        <x:v>158</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="I52" s="17"/>
-      <x:c r="J52" s="57" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="K52" s="58"/>
-      <x:c r="L52" s="59" t="s">
-        <x:v>240</x:v>
-      </x:c>
-      <x:c r="M52" s="60"/>
-      <x:c r="N52" s="60"/>
-      <x:c r="O52" s="61"/>
+      <x:c r="J52" s="56" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="K52" s="57"/>
+      <x:c r="L52" s="58" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="M52" s="59"/>
+      <x:c r="N52" s="59"/>
+      <x:c r="O52" s="60"/>
       <x:c r="P52" s="34"/>
     </x:row>
     <x:row r="53" spans="3:16" ht="20.64999999999999857891">
@@ -4569,29 +4575,29 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D53" s="4" t="s">
-        <x:v>131</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="E53" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F53" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G53" s="4"/>
       <x:c r="H53" s="4" t="s">
-        <x:v>140</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="I53" s="17"/>
-      <x:c r="J53" s="57" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="K53" s="58"/>
-      <x:c r="L53" s="59" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="M53" s="60"/>
-      <x:c r="N53" s="60"/>
-      <x:c r="O53" s="61"/>
+      <x:c r="J53" s="56" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="K53" s="57"/>
+      <x:c r="L53" s="58" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="M53" s="59"/>
+      <x:c r="N53" s="59"/>
+      <x:c r="O53" s="60"/>
       <x:c r="P53" s="34"/>
     </x:row>
     <x:row r="54" spans="3:16" ht="17.80000000000000071054">
@@ -4599,36 +4605,36 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D54" s="4" t="s">
-        <x:v>185</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="E54" s="7" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F54" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G54" s="4"/>
       <x:c r="H54" s="4" t="s">
-        <x:v>154</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="I54" s="17"/>
       <x:c r="J54" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="K54" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="L54" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="M54" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="N54" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="O54" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="P54" s="34"/>
     </x:row>
@@ -4637,42 +4643,42 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D55" s="4" t="s">
-        <x:v>250</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E55" s="7" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F55" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G55" s="4"/>
       <x:c r="H55" s="29" t="s">
-        <x:v>10</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I55" s="17"/>
       <x:c r="J55" s="27">
         <x:v>1</x:v>
       </x:c>
       <x:c r="K55" s="27" t="s">
-        <x:v>119</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="L55" s="27" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="M55" s="27" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N55" s="27" t="s">
-        <x:v>71</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="O55" s="27" t="s">
-        <x:v>79</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="P55" s="34"/>
     </x:row>
     <x:row r="56" spans="2:16">
       <x:c r="B56" s="16" t="s">
-        <x:v>126</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="C56" s="19">
         <x:v>7</x:v>
@@ -4682,71 +4688,71 @@
       <x:c r="F56" s="18"/>
       <x:c r="G56" s="20"/>
       <x:c r="H56" s="30" t="s">
-        <x:v>60</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="I56" s="17"/>
       <x:c r="J56" s="2">
         <x:v>2</x:v>
       </x:c>
       <x:c r="K56" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="L56" s="2" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M56" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N56" s="2"/>
       <x:c r="O56" s="2" t="s">
-        <x:v>260</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="P56" s="34"/>
     </x:row>
     <x:row r="57" spans="2:16" ht="32.75">
       <x:c r="B57" t="s">
-        <x:v>126</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="C57" s="19">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D57" s="20" t="s">
-        <x:v>119</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="E57" s="19" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F57" s="19" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G57" s="20" t="s">
-        <x:v>63</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="H57" s="33" t="s">
-        <x:v>29</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="I57" s="17"/>
       <x:c r="J57" s="2">
         <x:v>3</x:v>
       </x:c>
       <x:c r="K57" s="2" t="s">
-        <x:v>166</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="L57" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="M57" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N57" s="2"/>
       <x:c r="O57" s="2" t="s">
-        <x:v>187</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="P57" s="34"/>
     </x:row>
     <x:row r="58" spans="2:16">
       <x:c r="B58" t="s">
-        <x:v>57</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="C58" s="19">
         <x:v>9</x:v>
@@ -4756,30 +4762,30 @@
       <x:c r="F58" s="18"/>
       <x:c r="G58" s="20"/>
       <x:c r="H58" s="30" t="s">
-        <x:v>120</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="I58" s="17"/>
       <x:c r="J58" s="2">
         <x:v>4</x:v>
       </x:c>
       <x:c r="K58" s="2" t="s">
-        <x:v>188</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="L58" s="2" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M58" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N58" s="2"/>
       <x:c r="O58" s="2" t="s">
-        <x:v>244</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="P58" s="34"/>
     </x:row>
     <x:row r="59" spans="2:16">
       <x:c r="B59" t="s">
-        <x:v>57</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="C59" s="19">
         <x:v>10</x:v>
@@ -4789,30 +4795,30 @@
       <x:c r="F59" s="18"/>
       <x:c r="G59" s="20"/>
       <x:c r="H59" s="20" t="s">
-        <x:v>171</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="I59" s="17"/>
       <x:c r="J59" s="2">
         <x:v>5</x:v>
       </x:c>
       <x:c r="K59" s="4" t="s">
-        <x:v>148</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="L59" s="2" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M59" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N59" s="4"/>
       <x:c r="O59" s="4" t="s">
-        <x:v>19</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="P59" s="34"/>
     </x:row>
     <x:row r="60" spans="2:16">
       <x:c r="B60" s="16" t="s">
-        <x:v>57</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="C60" s="19">
         <x:v>11</x:v>
@@ -4822,48 +4828,48 @@
       <x:c r="F60" s="18"/>
       <x:c r="G60" s="20"/>
       <x:c r="H60" s="30" t="s">
-        <x:v>228</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="I60" s="17"/>
       <x:c r="J60" s="2">
         <x:v>6</x:v>
       </x:c>
       <x:c r="K60" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="L60" s="2" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M60" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N60" s="2"/>
       <x:c r="O60" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="P60" s="34"/>
     </x:row>
     <x:row r="61" spans="2:16" ht="32.75">
       <x:c r="B61" s="16" t="s">
-        <x:v>57</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="C61" s="19">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D61" s="20" t="s">
-        <x:v>54</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="E61" s="19" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F61" s="18" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G61" s="20" t="s">
-        <x:v>63</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="H61" s="36" t="s">
-        <x:v>155</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="I61" s="17"/>
       <x:c r="J61" s="19">
@@ -4874,10 +4880,10 @@
       <x:c r="M61" s="19"/>
       <x:c r="N61" s="20"/>
       <x:c r="O61" s="30" t="s">
-        <x:v>69</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="P61" s="35" t="s">
-        <x:v>60</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="2:16">
@@ -4886,19 +4892,19 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D62" s="21" t="s">
-        <x:v>110</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E62" s="21" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F62" s="21" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G62" s="21" t="s">
-        <x:v>15</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H62" s="21" t="s">
-        <x:v>46</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="I62" s="17"/>
       <x:c r="J62" s="19">
@@ -4909,10 +4915,10 @@
       <x:c r="M62" s="19"/>
       <x:c r="N62" s="20"/>
       <x:c r="O62" s="30" t="s">
-        <x:v>74</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="P62" s="34" t="s">
-        <x:v>60</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="2:16" ht="32.75">
@@ -4921,41 +4927,41 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D63" s="24" t="s">
-        <x:v>121</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="E63" s="21" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F63" s="21" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G63" s="24" t="s">
-        <x:v>15</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H63" s="24" t="s">
-        <x:v>61</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="I63" s="17"/>
       <x:c r="J63" s="19">
         <x:v>9</x:v>
       </x:c>
       <x:c r="K63" s="20" t="s">
-        <x:v>50</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="L63" s="19" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="M63" s="19" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N63" s="20" t="s">
-        <x:v>63</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="O63" s="30" t="s">
-        <x:v>149</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="P63" s="34" t="s">
-        <x:v>60</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="2:16">
@@ -4971,66 +4977,66 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="K64" s="21" t="s">
-        <x:v>110</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="L64" s="21" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M64" s="21" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N64" s="21" t="s">
-        <x:v>15</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="O64" s="21" t="s">
-        <x:v>46</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="P64" s="34"/>
     </x:row>
     <x:row r="65" spans="3:16" ht="20.64999999999999857891">
-      <x:c r="C65" s="57" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D65" s="58"/>
-      <x:c r="E65" s="59" t="s">
-        <x:v>270</x:v>
-      </x:c>
-      <x:c r="F65" s="60"/>
-      <x:c r="G65" s="60"/>
-      <x:c r="H65" s="61"/>
+      <x:c r="C65" s="56" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="D65" s="57"/>
+      <x:c r="E65" s="58" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F65" s="59"/>
+      <x:c r="G65" s="59"/>
+      <x:c r="H65" s="60"/>
       <x:c r="I65" s="17"/>
       <x:c r="J65" s="21">
         <x:v>11</x:v>
       </x:c>
       <x:c r="K65" s="24" t="s">
-        <x:v>121</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="L65" s="21" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M65" s="21" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N65" s="24" t="s">
-        <x:v>15</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="O65" s="24" t="s">
-        <x:v>61</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="P65" s="34"/>
     </x:row>
     <x:row r="66" spans="2:16" ht="20.64999999999999857891">
       <x:c r="B66" s="17"/>
-      <x:c r="C66" s="57" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="D66" s="58"/>
-      <x:c r="E66" s="59" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="F66" s="60"/>
-      <x:c r="G66" s="60"/>
-      <x:c r="H66" s="61"/>
+      <x:c r="C66" s="56" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="D66" s="57"/>
+      <x:c r="E66" s="58" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="F66" s="59"/>
+      <x:c r="G66" s="59"/>
+      <x:c r="H66" s="60"/>
       <x:c r="I66" s="17"/>
       <x:c r="J66" s="10"/>
       <x:c r="K66" s="6"/>
@@ -5043,22 +5049,22 @@
     <x:row r="67" spans="2:16" ht="20.64999999999999857891">
       <x:c r="B67" s="17"/>
       <x:c r="C67" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D67" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E67" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="F67" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="G67" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="H67" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="I67" s="17"/>
       <x:c r="J67" s="14"/>
@@ -5075,77 +5081,97 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D68" s="27" t="s">
-        <x:v>165</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="E68" s="27" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F68" s="27" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G68" s="27" t="s">
-        <x:v>71</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="H68" s="27" t="s">
-        <x:v>79</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="I68" s="17"/>
-      <x:c r="J68" s="14"/>
-      <x:c r="K68" s="14"/>
-      <x:c r="L68" s="15"/>
-      <x:c r="M68" s="15"/>
-      <x:c r="N68" s="15"/>
-      <x:c r="O68" s="15"/>
+      <x:c r="J68" s="56" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="K68" s="57"/>
+      <x:c r="L68" s="58" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="M68" s="59"/>
+      <x:c r="N68" s="59"/>
+      <x:c r="O68" s="60"/>
       <x:c r="P68" s="16"/>
     </x:row>
-    <x:row r="69" spans="2:16" ht="17.80000000000000071054">
+    <x:row r="69" spans="2:16" ht="20.64999999999999857891">
       <x:c r="B69" s="17"/>
       <x:c r="C69" s="2">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D69" s="2" t="s">
-        <x:v>192</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E69" s="2" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F69" s="2"/>
       <x:c r="G69" s="2"/>
       <x:c r="H69" s="2" t="s">
-        <x:v>178</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="I69" s="17"/>
-      <x:c r="J69" s="14"/>
-      <x:c r="K69" s="14"/>
-      <x:c r="L69" s="14"/>
-      <x:c r="M69" s="14"/>
-      <x:c r="N69" s="14"/>
-      <x:c r="O69" s="14"/>
+      <x:c r="J69" s="56" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="K69" s="57"/>
+      <x:c r="L69" s="58" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M69" s="59"/>
+      <x:c r="N69" s="59"/>
+      <x:c r="O69" s="60"/>
       <x:c r="P69" s="16"/>
     </x:row>
-    <x:row r="70" spans="2:16">
+    <x:row r="70" spans="2:16" ht="17.80000000000000071054">
       <x:c r="B70" s="17"/>
       <x:c r="C70" s="2">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D70" s="2" t="s">
-        <x:v>169</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="E70" s="8" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F70" s="2"/>
       <x:c r="G70" s="2"/>
       <x:c r="H70" s="2" t="s">
-        <x:v>158</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="I70" s="17"/>
-      <x:c r="J70" s="16"/>
-      <x:c r="K70" s="16"/>
-      <x:c r="L70" s="16"/>
-      <x:c r="M70" s="16"/>
-      <x:c r="N70" s="16"/>
-      <x:c r="O70" s="16"/>
+      <x:c r="J70" s="1" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="K70" s="1" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="L70" s="1" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="M70" s="1" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="N70" s="1" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="O70" s="1" t="s">
+        <x:v>169</x:v>
+      </x:c>
       <x:c r="P70" s="16"/>
     </x:row>
     <x:row r="71" spans="2:16">
@@ -5154,28 +5180,40 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D71" s="2" t="s">
-        <x:v>156</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="E71" s="2" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F71" s="2"/>
       <x:c r="G71" s="2"/>
       <x:c r="H71" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="I71" s="17"/>
+      <x:c r="J71" s="27">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K71" s="27" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="I71" s="17"/>
-      <x:c r="J71" s="16"/>
-      <x:c r="K71" s="16"/>
-      <x:c r="L71" s="16"/>
-      <x:c r="M71" s="16"/>
-      <x:c r="N71" s="16"/>
-      <x:c r="O71" s="16"/>
+      <x:c r="L71" s="27" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="M71" s="27" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="N71" s="27" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="O71" s="27" t="s">
+        <x:v>175</x:v>
+      </x:c>
       <x:c r="P71" s="16"/>
     </x:row>
     <x:row r="72" spans="2:16" ht="32.75">
       <x:c r="B72" s="16" t="s">
-        <x:v>100</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C72" s="19">
         <x:v>5</x:v>
@@ -5184,21 +5222,29 @@
       <x:c r="E72" s="19"/>
       <x:c r="F72" s="19"/>
       <x:c r="G72" s="20"/>
-      <x:c r="H72" s="56" t="s">
-        <x:v>32</x:v>
+      <x:c r="H72" s="55" t="s">
+        <x:v>49</x:v>
       </x:c>
       <x:c r="I72" s="17"/>
-      <x:c r="J72" s="16"/>
-      <x:c r="K72" s="16"/>
-      <x:c r="L72" s="16"/>
-      <x:c r="M72" s="16"/>
-      <x:c r="N72" s="16"/>
-      <x:c r="O72" s="16"/>
+      <x:c r="J72" s="2">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K72" s="2" t="s">
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="L72" s="8" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="M72" s="2"/>
+      <x:c r="N72" s="2"/>
+      <x:c r="O72" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="P72" s="16"/>
     </x:row>
     <x:row r="73" spans="2:16" ht="32.75">
       <x:c r="B73" s="16" t="s">
-        <x:v>100</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C73" s="19">
         <x:v>6</x:v>
@@ -5208,104 +5254,148 @@
       <x:c r="F73" s="19"/>
       <x:c r="G73" s="20"/>
       <x:c r="H73" s="30" t="s">
-        <x:v>263</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I73" s="17"/>
-      <x:c r="J73" s="16"/>
-      <x:c r="K73" s="16"/>
-      <x:c r="L73" s="16"/>
-      <x:c r="M73" s="16"/>
-      <x:c r="N73" s="16"/>
-      <x:c r="O73" s="16"/>
+      <x:c r="J73" s="2">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K73" s="2" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="L73" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="M73" s="2"/>
+      <x:c r="N73" s="2"/>
+      <x:c r="O73" s="72" t="s">
+        <x:v>290</x:v>
+      </x:c>
       <x:c r="P73" s="16"/>
     </x:row>
     <x:row r="74" spans="2:16" ht="32.75">
       <x:c r="B74" s="16" t="s">
-        <x:v>100</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C74" s="19">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D74" s="19" t="s">
-        <x:v>67</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E74" s="19" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F74" s="19"/>
       <x:c r="G74" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="H74" s="30" t="s">
-        <x:v>265</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I74" s="17"/>
-      <x:c r="J74" s="16"/>
-      <x:c r="K74" s="16"/>
-      <x:c r="L74" s="16"/>
-      <x:c r="M74" s="16"/>
-      <x:c r="N74" s="16"/>
-      <x:c r="O74" s="16"/>
-      <x:c r="P74" s="16"/>
+      <x:c r="J74" s="19">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="K74" s="19" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="L74" s="19" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="M74" s="19"/>
+      <x:c r="N74" s="19" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="O74" s="71" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="P74" s="34" t="s">
+        <x:v>188</x:v>
+      </x:c>
     </x:row>
     <x:row r="75" spans="2:16" ht="32.75">
       <x:c r="B75" s="16" t="s">
-        <x:v>107</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="C75" s="19">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D75" s="19" t="s">
-        <x:v>54</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="E75" s="19" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F75" s="19"/>
       <x:c r="G75" s="19" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="H75" s="56" t="s">
-        <x:v>85</x:v>
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="H75" s="55" t="s">
+        <x:v>275</x:v>
       </x:c>
       <x:c r="I75" s="17"/>
-      <x:c r="J75" s="16"/>
-      <x:c r="K75" s="16"/>
-      <x:c r="L75" s="16"/>
-      <x:c r="M75" s="16"/>
-      <x:c r="N75" s="16"/>
-      <x:c r="O75" s="16"/>
+      <x:c r="J75" s="26">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="K75" s="21" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="L75" s="21" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="M75" s="21" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="N75" s="21" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="O75" s="21" t="s">
+        <x:v>144</x:v>
+      </x:c>
       <x:c r="P75" s="16"/>
     </x:row>
     <x:row r="76" spans="2:16" ht="32.75">
       <x:c r="B76" s="16" t="s">
-        <x:v>107</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="C76" s="19">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D76" s="20" t="s">
-        <x:v>119</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="E76" s="19" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F76" s="19" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G76" s="20" t="s">
-        <x:v>63</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="H76" s="30" t="s">
-        <x:v>13</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I76" s="17"/>
-      <x:c r="J76" s="16"/>
-      <x:c r="K76" s="16"/>
-      <x:c r="L76" s="16"/>
-      <x:c r="M76" s="16"/>
-      <x:c r="N76" s="16"/>
-      <x:c r="O76" s="54"/>
+      <x:c r="J76" s="26">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="K76" s="24" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="L76" s="21" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="M76" s="21" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="N76" s="24" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="O76" s="24" t="s">
+        <x:v>138</x:v>
+      </x:c>
       <x:c r="P76" s="16"/>
     </x:row>
     <x:row r="77" spans="2:16">
@@ -5314,19 +5404,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D77" s="21" t="s">
-        <x:v>110</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E77" s="21" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F77" s="21" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G77" s="21" t="s">
-        <x:v>15</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H77" s="21" t="s">
-        <x:v>46</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="I77" s="17"/>
       <x:c r="J77" s="16"/>
@@ -5343,19 +5433,19 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D78" s="24" t="s">
-        <x:v>121</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="E78" s="21" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F78" s="21" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G78" s="24" t="s">
-        <x:v>15</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H78" s="24" t="s">
-        <x:v>61</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="I78" s="17"/>
       <x:c r="J78" s="16"/>
@@ -5368,92 +5458,92 @@
     </x:row>
     <x:row r="79" spans="2:16" ht="20.64999999999999857891">
       <x:c r="B79" s="17"/>
-      <x:c r="C79" s="57" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D79" s="58"/>
-      <x:c r="E79" s="59" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="F79" s="60"/>
-      <x:c r="G79" s="60"/>
-      <x:c r="H79" s="61"/>
+      <x:c r="C79" s="56" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="D79" s="57"/>
+      <x:c r="E79" s="58" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="F79" s="59"/>
+      <x:c r="G79" s="59"/>
+      <x:c r="H79" s="60"/>
       <x:c r="I79" s="17"/>
-      <x:c r="J79" s="57" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="K79" s="58"/>
-      <x:c r="L79" s="69" t="s">
-        <x:v>280</x:v>
-      </x:c>
-      <x:c r="M79" s="70"/>
-      <x:c r="N79" s="70"/>
-      <x:c r="O79" s="71"/>
+      <x:c r="J79" s="56" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="K79" s="57"/>
+      <x:c r="L79" s="68" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="M79" s="69"/>
+      <x:c r="N79" s="69"/>
+      <x:c r="O79" s="70"/>
       <x:c r="P79" s="34"/>
     </x:row>
     <x:row r="80" spans="2:16" ht="20.64999999999999857891">
       <x:c r="B80" s="17"/>
-      <x:c r="C80" s="57" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="D80" s="58"/>
-      <x:c r="E80" s="59" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="F80" s="60"/>
-      <x:c r="G80" s="60"/>
-      <x:c r="H80" s="61"/>
+      <x:c r="C80" s="56" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="D80" s="57"/>
+      <x:c r="E80" s="58" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="F80" s="59"/>
+      <x:c r="G80" s="59"/>
+      <x:c r="H80" s="60"/>
       <x:c r="I80" s="17"/>
-      <x:c r="J80" s="57" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="K80" s="58"/>
-      <x:c r="L80" s="59" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="M80" s="60"/>
-      <x:c r="N80" s="60"/>
-      <x:c r="O80" s="61"/>
+      <x:c r="J80" s="56" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="K80" s="57"/>
+      <x:c r="L80" s="58" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="M80" s="59"/>
+      <x:c r="N80" s="59"/>
+      <x:c r="O80" s="60"/>
       <x:c r="P80" s="34"/>
     </x:row>
     <x:row r="81" spans="2:16" ht="17.80000000000000071054">
       <x:c r="B81" s="17"/>
       <x:c r="C81" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D81" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E81" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="F81" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="G81" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="H81" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="I81" s="17"/>
       <x:c r="J81" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="K81" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="L81" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="M81" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="N81" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="O81" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="P81" s="34"/>
     </x:row>
@@ -5463,38 +5553,38 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D82" s="27" t="s">
-        <x:v>70</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E82" s="27" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F82" s="27" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G82" s="27" t="s">
-        <x:v>71</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="H82" s="27" t="s">
-        <x:v>79</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="I82" s="17"/>
       <x:c r="J82" s="27">
         <x:v>1</x:v>
       </x:c>
       <x:c r="K82" s="27" t="s">
-        <x:v>179</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="L82" s="27" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="M82" s="27" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N82" s="27" t="s">
-        <x:v>71</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="O82" s="27" t="s">
-        <x:v>79</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="P82" s="34"/>
     </x:row>
@@ -5504,32 +5594,32 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D83" s="8" t="s">
-        <x:v>195</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E83" s="2" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F83" s="8"/>
       <x:c r="G83" s="8"/>
       <x:c r="H83" s="8" t="s">
-        <x:v>133</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="I83" s="17"/>
       <x:c r="J83" s="2">
         <x:v>2</x:v>
       </x:c>
       <x:c r="K83" s="2" t="s">
-        <x:v>141</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="L83" s="2" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M83" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N83" s="2"/>
       <x:c r="O83" s="2" t="s">
-        <x:v>129</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="P83" s="34"/>
     </x:row>
@@ -5539,32 +5629,32 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D84" s="8" t="s">
-        <x:v>98</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="E84" s="8" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F84" s="8"/>
       <x:c r="G84" s="8"/>
       <x:c r="H84" s="8" t="s">
-        <x:v>9</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="I84" s="17"/>
       <x:c r="J84" s="2">
         <x:v>3</x:v>
       </x:c>
       <x:c r="K84" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="L84" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="M84" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N84" s="2"/>
       <x:c r="O84" s="2" t="s">
-        <x:v>168</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="P84" s="34"/>
     </x:row>
@@ -5574,32 +5664,32 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D85" s="8" t="s">
-        <x:v>163</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E85" s="2" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F85" s="8"/>
       <x:c r="G85" s="8"/>
       <x:c r="H85" s="8" t="s">
-        <x:v>59</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="I85" s="17"/>
       <x:c r="J85" s="2">
         <x:v>4</x:v>
       </x:c>
       <x:c r="K85" s="4" t="s">
-        <x:v>258</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="L85" s="2" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M85" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N85" s="4"/>
       <x:c r="O85" s="4" t="s">
-        <x:v>138</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="P85" s="34"/>
     </x:row>
@@ -5609,32 +5699,32 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D86" s="4" t="s">
-        <x:v>252</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E86" s="8" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F86" s="8"/>
       <x:c r="G86" s="4"/>
       <x:c r="H86" s="29" t="s">
-        <x:v>117</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="I86" s="17"/>
       <x:c r="J86" s="2">
         <x:v>5</x:v>
       </x:c>
       <x:c r="K86" s="2" t="s">
-        <x:v>248</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="L86" s="2" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M86" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N86" s="2"/>
       <x:c r="O86" s="2" t="s">
-        <x:v>176</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="P86" s="34"/>
     </x:row>
@@ -5644,32 +5734,32 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D87" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E87" s="2" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F87" s="8"/>
       <x:c r="G87" s="8"/>
       <x:c r="H87" s="8" t="s">
-        <x:v>183</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="I87" s="17"/>
       <x:c r="J87" s="2">
         <x:v>6</x:v>
       </x:c>
       <x:c r="K87" s="2" t="s">
-        <x:v>172</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="L87" s="2" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M87" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N87" s="2"/>
       <x:c r="O87" s="2" t="s">
-        <x:v>259</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="P87" s="34"/>
     </x:row>
@@ -5679,37 +5769,37 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D88" s="4" t="s">
-        <x:v>177</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E88" s="2" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F88" s="8"/>
       <x:c r="G88" s="4"/>
       <x:c r="H88" s="29" t="s">
-        <x:v>105</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="I88" s="17"/>
       <x:c r="J88" s="19">
         <x:v>7</x:v>
       </x:c>
       <x:c r="K88" s="19" t="s">
-        <x:v>92</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="L88" s="19" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="M88" s="19" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N88" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="O88" s="39" t="s">
-        <x:v>261</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="P88" s="34" t="s">
-        <x:v>134</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="3:16">
@@ -5717,15 +5807,15 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D89" s="8" t="s">
-        <x:v>247</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E89" s="2" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F89" s="8"/>
       <x:c r="G89" s="8"/>
       <x:c r="H89" s="8" t="s">
-        <x:v>31</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I89" s="16"/>
       <x:c r="J89" s="19">
@@ -5736,31 +5826,31 @@
       <x:c r="M89" s="19"/>
       <x:c r="N89" s="20"/>
       <x:c r="O89" s="30" t="s">
-        <x:v>133</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="P89" s="35" t="s">
-        <x:v>48</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="2:16" ht="32.75">
       <x:c r="B90" s="16" t="s">
-        <x:v>57</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="C90" s="19">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D90" s="19" t="s">
-        <x:v>54</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="E90" s="19" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F90" s="19"/>
       <x:c r="G90" s="19" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="H90" s="55" t="s">
-        <x:v>85</x:v>
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="H90" s="54" t="s">
+        <x:v>275</x:v>
       </x:c>
       <x:c r="I90" s="16"/>
       <x:c r="J90" s="19">
@@ -5771,31 +5861,31 @@
       <x:c r="M90" s="19"/>
       <x:c r="N90" s="20"/>
       <x:c r="O90" s="30" t="s">
-        <x:v>9</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="P90" s="35" t="s">
-        <x:v>48</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="2:16" ht="32.75">
       <x:c r="B91" s="16" t="s">
-        <x:v>97</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="C91" s="19">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D91" s="20" t="s">
-        <x:v>77</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="E91" s="19" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F91" s="19"/>
       <x:c r="G91" s="20" t="s">
-        <x:v>63</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="H91" s="36" t="s">
-        <x:v>18</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="I91" s="16"/>
       <x:c r="J91" s="19">
@@ -5806,31 +5896,31 @@
       <x:c r="M91" s="19"/>
       <x:c r="N91" s="20"/>
       <x:c r="O91" s="30" t="s">
-        <x:v>57</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="P91" s="35" t="s">
-        <x:v>48</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="2:16" ht="32.75">
       <x:c r="B92" s="16" t="s">
-        <x:v>182</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="C92" s="19">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D92" s="20" t="s">
-        <x:v>160</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="E92" s="19" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F92" s="19"/>
       <x:c r="G92" s="20" t="s">
-        <x:v>63</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="H92" s="30" t="s">
-        <x:v>243</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="J92" s="19">
         <x:v>11</x:v>
@@ -5840,10 +5930,10 @@
       <x:c r="M92" s="19"/>
       <x:c r="N92" s="19"/>
       <x:c r="O92" s="33" t="s">
-        <x:v>97</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="P92" s="35" t="s">
-        <x:v>48</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="3:16" ht="32.75">
@@ -5851,40 +5941,40 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D93" s="21" t="s">
-        <x:v>110</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E93" s="21" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F93" s="21" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G93" s="21" t="s">
-        <x:v>15</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H93" s="21" t="s">
-        <x:v>46</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="J93" s="19">
         <x:v>12</x:v>
       </x:c>
       <x:c r="K93" s="20" t="s">
-        <x:v>70</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="L93" s="19" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="M93" s="19" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N93" s="20" t="s">
-        <x:v>63</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="O93" s="30" t="s">
-        <x:v>184</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="P93" s="35" t="s">
-        <x:v>48</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="3:16">
@@ -5892,37 +5982,37 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D94" s="24" t="s">
-        <x:v>121</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="E94" s="21" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F94" s="21" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G94" s="24" t="s">
-        <x:v>15</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H94" s="24" t="s">
-        <x:v>61</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="J94" s="21">
         <x:v>13</x:v>
       </x:c>
       <x:c r="K94" s="21" t="s">
-        <x:v>110</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="L94" s="21" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M94" s="21" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N94" s="21" t="s">
-        <x:v>15</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="O94" s="21" t="s">
-        <x:v>46</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="P94" s="34"/>
     </x:row>
@@ -5931,19 +6021,19 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="K95" s="24" t="s">
-        <x:v>121</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="L95" s="21" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M95" s="21" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N95" s="24" t="s">
-        <x:v>15</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="O95" s="24" t="s">
-        <x:v>61</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="P95" s="34"/>
     </x:row>
@@ -5957,16 +6047,16 @@
       <x:c r="P96" s="34"/>
     </x:row>
     <x:row r="97" spans="3:16" ht="20.64999999999999857891">
-      <x:c r="C97" s="57" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D97" s="58"/>
-      <x:c r="E97" s="59" t="s">
-        <x:v>238</x:v>
-      </x:c>
-      <x:c r="F97" s="60"/>
-      <x:c r="G97" s="60"/>
-      <x:c r="H97" s="61"/>
+      <x:c r="C97" s="56" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="D97" s="57"/>
+      <x:c r="E97" s="58" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F97" s="59"/>
+      <x:c r="G97" s="59"/>
+      <x:c r="H97" s="60"/>
       <x:c r="J97" s="16"/>
       <x:c r="K97" s="16"/>
       <x:c r="L97" s="16"/>
@@ -5976,57 +6066,57 @@
       <x:c r="P97" s="34"/>
     </x:row>
     <x:row r="98" spans="3:16" ht="20.64999999999999857891">
-      <x:c r="C98" s="57" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="D98" s="58"/>
-      <x:c r="E98" s="59" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="F98" s="60"/>
-      <x:c r="G98" s="60"/>
-      <x:c r="H98" s="61"/>
-      <x:c r="J98" s="57" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="K98" s="58"/>
-      <x:c r="L98" s="59" t="s">
-        <x:v>282</x:v>
-      </x:c>
-      <x:c r="M98" s="60"/>
-      <x:c r="N98" s="60"/>
-      <x:c r="O98" s="61"/>
+      <x:c r="C98" s="56" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="D98" s="57"/>
+      <x:c r="E98" s="58" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="F98" s="59"/>
+      <x:c r="G98" s="59"/>
+      <x:c r="H98" s="60"/>
+      <x:c r="J98" s="56" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="K98" s="57"/>
+      <x:c r="L98" s="58" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="M98" s="59"/>
+      <x:c r="N98" s="59"/>
+      <x:c r="O98" s="60"/>
       <x:c r="P98" s="34"/>
     </x:row>
     <x:row r="99" spans="3:16" ht="20.64999999999999857891">
       <x:c r="C99" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D99" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E99" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="F99" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="G99" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="H99" s="1" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="J99" s="57" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="K99" s="58"/>
-      <x:c r="L99" s="59" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="M99" s="60"/>
-      <x:c r="N99" s="60"/>
-      <x:c r="O99" s="61"/>
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="J99" s="56" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="K99" s="57"/>
+      <x:c r="L99" s="58" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="M99" s="59"/>
+      <x:c r="N99" s="59"/>
+      <x:c r="O99" s="60"/>
       <x:c r="P99" s="34"/>
     </x:row>
     <x:row r="100" spans="3:16" ht="17.80000000000000071054">
@@ -6034,37 +6124,37 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D100" s="27" t="s">
-        <x:v>92</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="E100" s="27" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F100" s="27" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G100" s="27" t="s">
-        <x:v>71</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="H100" s="27" t="s">
-        <x:v>79</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="J100" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="K100" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="L100" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="M100" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="N100" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="O100" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="P100" s="34"/>
     </x:row>
@@ -6073,33 +6163,33 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D101" s="8" t="s">
-        <x:v>88</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="E101" s="2" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F101" s="8"/>
       <x:c r="G101" s="8"/>
       <x:c r="H101" s="8" t="s">
-        <x:v>200</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="J101" s="27">
         <x:v>1</x:v>
       </x:c>
       <x:c r="K101" s="27" t="s">
-        <x:v>82</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="L101" s="27" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="M101" s="27" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N101" s="27" t="s">
-        <x:v>71</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="O101" s="27" t="s">
-        <x:v>79</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="P101" s="34"/>
     </x:row>
@@ -6108,27 +6198,27 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D102" s="8" t="s">
-        <x:v>95</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="E102" s="8"/>
       <x:c r="F102" s="8"/>
       <x:c r="G102" s="8"/>
       <x:c r="H102" s="8" t="s">
-        <x:v>217</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="J102" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="K102" s="8" t="s">
-        <x:v>86</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="L102" s="8" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="M102" s="8"/>
       <x:c r="N102" s="8"/>
       <x:c r="O102" s="8" t="s">
-        <x:v>87</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="P102" s="34"/>
     </x:row>
@@ -6137,29 +6227,29 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D103" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="E103" s="2" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F103" s="8"/>
       <x:c r="G103" s="4"/>
       <x:c r="H103" s="4" t="s">
-        <x:v>221</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="J103" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="K103" s="8" t="s">
-        <x:v>33</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="L103" s="8" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="M103" s="8"/>
       <x:c r="N103" s="8"/>
       <x:c r="O103" s="8" t="s">
-        <x:v>56</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="P103" s="34"/>
     </x:row>
@@ -6168,73 +6258,73 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D104" s="8" t="s">
-        <x:v>102</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="E104" s="2" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F104" s="8"/>
       <x:c r="G104" s="8"/>
       <x:c r="H104" s="8" t="s">
-        <x:v>253</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="J104" s="8">
         <x:v>4</x:v>
       </x:c>
       <x:c r="K104" s="4" t="s">
-        <x:v>266</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="L104" s="8" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="M104" s="8"/>
       <x:c r="N104" s="4"/>
       <x:c r="O104" s="4" t="s">
-        <x:v>227</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="P104" s="34"/>
     </x:row>
     <x:row r="105" spans="2:16" ht="32.75">
       <x:c r="B105" t="s">
-        <x:v>55</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="C105" s="19">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D105" s="19" t="s">
-        <x:v>70</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E105" s="19" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F105" s="19"/>
       <x:c r="G105" s="19"/>
       <x:c r="H105" s="39" t="s">
-        <x:v>184</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="J105" s="19">
         <x:v>5</x:v>
       </x:c>
       <x:c r="K105" s="19" t="s">
-        <x:v>77</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="L105" s="19" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="M105" s="19"/>
       <x:c r="N105" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="O105" s="39" t="s">
-        <x:v>18</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="P105" s="35" t="s">
-        <x:v>97</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="2:16" ht="32.75">
       <x:c r="B106" t="s">
-        <x:v>97</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="C106" s="19">
         <x:v>7</x:v>
@@ -6244,101 +6334,101 @@
       <x:c r="F106" s="19"/>
       <x:c r="G106" s="19"/>
       <x:c r="H106" s="33" t="s">
-        <x:v>201</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="J106" s="40">
         <x:v>6</x:v>
       </x:c>
       <x:c r="K106" s="40" t="s">
-        <x:v>54</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="L106" s="19" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="M106" s="40"/>
       <x:c r="N106" s="40" t="s">
-        <x:v>63</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="O106" s="41" t="s">
-        <x:v>85</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="P106" s="34" t="s">
-        <x:v>57</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="2:16" ht="32.75">
       <x:c r="B107" s="16" t="s">
-        <x:v>97</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="C107" s="19">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D107" s="19" t="s">
-        <x:v>77</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="E107" s="19" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F107" s="19"/>
       <x:c r="G107" s="19"/>
       <x:c r="H107" s="39" t="s">
-        <x:v>18</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="J107" s="21">
         <x:v>7</x:v>
       </x:c>
       <x:c r="K107" s="21" t="s">
-        <x:v>110</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="L107" s="21" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M107" s="21" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N107" s="21" t="s">
-        <x:v>15</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="O107" s="21" t="s">
-        <x:v>46</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="P107" s="34"/>
     </x:row>
     <x:row r="108" spans="2:16" ht="32.75">
       <x:c r="B108" s="16" t="s">
-        <x:v>57</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="C108" s="40">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D108" s="43" t="s">
-        <x:v>54</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="E108" s="19" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F108" s="40"/>
       <x:c r="G108" s="43"/>
       <x:c r="H108" s="44" t="s">
-        <x:v>85</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="J108" s="21">
         <x:v>8</x:v>
       </x:c>
       <x:c r="K108" s="24" t="s">
-        <x:v>121</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="L108" s="21" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M108" s="21" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N108" s="24" t="s">
-        <x:v>15</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="O108" s="24" t="s">
-        <x:v>61</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="P108" s="34"/>
     </x:row>
@@ -6347,19 +6437,19 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D109" s="21" t="s">
-        <x:v>110</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E109" s="21" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F109" s="21" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G109" s="21" t="s">
-        <x:v>15</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H109" s="21" t="s">
-        <x:v>46</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="J109" s="14"/>
       <x:c r="K109" s="14"/>
@@ -6374,19 +6464,19 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D110" s="24" t="s">
-        <x:v>121</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="E110" s="21" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F110" s="21" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G110" s="24" t="s">
-        <x:v>15</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H110" s="24" t="s">
-        <x:v>61</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="J110" s="47"/>
       <x:c r="K110" s="47"/>
@@ -6403,18 +6493,18 @@
       <x:c r="F111" s="12"/>
       <x:c r="G111" s="6"/>
       <x:c r="H111" s="42"/>
-      <x:c r="J111" s="64" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="K111" s="65"/>
-      <x:c r="L111" s="66" t="s">
-        <x:v>283</x:v>
-      </x:c>
-      <x:c r="M111" s="67"/>
-      <x:c r="N111" s="67"/>
-      <x:c r="O111" s="68"/>
+      <x:c r="J111" s="63" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="K111" s="64"/>
+      <x:c r="L111" s="65" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="M111" s="66"/>
+      <x:c r="N111" s="66"/>
+      <x:c r="O111" s="67"/>
       <x:c r="P111" s="34" t="s">
-        <x:v>223</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="3:16" ht="20.64999999999999857891">
@@ -6424,115 +6514,115 @@
       <x:c r="F112" s="12"/>
       <x:c r="G112" s="12"/>
       <x:c r="H112" s="12"/>
-      <x:c r="J112" s="57" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="K112" s="58"/>
-      <x:c r="L112" s="59" t="s">
-        <x:v>234</x:v>
-      </x:c>
-      <x:c r="M112" s="60"/>
-      <x:c r="N112" s="60"/>
-      <x:c r="O112" s="61"/>
+      <x:c r="J112" s="56" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="K112" s="57"/>
+      <x:c r="L112" s="58" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="M112" s="59"/>
+      <x:c r="N112" s="59"/>
+      <x:c r="O112" s="60"/>
       <x:c r="P112" s="34"/>
     </x:row>
     <x:row r="113" spans="2:16" ht="20.64999999999999857891">
       <x:c r="B113" t="s">
-        <x:v>210</x:v>
-      </x:c>
-      <x:c r="C113" s="57" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D113" s="58"/>
-      <x:c r="E113" s="59" t="s">
-        <x:v>241</x:v>
-      </x:c>
-      <x:c r="F113" s="60"/>
-      <x:c r="G113" s="60"/>
-      <x:c r="H113" s="61"/>
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C113" s="56" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="D113" s="57"/>
+      <x:c r="E113" s="58" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="F113" s="59"/>
+      <x:c r="G113" s="59"/>
+      <x:c r="H113" s="60"/>
       <x:c r="J113" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="K113" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="L113" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="M113" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="N113" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="O113" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="P113" s="34"/>
     </x:row>
     <x:row r="114" spans="3:16" ht="20.64999999999999857891">
-      <x:c r="C114" s="64" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="D114" s="65"/>
-      <x:c r="E114" s="66" t="s">
-        <x:v>229</x:v>
-      </x:c>
-      <x:c r="F114" s="67"/>
-      <x:c r="G114" s="67"/>
-      <x:c r="H114" s="68"/>
+      <x:c r="C114" s="63" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="D114" s="64"/>
+      <x:c r="E114" s="65" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="F114" s="66"/>
+      <x:c r="G114" s="66"/>
+      <x:c r="H114" s="67"/>
       <x:c r="J114" s="27">
         <x:v>1</x:v>
       </x:c>
       <x:c r="K114" s="27" t="s">
-        <x:v>232</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="L114" s="27" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="M114" s="27" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N114" s="27" t="s">
-        <x:v>71</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="O114" s="27" t="s">
-        <x:v>79</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="P114" s="34"/>
     </x:row>
     <x:row r="115" spans="3:16" ht="17.80000000000000071054">
       <x:c r="C115" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D115" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E115" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="F115" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="G115" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="H115" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="J115" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="K115" s="8" t="s">
-        <x:v>237</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="L115" s="8" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="M115" s="8"/>
       <x:c r="N115" s="8"/>
       <x:c r="O115" s="8" t="s">
-        <x:v>273</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="P115" s="34"/>
     </x:row>
@@ -6541,33 +6631,33 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D116" s="27" t="s">
-        <x:v>231</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E116" s="27" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F116" s="27" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G116" s="27" t="s">
-        <x:v>71</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="H116" s="27" t="s">
-        <x:v>79</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="J116" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="K116" s="8" t="s">
-        <x:v>213</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="L116" s="8" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="M116" s="8"/>
       <x:c r="N116" s="8"/>
       <x:c r="O116" s="8" t="s">
-        <x:v>271</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="P116" s="34"/>
     </x:row>
@@ -6576,29 +6666,29 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D117" s="8" t="s">
-        <x:v>189</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E117" s="8" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F117" s="8"/>
       <x:c r="G117" s="8"/>
       <x:c r="H117" s="37" t="s">
-        <x:v>269</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="J117" s="8">
         <x:v>4</x:v>
       </x:c>
       <x:c r="K117" s="4" t="s">
-        <x:v>212</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="L117" s="2" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M117" s="8"/>
       <x:c r="N117" s="4"/>
       <x:c r="O117" s="4" t="s">
-        <x:v>236</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="P117" s="34"/>
     </x:row>
@@ -6607,75 +6697,75 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D118" s="8" t="s">
-        <x:v>264</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E118" s="8" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F118" s="8"/>
       <x:c r="G118" s="8"/>
       <x:c r="H118" s="37" t="s">
-        <x:v>272</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J118" s="8">
         <x:v>5</x:v>
       </x:c>
       <x:c r="K118" s="4" t="s">
-        <x:v>219</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="L118" s="2" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M118" s="8"/>
       <x:c r="N118" s="4"/>
       <x:c r="O118" s="29" t="s">
-        <x:v>267</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="P118" s="34"/>
     </x:row>
     <x:row r="119" spans="2:16" ht="32.75">
       <x:c r="B119" t="s">
-        <x:v>57</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="C119" s="40">
         <x:v>4</x:v>
       </x:c>
       <x:c r="D119" s="40" t="s">
-        <x:v>54</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="E119" s="19" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F119" s="40"/>
       <x:c r="G119" s="40" t="s">
-        <x:v>63</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="H119" s="45" t="s">
-        <x:v>85</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="J119" s="40">
         <x:v>6</x:v>
       </x:c>
       <x:c r="K119" s="40" t="s">
-        <x:v>70</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="L119" s="19" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="M119" s="40"/>
       <x:c r="N119" s="40" t="s">
-        <x:v>63</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="O119" s="45" t="s">
-        <x:v>184</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="P119" s="34" t="s">
-        <x:v>55</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="2:16" ht="32.75">
       <x:c r="B120" s="51" t="s">
-        <x:v>276</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C120" s="18">
         <x:v>5</x:v>
@@ -6685,66 +6775,66 @@
       <x:c r="F120" s="18"/>
       <x:c r="G120" s="18"/>
       <x:c r="H120" s="50" t="s">
-        <x:v>262</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="J120" s="40">
         <x:v>7</x:v>
       </x:c>
       <x:c r="K120" s="40" t="s">
-        <x:v>54</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="L120" s="19" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="M120" s="40"/>
       <x:c r="N120" s="40" t="s">
-        <x:v>63</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="O120" s="41" t="s">
-        <x:v>85</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="P120" s="34" t="s">
-        <x:v>57</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="2:16" ht="32.75">
       <x:c r="B121" s="53" t="s">
-        <x:v>276</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C121" s="18">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D121" s="18" t="s">
-        <x:v>207</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E121" s="18" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F121" s="18"/>
       <x:c r="G121" s="18" t="s">
-        <x:v>63</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="H121" s="52" t="s">
-        <x:v>40</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J121" s="19">
         <x:v>8</x:v>
       </x:c>
       <x:c r="K121" s="19" t="s">
-        <x:v>77</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="L121" s="19" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="M121" s="19"/>
       <x:c r="N121" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="O121" s="33" t="s">
-        <x:v>245</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="P121" s="34" t="s">
-        <x:v>101</x:v>
+        <x:v>246</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="2:16">
@@ -6753,37 +6843,37 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D122" s="21" t="s">
-        <x:v>110</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E122" s="21" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F122" s="21" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G122" s="21" t="s">
-        <x:v>15</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H122" s="21" t="s">
-        <x:v>46</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="J122" s="21">
         <x:v>12</x:v>
       </x:c>
       <x:c r="K122" s="21" t="s">
-        <x:v>110</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="L122" s="21" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M122" s="21" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N122" s="21" t="s">
-        <x:v>15</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="O122" s="21" t="s">
-        <x:v>46</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="P122" s="34"/>
     </x:row>
@@ -6793,37 +6883,37 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D123" s="24" t="s">
-        <x:v>121</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="E123" s="21" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F123" s="21" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G123" s="24" t="s">
-        <x:v>15</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H123" s="24" t="s">
-        <x:v>61</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="J123" s="21">
         <x:v>13</x:v>
       </x:c>
       <x:c r="K123" s="24" t="s">
-        <x:v>121</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="L123" s="21" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M123" s="21" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N123" s="24" t="s">
-        <x:v>15</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="O123" s="24" t="s">
-        <x:v>61</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="P123" s="34"/>
     </x:row>
@@ -6861,93 +6951,93 @@
     </x:row>
     <x:row r="126" spans="2:16" ht="20.64999999999999857891">
       <x:c r="B126" s="16" t="s">
-        <x:v>215</x:v>
-      </x:c>
-      <x:c r="C126" s="64" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D126" s="65"/>
-      <x:c r="E126" s="66" t="s">
-        <x:v>239</x:v>
-      </x:c>
-      <x:c r="F126" s="67"/>
-      <x:c r="G126" s="67"/>
-      <x:c r="H126" s="68"/>
-      <x:c r="J126" s="57" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="K126" s="58"/>
-      <x:c r="L126" s="59" t="s">
-        <x:v>226</x:v>
-      </x:c>
-      <x:c r="M126" s="60"/>
-      <x:c r="N126" s="60"/>
-      <x:c r="O126" s="61"/>
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="C126" s="63" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="D126" s="64"/>
+      <x:c r="E126" s="65" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="F126" s="66"/>
+      <x:c r="G126" s="66"/>
+      <x:c r="H126" s="67"/>
+      <x:c r="J126" s="56" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="K126" s="57"/>
+      <x:c r="L126" s="58" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="M126" s="59"/>
+      <x:c r="N126" s="59"/>
+      <x:c r="O126" s="60"/>
       <x:c r="P126" s="34" t="s">
-        <x:v>224</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="2:16" ht="20.64999999999999857891">
       <x:c r="B127" s="16"/>
-      <x:c r="C127" s="64" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="D127" s="65"/>
-      <x:c r="E127" s="66" t="s">
-        <x:v>275</x:v>
-      </x:c>
-      <x:c r="F127" s="67"/>
-      <x:c r="G127" s="67"/>
-      <x:c r="H127" s="68"/>
-      <x:c r="J127" s="64" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="K127" s="65"/>
-      <x:c r="L127" s="66" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="M127" s="67"/>
-      <x:c r="N127" s="67"/>
-      <x:c r="O127" s="68"/>
+      <x:c r="C127" s="63" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="D127" s="64"/>
+      <x:c r="E127" s="65" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F127" s="66"/>
+      <x:c r="G127" s="66"/>
+      <x:c r="H127" s="67"/>
+      <x:c r="J127" s="63" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="K127" s="64"/>
+      <x:c r="L127" s="65" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="M127" s="66"/>
+      <x:c r="N127" s="66"/>
+      <x:c r="O127" s="67"/>
       <x:c r="P127" s="34"/>
     </x:row>
     <x:row r="128" spans="2:16" ht="17.80000000000000071054">
       <x:c r="B128" s="16"/>
       <x:c r="C128" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D128" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E128" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="F128" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="G128" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="H128" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="J128" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="K128" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="L128" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="M128" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="N128" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="O128" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="P128" s="34"/>
     </x:row>
@@ -6957,37 +7047,37 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D129" s="27" t="s">
-        <x:v>207</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E129" s="27" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F129" s="27" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G129" s="27" t="s">
-        <x:v>71</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="H129" s="27" t="s">
-        <x:v>79</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="J129" s="27">
         <x:v>1</x:v>
       </x:c>
       <x:c r="K129" s="27" t="s">
-        <x:v>67</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="L129" s="27" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="M129" s="27" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N129" s="27" t="s">
-        <x:v>71</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="O129" s="27" t="s">
-        <x:v>79</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="P129" s="34"/>
     </x:row>
@@ -6997,51 +7087,51 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D130" s="8" t="s">
-        <x:v>235</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E130" s="8" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F130" s="8"/>
       <x:c r="G130" s="8"/>
       <x:c r="H130" s="37" t="s">
-        <x:v>262</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="J130" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="K130" s="8" t="s">
-        <x:v>216</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="L130" s="8" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="M130" s="8"/>
       <x:c r="N130" s="8"/>
       <x:c r="O130" s="38" t="s">
-        <x:v>249</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="P130" s="34"/>
     </x:row>
     <x:row r="131" spans="2:16" ht="32.75">
       <x:c r="B131" s="16" t="s">
-        <x:v>97</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="C131" s="19">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D131" s="19" t="s">
-        <x:v>77</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="E131" s="19" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F131" s="19"/>
       <x:c r="G131" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="H131" s="39" t="s">
-        <x:v>18</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="J131" s="19">
         <x:v>3</x:v>
@@ -7051,50 +7141,50 @@
       <x:c r="M131" s="19"/>
       <x:c r="N131" s="19"/>
       <x:c r="O131" s="19" t="s">
-        <x:v>120</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="P131" s="34" t="s">
-        <x:v>57</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="2:16" ht="32.75">
       <x:c r="B132" s="16" t="s">
-        <x:v>57</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="C132" s="19">
         <x:v>4</x:v>
       </x:c>
       <x:c r="D132" s="19" t="s">
-        <x:v>54</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="E132" s="19" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F132" s="19"/>
       <x:c r="G132" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="H132" s="39" t="s">
-        <x:v>85</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="J132" s="19">
         <x:v>4</x:v>
       </x:c>
       <x:c r="K132" s="20" t="s">
-        <x:v>54</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="L132" s="19" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="M132" s="19"/>
       <x:c r="N132" s="20" t="s">
-        <x:v>63</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="O132" s="46" t="s">
-        <x:v>85</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="P132" s="35" t="s">
-        <x:v>57</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="3:16">
@@ -7102,19 +7192,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D133" s="21" t="s">
-        <x:v>110</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E133" s="21" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F133" s="21" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G133" s="21" t="s">
-        <x:v>15</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H133" s="21" t="s">
-        <x:v>46</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="J133" s="19">
         <x:v>5</x:v>
@@ -7124,10 +7214,10 @@
       <x:c r="M133" s="19"/>
       <x:c r="N133" s="20"/>
       <x:c r="O133" s="30" t="s">
-        <x:v>199</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="P133" s="34" t="s">
-        <x:v>60</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="134" spans="3:16" ht="32.75">
@@ -7135,38 +7225,38 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D134" s="24" t="s">
-        <x:v>121</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="E134" s="21" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F134" s="21" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G134" s="24" t="s">
-        <x:v>15</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H134" s="24" t="s">
-        <x:v>61</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="J134" s="19">
         <x:v>6</x:v>
       </x:c>
       <x:c r="K134" s="20" t="s">
-        <x:v>50</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="L134" s="19" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="M134" s="19"/>
       <x:c r="N134" s="20" t="s">
-        <x:v>63</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="O134" s="30" t="s">
-        <x:v>218</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="P134" s="34" t="s">
-        <x:v>60</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="10:16">
@@ -7178,10 +7268,10 @@
       <x:c r="M135" s="19"/>
       <x:c r="N135" s="20"/>
       <x:c r="O135" s="30" t="s">
-        <x:v>187</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="P135" s="34" t="s">
-        <x:v>107</x:v>
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="10:16" ht="32.75">
@@ -7189,33 +7279,33 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="K136" s="20" t="s">
-        <x:v>209</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="L136" s="19" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="M136" s="19"/>
       <x:c r="N136" s="20" t="s">
-        <x:v>63</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="O136" s="46" t="s">
-        <x:v>13</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="P136" s="34" t="s">
-        <x:v>107</x:v>
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="3:16" ht="20.64999999999999857891">
-      <x:c r="C137" s="57" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D137" s="58"/>
-      <x:c r="E137" s="59" t="s">
-        <x:v>277</x:v>
-      </x:c>
-      <x:c r="F137" s="60"/>
-      <x:c r="G137" s="60"/>
-      <x:c r="H137" s="61"/>
+      <x:c r="C137" s="56" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="D137" s="57"/>
+      <x:c r="E137" s="58" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="F137" s="59"/>
+      <x:c r="G137" s="59"/>
+      <x:c r="H137" s="60"/>
       <x:c r="J137" s="16"/>
       <x:c r="K137" s="16"/>
       <x:c r="L137" s="16"/>
@@ -7225,16 +7315,16 @@
       <x:c r="P137" s="34"/>
     </x:row>
     <x:row r="138" spans="3:16" ht="20.64999999999999857891">
-      <x:c r="C138" s="64" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="D138" s="65"/>
-      <x:c r="E138" s="66" t="s">
-        <x:v>186</x:v>
-      </x:c>
-      <x:c r="F138" s="67"/>
-      <x:c r="G138" s="67"/>
-      <x:c r="H138" s="68"/>
+      <x:c r="C138" s="63" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="D138" s="64"/>
+      <x:c r="E138" s="65" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="F138" s="66"/>
+      <x:c r="G138" s="66"/>
+      <x:c r="H138" s="67"/>
       <x:c r="J138" s="16"/>
       <x:c r="K138" s="16"/>
       <x:c r="L138" s="16"/>
@@ -7245,33 +7335,33 @@
     </x:row>
     <x:row r="139" spans="3:16" ht="20.64999999999999857891">
       <x:c r="C139" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D139" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E139" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="F139" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="G139" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="H139" s="1" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="J139" s="57" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="K139" s="58"/>
-      <x:c r="L139" s="59" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="M139" s="60"/>
-      <x:c r="N139" s="60"/>
-      <x:c r="O139" s="61"/>
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="J139" s="56" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="K139" s="57"/>
+      <x:c r="L139" s="58" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="M139" s="59"/>
+      <x:c r="N139" s="59"/>
+      <x:c r="O139" s="60"/>
       <x:c r="P139" s="34"/>
     </x:row>
     <x:row r="140" spans="3:16" ht="20.64999999999999857891">
@@ -7279,30 +7369,30 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D140" s="27" t="s">
-        <x:v>58</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="E140" s="27" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F140" s="27" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G140" s="27" t="s">
-        <x:v>71</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="H140" s="27" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="J140" s="64" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="K140" s="65"/>
-      <x:c r="L140" s="66" t="s">
-        <x:v>191</x:v>
-      </x:c>
-      <x:c r="M140" s="67"/>
-      <x:c r="N140" s="67"/>
-      <x:c r="O140" s="68"/>
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="J140" s="63" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="K140" s="64"/>
+      <x:c r="L140" s="65" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="M140" s="66"/>
+      <x:c r="N140" s="66"/>
+      <x:c r="O140" s="67"/>
       <x:c r="P140" s="34"/>
     </x:row>
     <x:row r="141" spans="3:16" ht="17.80000000000000071054">
@@ -7310,33 +7400,33 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D141" s="8" t="s">
-        <x:v>99</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="E141" s="8" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F141" s="8"/>
       <x:c r="G141" s="8"/>
       <x:c r="H141" s="37" t="s">
-        <x:v>198</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="J141" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="K141" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="L141" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="M141" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="N141" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="O141" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="P141" s="34"/>
     </x:row>
@@ -7345,33 +7435,33 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D142" s="8" t="s">
-        <x:v>206</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E142" s="8" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F142" s="8"/>
       <x:c r="G142" s="8"/>
       <x:c r="H142" s="37" t="s">
-        <x:v>220</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="J142" s="27">
         <x:v>1</x:v>
       </x:c>
       <x:c r="K142" s="27" t="s">
-        <x:v>204</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L142" s="27" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="M142" s="27" t="s">
-        <x:v>25</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N142" s="27" t="s">
-        <x:v>71</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="O142" s="27" t="s">
-        <x:v>79</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="P142" s="34"/>
     </x:row>
@@ -7380,65 +7470,65 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D143" s="8" t="s">
-        <x:v>81</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E143" s="8" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F143" s="8"/>
       <x:c r="G143" s="8"/>
       <x:c r="H143" s="37" t="s">
-        <x:v>214</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="J143" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="K143" s="8" t="s">
-        <x:v>197</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="L143" s="8" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="M143" s="8"/>
       <x:c r="N143" s="8"/>
       <x:c r="O143" s="37" t="s">
-        <x:v>78</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="P143" s="34"/>
     </x:row>
     <x:row r="144" spans="2:16" ht="32.75">
       <x:c r="B144" t="s">
-        <x:v>68</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C144" s="19">
         <x:v>5</x:v>
       </x:c>
       <x:c r="D144" s="19" t="s">
-        <x:v>179</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E144" s="19" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F144" s="19"/>
       <x:c r="G144" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="H144" s="39" t="s">
-        <x:v>230</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="J144" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="K144" s="8" t="s">
-        <x:v>208</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="L144" s="8" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="M144" s="8"/>
       <x:c r="N144" s="8"/>
       <x:c r="O144" s="37" t="s">
-        <x:v>203</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="P144" s="34"/>
     </x:row>
@@ -7447,15 +7537,15 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="K145" s="8" t="s">
-        <x:v>211</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="L145" s="8" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="M145" s="8"/>
       <x:c r="N145" s="8"/>
       <x:c r="O145" s="37" t="s">
-        <x:v>225</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="P145" s="34"/>
     </x:row>
@@ -7464,15 +7554,15 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="K146" s="8" t="s">
-        <x:v>205</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L146" s="8" t="s">
-        <x:v>246</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M146" s="8"/>
       <x:c r="N146" s="8"/>
       <x:c r="O146" s="37" t="s">
-        <x:v>42</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="P146" s="34"/>
     </x:row>
@@ -7481,20 +7571,20 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="K147" s="20" t="s">
-        <x:v>54</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="L147" s="19" t="s">
-        <x:v>122</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="M147" s="19"/>
       <x:c r="N147" s="20" t="s">
-        <x:v>63</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="O147" s="30" t="s">
-        <x:v>85</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="P147" s="35" t="s">
-        <x:v>57</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="16:16">
@@ -7723,7 +7813,7 @@
       <x:c r="P222" s="31"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="80">
+  <x:mergeCells count="84">
     <x:mergeCell ref="C2:D2"/>
     <x:mergeCell ref="E3:H3"/>
     <x:mergeCell ref="E2:H2"/>
@@ -7804,6 +7894,10 @@
     <x:mergeCell ref="L139:O139"/>
     <x:mergeCell ref="J140:K140"/>
     <x:mergeCell ref="L140:O140"/>
+    <x:mergeCell ref="J68:K68"/>
+    <x:mergeCell ref="L68:O68"/>
+    <x:mergeCell ref="J69:K69"/>
+    <x:mergeCell ref="L69:O69"/>
   </x:mergeCells>
   <x:pageMargins left="0.69972223043441772461" right="0.69972223043441772461" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="38" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>

--- a/PNS테이블.xlsx
+++ b/PNS테이블.xlsx
@@ -55,92 +55,577 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="291">
-  <x:si>
-    <x:t>생산량</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="280">
+  <x:si>
+    <x:t>업체 자재 재고
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dppRequireNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조립 구조
+소모 자재 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tsTotalPrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sAddressExtra</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BaseEntity(0)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mComponentType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bComponentType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sBusinessType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ProductionPerDay(3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InventoryStock(5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SupplierStock(4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ProductionPlan(2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DeliveryRequest(6)</x:t>
   </x:si>
   <x:si>
     <x:t>일일 생산량</x:t>
   </x:si>
   <x:si>
+    <x:t>유저 외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>납품지시 코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cSignA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 승인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품 코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>반품 코드</x:t>
+  </x:si>
+  <x:si>
     <x:t>ppdId</x:t>
   </x:si>
   <x:si>
+    <x:t>opCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공급업체 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ipNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>oCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>psId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bom(4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ssId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>psState</x:t>
+  </x:si>
+  <x:si>
+    <x:t>isNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ppid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>반품 상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>납품 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생산 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>isId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Assy(4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진척 검수일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>psDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단위 가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발주서확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>psDgree</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ppState</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재 공급업체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ssNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업체측설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>납품 희망일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자사쪽설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>반품 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계약 단위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진척 검수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입고
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sRegNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cSignB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출고용설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mWeight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재 재고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계약 세액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ppStart</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품 리스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조달 납기일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생산계획</x:t>
+  </x:si>
+  <x:si>
+    <x:t>supId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품 
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>psNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재분류품목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조달 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>납품 지시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uEmail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입고 코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발주 코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조달시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업자등록번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>합격 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ipCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회사 전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예상 납기일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생년월일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cSize</x:t>
+  </x:si>
+  <x:si>
+    <x:t>oDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dppNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mDepth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>키 유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ipId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출고 코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mMinNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재 
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ppNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ipState</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조달 계획</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결함 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dppId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dppCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dppDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회사 주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>반품 물품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계약코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요구 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sPhone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발주서
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회사이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>opState</x:t>
+  </x:si>
+  <x:si>
+    <x:t>oState</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rState</x:t>
+  </x:si>
+  <x:si>
+    <x:t>opANum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>opId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>oNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공급업체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ppCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mHeight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tsId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>drId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ppEnd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mWidth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조립 구조</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발주 상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단위당 가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>drNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>거래 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>협력업체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>거래 명세서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>drState</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Null 여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생산 계획</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cTax</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uPhone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>float</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tsNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RegDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>drCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요구수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sAgree</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ppdDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총 금액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ppId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ModDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ppdNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>drDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재 코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mImageUrl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ipTrueNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bRequireNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ipFalseNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소모되는
+자재의 수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>oRemarks</x:t>
+  </x:si>
+  <x:si>
     <x:t>등록일, 수정일 규격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계약 규격 사이즈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>varchar2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>납품 상태(ENUM)</x:t>
   </x:si>
   <x:si>
     <x:t>조달 계획
 외래키</x:t>
   </x:si>
   <x:si>
-    <x:t>계약 규격 사이즈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소모되는
-자재의 수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mImageUrl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ipTrueNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ipFalseNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bRequireNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>oRemarks</x:t>
-  </x:si>
-  <x:si>
     <x:t>dppState</x:t>
   </x:si>
   <x:si>
-    <x:t>varchar2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>납품 상태(ENUM)</x:t>
+    <x:t>납품 지시
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조립 구조
+자재코드</x:t>
   </x:si>
   <x:si>
     <x:t>mUnitPrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입고 상태(ENUM)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조달 계획 코드</x:t>
   </x:si>
   <x:si>
     <x:t>협력업체
 외래키</x:t>
   </x:si>
   <x:si>
+    <x:t>생산 계획 상태</x:t>
+  </x:si>
+  <x:si>
     <x:t>oTotalPrice</x:t>
   </x:si>
   <x:si>
-    <x:t>생산 계획 상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>납품 지시
-외래키</x:t>
-  </x:si>
-  <x:si>
     <x:t>Supplier(2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업체 자재 재고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업체 자재 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조립 구조
-자재코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>isAvailable</x:t>
   </x:si>
   <x:si>
     <x:t>조립 구조
@@ -156,366 +641,248 @@
     <x:t>OutPut(5)</x:t>
   </x:si>
   <x:si>
+    <x:t>업체 자재 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>isAvailable</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업체 자재 재고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입고 상태(ENUM)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조달 계획 코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생산 계획 코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract(0)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Material(3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Return(8)</x:t>
+  </x:si>
+  <x:si>
     <x:t>전체 가용 재고</x:t>
   </x:si>
   <x:si>
     <x:t>tsUnitPrice</x:t>
   </x:si>
   <x:si>
-    <x:t>생산 계획 코드</x:t>
-  </x:si>
-  <x:si>
     <x:t>진척 검수 차수</x:t>
   </x:si>
   <x:si>
-    <x:t>Material(3)</x:t>
+    <x:t>InPut(7)</x:t>
   </x:si>
   <x:si>
     <x:t>진척 검수 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InPut(7)</x:t>
   </x:si>
   <x:si>
     <x:t>업체 자재
 재고</x:t>
   </x:si>
   <x:si>
-    <x:t>Contract(0)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Return(8)</x:t>
-  </x:si>
-  <x:si>
     <x:t>mLeadTime</x:t>
   </x:si>
   <x:si>
-    <x:t>DeliveryRequest(6)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ProductionPlan(2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SupplierStock(4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InventoryStock(5)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>StockTrail(4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dppRequireNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업체 자재 재고
-외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조립 구조
-소모 자재 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tsTotalPrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mComponentType</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sAddressExtra</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bComponentType</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BaseEntity(0)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sBusinessType</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Order(5)</x:t>
+    <x:t>계약 부품 이름</x:t>
   </x:si>
   <x:si>
     <x:t>사업 취급 종류</x:t>
   </x:si>
   <x:si>
-    <x:t>cMatName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uBirthDay</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userType</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출고 상태(ENUM)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uAddress</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계약 부품 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공급업체(협력회사)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sAddress</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계약 서명(갑)</x:t>
-  </x:si>
-  <x:si>
     <x:t>생산 계획 시작일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사 주소 상세</x:t>
   </x:si>
   <x:si>
     <x:t>공급업체
 외래키</x:t>
   </x:si>
   <x:si>
+    <x:t>회사 주소 상세</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Order(5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공급업체(협력회사)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cMatName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uAddress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출고 상태(ENUM)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uBirthDay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sAddress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계약 서명(갑)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디 및 기본키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cUnitPrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리 매니저 이름</x:t>
+  </x:si>
+  <x:si>
     <x:t>생산 계획 종료일</x:t>
   </x:si>
   <x:si>
-    <x:t>조달 상태(ENUM)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Product(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디 및 기본키</x:t>
+    <x:t>sContract</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sManager</x:t>
   </x:si>
   <x:si>
     <x:t>생산 계획
 외래키</x:t>
   </x:si>
   <x:si>
-    <x:t>sContract</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cUnitPrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sManager</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리 매니저 이름</x:t>
+    <x:t>발주 주문 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계약 서명(을)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최소 공급 수량</x:t>
   </x:si>
   <x:si>
     <x:t>baseEntity</x:t>
   </x:si>
   <x:si>
-    <x:t>발주 주문 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계약 서명(을)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최소 공급 수량</x:t>
+    <x:t>Not Null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품 종류(ENUM)</x:t>
   </x:si>
   <x:si>
     <x:t>oExpectDate</x:t>
   </x:si>
   <x:si>
-    <x:t>Not Null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품 종류(ENUM)</x:t>
+    <x:t>조달 상태(ENUM)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Product(1)</x:t>
   </x:si>
   <x:si>
     <x:t>생산계획코드
 외래키</x:t>
   </x:si>
   <x:si>
-    <x:t>유저 외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>재고 추적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 승인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ipNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>납품지시 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>stStock</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cSignA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>opCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>oCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>반품 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공급업체 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변동 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>stId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>stDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ppState</x:t>
-  </x:si>
-  <x:si>
-    <x:t>isNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입고
-외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>isId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>psId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Assy(4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진척 검수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진척 검수일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자사쪽설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>psDgree</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업체측설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재 공급업체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bom(4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>psDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>납품 희망일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ssNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품
-외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>반품 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계약 단위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ssId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>psState</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단위 가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ppid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>반품 상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>납품 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>stPrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발주서확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>stNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출고용설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>재고 금액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재 재고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>psNum</x:t>
+    <x:t>FK</x:t>
   </x:si>
   <x:si>
     <x:t>수정일</x:t>
   </x:si>
   <x:si>
+    <x:t>생산량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입고</x:t>
+  </x:si>
+  <x:si>
     <x:t>세로</x:t>
   </x:si>
   <x:si>
-    <x:t>FK</x:t>
+    <x:t>등록일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품</x:t>
   </x:si>
   <x:si>
     <x:t>컬럼명</x:t>
   </x:si>
   <x:si>
+    <x:t>무게</x:t>
+  </x:si>
+  <x:si>
     <x:t>aId</x:t>
   </x:si>
   <x:si>
-    <x:t>입고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무게</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품</x:t>
-  </x:si>
-  <x:si>
     <x:t>oId</x:t>
   </x:si>
   <x:si>
-    <x:t>이름</x:t>
+    <x:t>rId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계약일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>높이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발주서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계약서</x:t>
   </x:si>
   <x:si>
     <x:t>주문일</x:t>
@@ -527,426 +894,26 @@
     <x:t>uId</x:t>
   </x:si>
   <x:si>
-    <x:t>높이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발주서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계약일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계약서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>재고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cId</x:t>
-  </x:si>
-  <x:si>
     <x:t>기본키</x:t>
   </x:si>
   <x:si>
+    <x:t>코드</x:t>
+  </x:si>
+  <x:si>
     <x:t>출고</x:t>
   </x:si>
   <x:si>
-    <x:t>코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mWeight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cSignB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sRegNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계약 세액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ppStart</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품 리스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조달 납기일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산계획</x:t>
-  </x:si>
-  <x:si>
-    <x:t>supId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재분류품목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품 
-외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dppNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uEmail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cSize</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입고 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발주 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조달 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ipCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조달시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>납품 지시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업자등록번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>합격 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사 전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예상 납기일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생년월일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>oDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>opANum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출고 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ipId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mMinNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재 
-외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계약코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요구 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>opId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>키 유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ppNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ipState</x:t>
-  </x:si>
-  <x:si>
-    <x:t>oState</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dppCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조달 계획</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sPhone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발주서
-외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사 주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결함 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dppId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dppDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>반품 물품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>opState</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mDepth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rState</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tsId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mWidth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>협력업체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mHeight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요구수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sAgree</x:t>
-  </x:si>
-  <x:si>
-    <x:t>oNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조립 구조</x:t>
-  </x:si>
-  <x:si>
-    <x:t>drId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산 계획</x:t>
-  </x:si>
-  <x:si>
-    <x:t>거래 명세서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>거래 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uPhone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ppEnd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공급업체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>drState</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발주 상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cTax</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RegDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단위당 가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>drNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ppCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Null 여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>float</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tsNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>drCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>drDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재
-외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ppId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ModDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>number</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mType</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총 금액</x:t>
-  </x:si>
-  <x:si>
     <x:t>ProgressInspection(6)</x:t>
   </x:si>
   <x:si>
     <x:t>TradeSpecification(4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DeliveryProcurementPlan(4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ppdDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ProductionPerDay(3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ppdNum</x:t>
   </x:si>
   <x:si>
     <x:t>생산 일자
 (1일차, 2일차 ...)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DeliveryProcurementPlan(4)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1801,6 +1768,32 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1991,32 +1984,6 @@
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -2030,6 +1997,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2112,6 +2080,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2146,6 +2115,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2190,6 +2160,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2233,6 +2204,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2317,6 +2289,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2337,6 +2310,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2367,6 +2341,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2678,8 +2653,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="B1:Y222"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A55" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="J68" activeCellId="0" sqref="J68:O74"/>
+    <x:sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A127" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <x:selection activeCell="N146" activeCellId="0" sqref="N146:N146"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -2702,87 +2677,87 @@
       <x:c r="P1" s="31"/>
     </x:row>
     <x:row r="2" spans="3:16" ht="20.64999999999999857891">
-      <x:c r="C2" s="56" t="s">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="D2" s="57"/>
-      <x:c r="E2" s="58" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="F2" s="59"/>
-      <x:c r="G2" s="59"/>
-      <x:c r="H2" s="60"/>
-      <x:c r="J2" s="56" t="s">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="K2" s="57"/>
-      <x:c r="L2" s="58" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="M2" s="59"/>
-      <x:c r="N2" s="59"/>
-      <x:c r="O2" s="60"/>
+      <x:c r="C2" s="58" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="D2" s="59"/>
+      <x:c r="E2" s="60" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F2" s="61"/>
+      <x:c r="G2" s="61"/>
+      <x:c r="H2" s="62"/>
+      <x:c r="J2" s="58" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="K2" s="59"/>
+      <x:c r="L2" s="60" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="M2" s="61"/>
+      <x:c r="N2" s="61"/>
+      <x:c r="O2" s="62"/>
       <x:c r="P2" s="31"/>
     </x:row>
     <x:row r="3" spans="3:16" ht="20.64999999999999857891">
-      <x:c r="C3" s="56" t="s">
-        <x:v>276</x:v>
-      </x:c>
-      <x:c r="D3" s="57"/>
-      <x:c r="E3" s="58" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F3" s="59"/>
-      <x:c r="G3" s="59"/>
-      <x:c r="H3" s="60"/>
-      <x:c r="J3" s="56" t="s">
-        <x:v>276</x:v>
-      </x:c>
-      <x:c r="K3" s="57"/>
-      <x:c r="L3" s="58" t="s">
-        <x:v>281</x:v>
-      </x:c>
-      <x:c r="M3" s="59"/>
-      <x:c r="N3" s="59"/>
-      <x:c r="O3" s="60"/>
+      <x:c r="C3" s="58" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="D3" s="59"/>
+      <x:c r="E3" s="60" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="F3" s="61"/>
+      <x:c r="G3" s="61"/>
+      <x:c r="H3" s="62"/>
+      <x:c r="J3" s="58" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="K3" s="59"/>
+      <x:c r="L3" s="60" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="M3" s="61"/>
+      <x:c r="N3" s="61"/>
+      <x:c r="O3" s="62"/>
       <x:c r="P3" s="31"/>
     </x:row>
     <x:row r="4" spans="3:16" ht="17.80000000000000071054">
       <x:c r="C4" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="E4" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F4" s="1" t="s">
-        <x:v>269</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="G4" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H4" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="J4" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="K4" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="L4" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="M4" s="1" t="s">
-        <x:v>269</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="N4" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="O4" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="P4" s="31"/>
     </x:row>
@@ -2791,37 +2766,37 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D5" s="21" t="s">
-        <x:v>265</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E5" s="21" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F5" s="21" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G5" s="21" t="s">
-        <x:v>79</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="H5" s="21" t="s">
-        <x:v>144</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="J5" s="27">
         <x:v>1</x:v>
       </x:c>
       <x:c r="K5" s="28" t="s">
-        <x:v>151</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="L5" s="27" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M5" s="27" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N5" s="27" t="s">
-        <x:v>168</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="O5" s="27" t="s">
-        <x:v>73</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="P5" s="31"/>
     </x:row>
@@ -2830,35 +2805,35 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>278</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="E6" s="22" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F6" s="22" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G6" s="24" t="s">
-        <x:v>79</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>138</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="J6" s="2">
         <x:v>2</x:v>
       </x:c>
       <x:c r="K6" s="2" t="s">
-        <x:v>270</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="L6" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M6" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N6" s="2"/>
       <x:c r="O6" s="2" t="s">
-        <x:v>148</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="P6" s="31"/>
     </x:row>
@@ -2873,17 +2848,17 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="K7" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="L7" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M7" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N7" s="2"/>
       <x:c r="O7" s="2" t="s">
-        <x:v>173</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="P7" s="31"/>
       <x:c r="Q7" s="5"/>
@@ -2895,31 +2870,31 @@
       <x:c r="W7" s="5"/>
     </x:row>
     <x:row r="8" spans="3:23" ht="20.64999999999999857891">
-      <x:c r="C8" s="61" t="s">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="D8" s="61"/>
-      <x:c r="E8" s="62" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="F8" s="62"/>
-      <x:c r="G8" s="62"/>
-      <x:c r="H8" s="62"/>
+      <x:c r="C8" s="63" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="D8" s="63"/>
+      <x:c r="E8" s="64" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="F8" s="64"/>
+      <x:c r="G8" s="64"/>
+      <x:c r="H8" s="64"/>
       <x:c r="J8" s="2">
         <x:v>4</x:v>
       </x:c>
       <x:c r="K8" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="L8" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M8" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N8" s="2"/>
       <x:c r="O8" s="2" t="s">
-        <x:v>205</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="P8" s="31"/>
       <x:c r="Q8" s="5"/>
@@ -2931,31 +2906,31 @@
       <x:c r="W8" s="5"/>
     </x:row>
     <x:row r="9" spans="3:23" ht="20.64999999999999857891">
-      <x:c r="C9" s="61" t="s">
-        <x:v>276</x:v>
-      </x:c>
-      <x:c r="D9" s="61"/>
-      <x:c r="E9" s="62" t="s">
-        <x:v>164</x:v>
-      </x:c>
-      <x:c r="F9" s="62"/>
-      <x:c r="G9" s="62"/>
-      <x:c r="H9" s="62"/>
+      <x:c r="C9" s="63" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="D9" s="63"/>
+      <x:c r="E9" s="64" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="F9" s="64"/>
+      <x:c r="G9" s="64"/>
+      <x:c r="H9" s="64"/>
       <x:c r="J9" s="2">
         <x:v>5</x:v>
       </x:c>
       <x:c r="K9" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="L9" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M9" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N9" s="2"/>
       <x:c r="O9" s="2" t="s">
-        <x:v>171</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="P9" s="31"/>
       <x:c r="Q9" s="5"/>
@@ -2968,38 +2943,38 @@
     </x:row>
     <x:row r="10" spans="3:23" ht="17.80000000000000071054">
       <x:c r="C10" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="D10" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="E10" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F10" s="1" t="s">
-        <x:v>269</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="G10" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H10" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="J10" s="2">
         <x:v>6</x:v>
       </x:c>
       <x:c r="K10" s="2" t="s">
-        <x:v>258</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="L10" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M10" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N10" s="2"/>
       <x:c r="O10" s="2" t="s">
-        <x:v>236</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="P10" s="31"/>
       <x:c r="Q10" s="5"/>
@@ -3015,35 +2990,35 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D11" s="27" t="s">
-        <x:v>166</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="E11" s="27" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F11" s="27" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G11" s="27" t="s">
-        <x:v>168</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="H11" s="27" t="s">
-        <x:v>175</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="J11" s="2">
         <x:v>7</x:v>
       </x:c>
       <x:c r="K11" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="L11" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M11" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N11" s="2"/>
       <x:c r="O11" s="2" t="s">
-        <x:v>211</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="P11" s="31"/>
       <x:c r="Q11" s="5"/>
@@ -3059,35 +3034,35 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D12" s="4" t="s">
-        <x:v>195</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E12" s="8" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F12" s="8" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G12" s="4"/>
       <x:c r="H12" s="4" t="s">
-        <x:v>181</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="J12" s="21">
         <x:v>8</x:v>
       </x:c>
       <x:c r="K12" s="21" t="s">
-        <x:v>265</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="L12" s="21" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M12" s="21" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N12" s="21" t="s">
-        <x:v>79</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="O12" s="21" t="s">
-        <x:v>144</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="P12" s="31"/>
       <x:c r="Q12" s="5"/>
@@ -3103,35 +3078,35 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D13" s="7" t="s">
-        <x:v>282</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E13" s="7" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F13" s="8" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G13" s="7"/>
       <x:c r="H13" s="7" t="s">
-        <x:v>190</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J13" s="25">
         <x:v>9</x:v>
       </x:c>
       <x:c r="K13" s="24" t="s">
-        <x:v>278</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="L13" s="21" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M13" s="21" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N13" s="24" t="s">
-        <x:v>79</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="O13" s="24" t="s">
-        <x:v>138</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="P13" s="31"/>
       <x:c r="Q13" s="5"/>
@@ -3147,17 +3122,17 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D14" s="4" t="s">
-        <x:v>259</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E14" s="7" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F14" s="7" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G14" s="4"/>
       <x:c r="H14" s="4" t="s">
-        <x:v>255</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="P14" s="31"/>
       <x:c r="Q14" s="5"/>
@@ -3173,28 +3148,28 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D15" s="4" t="s">
-        <x:v>15</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="E15" s="7" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F15" s="7" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G15" s="4"/>
       <x:c r="H15" s="4" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="J15" s="56" t="s">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="K15" s="57"/>
-      <x:c r="L15" s="58" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="M15" s="59"/>
-      <x:c r="N15" s="59"/>
-      <x:c r="O15" s="60"/>
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="J15" s="58" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="K15" s="59"/>
+      <x:c r="L15" s="60" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="M15" s="61"/>
+      <x:c r="N15" s="61"/>
+      <x:c r="O15" s="62"/>
       <x:c r="P15" s="31"/>
       <x:c r="Q15" s="5"/>
       <x:c r="R15" s="5"/>
@@ -3209,28 +3184,28 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D16" s="4" t="s">
-        <x:v>216</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E16" s="2" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F16" s="7" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G16" s="4"/>
       <x:c r="H16" s="4" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="J16" s="56" t="s">
-        <x:v>276</x:v>
-      </x:c>
-      <x:c r="K16" s="57"/>
-      <x:c r="L16" s="58" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="M16" s="59"/>
-      <x:c r="N16" s="59"/>
-      <x:c r="O16" s="60"/>
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="J16" s="58" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="K16" s="59"/>
+      <x:c r="L16" s="60" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="M16" s="61"/>
+      <x:c r="N16" s="61"/>
+      <x:c r="O16" s="62"/>
       <x:c r="P16" s="31"/>
       <x:c r="Q16" s="5"/>
       <x:c r="R16" s="5"/>
@@ -3245,35 +3220,35 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D17" s="4" t="s">
-        <x:v>7</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="E17" s="7" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F17" s="7" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G17" s="4"/>
       <x:c r="H17" s="4" t="s">
-        <x:v>154</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="J17" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="K17" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="L17" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="M17" s="1" t="s">
-        <x:v>269</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="N17" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="O17" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="P17" s="31"/>
       <x:c r="Q17" s="5"/>
@@ -3289,35 +3264,35 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D18" s="4" t="s">
-        <x:v>240</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E18" s="2" t="s">
-        <x:v>271</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F18" s="7" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G18" s="4"/>
       <x:c r="H18" s="4" t="s">
-        <x:v>152</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="J18" s="27">
         <x:v>1</x:v>
       </x:c>
       <x:c r="K18" s="27" t="s">
-        <x:v>155</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="L18" s="27" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="M18" s="27" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N18" s="27" t="s">
-        <x:v>168</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="O18" s="27" t="s">
-        <x:v>175</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="P18" s="31"/>
       <x:c r="Q18" s="5"/>
@@ -3333,33 +3308,33 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D19" s="4" t="s">
-        <x:v>247</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E19" s="2" t="s">
-        <x:v>271</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G19" s="4"/>
       <x:c r="H19" s="4" t="s">
-        <x:v>139</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="J19" s="2">
         <x:v>2</x:v>
       </x:c>
       <x:c r="K19" s="2" t="s">
-        <x:v>182</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L19" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M19" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N19" s="2"/>
       <x:c r="O19" s="2" t="s">
-        <x:v>206</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="P19" s="31"/>
       <x:c r="Q19" s="5"/>
@@ -3375,33 +3350,33 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D20" s="4" t="s">
-        <x:v>245</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E20" s="2" t="s">
-        <x:v>271</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F20" s="7" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G20" s="4"/>
       <x:c r="H20" s="4" t="s">
-        <x:v>153</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="J20" s="2">
         <x:v>3</x:v>
       </x:c>
       <x:c r="K20" s="2" t="s">
-        <x:v>234</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="L20" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M20" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N20" s="2"/>
       <x:c r="O20" s="2" t="s">
-        <x:v>207</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="P20" s="31"/>
       <x:c r="Q20" s="5"/>
@@ -3417,17 +3392,17 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D21" s="4" t="s">
-        <x:v>178</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E21" s="2" t="s">
-        <x:v>271</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F21" s="7" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G21" s="4"/>
       <x:c r="H21" s="4" t="s">
-        <x:v>145</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="J21" s="8"/>
       <x:c r="K21" s="8"/>
@@ -3451,35 +3426,35 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D22" s="4" t="s">
-        <x:v>41</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="E22" s="7" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F22" s="7" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G22" s="4"/>
       <x:c r="H22" s="4" t="s">
-        <x:v>202</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="J22" s="21">
         <x:v>5</x:v>
       </x:c>
       <x:c r="K22" s="21" t="s">
-        <x:v>265</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="L22" s="21" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M22" s="21" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N22" s="21" t="s">
-        <x:v>79</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="O22" s="21" t="s">
-        <x:v>144</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="P22" s="31"/>
       <x:c r="Q22" s="5"/>
@@ -3497,35 +3472,35 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D23" s="4" t="s">
-        <x:v>51</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E23" s="7" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F23" s="8" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G23" s="4"/>
       <x:c r="H23" s="4" t="s">
-        <x:v>85</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="J23" s="24">
         <x:v>6</x:v>
       </x:c>
       <x:c r="K23" s="24" t="s">
-        <x:v>278</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="L23" s="21" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M23" s="21" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N23" s="24" t="s">
-        <x:v>79</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="O23" s="24" t="s">
-        <x:v>138</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="P23" s="31"/>
       <x:c r="Q23" s="5"/>
@@ -3540,25 +3515,25 @@
     </x:row>
     <x:row r="24" spans="2:25" ht="32.75">
       <x:c r="B24" t="s">
-        <x:v>261</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C24" s="18">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D24" s="20" t="s">
-        <x:v>189</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E24" s="19" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F24" s="18" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G24" s="20" t="s">
-        <x:v>140</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="H24" s="46" t="s">
-        <x:v>69</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="J24" s="14"/>
       <x:c r="K24" s="14"/>
@@ -3582,19 +3557,19 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D25" s="21" t="s">
-        <x:v>265</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E25" s="21" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F25" s="21" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G25" s="21" t="s">
-        <x:v>79</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="H25" s="21" t="s">
-        <x:v>144</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="J25" s="47"/>
       <x:c r="K25" s="47"/>
@@ -3618,30 +3593,30 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D26" s="24" t="s">
-        <x:v>278</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="E26" s="21" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F26" s="21" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G26" s="24" t="s">
-        <x:v>79</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="H26" s="24" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="J26" s="63" t="s">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="K26" s="64"/>
-      <x:c r="L26" s="65" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="M26" s="66"/>
-      <x:c r="N26" s="66"/>
-      <x:c r="O26" s="67"/>
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="J26" s="65" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="K26" s="66"/>
+      <x:c r="L26" s="67" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M26" s="68"/>
+      <x:c r="N26" s="68"/>
+      <x:c r="O26" s="69"/>
       <x:c r="P26" s="34"/>
       <x:c r="Q26" s="5"/>
       <x:c r="R26" s="5"/>
@@ -3660,16 +3635,16 @@
       <x:c r="F27" s="13"/>
       <x:c r="G27" s="13"/>
       <x:c r="H27" s="13"/>
-      <x:c r="J27" s="56" t="s">
-        <x:v>276</x:v>
-      </x:c>
-      <x:c r="K27" s="57"/>
-      <x:c r="L27" s="58" t="s">
-        <x:v>186</x:v>
-      </x:c>
-      <x:c r="M27" s="59"/>
-      <x:c r="N27" s="59"/>
-      <x:c r="O27" s="60"/>
+      <x:c r="J27" s="58" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="K27" s="59"/>
+      <x:c r="L27" s="60" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="M27" s="61"/>
+      <x:c r="N27" s="61"/>
+      <x:c r="O27" s="62"/>
       <x:c r="P27" s="34"/>
       <x:c r="Q27" s="9"/>
       <x:c r="R27" s="9"/>
@@ -3687,22 +3662,22 @@
       <x:c r="G28" s="6"/>
       <x:c r="H28" s="6"/>
       <x:c r="J28" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="K28" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="L28" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="M28" s="1" t="s">
-        <x:v>269</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="N28" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="O28" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="P28" s="34"/>
       <x:c r="Q28" s="9"/>
@@ -3714,33 +3689,33 @@
       <x:c r="W28" s="5"/>
     </x:row>
     <x:row r="29" spans="3:23" ht="20.64999999999999857891">
-      <x:c r="C29" s="61" t="s">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="D29" s="61"/>
-      <x:c r="E29" s="62" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="F29" s="62"/>
-      <x:c r="G29" s="62"/>
-      <x:c r="H29" s="62"/>
+      <x:c r="C29" s="63" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="D29" s="63"/>
+      <x:c r="E29" s="64" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="F29" s="64"/>
+      <x:c r="G29" s="64"/>
+      <x:c r="H29" s="64"/>
       <x:c r="J29" s="27">
         <x:v>1</x:v>
       </x:c>
       <x:c r="K29" s="27" t="s">
-        <x:v>165</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="L29" s="27" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="M29" s="27" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N29" s="27" t="s">
-        <x:v>168</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="O29" s="27" t="s">
-        <x:v>175</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="P29" s="34"/>
       <x:c r="Q29" s="10"/>
@@ -3752,31 +3727,31 @@
       <x:c r="W29" s="5"/>
     </x:row>
     <x:row r="30" spans="3:23" ht="20.64999999999999857891">
-      <x:c r="C30" s="61" t="s">
-        <x:v>276</x:v>
-      </x:c>
-      <x:c r="D30" s="61"/>
-      <x:c r="E30" s="62" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="F30" s="62"/>
-      <x:c r="G30" s="62"/>
-      <x:c r="H30" s="62"/>
+      <x:c r="C30" s="63" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="D30" s="63"/>
+      <x:c r="E30" s="64" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="F30" s="64"/>
+      <x:c r="G30" s="64"/>
+      <x:c r="H30" s="64"/>
       <x:c r="J30" s="2">
         <x:v>2</x:v>
       </x:c>
       <x:c r="K30" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="L30" s="2" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="M30" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N30" s="2"/>
       <x:c r="O30" s="2" t="s">
-        <x:v>248</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="P30" s="34"/>
       <x:c r="Q30" s="9"/>
@@ -3789,38 +3764,38 @@
     </x:row>
     <x:row r="31" spans="3:23" ht="17.80000000000000071054">
       <x:c r="C31" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="E31" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F31" s="1" t="s">
-        <x:v>269</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="G31" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H31" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="J31" s="2">
         <x:v>3</x:v>
       </x:c>
       <x:c r="K31" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="L31" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M31" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N31" s="2"/>
       <x:c r="O31" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="P31" s="34"/>
       <x:c r="Q31" s="9"/>
@@ -3836,40 +3811,40 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D32" s="27" t="s">
-        <x:v>172</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="E32" s="27" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F32" s="27" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G32" s="27" t="s">
-        <x:v>168</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="H32" s="27" t="s">
-        <x:v>175</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="J32" s="19">
         <x:v>4</x:v>
       </x:c>
       <x:c r="K32" s="19" t="s">
-        <x:v>166</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="L32" s="19" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="M32" s="19" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N32" s="19" t="s">
-        <x:v>140</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="O32" s="39" t="s">
-        <x:v>275</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="P32" s="34" t="s">
-        <x:v>164</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="Q32" s="9"/>
       <x:c r="R32" s="9"/>
@@ -3884,38 +3859,38 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D33" s="4" t="s">
-        <x:v>185</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E33" s="8" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F33" s="8" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G33" s="4"/>
       <x:c r="H33" s="4" t="s">
-        <x:v>237</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="J33" s="20">
         <x:v>5</x:v>
       </x:c>
       <x:c r="K33" s="20" t="s">
-        <x:v>155</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="L33" s="19" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="M33" s="19" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N33" s="20" t="s">
-        <x:v>140</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="O33" s="46" t="s">
-        <x:v>120</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="P33" s="34" t="s">
-        <x:v>146</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="Q33" s="5"/>
       <x:c r="R33" s="5"/>
@@ -3930,35 +3905,35 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D34" s="7" t="s">
-        <x:v>180</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E34" s="2" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F34" s="8" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G34" s="7"/>
       <x:c r="H34" s="7" t="s">
-        <x:v>204</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="J34" s="21">
         <x:v>6</x:v>
       </x:c>
       <x:c r="K34" s="21" t="s">
-        <x:v>265</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="L34" s="21" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M34" s="21" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N34" s="21" t="s">
-        <x:v>79</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="O34" s="21" t="s">
-        <x:v>144</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="P34" s="34"/>
       <x:c r="Q34" s="5"/>
@@ -3974,36 +3949,36 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D35" s="4" t="s">
-        <x:v>65</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="E35" s="7" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F35" s="8" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G35" s="4"/>
       <x:c r="H35" s="4" t="s">
-        <x:v>230</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="I35" s="17"/>
       <x:c r="J35" s="24">
         <x:v>7</x:v>
       </x:c>
       <x:c r="K35" s="24" t="s">
-        <x:v>278</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="L35" s="21" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M35" s="21" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N35" s="24" t="s">
-        <x:v>79</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="O35" s="24" t="s">
-        <x:v>138</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="P35" s="34"/>
     </x:row>
@@ -4012,17 +3987,17 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D36" s="4" t="s">
-        <x:v>52</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E36" s="7" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F36" s="7" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G36" s="4"/>
       <x:c r="H36" s="4" t="s">
-        <x:v>68</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="I36" s="17"/>
       <x:c r="J36" s="16"/>
@@ -4038,29 +4013,29 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D37" s="4" t="s">
-        <x:v>77</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="E37" s="7" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F37" s="7" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G37" s="4"/>
       <x:c r="H37" s="4" t="s">
-        <x:v>78</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="I37" s="17"/>
-      <x:c r="J37" s="56" t="s">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="K37" s="57"/>
-      <x:c r="L37" s="58" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="M37" s="59"/>
-      <x:c r="N37" s="59"/>
-      <x:c r="O37" s="60"/>
+      <x:c r="J37" s="58" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="K37" s="59"/>
+      <x:c r="L37" s="60" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="M37" s="61"/>
+      <x:c r="N37" s="61"/>
+      <x:c r="O37" s="62"/>
       <x:c r="P37" s="34"/>
     </x:row>
     <x:row r="38" spans="3:16" ht="20.64999999999999857891">
@@ -4068,29 +4043,29 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D38" s="4" t="s">
-        <x:v>75</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E38" s="7" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F38" s="7" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G38" s="4"/>
       <x:c r="H38" s="4" t="s">
-        <x:v>160</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="I38" s="17"/>
-      <x:c r="J38" s="56" t="s">
-        <x:v>276</x:v>
-      </x:c>
-      <x:c r="K38" s="57"/>
-      <x:c r="L38" s="58" t="s">
+      <x:c r="J38" s="58" t="s">
         <x:v>159</x:v>
       </x:c>
-      <x:c r="M38" s="59"/>
-      <x:c r="N38" s="59"/>
-      <x:c r="O38" s="60"/>
+      <x:c r="K38" s="59"/>
+      <x:c r="L38" s="60" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="M38" s="61"/>
+      <x:c r="N38" s="61"/>
+      <x:c r="O38" s="62"/>
       <x:c r="P38" s="34"/>
     </x:row>
     <x:row r="39" spans="3:16" ht="17.80000000000000071054">
@@ -4098,36 +4073,36 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D39" s="4" t="s">
-        <x:v>55</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E39" s="7" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F39" s="7" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G39" s="4"/>
       <x:c r="H39" s="4" t="s">
-        <x:v>57</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="I39" s="17"/>
       <x:c r="J39" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="K39" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="L39" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="M39" s="1" t="s">
-        <x:v>269</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="N39" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="O39" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="P39" s="34"/>
     </x:row>
@@ -4136,36 +4111,36 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D40" s="4" t="s">
-        <x:v>228</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E40" s="7" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F40" s="7" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G40" s="4"/>
       <x:c r="H40" s="4" t="s">
-        <x:v>209</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="I40" s="17"/>
       <x:c r="J40" s="27">
         <x:v>1</x:v>
       </x:c>
       <x:c r="K40" s="27" t="s">
-        <x:v>174</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="L40" s="27" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="M40" s="27" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N40" s="27" t="s">
-        <x:v>168</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="O40" s="27" t="s">
-        <x:v>175</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="P40" s="34"/>
     </x:row>
@@ -4174,75 +4149,75 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D41" s="4" t="s">
-        <x:v>249</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="E41" s="7" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F41" s="7" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G41" s="4"/>
       <x:c r="H41" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I41" s="17"/>
       <x:c r="J41" s="2">
         <x:v>2</x:v>
       </x:c>
       <x:c r="K41" s="2" t="s">
-        <x:v>241</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="L41" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M41" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N41" s="2"/>
       <x:c r="O41" s="2" t="s">
-        <x:v>218</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="P41" s="34"/>
     </x:row>
     <x:row r="42" spans="2:16">
       <x:c r="B42" t="s">
-        <x:v>281</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="C42" s="18">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D42" s="19" t="s">
-        <x:v>151</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="E42" s="19" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F42" s="19" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G42" s="19" t="s">
-        <x:v>140</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="H42" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I42" s="17"/>
       <x:c r="J42" s="2">
         <x:v>3</x:v>
       </x:c>
       <x:c r="K42" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="L42" s="2" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="M42" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N42" s="2"/>
       <x:c r="O42" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="P42" s="34"/>
     </x:row>
@@ -4251,36 +4226,36 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D43" s="21" t="s">
-        <x:v>265</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E43" s="21" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F43" s="21" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G43" s="21" t="s">
-        <x:v>79</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="H43" s="21" t="s">
-        <x:v>144</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="I43" s="17"/>
       <x:c r="J43" s="2">
         <x:v>4</x:v>
       </x:c>
       <x:c r="K43" s="2" t="s">
-        <x:v>196</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="L43" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M43" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N43" s="2"/>
       <x:c r="O43" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="P43" s="34"/>
     </x:row>
@@ -4289,36 +4264,36 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D44" s="24" t="s">
-        <x:v>278</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="E44" s="21" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F44" s="21" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G44" s="24" t="s">
-        <x:v>79</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="H44" s="24" t="s">
-        <x:v>138</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="I44" s="17"/>
       <x:c r="J44" s="2">
         <x:v>5</x:v>
       </x:c>
       <x:c r="K44" s="4" t="s">
-        <x:v>76</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="L44" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M44" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N44" s="4"/>
       <x:c r="O44" s="4" t="s">
-        <x:v>123</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="P44" s="34"/>
     </x:row>
@@ -4334,17 +4309,17 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="K45" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="L45" s="2" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="M45" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N45" s="2"/>
       <x:c r="O45" s="2" t="s">
-        <x:v>183</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="P45" s="34"/>
     </x:row>
@@ -4360,117 +4335,117 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="K46" s="4" t="s">
-        <x:v>93</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="L46" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M46" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N46" s="4"/>
       <x:c r="O46" s="4" t="s">
-        <x:v>66</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="P46" s="34"/>
     </x:row>
     <x:row r="47" spans="3:16" ht="20.64999999999999857891">
-      <x:c r="C47" s="61" t="s">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="D47" s="61"/>
-      <x:c r="E47" s="62" t="s">
-        <x:v>286</x:v>
-      </x:c>
-      <x:c r="F47" s="62"/>
-      <x:c r="G47" s="62"/>
-      <x:c r="H47" s="62"/>
+      <x:c r="C47" s="63" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="D47" s="63"/>
+      <x:c r="E47" s="64" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="F47" s="64"/>
+      <x:c r="G47" s="64"/>
+      <x:c r="H47" s="64"/>
       <x:c r="I47" s="17"/>
       <x:c r="J47" s="2">
         <x:v>8</x:v>
       </x:c>
       <x:c r="K47" s="4" t="s">
-        <x:v>179</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="L47" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M47" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N47" s="4"/>
       <x:c r="O47" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="P47" s="34"/>
     </x:row>
     <x:row r="48" spans="3:16" ht="20.64999999999999857891">
-      <x:c r="C48" s="61" t="s">
-        <x:v>276</x:v>
-      </x:c>
-      <x:c r="D48" s="61"/>
-      <x:c r="E48" s="62" t="s">
-        <x:v>227</x:v>
-      </x:c>
-      <x:c r="F48" s="62"/>
-      <x:c r="G48" s="62"/>
-      <x:c r="H48" s="62"/>
+      <x:c r="C48" s="63" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="D48" s="63"/>
+      <x:c r="E48" s="64" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F48" s="64"/>
+      <x:c r="G48" s="64"/>
+      <x:c r="H48" s="64"/>
       <x:c r="I48" s="17"/>
       <x:c r="J48" s="2">
         <x:v>9</x:v>
       </x:c>
       <x:c r="K48" s="4" t="s">
-        <x:v>199</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="L48" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M48" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N48" s="4"/>
       <x:c r="O48" s="4" t="s">
-        <x:v>158</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="P48" s="34"/>
     </x:row>
     <x:row r="49" spans="3:16" ht="17.80000000000000071054">
       <x:c r="C49" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="D49" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="E49" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F49" s="1" t="s">
-        <x:v>269</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="G49" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H49" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="I49" s="17"/>
       <x:c r="J49" s="21">
         <x:v>10</x:v>
       </x:c>
       <x:c r="K49" s="21" t="s">
-        <x:v>265</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="L49" s="21" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M49" s="21" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N49" s="21" t="s">
-        <x:v>79</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="O49" s="21" t="s">
-        <x:v>144</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="P49" s="34"/>
     </x:row>
@@ -4479,38 +4454,38 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D50" s="27" t="s">
-        <x:v>233</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E50" s="27" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F50" s="27" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G50" s="27" t="s">
-        <x:v>168</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="H50" s="27" t="s">
-        <x:v>175</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="I50" s="17"/>
       <x:c r="J50" s="21">
         <x:v>11</x:v>
       </x:c>
       <x:c r="K50" s="24" t="s">
-        <x:v>278</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="L50" s="21" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M50" s="21" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N50" s="24" t="s">
-        <x:v>79</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="O50" s="24" t="s">
-        <x:v>138</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="P50" s="34"/>
     </x:row>
@@ -4519,17 +4494,17 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D51" s="4" t="s">
-        <x:v>226</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E51" s="8" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F51" s="8" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G51" s="4"/>
       <x:c r="H51" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="I51" s="17"/>
       <x:c r="J51" s="16"/>
@@ -4545,29 +4520,29 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D52" s="4" t="s">
-        <x:v>47</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E52" s="2" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F52" s="7" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G52" s="4"/>
       <x:c r="H52" s="4" t="s">
-        <x:v>219</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="I52" s="17"/>
-      <x:c r="J52" s="56" t="s">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="K52" s="57"/>
-      <x:c r="L52" s="58" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="M52" s="59"/>
-      <x:c r="N52" s="59"/>
-      <x:c r="O52" s="60"/>
+      <x:c r="J52" s="58" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="K52" s="59"/>
+      <x:c r="L52" s="60" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="M52" s="61"/>
+      <x:c r="N52" s="61"/>
+      <x:c r="O52" s="62"/>
       <x:c r="P52" s="34"/>
     </x:row>
     <x:row r="53" spans="3:16" ht="20.64999999999999857891">
@@ -4575,29 +4550,29 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D53" s="4" t="s">
-        <x:v>192</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E53" s="2" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F53" s="7" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G53" s="4"/>
       <x:c r="H53" s="4" t="s">
-        <x:v>200</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I53" s="17"/>
-      <x:c r="J53" s="56" t="s">
-        <x:v>276</x:v>
-      </x:c>
-      <x:c r="K53" s="57"/>
-      <x:c r="L53" s="58" t="s">
-        <x:v>253</x:v>
-      </x:c>
-      <x:c r="M53" s="59"/>
-      <x:c r="N53" s="59"/>
-      <x:c r="O53" s="60"/>
+      <x:c r="J53" s="58" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="K53" s="59"/>
+      <x:c r="L53" s="60" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="M53" s="61"/>
+      <x:c r="N53" s="61"/>
+      <x:c r="O53" s="62"/>
       <x:c r="P53" s="34"/>
     </x:row>
     <x:row r="54" spans="3:16" ht="17.80000000000000071054">
@@ -4605,36 +4580,36 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D54" s="4" t="s">
-        <x:v>235</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E54" s="7" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F54" s="7" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G54" s="4"/>
       <x:c r="H54" s="4" t="s">
-        <x:v>187</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="I54" s="17"/>
       <x:c r="J54" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="K54" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="L54" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="M54" s="1" t="s">
-        <x:v>269</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="N54" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="O54" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="P54" s="34"/>
     </x:row>
@@ -4643,42 +4618,42 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D55" s="4" t="s">
-        <x:v>12</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="E55" s="7" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F55" s="7" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G55" s="4"/>
       <x:c r="H55" s="29" t="s">
-        <x:v>71</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="I55" s="17"/>
       <x:c r="J55" s="27">
         <x:v>1</x:v>
       </x:c>
       <x:c r="K55" s="27" t="s">
-        <x:v>277</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="L55" s="27" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="M55" s="27" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N55" s="27" t="s">
-        <x:v>168</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="O55" s="27" t="s">
-        <x:v>175</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="P55" s="34"/>
     </x:row>
     <x:row r="56" spans="2:16">
       <x:c r="B56" s="16" t="s">
-        <x:v>188</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C56" s="19">
         <x:v>7</x:v>
@@ -4688,71 +4663,71 @@
       <x:c r="F56" s="18"/>
       <x:c r="G56" s="20"/>
       <x:c r="H56" s="30" t="s">
-        <x:v>146</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="I56" s="17"/>
       <x:c r="J56" s="2">
         <x:v>2</x:v>
       </x:c>
       <x:c r="K56" s="2" t="s">
-        <x:v>268</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="L56" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M56" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N56" s="2"/>
       <x:c r="O56" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="P56" s="34"/>
     </x:row>
     <x:row r="57" spans="2:16" ht="32.75">
       <x:c r="B57" t="s">
-        <x:v>188</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C57" s="19">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D57" s="20" t="s">
-        <x:v>277</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="E57" s="19" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F57" s="19" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G57" s="20" t="s">
-        <x:v>140</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="H57" s="33" t="s">
-        <x:v>86</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="I57" s="17"/>
       <x:c r="J57" s="2">
         <x:v>3</x:v>
       </x:c>
       <x:c r="K57" s="2" t="s">
-        <x:v>222</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L57" s="2" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="M57" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N57" s="2"/>
       <x:c r="O57" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="P57" s="34"/>
     </x:row>
     <x:row r="58" spans="2:16">
       <x:c r="B58" t="s">
-        <x:v>164</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="C58" s="19">
         <x:v>9</x:v>
@@ -4762,30 +4737,30 @@
       <x:c r="F58" s="18"/>
       <x:c r="G58" s="20"/>
       <x:c r="H58" s="30" t="s">
-        <x:v>280</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="I58" s="17"/>
       <x:c r="J58" s="2">
         <x:v>4</x:v>
       </x:c>
       <x:c r="K58" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="L58" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M58" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N58" s="2"/>
       <x:c r="O58" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="P58" s="34"/>
     </x:row>
     <x:row r="59" spans="2:16">
       <x:c r="B59" t="s">
-        <x:v>164</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="C59" s="19">
         <x:v>10</x:v>
@@ -4795,30 +4770,30 @@
       <x:c r="F59" s="18"/>
       <x:c r="G59" s="20"/>
       <x:c r="H59" s="20" t="s">
-        <x:v>225</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="I59" s="17"/>
       <x:c r="J59" s="2">
         <x:v>5</x:v>
       </x:c>
       <x:c r="K59" s="4" t="s">
-        <x:v>184</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="L59" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M59" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N59" s="4"/>
       <x:c r="O59" s="4" t="s">
-        <x:v>67</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="P59" s="34"/>
     </x:row>
     <x:row r="60" spans="2:16">
       <x:c r="B60" s="16" t="s">
-        <x:v>164</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="C60" s="19">
         <x:v>11</x:v>
@@ -4828,48 +4803,48 @@
       <x:c r="F60" s="18"/>
       <x:c r="G60" s="20"/>
       <x:c r="H60" s="30" t="s">
-        <x:v>115</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I60" s="17"/>
       <x:c r="J60" s="2">
         <x:v>6</x:v>
       </x:c>
       <x:c r="K60" s="2" t="s">
-        <x:v>260</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="L60" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M60" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N60" s="2"/>
       <x:c r="O60" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="P60" s="34"/>
     </x:row>
     <x:row r="61" spans="2:16" ht="32.75">
       <x:c r="B61" s="16" t="s">
-        <x:v>164</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="C61" s="19">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D61" s="20" t="s">
-        <x:v>166</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="E61" s="19" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F61" s="18" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G61" s="20" t="s">
-        <x:v>140</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="H61" s="36" t="s">
-        <x:v>217</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I61" s="17"/>
       <x:c r="J61" s="19">
@@ -4880,10 +4855,10 @@
       <x:c r="M61" s="19"/>
       <x:c r="N61" s="20"/>
       <x:c r="O61" s="30" t="s">
-        <x:v>148</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="P61" s="35" t="s">
-        <x:v>146</x:v>
+        <x:v>244</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="2:16">
@@ -4892,19 +4867,19 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D62" s="21" t="s">
-        <x:v>265</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E62" s="21" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F62" s="21" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G62" s="21" t="s">
-        <x:v>79</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="H62" s="21" t="s">
-        <x:v>144</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="I62" s="17"/>
       <x:c r="J62" s="19">
@@ -4915,10 +4890,10 @@
       <x:c r="M62" s="19"/>
       <x:c r="N62" s="20"/>
       <x:c r="O62" s="30" t="s">
-        <x:v>177</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="P62" s="34" t="s">
-        <x:v>146</x:v>
+        <x:v>244</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="2:16" ht="32.75">
@@ -4927,41 +4902,41 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D63" s="24" t="s">
-        <x:v>278</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="E63" s="21" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F63" s="21" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G63" s="24" t="s">
-        <x:v>79</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="H63" s="24" t="s">
-        <x:v>138</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="I63" s="17"/>
       <x:c r="J63" s="19">
         <x:v>9</x:v>
       </x:c>
       <x:c r="K63" s="20" t="s">
-        <x:v>155</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="L63" s="19" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="M63" s="19" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N63" s="20" t="s">
-        <x:v>140</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="O63" s="30" t="s">
-        <x:v>191</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="P63" s="34" t="s">
-        <x:v>146</x:v>
+        <x:v>244</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="2:16">
@@ -4977,66 +4952,66 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="K64" s="21" t="s">
-        <x:v>265</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="L64" s="21" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M64" s="21" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N64" s="21" t="s">
-        <x:v>79</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="O64" s="21" t="s">
-        <x:v>144</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="P64" s="34"/>
     </x:row>
     <x:row r="65" spans="3:16" ht="20.64999999999999857891">
-      <x:c r="C65" s="56" t="s">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="D65" s="57"/>
-      <x:c r="E65" s="58" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="F65" s="59"/>
-      <x:c r="G65" s="59"/>
-      <x:c r="H65" s="60"/>
+      <x:c r="C65" s="58" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="D65" s="59"/>
+      <x:c r="E65" s="60" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="F65" s="61"/>
+      <x:c r="G65" s="61"/>
+      <x:c r="H65" s="62"/>
       <x:c r="I65" s="17"/>
       <x:c r="J65" s="21">
         <x:v>11</x:v>
       </x:c>
       <x:c r="K65" s="24" t="s">
-        <x:v>278</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="L65" s="21" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M65" s="21" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N65" s="24" t="s">
-        <x:v>79</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="O65" s="24" t="s">
-        <x:v>138</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="P65" s="34"/>
     </x:row>
     <x:row r="66" spans="2:16" ht="20.64999999999999857891">
       <x:c r="B66" s="17"/>
-      <x:c r="C66" s="56" t="s">
-        <x:v>276</x:v>
-      </x:c>
-      <x:c r="D66" s="57"/>
-      <x:c r="E66" s="58" t="s">
-        <x:v>176</x:v>
-      </x:c>
-      <x:c r="F66" s="59"/>
-      <x:c r="G66" s="59"/>
-      <x:c r="H66" s="60"/>
+      <x:c r="C66" s="58" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="D66" s="59"/>
+      <x:c r="E66" s="60" t="s">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="F66" s="61"/>
+      <x:c r="G66" s="61"/>
+      <x:c r="H66" s="62"/>
       <x:c r="I66" s="17"/>
       <x:c r="J66" s="10"/>
       <x:c r="K66" s="6"/>
@@ -5049,22 +5024,22 @@
     <x:row r="67" spans="2:16" ht="20.64999999999999857891">
       <x:c r="B67" s="17"/>
       <x:c r="C67" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="D67" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="E67" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F67" s="1" t="s">
-        <x:v>269</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="G67" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H67" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="I67" s="17"/>
       <x:c r="J67" s="14"/>
@@ -5081,31 +5056,31 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D68" s="27" t="s">
-        <x:v>220</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E68" s="27" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F68" s="27" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G68" s="27" t="s">
-        <x:v>168</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="H68" s="27" t="s">
-        <x:v>175</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="I68" s="17"/>
-      <x:c r="J68" s="56" t="s">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="K68" s="57"/>
-      <x:c r="L68" s="58" t="s">
-        <x:v>288</x:v>
-      </x:c>
-      <x:c r="M68" s="59"/>
-      <x:c r="N68" s="59"/>
-      <x:c r="O68" s="60"/>
+      <x:c r="J68" s="58" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="K68" s="59"/>
+      <x:c r="L68" s="60" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="M68" s="61"/>
+      <x:c r="N68" s="61"/>
+      <x:c r="O68" s="62"/>
       <x:c r="P68" s="16"/>
     </x:row>
     <x:row r="69" spans="2:16" ht="20.64999999999999857891">
@@ -5114,27 +5089,27 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D69" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E69" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F69" s="2"/>
       <x:c r="G69" s="2"/>
       <x:c r="H69" s="2" t="s">
-        <x:v>214</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="I69" s="17"/>
-      <x:c r="J69" s="56" t="s">
-        <x:v>276</x:v>
-      </x:c>
-      <x:c r="K69" s="57"/>
-      <x:c r="L69" s="58" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M69" s="59"/>
-      <x:c r="N69" s="59"/>
-      <x:c r="O69" s="60"/>
+      <x:c r="J69" s="58" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="K69" s="59"/>
+      <x:c r="L69" s="60" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="M69" s="61"/>
+      <x:c r="N69" s="61"/>
+      <x:c r="O69" s="62"/>
       <x:c r="P69" s="16"/>
     </x:row>
     <x:row r="70" spans="2:16" ht="17.80000000000000071054">
@@ -5143,34 +5118,34 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D70" s="2" t="s">
-        <x:v>213</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E70" s="8" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F70" s="2"/>
       <x:c r="G70" s="2"/>
       <x:c r="H70" s="2" t="s">
-        <x:v>219</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="I70" s="17"/>
       <x:c r="J70" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="K70" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="L70" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="M70" s="1" t="s">
-        <x:v>269</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="N70" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="O70" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="P70" s="16"/>
     </x:row>
@@ -5180,40 +5155,40 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D71" s="2" t="s">
-        <x:v>239</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E71" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F71" s="2"/>
       <x:c r="G71" s="2"/>
       <x:c r="H71" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="I71" s="17"/>
       <x:c r="J71" s="27">
         <x:v>1</x:v>
       </x:c>
       <x:c r="K71" s="27" t="s">
-        <x:v>2</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="L71" s="27" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="M71" s="27" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N71" s="27" t="s">
-        <x:v>168</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="O71" s="27" t="s">
-        <x:v>175</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="P71" s="16"/>
     </x:row>
     <x:row r="72" spans="2:16" ht="32.75">
       <x:c r="B72" s="16" t="s">
-        <x:v>251</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C72" s="19">
         <x:v>5</x:v>
@@ -5223,28 +5198,28 @@
       <x:c r="F72" s="19"/>
       <x:c r="G72" s="20"/>
       <x:c r="H72" s="55" t="s">
-        <x:v>49</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I72" s="17"/>
       <x:c r="J72" s="2">
         <x:v>2</x:v>
       </x:c>
       <x:c r="K72" s="2" t="s">
-        <x:v>289</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="L72" s="8" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="M72" s="2"/>
       <x:c r="N72" s="2"/>
       <x:c r="O72" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="P72" s="16"/>
     </x:row>
     <x:row r="73" spans="2:16" ht="32.75">
       <x:c r="B73" s="16" t="s">
-        <x:v>251</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C73" s="19">
         <x:v>6</x:v>
@@ -5254,147 +5229,147 @@
       <x:c r="F73" s="19"/>
       <x:c r="G73" s="20"/>
       <x:c r="H73" s="30" t="s">
-        <x:v>25</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="I73" s="17"/>
       <x:c r="J73" s="2">
         <x:v>3</x:v>
       </x:c>
       <x:c r="K73" s="2" t="s">
-        <x:v>287</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="L73" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M73" s="2"/>
       <x:c r="N73" s="2"/>
-      <x:c r="O73" s="72" t="s">
-        <x:v>290</x:v>
+      <x:c r="O73" s="57" t="s">
+        <x:v>278</x:v>
       </x:c>
       <x:c r="P73" s="16"/>
     </x:row>
     <x:row r="74" spans="2:16" ht="32.75">
       <x:c r="B74" s="16" t="s">
-        <x:v>251</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C74" s="19">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D74" s="19" t="s">
-        <x:v>142</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="E74" s="19" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F74" s="19"/>
       <x:c r="G74" s="19" t="s">
-        <x:v>140</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="H74" s="30" t="s">
-        <x:v>27</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="I74" s="17"/>
       <x:c r="J74" s="19">
         <x:v>4</x:v>
       </x:c>
       <x:c r="K74" s="19" t="s">
-        <x:v>277</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="L74" s="19" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="M74" s="19"/>
       <x:c r="N74" s="19" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="O74" s="71" t="s">
-        <x:v>74</x:v>
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="O74" s="56" t="s">
+        <x:v>226</x:v>
       </x:c>
       <x:c r="P74" s="34" t="s">
-        <x:v>188</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="2:16" ht="32.75">
       <x:c r="B75" s="16" t="s">
-        <x:v>253</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C75" s="19">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D75" s="19" t="s">
-        <x:v>166</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="E75" s="19" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F75" s="19"/>
       <x:c r="G75" s="19" t="s">
-        <x:v>140</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="H75" s="55" t="s">
-        <x:v>275</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="I75" s="17"/>
       <x:c r="J75" s="26">
         <x:v>5</x:v>
       </x:c>
       <x:c r="K75" s="21" t="s">
-        <x:v>265</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="L75" s="21" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M75" s="21" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N75" s="21" t="s">
-        <x:v>79</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="O75" s="21" t="s">
-        <x:v>144</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="P75" s="16"/>
     </x:row>
     <x:row r="76" spans="2:16" ht="32.75">
       <x:c r="B76" s="16" t="s">
-        <x:v>253</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C76" s="19">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D76" s="20" t="s">
-        <x:v>277</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="E76" s="19" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F76" s="19" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G76" s="20" t="s">
-        <x:v>140</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="H76" s="30" t="s">
-        <x:v>74</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="I76" s="17"/>
       <x:c r="J76" s="26">
         <x:v>6</x:v>
       </x:c>
       <x:c r="K76" s="24" t="s">
-        <x:v>278</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="L76" s="21" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M76" s="21" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N76" s="24" t="s">
-        <x:v>79</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="O76" s="24" t="s">
-        <x:v>138</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="P76" s="16"/>
     </x:row>
@@ -5404,19 +5379,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D77" s="21" t="s">
-        <x:v>265</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E77" s="21" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F77" s="21" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G77" s="21" t="s">
-        <x:v>79</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="H77" s="21" t="s">
-        <x:v>144</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="I77" s="17"/>
       <x:c r="J77" s="16"/>
@@ -5433,19 +5408,19 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D78" s="24" t="s">
-        <x:v>278</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="E78" s="21" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F78" s="21" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G78" s="24" t="s">
-        <x:v>79</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="H78" s="24" t="s">
-        <x:v>138</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="I78" s="17"/>
       <x:c r="J78" s="16"/>
@@ -5458,92 +5433,92 @@
     </x:row>
     <x:row r="79" spans="2:16" ht="20.64999999999999857891">
       <x:c r="B79" s="17"/>
-      <x:c r="C79" s="56" t="s">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="D79" s="57"/>
-      <x:c r="E79" s="58" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="F79" s="59"/>
-      <x:c r="G79" s="59"/>
-      <x:c r="H79" s="60"/>
+      <x:c r="C79" s="58" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="D79" s="59"/>
+      <x:c r="E79" s="60" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="F79" s="61"/>
+      <x:c r="G79" s="61"/>
+      <x:c r="H79" s="62"/>
       <x:c r="I79" s="17"/>
-      <x:c r="J79" s="56" t="s">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="K79" s="57"/>
-      <x:c r="L79" s="68" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="M79" s="69"/>
-      <x:c r="N79" s="69"/>
-      <x:c r="O79" s="70"/>
+      <x:c r="J79" s="58" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="K79" s="59"/>
+      <x:c r="L79" s="70" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="M79" s="71"/>
+      <x:c r="N79" s="71"/>
+      <x:c r="O79" s="72"/>
       <x:c r="P79" s="34"/>
     </x:row>
     <x:row r="80" spans="2:16" ht="20.64999999999999857891">
       <x:c r="B80" s="17"/>
-      <x:c r="C80" s="56" t="s">
-        <x:v>276</x:v>
-      </x:c>
-      <x:c r="D80" s="57"/>
-      <x:c r="E80" s="58" t="s">
-        <x:v>156</x:v>
-      </x:c>
-      <x:c r="F80" s="59"/>
-      <x:c r="G80" s="59"/>
-      <x:c r="H80" s="60"/>
+      <x:c r="C80" s="58" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="D80" s="59"/>
+      <x:c r="E80" s="60" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="F80" s="61"/>
+      <x:c r="G80" s="61"/>
+      <x:c r="H80" s="62"/>
       <x:c r="I80" s="17"/>
-      <x:c r="J80" s="56" t="s">
-        <x:v>276</x:v>
-      </x:c>
-      <x:c r="K80" s="57"/>
-      <x:c r="L80" s="58" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="M80" s="59"/>
-      <x:c r="N80" s="59"/>
-      <x:c r="O80" s="60"/>
+      <x:c r="J80" s="58" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="K80" s="59"/>
+      <x:c r="L80" s="60" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="M80" s="61"/>
+      <x:c r="N80" s="61"/>
+      <x:c r="O80" s="62"/>
       <x:c r="P80" s="34"/>
     </x:row>
     <x:row r="81" spans="2:16" ht="17.80000000000000071054">
       <x:c r="B81" s="17"/>
       <x:c r="C81" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="D81" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="E81" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F81" s="1" t="s">
-        <x:v>269</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="G81" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H81" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="I81" s="17"/>
       <x:c r="J81" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="K81" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="L81" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="M81" s="1" t="s">
-        <x:v>269</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="N81" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="O81" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="P81" s="34"/>
     </x:row>
@@ -5553,38 +5528,38 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D82" s="27" t="s">
-        <x:v>147</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="E82" s="27" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F82" s="27" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G82" s="27" t="s">
-        <x:v>168</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="H82" s="27" t="s">
-        <x:v>175</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="I82" s="17"/>
       <x:c r="J82" s="27">
         <x:v>1</x:v>
       </x:c>
       <x:c r="K82" s="27" t="s">
-        <x:v>215</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="L82" s="27" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="M82" s="27" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N82" s="27" t="s">
-        <x:v>168</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="O82" s="27" t="s">
-        <x:v>175</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="P82" s="34"/>
     </x:row>
@@ -5594,32 +5569,32 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D83" s="8" t="s">
-        <x:v>95</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E83" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F83" s="8"/>
       <x:c r="G83" s="8"/>
       <x:c r="H83" s="8" t="s">
-        <x:v>198</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I83" s="17"/>
       <x:c r="J83" s="2">
         <x:v>2</x:v>
       </x:c>
       <x:c r="K83" s="2" t="s">
-        <x:v>201</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="L83" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M83" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N83" s="2"/>
       <x:c r="O83" s="2" t="s">
-        <x:v>197</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="P83" s="34"/>
     </x:row>
@@ -5629,32 +5604,32 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D84" s="8" t="s">
-        <x:v>250</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E84" s="8" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F84" s="8"/>
       <x:c r="G84" s="8"/>
       <x:c r="H84" s="8" t="s">
-        <x:v>80</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="I84" s="17"/>
       <x:c r="J84" s="2">
         <x:v>3</x:v>
       </x:c>
       <x:c r="K84" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="L84" s="2" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="M84" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N84" s="2"/>
       <x:c r="O84" s="2" t="s">
-        <x:v>231</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="P84" s="34"/>
     </x:row>
@@ -5664,32 +5639,32 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D85" s="8" t="s">
-        <x:v>212</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E85" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F85" s="8"/>
       <x:c r="G85" s="8"/>
       <x:c r="H85" s="8" t="s">
-        <x:v>149</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="I85" s="17"/>
       <x:c r="J85" s="2">
         <x:v>4</x:v>
       </x:c>
       <x:c r="K85" s="4" t="s">
-        <x:v>8</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="L85" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M85" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N85" s="4"/>
       <x:c r="O85" s="4" t="s">
-        <x:v>208</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="P85" s="34"/>
     </x:row>
@@ -5699,32 +5674,32 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D86" s="4" t="s">
-        <x:v>19</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="E86" s="8" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F86" s="8"/>
       <x:c r="G86" s="4"/>
       <x:c r="H86" s="29" t="s">
-        <x:v>283</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="I86" s="17"/>
       <x:c r="J86" s="2">
         <x:v>5</x:v>
       </x:c>
       <x:c r="K86" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="L86" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M86" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N86" s="2"/>
       <x:c r="O86" s="2" t="s">
-        <x:v>232</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="P86" s="34"/>
     </x:row>
@@ -5734,32 +5709,32 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D87" s="8" t="s">
-        <x:v>83</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="E87" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F87" s="8"/>
       <x:c r="G87" s="8"/>
       <x:c r="H87" s="8" t="s">
-        <x:v>210</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I87" s="17"/>
       <x:c r="J87" s="2">
         <x:v>6</x:v>
       </x:c>
       <x:c r="K87" s="2" t="s">
-        <x:v>223</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="L87" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M87" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N87" s="2"/>
       <x:c r="O87" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="P87" s="34"/>
     </x:row>
@@ -5769,37 +5744,37 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D88" s="4" t="s">
-        <x:v>224</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E88" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F88" s="8"/>
       <x:c r="G88" s="4"/>
       <x:c r="H88" s="29" t="s">
-        <x:v>263</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I88" s="17"/>
       <x:c r="J88" s="19">
         <x:v>7</x:v>
       </x:c>
       <x:c r="K88" s="19" t="s">
-        <x:v>252</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="L88" s="19" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="M88" s="19" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N88" s="19" t="s">
-        <x:v>140</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="O88" s="39" t="s">
-        <x:v>21</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="P88" s="34" t="s">
-        <x:v>203</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="3:16">
@@ -5807,15 +5782,15 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D89" s="8" t="s">
-        <x:v>11</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="E89" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F89" s="8"/>
       <x:c r="G89" s="8"/>
       <x:c r="H89" s="8" t="s">
-        <x:v>163</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="I89" s="16"/>
       <x:c r="J89" s="19">
@@ -5826,31 +5801,31 @@
       <x:c r="M89" s="19"/>
       <x:c r="N89" s="20"/>
       <x:c r="O89" s="30" t="s">
-        <x:v>198</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P89" s="35" t="s">
-        <x:v>150</x:v>
+        <x:v>271</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="2:16" ht="32.75">
       <x:c r="B90" s="16" t="s">
-        <x:v>164</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="C90" s="19">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D90" s="19" t="s">
-        <x:v>166</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="E90" s="19" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F90" s="19"/>
       <x:c r="G90" s="19" t="s">
-        <x:v>140</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="H90" s="54" t="s">
-        <x:v>275</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="I90" s="16"/>
       <x:c r="J90" s="19">
@@ -5861,31 +5836,31 @@
       <x:c r="M90" s="19"/>
       <x:c r="N90" s="20"/>
       <x:c r="O90" s="30" t="s">
-        <x:v>80</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="P90" s="35" t="s">
-        <x:v>150</x:v>
+        <x:v>271</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="2:16" ht="32.75">
       <x:c r="B91" s="16" t="s">
-        <x:v>261</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C91" s="19">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D91" s="20" t="s">
-        <x:v>172</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="E91" s="19" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F91" s="19"/>
       <x:c r="G91" s="20" t="s">
-        <x:v>140</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="H91" s="36" t="s">
-        <x:v>69</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="I91" s="16"/>
       <x:c r="J91" s="19">
@@ -5896,31 +5871,31 @@
       <x:c r="M91" s="19"/>
       <x:c r="N91" s="20"/>
       <x:c r="O91" s="30" t="s">
-        <x:v>164</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="P91" s="35" t="s">
-        <x:v>150</x:v>
+        <x:v>271</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="2:16" ht="32.75">
       <x:c r="B92" s="16" t="s">
-        <x:v>227</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C92" s="19">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D92" s="20" t="s">
-        <x:v>233</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E92" s="19" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F92" s="19"/>
       <x:c r="G92" s="20" t="s">
-        <x:v>140</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="H92" s="30" t="s">
-        <x:v>4</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="J92" s="19">
         <x:v>11</x:v>
@@ -5930,10 +5905,10 @@
       <x:c r="M92" s="19"/>
       <x:c r="N92" s="19"/>
       <x:c r="O92" s="33" t="s">
-        <x:v>261</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="P92" s="35" t="s">
-        <x:v>150</x:v>
+        <x:v>271</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="3:16" ht="32.75">
@@ -5941,40 +5916,40 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D93" s="21" t="s">
-        <x:v>265</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E93" s="21" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F93" s="21" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G93" s="21" t="s">
-        <x:v>79</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="H93" s="21" t="s">
-        <x:v>144</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="J93" s="19">
         <x:v>12</x:v>
       </x:c>
       <x:c r="K93" s="20" t="s">
-        <x:v>147</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="L93" s="19" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="M93" s="19" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N93" s="20" t="s">
-        <x:v>140</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="O93" s="30" t="s">
-        <x:v>229</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="P93" s="35" t="s">
-        <x:v>150</x:v>
+        <x:v>271</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="3:16">
@@ -5982,37 +5957,37 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D94" s="24" t="s">
-        <x:v>278</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="E94" s="21" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F94" s="21" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G94" s="24" t="s">
-        <x:v>79</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="H94" s="24" t="s">
-        <x:v>138</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="J94" s="21">
         <x:v>13</x:v>
       </x:c>
       <x:c r="K94" s="21" t="s">
-        <x:v>265</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="L94" s="21" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M94" s="21" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N94" s="21" t="s">
-        <x:v>79</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="O94" s="21" t="s">
-        <x:v>144</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="P94" s="34"/>
     </x:row>
@@ -6021,19 +5996,19 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="K95" s="24" t="s">
-        <x:v>278</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="L95" s="21" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M95" s="21" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N95" s="24" t="s">
-        <x:v>79</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="O95" s="24" t="s">
-        <x:v>138</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="P95" s="34"/>
     </x:row>
@@ -6047,16 +6022,16 @@
       <x:c r="P96" s="34"/>
     </x:row>
     <x:row r="97" spans="3:16" ht="20.64999999999999857891">
-      <x:c r="C97" s="56" t="s">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="D97" s="57"/>
-      <x:c r="E97" s="58" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F97" s="59"/>
-      <x:c r="G97" s="59"/>
-      <x:c r="H97" s="60"/>
+      <x:c r="C97" s="58" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="D97" s="59"/>
+      <x:c r="E97" s="60" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F97" s="61"/>
+      <x:c r="G97" s="61"/>
+      <x:c r="H97" s="62"/>
       <x:c r="J97" s="16"/>
       <x:c r="K97" s="16"/>
       <x:c r="L97" s="16"/>
@@ -6066,57 +6041,57 @@
       <x:c r="P97" s="34"/>
     </x:row>
     <x:row r="98" spans="3:16" ht="20.64999999999999857891">
-      <x:c r="C98" s="56" t="s">
-        <x:v>276</x:v>
-      </x:c>
-      <x:c r="D98" s="57"/>
-      <x:c r="E98" s="58" t="s">
-        <x:v>203</x:v>
-      </x:c>
-      <x:c r="F98" s="59"/>
-      <x:c r="G98" s="59"/>
-      <x:c r="H98" s="60"/>
-      <x:c r="J98" s="56" t="s">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="K98" s="57"/>
-      <x:c r="L98" s="58" t="s">
-        <x:v>285</x:v>
-      </x:c>
-      <x:c r="M98" s="59"/>
-      <x:c r="N98" s="59"/>
-      <x:c r="O98" s="60"/>
+      <x:c r="C98" s="58" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="D98" s="59"/>
+      <x:c r="E98" s="60" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="F98" s="61"/>
+      <x:c r="G98" s="61"/>
+      <x:c r="H98" s="62"/>
+      <x:c r="J98" s="58" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="K98" s="59"/>
+      <x:c r="L98" s="60" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="M98" s="61"/>
+      <x:c r="N98" s="61"/>
+      <x:c r="O98" s="62"/>
       <x:c r="P98" s="34"/>
     </x:row>
     <x:row r="99" spans="3:16" ht="20.64999999999999857891">
       <x:c r="C99" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="D99" s="1" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="E99" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="F99" s="1" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="G99" s="1" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="H99" s="1" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="J99" s="58" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="K99" s="59"/>
+      <x:c r="L99" s="60" t="s">
         <x:v>141</x:v>
       </x:c>
-      <x:c r="E99" s="1" t="s">
-        <x:v>193</x:v>
-      </x:c>
-      <x:c r="F99" s="1" t="s">
-        <x:v>269</x:v>
-      </x:c>
-      <x:c r="G99" s="1" t="s">
-        <x:v>221</x:v>
-      </x:c>
-      <x:c r="H99" s="1" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="J99" s="56" t="s">
-        <x:v>276</x:v>
-      </x:c>
-      <x:c r="K99" s="57"/>
-      <x:c r="L99" s="58" t="s">
-        <x:v>254</x:v>
-      </x:c>
-      <x:c r="M99" s="59"/>
-      <x:c r="N99" s="59"/>
-      <x:c r="O99" s="60"/>
+      <x:c r="M99" s="61"/>
+      <x:c r="N99" s="61"/>
+      <x:c r="O99" s="62"/>
       <x:c r="P99" s="34"/>
     </x:row>
     <x:row r="100" spans="3:16" ht="17.80000000000000071054">
@@ -6124,37 +6099,37 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D100" s="27" t="s">
-        <x:v>252</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E100" s="27" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F100" s="27" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G100" s="27" t="s">
-        <x:v>168</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="H100" s="27" t="s">
-        <x:v>175</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="J100" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="K100" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="L100" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="M100" s="1" t="s">
-        <x:v>269</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="N100" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="O100" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="P100" s="34"/>
     </x:row>
@@ -6163,33 +6138,33 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D101" s="8" t="s">
-        <x:v>273</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="E101" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F101" s="8"/>
       <x:c r="G101" s="8"/>
       <x:c r="H101" s="8" t="s">
-        <x:v>91</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="J101" s="27">
         <x:v>1</x:v>
       </x:c>
       <x:c r="K101" s="27" t="s">
-        <x:v>243</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="L101" s="27" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="M101" s="27" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N101" s="27" t="s">
-        <x:v>168</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="O101" s="27" t="s">
-        <x:v>175</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="P101" s="34"/>
     </x:row>
@@ -6198,27 +6173,27 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D102" s="8" t="s">
-        <x:v>267</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="E102" s="8"/>
       <x:c r="F102" s="8"/>
       <x:c r="G102" s="8"/>
       <x:c r="H102" s="8" t="s">
-        <x:v>130</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="J102" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="K102" s="8" t="s">
-        <x:v>272</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="L102" s="8" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="M102" s="8"/>
       <x:c r="N102" s="8"/>
       <x:c r="O102" s="8" t="s">
-        <x:v>256</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="P102" s="34"/>
     </x:row>
@@ -6227,29 +6202,29 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D103" s="4" t="s">
-        <x:v>274</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="E103" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F103" s="8"/>
       <x:c r="G103" s="4"/>
       <x:c r="H103" s="4" t="s">
-        <x:v>118</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="J103" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="K103" s="8" t="s">
-        <x:v>50</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="L103" s="8" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="M103" s="8"/>
       <x:c r="N103" s="8"/>
       <x:c r="O103" s="8" t="s">
-        <x:v>157</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="P103" s="34"/>
     </x:row>
@@ -6258,73 +6233,73 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D104" s="8" t="s">
-        <x:v>262</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E104" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F104" s="8"/>
       <x:c r="G104" s="8"/>
       <x:c r="H104" s="8" t="s">
-        <x:v>14</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="J104" s="8">
         <x:v>4</x:v>
       </x:c>
       <x:c r="K104" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="L104" s="8" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="M104" s="8"/>
       <x:c r="N104" s="4"/>
       <x:c r="O104" s="4" t="s">
-        <x:v>126</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="P104" s="34"/>
     </x:row>
     <x:row r="105" spans="2:16" ht="32.75">
       <x:c r="B105" t="s">
-        <x:v>156</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="C105" s="19">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D105" s="19" t="s">
-        <x:v>147</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="E105" s="19" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F105" s="19"/>
       <x:c r="G105" s="19"/>
       <x:c r="H105" s="39" t="s">
-        <x:v>229</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="J105" s="19">
         <x:v>5</x:v>
       </x:c>
       <x:c r="K105" s="19" t="s">
-        <x:v>172</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="L105" s="19" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="M105" s="19"/>
       <x:c r="N105" s="19" t="s">
-        <x:v>140</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="O105" s="39" t="s">
-        <x:v>69</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="P105" s="35" t="s">
-        <x:v>261</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="2:16" ht="32.75">
       <x:c r="B106" t="s">
-        <x:v>261</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C106" s="19">
         <x:v>7</x:v>
@@ -6334,101 +6309,101 @@
       <x:c r="F106" s="19"/>
       <x:c r="G106" s="19"/>
       <x:c r="H106" s="33" t="s">
-        <x:v>98</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J106" s="40">
         <x:v>6</x:v>
       </x:c>
       <x:c r="K106" s="40" t="s">
-        <x:v>166</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="L106" s="19" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="M106" s="40"/>
       <x:c r="N106" s="40" t="s">
-        <x:v>140</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="O106" s="41" t="s">
-        <x:v>275</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="P106" s="34" t="s">
-        <x:v>164</x:v>
+        <x:v>264</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="2:16" ht="32.75">
       <x:c r="B107" s="16" t="s">
-        <x:v>261</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C107" s="19">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D107" s="19" t="s">
-        <x:v>172</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="E107" s="19" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F107" s="19"/>
       <x:c r="G107" s="19"/>
       <x:c r="H107" s="39" t="s">
-        <x:v>69</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="J107" s="21">
         <x:v>7</x:v>
       </x:c>
       <x:c r="K107" s="21" t="s">
-        <x:v>265</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="L107" s="21" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M107" s="21" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N107" s="21" t="s">
-        <x:v>79</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="O107" s="21" t="s">
-        <x:v>144</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="P107" s="34"/>
     </x:row>
     <x:row r="108" spans="2:16" ht="32.75">
       <x:c r="B108" s="16" t="s">
-        <x:v>164</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="C108" s="40">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D108" s="43" t="s">
-        <x:v>166</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="E108" s="19" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F108" s="40"/>
       <x:c r="G108" s="43"/>
       <x:c r="H108" s="44" t="s">
-        <x:v>275</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="J108" s="21">
         <x:v>8</x:v>
       </x:c>
       <x:c r="K108" s="24" t="s">
-        <x:v>278</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="L108" s="21" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M108" s="21" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N108" s="24" t="s">
-        <x:v>79</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="O108" s="24" t="s">
-        <x:v>138</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="P108" s="34"/>
     </x:row>
@@ -6437,19 +6412,19 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D109" s="21" t="s">
-        <x:v>265</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E109" s="21" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F109" s="21" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G109" s="21" t="s">
-        <x:v>79</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="H109" s="21" t="s">
-        <x:v>144</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="J109" s="14"/>
       <x:c r="K109" s="14"/>
@@ -6464,19 +6439,19 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D110" s="24" t="s">
-        <x:v>278</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="E110" s="21" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F110" s="21" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G110" s="24" t="s">
-        <x:v>79</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="H110" s="24" t="s">
-        <x:v>138</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="J110" s="47"/>
       <x:c r="K110" s="47"/>
@@ -6493,18 +6468,18 @@
       <x:c r="F111" s="12"/>
       <x:c r="G111" s="6"/>
       <x:c r="H111" s="42"/>
-      <x:c r="J111" s="63" t="s">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="K111" s="64"/>
-      <x:c r="L111" s="65" t="s">
-        <x:v>284</x:v>
-      </x:c>
-      <x:c r="M111" s="66"/>
-      <x:c r="N111" s="66"/>
-      <x:c r="O111" s="67"/>
+      <x:c r="J111" s="65" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="K111" s="66"/>
+      <x:c r="L111" s="67" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="M111" s="68"/>
+      <x:c r="N111" s="68"/>
+      <x:c r="O111" s="69"/>
       <x:c r="P111" s="34" t="s">
-        <x:v>132</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="3:16" ht="20.64999999999999857891">
@@ -6514,115 +6489,115 @@
       <x:c r="F112" s="12"/>
       <x:c r="G112" s="12"/>
       <x:c r="H112" s="12"/>
-      <x:c r="J112" s="56" t="s">
-        <x:v>276</x:v>
-      </x:c>
-      <x:c r="K112" s="57"/>
-      <x:c r="L112" s="58" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="M112" s="59"/>
-      <x:c r="N112" s="59"/>
-      <x:c r="O112" s="60"/>
+      <x:c r="J112" s="58" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="K112" s="59"/>
+      <x:c r="L112" s="60" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="M112" s="61"/>
+      <x:c r="N112" s="61"/>
+      <x:c r="O112" s="62"/>
       <x:c r="P112" s="34"/>
     </x:row>
     <x:row r="113" spans="2:16" ht="20.64999999999999857891">
       <x:c r="B113" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="C113" s="56" t="s">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="D113" s="57"/>
-      <x:c r="E113" s="58" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="F113" s="59"/>
-      <x:c r="G113" s="59"/>
-      <x:c r="H113" s="60"/>
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C113" s="58" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="D113" s="59"/>
+      <x:c r="E113" s="60" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F113" s="61"/>
+      <x:c r="G113" s="61"/>
+      <x:c r="H113" s="62"/>
       <x:c r="J113" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="K113" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="L113" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="M113" s="1" t="s">
-        <x:v>269</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="N113" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="O113" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="P113" s="34"/>
     </x:row>
     <x:row r="114" spans="3:16" ht="20.64999999999999857891">
-      <x:c r="C114" s="63" t="s">
-        <x:v>276</x:v>
-      </x:c>
-      <x:c r="D114" s="64"/>
-      <x:c r="E114" s="65" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="F114" s="66"/>
-      <x:c r="G114" s="66"/>
-      <x:c r="H114" s="67"/>
+      <x:c r="C114" s="65" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="D114" s="66"/>
+      <x:c r="E114" s="67" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="F114" s="68"/>
+      <x:c r="G114" s="68"/>
+      <x:c r="H114" s="69"/>
       <x:c r="J114" s="27">
         <x:v>1</x:v>
       </x:c>
       <x:c r="K114" s="27" t="s">
-        <x:v>108</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="L114" s="27" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="M114" s="27" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N114" s="27" t="s">
-        <x:v>168</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="O114" s="27" t="s">
-        <x:v>175</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="P114" s="34"/>
     </x:row>
     <x:row r="115" spans="3:16" ht="17.80000000000000071054">
       <x:c r="C115" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="D115" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="E115" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F115" s="1" t="s">
-        <x:v>269</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="G115" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H115" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="J115" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="K115" s="8" t="s">
-        <x:v>137</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="L115" s="8" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="M115" s="8"/>
       <x:c r="N115" s="8"/>
       <x:c r="O115" s="8" t="s">
-        <x:v>36</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="P115" s="34"/>
     </x:row>
@@ -6631,33 +6606,33 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D116" s="27" t="s">
-        <x:v>107</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E116" s="27" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F116" s="27" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G116" s="27" t="s">
-        <x:v>168</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="H116" s="27" t="s">
-        <x:v>175</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="J116" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="K116" s="8" t="s">
-        <x:v>113</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="L116" s="8" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="M116" s="8"/>
       <x:c r="N116" s="8"/>
       <x:c r="O116" s="8" t="s">
-        <x:v>34</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="P116" s="34"/>
     </x:row>
@@ -6666,29 +6641,29 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D117" s="8" t="s">
-        <x:v>104</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E117" s="8" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F117" s="8"/>
       <x:c r="G117" s="8"/>
       <x:c r="H117" s="37" t="s">
-        <x:v>29</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="J117" s="8">
         <x:v>4</x:v>
       </x:c>
       <x:c r="K117" s="4" t="s">
-        <x:v>117</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="L117" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M117" s="8"/>
       <x:c r="N117" s="4"/>
       <x:c r="O117" s="4" t="s">
-        <x:v>111</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="P117" s="34"/>
     </x:row>
@@ -6697,75 +6672,75 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D118" s="8" t="s">
-        <x:v>26</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E118" s="8" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F118" s="8"/>
       <x:c r="G118" s="8"/>
       <x:c r="H118" s="37" t="s">
-        <x:v>31</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="J118" s="8">
         <x:v>5</x:v>
       </x:c>
       <x:c r="K118" s="4" t="s">
-        <x:v>125</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L118" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M118" s="8"/>
       <x:c r="N118" s="4"/>
       <x:c r="O118" s="29" t="s">
-        <x:v>28</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="P118" s="34"/>
     </x:row>
     <x:row r="119" spans="2:16" ht="32.75">
       <x:c r="B119" t="s">
-        <x:v>164</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="C119" s="40">
         <x:v>4</x:v>
       </x:c>
       <x:c r="D119" s="40" t="s">
-        <x:v>166</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="E119" s="19" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F119" s="40"/>
       <x:c r="G119" s="40" t="s">
-        <x:v>140</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="H119" s="45" t="s">
-        <x:v>275</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="J119" s="40">
         <x:v>6</x:v>
       </x:c>
       <x:c r="K119" s="40" t="s">
-        <x:v>147</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="L119" s="19" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="M119" s="40"/>
       <x:c r="N119" s="40" t="s">
-        <x:v>140</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="O119" s="45" t="s">
-        <x:v>229</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="P119" s="34" t="s">
-        <x:v>156</x:v>
+        <x:v>260</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="2:16" ht="32.75">
       <x:c r="B120" s="51" t="s">
-        <x:v>38</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="C120" s="18">
         <x:v>5</x:v>
@@ -6775,66 +6750,66 @@
       <x:c r="F120" s="18"/>
       <x:c r="G120" s="18"/>
       <x:c r="H120" s="50" t="s">
-        <x:v>24</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="J120" s="40">
         <x:v>7</x:v>
       </x:c>
       <x:c r="K120" s="40" t="s">
-        <x:v>166</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="L120" s="19" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="M120" s="40"/>
       <x:c r="N120" s="40" t="s">
-        <x:v>140</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="O120" s="41" t="s">
-        <x:v>275</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="P120" s="34" t="s">
-        <x:v>164</x:v>
+        <x:v>264</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="2:16" ht="32.75">
       <x:c r="B121" s="53" t="s">
-        <x:v>38</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="C121" s="18">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D121" s="18" t="s">
-        <x:v>124</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E121" s="18" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F121" s="18"/>
       <x:c r="G121" s="18" t="s">
-        <x:v>140</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="H121" s="52" t="s">
-        <x:v>48</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J121" s="19">
         <x:v>8</x:v>
       </x:c>
       <x:c r="K121" s="19" t="s">
-        <x:v>172</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="L121" s="19" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="M121" s="19"/>
       <x:c r="N121" s="19" t="s">
-        <x:v>140</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="O121" s="33" t="s">
-        <x:v>18</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="P121" s="34" t="s">
-        <x:v>246</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="2:16">
@@ -6843,37 +6818,37 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D122" s="21" t="s">
-        <x:v>265</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E122" s="21" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F122" s="21" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G122" s="21" t="s">
-        <x:v>79</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="H122" s="21" t="s">
-        <x:v>144</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="J122" s="21">
         <x:v>12</x:v>
       </x:c>
       <x:c r="K122" s="21" t="s">
-        <x:v>265</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="L122" s="21" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M122" s="21" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N122" s="21" t="s">
-        <x:v>79</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="O122" s="21" t="s">
-        <x:v>144</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="P122" s="34"/>
     </x:row>
@@ -6883,37 +6858,37 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D123" s="24" t="s">
-        <x:v>278</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="E123" s="21" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F123" s="21" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G123" s="24" t="s">
-        <x:v>79</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="H123" s="24" t="s">
-        <x:v>138</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="J123" s="21">
         <x:v>13</x:v>
       </x:c>
       <x:c r="K123" s="24" t="s">
-        <x:v>278</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="L123" s="21" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M123" s="21" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N123" s="24" t="s">
-        <x:v>79</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="O123" s="24" t="s">
-        <x:v>138</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="P123" s="34"/>
     </x:row>
@@ -6951,93 +6926,93 @@
     </x:row>
     <x:row r="126" spans="2:16" ht="20.64999999999999857891">
       <x:c r="B126" s="16" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C126" s="63" t="s">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="D126" s="64"/>
-      <x:c r="E126" s="65" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="F126" s="66"/>
-      <x:c r="G126" s="66"/>
-      <x:c r="H126" s="67"/>
-      <x:c r="J126" s="56" t="s">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="K126" s="57"/>
-      <x:c r="L126" s="58" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="M126" s="59"/>
-      <x:c r="N126" s="59"/>
-      <x:c r="O126" s="60"/>
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C126" s="65" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="D126" s="66"/>
+      <x:c r="E126" s="67" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F126" s="68"/>
+      <x:c r="G126" s="68"/>
+      <x:c r="H126" s="69"/>
+      <x:c r="J126" s="58" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="K126" s="59"/>
+      <x:c r="L126" s="60" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="M126" s="61"/>
+      <x:c r="N126" s="61"/>
+      <x:c r="O126" s="62"/>
       <x:c r="P126" s="34" t="s">
-        <x:v>134</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="2:16" ht="20.64999999999999857891">
       <x:c r="B127" s="16"/>
-      <x:c r="C127" s="63" t="s">
-        <x:v>276</x:v>
-      </x:c>
-      <x:c r="D127" s="64"/>
-      <x:c r="E127" s="65" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F127" s="66"/>
-      <x:c r="G127" s="66"/>
-      <x:c r="H127" s="67"/>
-      <x:c r="J127" s="63" t="s">
-        <x:v>276</x:v>
-      </x:c>
-      <x:c r="K127" s="64"/>
-      <x:c r="L127" s="65" t="s">
-        <x:v>251</x:v>
-      </x:c>
-      <x:c r="M127" s="66"/>
-      <x:c r="N127" s="66"/>
-      <x:c r="O127" s="67"/>
+      <x:c r="C127" s="65" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="D127" s="66"/>
+      <x:c r="E127" s="67" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="F127" s="68"/>
+      <x:c r="G127" s="68"/>
+      <x:c r="H127" s="69"/>
+      <x:c r="J127" s="65" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="K127" s="66"/>
+      <x:c r="L127" s="67" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="M127" s="68"/>
+      <x:c r="N127" s="68"/>
+      <x:c r="O127" s="69"/>
       <x:c r="P127" s="34"/>
     </x:row>
     <x:row r="128" spans="2:16" ht="17.80000000000000071054">
       <x:c r="B128" s="16"/>
       <x:c r="C128" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="D128" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="E128" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F128" s="1" t="s">
-        <x:v>269</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="G128" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H128" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="J128" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="K128" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="L128" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="M128" s="1" t="s">
-        <x:v>269</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="N128" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="O128" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="P128" s="34"/>
     </x:row>
@@ -7047,37 +7022,37 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D129" s="27" t="s">
-        <x:v>124</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E129" s="27" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F129" s="27" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G129" s="27" t="s">
-        <x:v>168</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="H129" s="27" t="s">
-        <x:v>175</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="J129" s="27">
         <x:v>1</x:v>
       </x:c>
       <x:c r="K129" s="27" t="s">
-        <x:v>142</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="L129" s="27" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="M129" s="27" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="N129" s="27" t="s">
-        <x:v>168</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="O129" s="27" t="s">
-        <x:v>175</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="P129" s="34"/>
     </x:row>
@@ -7087,51 +7062,51 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D130" s="8" t="s">
-        <x:v>119</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E130" s="8" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F130" s="8"/>
       <x:c r="G130" s="8"/>
       <x:c r="H130" s="37" t="s">
-        <x:v>24</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="J130" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="K130" s="8" t="s">
-        <x:v>128</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="L130" s="8" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="M130" s="8"/>
       <x:c r="N130" s="8"/>
       <x:c r="O130" s="38" t="s">
-        <x:v>6</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="P130" s="34"/>
     </x:row>
     <x:row r="131" spans="2:16" ht="32.75">
       <x:c r="B131" s="16" t="s">
-        <x:v>261</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C131" s="19">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D131" s="19" t="s">
-        <x:v>172</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="E131" s="19" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F131" s="19"/>
       <x:c r="G131" s="19" t="s">
-        <x:v>140</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="H131" s="39" t="s">
-        <x:v>69</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="J131" s="19">
         <x:v>3</x:v>
@@ -7141,50 +7116,50 @@
       <x:c r="M131" s="19"/>
       <x:c r="N131" s="19"/>
       <x:c r="O131" s="19" t="s">
-        <x:v>280</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="P131" s="34" t="s">
-        <x:v>164</x:v>
+        <x:v>264</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="2:16" ht="32.75">
       <x:c r="B132" s="16" t="s">
-        <x:v>164</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="C132" s="19">
         <x:v>4</x:v>
       </x:c>
       <x:c r="D132" s="19" t="s">
-        <x:v>166</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="E132" s="19" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F132" s="19"/>
       <x:c r="G132" s="19" t="s">
-        <x:v>140</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="H132" s="39" t="s">
-        <x:v>275</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="J132" s="19">
         <x:v>4</x:v>
       </x:c>
       <x:c r="K132" s="20" t="s">
-        <x:v>166</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="L132" s="19" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="M132" s="19"/>
       <x:c r="N132" s="20" t="s">
-        <x:v>140</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="O132" s="46" t="s">
-        <x:v>275</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="P132" s="35" t="s">
-        <x:v>164</x:v>
+        <x:v>264</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="3:16">
@@ -7192,19 +7167,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D133" s="21" t="s">
-        <x:v>265</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E133" s="21" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F133" s="21" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G133" s="21" t="s">
-        <x:v>79</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="H133" s="21" t="s">
-        <x:v>144</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="J133" s="19">
         <x:v>5</x:v>
@@ -7214,10 +7189,10 @@
       <x:c r="M133" s="19"/>
       <x:c r="N133" s="20"/>
       <x:c r="O133" s="30" t="s">
-        <x:v>96</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="P133" s="34" t="s">
-        <x:v>146</x:v>
+        <x:v>244</x:v>
       </x:c>
     </x:row>
     <x:row r="134" spans="3:16" ht="32.75">
@@ -7225,38 +7200,38 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D134" s="24" t="s">
-        <x:v>278</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="E134" s="21" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F134" s="21" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G134" s="24" t="s">
-        <x:v>79</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="H134" s="24" t="s">
-        <x:v>138</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="J134" s="19">
         <x:v>6</x:v>
       </x:c>
       <x:c r="K134" s="20" t="s">
-        <x:v>155</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="L134" s="19" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="M134" s="19"/>
       <x:c r="N134" s="20" t="s">
-        <x:v>140</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="O134" s="30" t="s">
-        <x:v>120</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="P134" s="34" t="s">
-        <x:v>146</x:v>
+        <x:v>244</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="10:16">
@@ -7268,10 +7243,10 @@
       <x:c r="M135" s="19"/>
       <x:c r="N135" s="20"/>
       <x:c r="O135" s="30" t="s">
-        <x:v>105</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="P135" s="34" t="s">
-        <x:v>253</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="10:16" ht="32.75">
@@ -7279,33 +7254,33 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="K136" s="20" t="s">
-        <x:v>127</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="L136" s="19" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="M136" s="19"/>
       <x:c r="N136" s="20" t="s">
-        <x:v>140</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="O136" s="46" t="s">
-        <x:v>74</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="P136" s="34" t="s">
-        <x:v>253</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="3:16" ht="20.64999999999999857891">
-      <x:c r="C137" s="56" t="s">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="D137" s="57"/>
-      <x:c r="E137" s="58" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="F137" s="59"/>
-      <x:c r="G137" s="59"/>
-      <x:c r="H137" s="60"/>
+      <x:c r="C137" s="58" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="D137" s="59"/>
+      <x:c r="E137" s="60" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="F137" s="61"/>
+      <x:c r="G137" s="61"/>
+      <x:c r="H137" s="62"/>
       <x:c r="J137" s="16"/>
       <x:c r="K137" s="16"/>
       <x:c r="L137" s="16"/>
@@ -7315,16 +7290,16 @@
       <x:c r="P137" s="34"/>
     </x:row>
     <x:row r="138" spans="3:16" ht="20.64999999999999857891">
-      <x:c r="C138" s="63" t="s">
-        <x:v>276</x:v>
-      </x:c>
-      <x:c r="D138" s="64"/>
-      <x:c r="E138" s="65" t="s">
-        <x:v>238</x:v>
-      </x:c>
-      <x:c r="F138" s="66"/>
-      <x:c r="G138" s="66"/>
-      <x:c r="H138" s="67"/>
+      <x:c r="C138" s="65" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="D138" s="66"/>
+      <x:c r="E138" s="67" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="F138" s="68"/>
+      <x:c r="G138" s="68"/>
+      <x:c r="H138" s="69"/>
       <x:c r="J138" s="16"/>
       <x:c r="K138" s="16"/>
       <x:c r="L138" s="16"/>
@@ -7335,33 +7310,29 @@
     </x:row>
     <x:row r="139" spans="3:16" ht="20.64999999999999857891">
       <x:c r="C139" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="D139" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="E139" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F139" s="1" t="s">
-        <x:v>269</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="G139" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H139" s="1" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="J139" s="56" t="s">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="K139" s="57"/>
-      <x:c r="L139" s="58" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="M139" s="59"/>
-      <x:c r="N139" s="59"/>
-      <x:c r="O139" s="60"/>
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="J139" s="14"/>
+      <x:c r="K139" s="14"/>
+      <x:c r="L139" s="15"/>
+      <x:c r="M139" s="15"/>
+      <x:c r="N139" s="15"/>
+      <x:c r="O139" s="15"/>
       <x:c r="P139" s="34"/>
     </x:row>
     <x:row r="140" spans="3:16" ht="20.64999999999999857891">
@@ -7369,30 +7340,26 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D140" s="27" t="s">
-        <x:v>167</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="E140" s="27" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F140" s="27" t="s">
-        <x:v>84</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G140" s="27" t="s">
-        <x:v>168</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="H140" s="27" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="J140" s="63" t="s">
-        <x:v>276</x:v>
-      </x:c>
-      <x:c r="K140" s="64"/>
-      <x:c r="L140" s="65" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="M140" s="66"/>
-      <x:c r="N140" s="66"/>
-      <x:c r="O140" s="67"/>
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="J140" s="14"/>
+      <x:c r="K140" s="14"/>
+      <x:c r="L140" s="15"/>
+      <x:c r="M140" s="15"/>
+      <x:c r="N140" s="15"/>
+      <x:c r="O140" s="15"/>
       <x:c r="P140" s="34"/>
     </x:row>
     <x:row r="141" spans="3:16" ht="17.80000000000000071054">
@@ -7400,34 +7367,22 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D141" s="8" t="s">
-        <x:v>257</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E141" s="8" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F141" s="8"/>
       <x:c r="G141" s="8"/>
       <x:c r="H141" s="37" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="J141" s="1" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="K141" s="1" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="L141" s="1" t="s">
-        <x:v>193</x:v>
-      </x:c>
-      <x:c r="M141" s="1" t="s">
-        <x:v>269</x:v>
-      </x:c>
-      <x:c r="N141" s="1" t="s">
-        <x:v>221</x:v>
-      </x:c>
-      <x:c r="O141" s="1" t="s">
-        <x:v>169</x:v>
-      </x:c>
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J141" s="14"/>
+      <x:c r="K141" s="14"/>
+      <x:c r="L141" s="14"/>
+      <x:c r="M141" s="14"/>
+      <x:c r="N141" s="14"/>
+      <x:c r="O141" s="14"/>
       <x:c r="P141" s="34"/>
     </x:row>
     <x:row r="142" spans="3:16">
@@ -7435,34 +7390,22 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D142" s="8" t="s">
-        <x:v>122</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E142" s="8" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F142" s="8"/>
       <x:c r="G142" s="8"/>
       <x:c r="H142" s="37" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="J142" s="27">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K142" s="27" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="L142" s="27" t="s">
-        <x:v>279</x:v>
-      </x:c>
-      <x:c r="M142" s="27" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="N142" s="27" t="s">
-        <x:v>168</x:v>
-      </x:c>
-      <x:c r="O142" s="27" t="s">
-        <x:v>175</x:v>
-      </x:c>
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="J142" s="16"/>
+      <x:c r="K142" s="16"/>
+      <x:c r="L142" s="16"/>
+      <x:c r="M142" s="16"/>
+      <x:c r="N142" s="16"/>
+      <x:c r="O142" s="16"/>
       <x:c r="P142" s="34"/>
     </x:row>
     <x:row r="143" spans="3:16">
@@ -7470,122 +7413,78 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D143" s="8" t="s">
-        <x:v>242</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E143" s="8" t="s">
-        <x:v>279</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F143" s="8"/>
       <x:c r="G143" s="8"/>
       <x:c r="H143" s="37" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="J143" s="8">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="K143" s="8" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="L143" s="8" t="s">
-        <x:v>279</x:v>
-      </x:c>
-      <x:c r="M143" s="8"/>
-      <x:c r="N143" s="8"/>
-      <x:c r="O143" s="37" t="s">
-        <x:v>170</x:v>
-      </x:c>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="J143" s="16"/>
+      <x:c r="K143" s="16"/>
+      <x:c r="L143" s="16"/>
+      <x:c r="M143" s="16"/>
+      <x:c r="N143" s="16"/>
+      <x:c r="O143" s="53"/>
       <x:c r="P143" s="34"/>
     </x:row>
     <x:row r="144" spans="2:16" ht="32.75">
       <x:c r="B144" t="s">
-        <x:v>143</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C144" s="19">
         <x:v>5</x:v>
       </x:c>
       <x:c r="D144" s="19" t="s">
-        <x:v>215</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E144" s="19" t="s">
-        <x:v>13</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F144" s="19"/>
       <x:c r="G144" s="19" t="s">
-        <x:v>140</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="H144" s="39" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="J144" s="8">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="K144" s="8" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="L144" s="8" t="s">
-        <x:v>279</x:v>
-      </x:c>
-      <x:c r="M144" s="8"/>
-      <x:c r="N144" s="8"/>
-      <x:c r="O144" s="37" t="s">
-        <x:v>99</x:v>
-      </x:c>
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="J144" s="16"/>
+      <x:c r="K144" s="16"/>
+      <x:c r="L144" s="16"/>
+      <x:c r="M144" s="16"/>
+      <x:c r="N144" s="16"/>
+      <x:c r="O144" s="53"/>
       <x:c r="P144" s="34"/>
     </x:row>
     <x:row r="145" spans="10:16">
-      <x:c r="J145" s="8">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="K145" s="8" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="L145" s="8" t="s">
-        <x:v>279</x:v>
-      </x:c>
-      <x:c r="M145" s="8"/>
-      <x:c r="N145" s="8"/>
-      <x:c r="O145" s="37" t="s">
-        <x:v>135</x:v>
-      </x:c>
+      <x:c r="J145" s="16"/>
+      <x:c r="K145" s="16"/>
+      <x:c r="L145" s="16"/>
+      <x:c r="M145" s="16"/>
+      <x:c r="N145" s="16"/>
+      <x:c r="O145" s="53"/>
       <x:c r="P145" s="34"/>
     </x:row>
     <x:row r="146" spans="10:16">
-      <x:c r="J146" s="8">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="K146" s="8" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="L146" s="8" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="M146" s="8"/>
-      <x:c r="N146" s="8"/>
-      <x:c r="O146" s="37" t="s">
-        <x:v>162</x:v>
-      </x:c>
+      <x:c r="J146" s="16"/>
+      <x:c r="K146" s="16"/>
+      <x:c r="L146" s="16"/>
+      <x:c r="M146" s="16"/>
+      <x:c r="N146" s="16"/>
+      <x:c r="O146" s="53"/>
       <x:c r="P146" s="34"/>
     </x:row>
-    <x:row r="147" spans="10:16" ht="32.75">
-      <x:c r="J147" s="19">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="K147" s="20" t="s">
-        <x:v>166</x:v>
-      </x:c>
-      <x:c r="L147" s="19" t="s">
-        <x:v>279</x:v>
-      </x:c>
-      <x:c r="M147" s="19"/>
-      <x:c r="N147" s="20" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="O147" s="30" t="s">
-        <x:v>275</x:v>
-      </x:c>
-      <x:c r="P147" s="35" t="s">
-        <x:v>164</x:v>
-      </x:c>
+    <x:row r="147" spans="10:16">
+      <x:c r="J147" s="10"/>
+      <x:c r="K147" s="6"/>
+      <x:c r="L147" s="10"/>
+      <x:c r="M147" s="10"/>
+      <x:c r="N147" s="6"/>
+      <x:c r="O147" s="42"/>
+      <x:c r="P147" s="35"/>
     </x:row>
     <x:row r="148" spans="16:16">
       <x:c r="P148" s="31"/>
@@ -7813,7 +7712,7 @@
       <x:c r="P222" s="31"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="84">
+  <x:mergeCells count="80">
     <x:mergeCell ref="C2:D2"/>
     <x:mergeCell ref="E3:H3"/>
     <x:mergeCell ref="E2:H2"/>
@@ -7890,10 +7789,6 @@
     <x:mergeCell ref="L126:O126"/>
     <x:mergeCell ref="J127:K127"/>
     <x:mergeCell ref="L127:O127"/>
-    <x:mergeCell ref="J139:K139"/>
-    <x:mergeCell ref="L139:O139"/>
-    <x:mergeCell ref="J140:K140"/>
-    <x:mergeCell ref="L140:O140"/>
     <x:mergeCell ref="J68:K68"/>
     <x:mergeCell ref="L68:O68"/>
     <x:mergeCell ref="J69:K69"/>

--- a/PNS테이블.xlsx
+++ b/PNS테이블.xlsx
@@ -15,7 +15,7 @@
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$2:$P$147</x:definedName>
+    <x:definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$2:$P$174</x:definedName>
   </x:definedNames>
   <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
 </x:workbook>
@@ -55,7 +55,701 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="280">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="292">
+  <x:si>
+    <x:t>대표자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업종</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업장 주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상호(법인명)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ipTrueNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ipFalseNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mImageUrl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록일, 수정일 규격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조달 계획
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dppState</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소모되는
+자재의 수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>oRemarks</x:t>
+  </x:si>
+  <x:si>
+    <x:t>납품 지시
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조립 구조
+자재코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bRequireNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계약 규격 사이즈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>납품 상태(ENUM)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>varchar2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생산 계획 상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조립 구조
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검수 상태(ENUM)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mUnitPrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>isAvailable</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업체 자재 재고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>oTotalPrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업체 자재 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조달 계획 코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입고 상태(ENUM)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생산 계획 코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Supplier(2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract(0)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>협력업체
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자사 자재 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OutPut(5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InPut(7)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진척 검수 차수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Material(3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Return(8)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mLeadTime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tsUnitPrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계약 부품 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전체 가용 재고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진척 검수 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생산 계획 시작일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공급업체
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업체 자재
+재고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Order(5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디 및 기본키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cUnitPrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공급업체(협력회사)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생산 계획 종료일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sAddress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sContract</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발주 주문 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uBirthDay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cMatName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uAddress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리 매니저 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sManager</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출고 상태(ENUM)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생산 계획
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계약 서명(갑)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계약 서명(을)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품 종류(ENUM)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>oExpectDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Not Null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생산계획코드
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조달 상태(ENUM)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Product(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최소 공급 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>baseEntity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진척 검수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sRegNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생산계획</x:t>
+  </x:si>
+  <x:si>
+    <x:t>supId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품 
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자사쪽설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계약 단위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>반품 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계약 세액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cSignB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출고용설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입고
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>psNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>납품 지시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uEmail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입고 코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발주 코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조달 납기일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조달시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품 리스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재분류품목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업자등록번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조달 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mWeight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ppStart</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재 재고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생년월일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출고 코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재 
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dppNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조달 계획</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결함 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dppCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>oDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ipId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예상 납기일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dppId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ppNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dppDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>반품 물품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계약코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회사 전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mDepth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mMinNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>키 유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ipState</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cSize</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ipCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>합격 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cTax</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요구 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>opANum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mHeight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발주 상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>opId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>opState</x:t>
+  </x:si>
+  <x:si>
+    <x:t>drNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>oNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공급업체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mWidth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ppCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단위당 가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tsId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>거래 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rState</x:t>
+  </x:si>
+  <x:si>
+    <x:t>drId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>거래 명세서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발주서
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ppEnd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>협력업체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>drState</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조립 구조</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Null 여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sPhone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>oState</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생산 계획</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tsNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>drCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>float</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RegDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재 코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uPhone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>drDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총 금액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sAgree</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요구수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ppdNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ppdDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ppId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ModDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품 코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일일 생산량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>opCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ipNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>oCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>psId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bom(4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ssId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ppdId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공급업체 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>psState</x:t>
+  </x:si>
+  <x:si>
+    <x:t>isNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>납품지시 코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cSignA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>반품 코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 승인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발주서확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>isId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ppState</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재 공급업체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생산 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ssNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ppid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>반품 상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Assy(4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진척 검수일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업체측설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>납품 희망일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>psDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>납품 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>psDgree</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단위 가격</x:t>
+  </x:si>
   <x:si>
     <x:t>업체 자재 재고
 외래키</x:t>
@@ -64,849 +758,170 @@
     <x:t>dppRequireNum</x:t>
   </x:si>
   <x:si>
+    <x:t>sAddressExtra</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mComponentType</x:t>
+  </x:si>
+  <x:si>
     <x:t>조립 구조
 소모 자재 수량</x:t>
   </x:si>
   <x:si>
+    <x:t>BaseEntity(0)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bComponentType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sBusinessType</x:t>
+  </x:si>
+  <x:si>
     <x:t>tsTotalPrice</x:t>
   </x:si>
   <x:si>
-    <x:t>sAddressExtra</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BaseEntity(0)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mComponentType</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bComponentType</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sBusinessType</x:t>
+    <x:t>userJob</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DeliveryRequest(6)</x:t>
   </x:si>
   <x:si>
     <x:t>ProductionPerDay(3)</x:t>
   </x:si>
   <x:si>
+    <x:t>ProductionPlan(2)</x:t>
+  </x:si>
+  <x:si>
     <x:t>InventoryStock(5)</x:t>
   </x:si>
   <x:si>
     <x:t>SupplierStock(4)</x:t>
   </x:si>
   <x:si>
-    <x:t>ProductionPlan(2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DeliveryRequest(6)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일일 생산량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>납품지시 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cSignA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 승인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>반품 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ppdId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>opCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공급업체 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ipNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>oCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>psId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bom(4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ssId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>psState</x:t>
-  </x:si>
-  <x:si>
-    <x:t>isNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품
-외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ppid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>반품 상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>납품 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>isId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Assy(4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진척 검수일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>psDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단위 가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발주서확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>psDgree</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ppState</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재 공급업체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ssNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업체측설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>납품 희망일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자사쪽설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>반품 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계약 단위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진척 검수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입고
-외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sRegNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cSignB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출고용설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mWeight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재 재고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계약 세액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ppStart</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품 리스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조달 납기일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산계획</x:t>
-  </x:si>
-  <x:si>
-    <x:t>supId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품 
-외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>psNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재분류품목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조달 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>납품 지시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uEmail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입고 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발주 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조달시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업자등록번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>합격 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ipCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사 전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예상 납기일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생년월일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cSize</x:t>
-  </x:si>
-  <x:si>
-    <x:t>oDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dppNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mDepth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>키 유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ipId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출고 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mMinNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재 
-외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ppNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ipState</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조달 계획</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결함 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dppId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dppCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dppDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사 주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>반품 물품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계약코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요구 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sPhone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발주서
-외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>opState</x:t>
-  </x:si>
-  <x:si>
-    <x:t>oState</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rState</x:t>
-  </x:si>
-  <x:si>
-    <x:t>opANum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>opId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>oNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공급업체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ppCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mHeight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tsId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>drId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ppEnd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mWidth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조립 구조</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발주 상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단위당 가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>drNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>거래 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>협력업체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>거래 명세서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>drState</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Null 여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산 계획</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cTax</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uPhone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>float</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tsNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RegDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>drCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요구수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sAgree</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ppdDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총 금액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mType</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ppId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ModDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ppdNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>number</x:t>
-  </x:si>
-  <x:si>
-    <x:t>drDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재
-외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mImageUrl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ipTrueNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bRequireNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ipFalseNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소모되는
-자재의 수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>oRemarks</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록일, 수정일 규격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계약 규격 사이즈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>varchar2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>납품 상태(ENUM)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조달 계획
-외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dppState</x:t>
-  </x:si>
-  <x:si>
-    <x:t>납품 지시
-외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조립 구조
-자재코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mUnitPrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>협력업체
-외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산 계획 상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>oTotalPrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Supplier(2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조립 구조
-외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검수 상태(ENUM)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자사 자재 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OutPut(5)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업체 자재 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>isAvailable</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업체 자재 재고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입고 상태(ENUM)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조달 계획 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산 계획 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract(0)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Material(3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Return(8)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전체 가용 재고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tsUnitPrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진척 검수 차수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InPut(7)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진척 검수 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업체 자재
-재고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mLeadTime</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계약 부품 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업 취급 종류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산 계획 시작일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공급업체
-외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사 주소 상세</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Order(5)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userType</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공급업체(협력회사)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cMatName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uAddress</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출고 상태(ENUM)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uBirthDay</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sAddress</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계약 서명(갑)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디 및 기본키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cUnitPrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리 매니저 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산 계획 종료일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sContract</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sManager</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산 계획
-외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발주 주문 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계약 서명(을)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최소 공급 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>baseEntity</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Not Null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품 종류(ENUM)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>oExpectDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조달 상태(ENUM)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Product(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산계획코드
-외래키</x:t>
+    <x:t>이름</x:t>
   </x:si>
   <x:si>
     <x:t>FK</x:t>
   </x:si>
   <x:si>
+    <x:t>등록일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무게</x:t>
+  </x:si>
+  <x:si>
     <x:t>수정일</x:t>
   </x:si>
   <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세로</x:t>
+  </x:si>
+  <x:si>
     <x:t>생산량</x:t>
   </x:si>
   <x:si>
-    <x:t>이름</x:t>
+    <x:t>제품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬럼명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>oId</x:t>
   </x:si>
   <x:si>
     <x:t>입고</x:t>
   </x:si>
   <x:si>
-    <x:t>세로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬럼명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무게</x:t>
-  </x:si>
-  <x:si>
     <x:t>aId</x:t>
   </x:si>
   <x:si>
-    <x:t>oId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명</x:t>
-  </x:si>
-  <x:si>
     <x:t>계약일</x:t>
   </x:si>
   <x:si>
     <x:t>cId</x:t>
   </x:si>
   <x:si>
+    <x:t>기본키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발주서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>높이</x:t>
+  </x:si>
+  <x:si>
     <x:t>sId</x:t>
   </x:si>
   <x:si>
-    <x:t>가로</x:t>
+    <x:t>pId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지</x:t>
   </x:si>
   <x:si>
     <x:t>PK</x:t>
   </x:si>
   <x:si>
-    <x:t>높이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소</x:t>
+    <x:t>mId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문일</x:t>
   </x:si>
   <x:si>
     <x:t>번호</x:t>
   </x:si>
   <x:si>
-    <x:t>총액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발주서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일</x:t>
-  </x:si>
-  <x:si>
     <x:t>계약서</x:t>
   </x:si>
   <x:si>
-    <x:t>주문일</x:t>
+    <x:t>uId</x:t>
   </x:si>
   <x:si>
     <x:t>발주</x:t>
   </x:si>
   <x:si>
-    <x:t>uId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>코드</x:t>
-  </x:si>
-  <x:si>
     <x:t>출고</x:t>
   </x:si>
   <x:si>
+    <x:t>sPhoneDirect</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TradeSpecification(4)</x:t>
+  </x:si>
+  <x:si>
     <x:t>ProgressInspection(6)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TradeSpecification(4)</x:t>
   </x:si>
   <x:si>
     <x:t>생산 일자
@@ -914,6 +929,27 @@
   </x:si>
   <x:si>
     <x:t>DeliveryProcurementPlan(4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sFax</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회사 팩스번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sBusinessArray</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회사 직통전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업장 주소 상세</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sExponent</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1415,19 +1451,6 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1987,6 +2010,19 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:cellXfs>
   <x:cellStyles count="2">
     <x:cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1997,7 +2033,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2080,7 +2115,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2115,7 +2149,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2160,7 +2193,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2204,7 +2236,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2289,7 +2320,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2310,7 +2340,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2341,7 +2370,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2653,8 +2681,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="B1:Y222"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A127" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <x:selection activeCell="N146" activeCellId="0" sqref="N146:N146"/>
+    <x:sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A94" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <x:selection activeCell="H112" activeCellId="0" sqref="H112:H112"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -2674,168 +2702,168 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="16:16">
-      <x:c r="P1" s="31"/>
+      <x:c r="P1" s="30"/>
     </x:row>
     <x:row r="2" spans="3:16" ht="20.64999999999999857891">
-      <x:c r="C2" s="58" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="D2" s="59"/>
-      <x:c r="E2" s="60" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F2" s="61"/>
-      <x:c r="G2" s="61"/>
-      <x:c r="H2" s="62"/>
-      <x:c r="J2" s="58" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="K2" s="59"/>
-      <x:c r="L2" s="60" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="M2" s="61"/>
-      <x:c r="N2" s="61"/>
-      <x:c r="O2" s="62"/>
-      <x:c r="P2" s="31"/>
+      <x:c r="C2" s="57" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="D2" s="58"/>
+      <x:c r="E2" s="59" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="F2" s="60"/>
+      <x:c r="G2" s="60"/>
+      <x:c r="H2" s="61"/>
+      <x:c r="J2" s="57" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="K2" s="58"/>
+      <x:c r="L2" s="59" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="M2" s="60"/>
+      <x:c r="N2" s="60"/>
+      <x:c r="O2" s="61"/>
+      <x:c r="P2" s="30"/>
     </x:row>
     <x:row r="3" spans="3:16" ht="20.64999999999999857891">
-      <x:c r="C3" s="58" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="D3" s="59"/>
-      <x:c r="E3" s="60" t="s">
-        <x:v>173</x:v>
-      </x:c>
-      <x:c r="F3" s="61"/>
-      <x:c r="G3" s="61"/>
-      <x:c r="H3" s="62"/>
-      <x:c r="J3" s="58" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="K3" s="59"/>
-      <x:c r="L3" s="60" t="s">
-        <x:v>155</x:v>
-      </x:c>
-      <x:c r="M3" s="61"/>
-      <x:c r="N3" s="61"/>
-      <x:c r="O3" s="62"/>
-      <x:c r="P3" s="31"/>
+      <x:c r="C3" s="57" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="D3" s="58"/>
+      <x:c r="E3" s="59" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F3" s="60"/>
+      <x:c r="G3" s="60"/>
+      <x:c r="H3" s="61"/>
+      <x:c r="J3" s="57" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="K3" s="58"/>
+      <x:c r="L3" s="59" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="M3" s="60"/>
+      <x:c r="N3" s="60"/>
+      <x:c r="O3" s="61"/>
+      <x:c r="P3" s="30"/>
     </x:row>
     <x:row r="4" spans="3:16" ht="17.80000000000000071054">
       <x:c r="C4" s="1" t="s">
-        <x:v>258</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
-        <x:v>245</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="E4" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F4" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="G4" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="H4" s="1" t="s">
-        <x:v>250</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="J4" s="1" t="s">
-        <x:v>258</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="K4" s="1" t="s">
-        <x:v>245</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="L4" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="M4" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="N4" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="O4" s="1" t="s">
-        <x:v>250</x:v>
-      </x:c>
-      <x:c r="P4" s="31"/>
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="P4" s="30"/>
     </x:row>
     <x:row r="5" spans="3:16">
       <x:c r="C5" s="21">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D5" s="21" t="s">
-        <x:v>150</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E5" s="21" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F5" s="21" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G5" s="21" t="s">
-        <x:v>230</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H5" s="21" t="s">
         <x:v>243</x:v>
       </x:c>
-      <x:c r="J5" s="27">
+      <x:c r="J5" s="26">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="K5" s="28" t="s">
+      <x:c r="K5" s="27" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="L5" s="26" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="M5" s="26" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="N5" s="26" t="s">
         <x:v>272</x:v>
       </x:c>
-      <x:c r="L5" s="27" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="M5" s="27" t="s">
-        <x:v>231</x:v>
-      </x:c>
-      <x:c r="N5" s="27" t="s">
-        <x:v>255</x:v>
-      </x:c>
-      <x:c r="O5" s="27" t="s">
-        <x:v>220</x:v>
-      </x:c>
-      <x:c r="P5" s="31"/>
+      <x:c r="O5" s="26" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="P5" s="30"/>
     </x:row>
     <x:row r="6" spans="3:16">
       <x:c r="C6" s="22">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>161</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E6" s="22" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F6" s="22" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G6" s="24" t="s">
-        <x:v>230</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>238</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="J6" s="2">
         <x:v>2</x:v>
       </x:c>
       <x:c r="K6" s="2" t="s">
-        <x:v>147</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="L6" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M6" s="2" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N6" s="2"/>
       <x:c r="O6" s="2" t="s">
-        <x:v>240</x:v>
-      </x:c>
-      <x:c r="P6" s="31"/>
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="P6" s="30"/>
     </x:row>
     <x:row r="7" spans="3:23">
       <x:c r="C7" s="11"/>
@@ -2848,19 +2876,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="K7" s="2" t="s">
-        <x:v>215</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="L7" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M7" s="2" t="s">
-        <x:v>231</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="N7" s="2"/>
       <x:c r="O7" s="2" t="s">
-        <x:v>257</x:v>
-      </x:c>
-      <x:c r="P7" s="31"/>
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="P7" s="30"/>
       <x:c r="Q7" s="5"/>
       <x:c r="R7" s="5"/>
       <x:c r="S7" s="5"/>
@@ -2870,33 +2898,33 @@
       <x:c r="W7" s="5"/>
     </x:row>
     <x:row r="8" spans="3:23" ht="20.64999999999999857891">
-      <x:c r="C8" s="63" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="D8" s="63"/>
-      <x:c r="E8" s="64" t="s">
-        <x:v>197</x:v>
-      </x:c>
-      <x:c r="F8" s="64"/>
-      <x:c r="G8" s="64"/>
-      <x:c r="H8" s="64"/>
+      <x:c r="C8" s="62" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="D8" s="62"/>
+      <x:c r="E8" s="63" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="F8" s="63"/>
+      <x:c r="G8" s="63"/>
+      <x:c r="H8" s="63"/>
       <x:c r="J8" s="2">
         <x:v>4</x:v>
       </x:c>
       <x:c r="K8" s="2" t="s">
-        <x:v>212</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="L8" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M8" s="2" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N8" s="2"/>
       <x:c r="O8" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="P8" s="31"/>
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="P8" s="30"/>
       <x:c r="Q8" s="5"/>
       <x:c r="R8" s="5"/>
       <x:c r="S8" s="5"/>
@@ -2906,33 +2934,33 @@
       <x:c r="W8" s="5"/>
     </x:row>
     <x:row r="9" spans="3:23" ht="20.64999999999999857891">
-      <x:c r="C9" s="63" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="D9" s="63"/>
-      <x:c r="E9" s="64" t="s">
-        <x:v>264</x:v>
-      </x:c>
-      <x:c r="F9" s="64"/>
-      <x:c r="G9" s="64"/>
-      <x:c r="H9" s="64"/>
+      <x:c r="C9" s="62" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="D9" s="62"/>
+      <x:c r="E9" s="63" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="F9" s="63"/>
+      <x:c r="G9" s="63"/>
+      <x:c r="H9" s="63"/>
       <x:c r="J9" s="2">
         <x:v>5</x:v>
       </x:c>
       <x:c r="K9" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="L9" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M9" s="2" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N9" s="2"/>
       <x:c r="O9" s="2" t="s">
-        <x:v>268</x:v>
-      </x:c>
-      <x:c r="P9" s="31"/>
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="P9" s="30"/>
       <x:c r="Q9" s="5"/>
       <x:c r="R9" s="5"/>
       <x:c r="S9" s="5"/>
@@ -2943,40 +2971,40 @@
     </x:row>
     <x:row r="10" spans="3:23" ht="17.80000000000000071054">
       <x:c r="C10" s="1" t="s">
-        <x:v>258</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="D10" s="1" t="s">
-        <x:v>245</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="E10" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F10" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="G10" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="H10" s="1" t="s">
-        <x:v>250</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="J10" s="2">
         <x:v>6</x:v>
       </x:c>
       <x:c r="K10" s="2" t="s">
-        <x:v>146</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="L10" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M10" s="2" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N10" s="2"/>
       <x:c r="O10" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="P10" s="31"/>
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="P10" s="30"/>
       <x:c r="Q10" s="5"/>
       <x:c r="R10" s="5"/>
       <x:c r="S10" s="5"/>
@@ -2986,41 +3014,41 @@
       <x:c r="W10" s="5"/>
     </x:row>
     <x:row r="11" spans="3:23">
-      <x:c r="C11" s="27">
+      <x:c r="C11" s="26">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D11" s="27" t="s">
-        <x:v>267</x:v>
-      </x:c>
-      <x:c r="E11" s="27" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="F11" s="27" t="s">
-        <x:v>231</x:v>
-      </x:c>
-      <x:c r="G11" s="27" t="s">
-        <x:v>255</x:v>
-      </x:c>
-      <x:c r="H11" s="27" t="s">
+      <x:c r="D11" s="26" t="s">
         <x:v>273</x:v>
+      </x:c>
+      <x:c r="E11" s="26" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="F11" s="26" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G11" s="26" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="H11" s="26" t="s">
+        <x:v>257</x:v>
       </x:c>
       <x:c r="J11" s="2">
         <x:v>7</x:v>
       </x:c>
       <x:c r="K11" s="2" t="s">
-        <x:v>217</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="L11" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M11" s="2" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N11" s="2"/>
       <x:c r="O11" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="P11" s="31"/>
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="P11" s="30"/>
       <x:c r="Q11" s="5"/>
       <x:c r="R11" s="5"/>
       <x:c r="S11" s="5"/>
@@ -3034,37 +3062,35 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D12" s="4" t="s">
-        <x:v>87</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E12" s="8" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F12" s="8" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G12" s="4"/>
       <x:c r="H12" s="4" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="J12" s="21">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="J12" s="2">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="K12" s="21" t="s">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="L12" s="21" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="M12" s="21" t="s">
-        <x:v>231</x:v>
-      </x:c>
-      <x:c r="N12" s="21" t="s">
-        <x:v>230</x:v>
-      </x:c>
-      <x:c r="O12" s="21" t="s">
-        <x:v>243</x:v>
-      </x:c>
-      <x:c r="P12" s="31"/>
+      <x:c r="K12" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="L12" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="M12" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="N12" s="2"/>
+      <x:c r="O12" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="P12" s="30"/>
       <x:c r="Q12" s="5"/>
       <x:c r="R12" s="5"/>
       <x:c r="S12" s="5"/>
@@ -3078,37 +3104,37 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D13" s="7" t="s">
-        <x:v>158</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="E13" s="7" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F13" s="8" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G13" s="7"/>
       <x:c r="H13" s="7" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="J13" s="25">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="J13" s="21">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="K13" s="24" t="s">
-        <x:v>161</x:v>
+      <x:c r="K13" s="21" t="s">
+        <x:v>174</x:v>
       </x:c>
       <x:c r="L13" s="21" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M13" s="21" t="s">
-        <x:v>231</x:v>
-      </x:c>
-      <x:c r="N13" s="24" t="s">
-        <x:v>230</x:v>
-      </x:c>
-      <x:c r="O13" s="24" t="s">
-        <x:v>238</x:v>
-      </x:c>
-      <x:c r="P13" s="31"/>
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="N13" s="21" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="O13" s="21" t="s">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="P13" s="30"/>
       <x:c r="Q13" s="5"/>
       <x:c r="R13" s="5"/>
       <x:c r="S13" s="5"/>
@@ -3122,19 +3148,37 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D14" s="4" t="s">
-        <x:v>135</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E14" s="7" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F14" s="7" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G14" s="4"/>
       <x:c r="H14" s="4" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="P14" s="31"/>
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="J14" s="24">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K14" s="24" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="L14" s="21" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="M14" s="21" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="N14" s="24" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="O14" s="24" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="P14" s="30"/>
       <x:c r="Q14" s="5"/>
       <x:c r="R14" s="6"/>
       <x:c r="S14" s="12"/>
@@ -3148,29 +3192,25 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D15" s="4" t="s">
-        <x:v>181</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E15" s="7" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F15" s="7" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G15" s="4"/>
       <x:c r="H15" s="4" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="J15" s="58" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="K15" s="59"/>
-      <x:c r="L15" s="60" t="s">
-        <x:v>235</x:v>
-      </x:c>
-      <x:c r="M15" s="61"/>
-      <x:c r="N15" s="61"/>
-      <x:c r="O15" s="62"/>
-      <x:c r="P15" s="31"/>
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="J15" s="14"/>
+      <x:c r="K15" s="14"/>
+      <x:c r="L15" s="15"/>
+      <x:c r="M15" s="15"/>
+      <x:c r="N15" s="15"/>
+      <x:c r="O15" s="15"/>
+      <x:c r="P15" s="30"/>
       <x:c r="Q15" s="5"/>
       <x:c r="R15" s="5"/>
       <x:c r="S15" s="5"/>
@@ -3184,29 +3224,29 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D16" s="4" t="s">
-        <x:v>100</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E16" s="2" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F16" s="7" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G16" s="4"/>
       <x:c r="H16" s="4" t="s">
-        <x:v>229</x:v>
-      </x:c>
-      <x:c r="J16" s="58" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="K16" s="59"/>
-      <x:c r="L16" s="60" t="s">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="M16" s="61"/>
-      <x:c r="N16" s="61"/>
-      <x:c r="O16" s="62"/>
-      <x:c r="P16" s="31"/>
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="J16" s="62" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="K16" s="62"/>
+      <x:c r="L16" s="72" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="M16" s="72"/>
+      <x:c r="N16" s="72"/>
+      <x:c r="O16" s="72"/>
+      <x:c r="P16" s="30"/>
       <x:c r="Q16" s="5"/>
       <x:c r="R16" s="5"/>
       <x:c r="S16" s="5"/>
@@ -3215,42 +3255,34 @@
       <x:c r="V16" s="5"/>
       <x:c r="W16" s="5"/>
     </x:row>
-    <x:row r="17" spans="3:23" ht="17.80000000000000071054">
+    <x:row r="17" spans="3:23" ht="20.64999999999999857891">
       <x:c r="C17" s="7">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D17" s="4" t="s">
-        <x:v>167</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E17" s="7" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F17" s="7" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G17" s="4"/>
       <x:c r="H17" s="4" t="s">
-        <x:v>263</x:v>
-      </x:c>
-      <x:c r="J17" s="1" t="s">
-        <x:v>258</x:v>
-      </x:c>
-      <x:c r="K17" s="1" t="s">
-        <x:v>245</x:v>
-      </x:c>
-      <x:c r="L17" s="1" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="M17" s="1" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="N17" s="1" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="O17" s="1" t="s">
-        <x:v>250</x:v>
-      </x:c>
-      <x:c r="P17" s="31"/>
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="J17" s="57" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="K17" s="58"/>
+      <x:c r="L17" s="59" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="M17" s="60"/>
+      <x:c r="N17" s="60"/>
+      <x:c r="O17" s="61"/>
+      <x:c r="P17" s="30"/>
       <x:c r="Q17" s="5"/>
       <x:c r="R17" s="5"/>
       <x:c r="S17" s="5"/>
@@ -3259,42 +3291,42 @@
       <x:c r="V17" s="5"/>
       <x:c r="W17" s="5"/>
     </x:row>
-    <x:row r="18" spans="3:23">
+    <x:row r="18" spans="3:23" ht="17.80000000000000071054">
       <x:c r="C18" s="7">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D18" s="4" t="s">
-        <x:v>95</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E18" s="2" t="s">
-        <x:v>148</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F18" s="7" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G18" s="4"/>
       <x:c r="H18" s="4" t="s">
-        <x:v>256</x:v>
-      </x:c>
-      <x:c r="J18" s="27">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K18" s="27" t="s">
-        <x:v>261</x:v>
-      </x:c>
-      <x:c r="L18" s="27" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="M18" s="27" t="s">
-        <x:v>231</x:v>
-      </x:c>
-      <x:c r="N18" s="27" t="s">
-        <x:v>255</x:v>
-      </x:c>
-      <x:c r="O18" s="27" t="s">
-        <x:v>273</x:v>
-      </x:c>
-      <x:c r="P18" s="31"/>
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="J18" s="1" t="s">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="K18" s="1" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="L18" s="1" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="M18" s="1" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="N18" s="1" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="O18" s="1" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="P18" s="30"/>
       <x:c r="Q18" s="5"/>
       <x:c r="R18" s="5"/>
       <x:c r="S18" s="5"/>
@@ -3308,35 +3340,37 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D19" s="4" t="s">
-        <x:v>128</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E19" s="2" t="s">
-        <x:v>148</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G19" s="4"/>
       <x:c r="H19" s="4" t="s">
-        <x:v>242</x:v>
-      </x:c>
-      <x:c r="J19" s="2">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="K19" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="L19" s="2" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="J19" s="26">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K19" s="26" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="L19" s="26" t="s">
         <x:v>175</x:v>
       </x:c>
-      <x:c r="M19" s="2" t="s">
-        <x:v>231</x:v>
-      </x:c>
-      <x:c r="N19" s="2"/>
-      <x:c r="O19" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="P19" s="31"/>
+      <x:c r="M19" s="26" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="N19" s="26" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="O19" s="26" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="P19" s="30"/>
       <x:c r="Q19" s="5"/>
       <x:c r="R19" s="5"/>
       <x:c r="S19" s="5"/>
@@ -3350,35 +3384,35 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D20" s="4" t="s">
-        <x:v>132</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E20" s="2" t="s">
-        <x:v>148</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F20" s="7" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G20" s="4"/>
       <x:c r="H20" s="4" t="s">
-        <x:v>254</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="J20" s="2">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K20" s="2" t="s">
-        <x:v>109</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="L20" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M20" s="2" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N20" s="2"/>
       <x:c r="O20" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="P20" s="31"/>
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="P20" s="30"/>
       <x:c r="Q20" s="5"/>
       <x:c r="R20" s="5"/>
       <x:c r="S20" s="5"/>
@@ -3392,25 +3426,35 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D21" s="4" t="s">
-        <x:v>59</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E21" s="2" t="s">
-        <x:v>148</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F21" s="7" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G21" s="4"/>
       <x:c r="H21" s="4" t="s">
-        <x:v>246</x:v>
-      </x:c>
-      <x:c r="J21" s="8"/>
-      <x:c r="K21" s="8"/>
-      <x:c r="L21" s="8"/>
-      <x:c r="M21" s="8"/>
-      <x:c r="N21" s="8"/>
-      <x:c r="O21" s="38"/>
-      <x:c r="P21" s="32"/>
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="J21" s="2">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K21" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="L21" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="M21" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="N21" s="2"/>
+      <x:c r="O21" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="P21" s="31"/>
       <x:c r="Q21" s="5"/>
       <x:c r="R21" s="5"/>
       <x:c r="S21" s="5"/>
@@ -3426,37 +3470,37 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D22" s="4" t="s">
-        <x:v>205</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E22" s="7" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F22" s="7" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G22" s="4"/>
       <x:c r="H22" s="4" t="s">
-        <x:v>79</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="J22" s="21">
         <x:v>5</x:v>
       </x:c>
       <x:c r="K22" s="21" t="s">
-        <x:v>150</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="L22" s="21" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M22" s="21" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N22" s="21" t="s">
-        <x:v>230</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="O22" s="21" t="s">
         <x:v>243</x:v>
       </x:c>
-      <x:c r="P22" s="31"/>
+      <x:c r="P22" s="30"/>
       <x:c r="Q22" s="5"/>
       <x:c r="R22" s="5"/>
       <x:c r="S22" s="5"/>
@@ -3472,37 +3516,37 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D23" s="4" t="s">
-        <x:v>6</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E23" s="7" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F23" s="8" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G23" s="4"/>
       <x:c r="H23" s="4" t="s">
-        <x:v>232</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="J23" s="24">
         <x:v>6</x:v>
       </x:c>
       <x:c r="K23" s="24" t="s">
-        <x:v>161</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="L23" s="21" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M23" s="21" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N23" s="24" t="s">
-        <x:v>230</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="O23" s="24" t="s">
-        <x:v>238</x:v>
-      </x:c>
-      <x:c r="P23" s="31"/>
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="P23" s="30"/>
       <x:c r="Q23" s="5"/>
       <x:c r="R23" s="5"/>
       <x:c r="S23" s="5"/>
@@ -3515,25 +3559,25 @@
     </x:row>
     <x:row r="24" spans="2:25" ht="32.75">
       <x:c r="B24" t="s">
-        <x:v>125</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="C24" s="18">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D24" s="20" t="s">
-        <x:v>69</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E24" s="19" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F24" s="18" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G24" s="20" t="s">
-        <x:v>237</x:v>
-      </x:c>
-      <x:c r="H24" s="46" t="s">
-        <x:v>209</x:v>
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="H24" s="45" t="s">
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J24" s="14"/>
       <x:c r="K24" s="14"/>
@@ -3541,7 +3585,7 @@
       <x:c r="M24" s="15"/>
       <x:c r="N24" s="15"/>
       <x:c r="O24" s="15"/>
-      <x:c r="P24" s="31"/>
+      <x:c r="P24" s="30"/>
       <x:c r="Q24" s="5"/>
       <x:c r="R24" s="12"/>
       <x:c r="S24" s="6"/>
@@ -3553,31 +3597,31 @@
       <x:c r="Y24" s="5"/>
     </x:row>
     <x:row r="25" spans="3:25" ht="20.64999999999999857891">
-      <x:c r="C25" s="26">
+      <x:c r="C25" s="25">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D25" s="21" t="s">
-        <x:v>150</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E25" s="21" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F25" s="21" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G25" s="21" t="s">
-        <x:v>230</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H25" s="21" t="s">
         <x:v>243</x:v>
       </x:c>
-      <x:c r="J25" s="47"/>
-      <x:c r="K25" s="47"/>
-      <x:c r="L25" s="48"/>
-      <x:c r="M25" s="48"/>
-      <x:c r="N25" s="48"/>
-      <x:c r="O25" s="48"/>
-      <x:c r="P25" s="31"/>
+      <x:c r="J25" s="46"/>
+      <x:c r="K25" s="46"/>
+      <x:c r="L25" s="47"/>
+      <x:c r="M25" s="47"/>
+      <x:c r="N25" s="47"/>
+      <x:c r="O25" s="47"/>
+      <x:c r="P25" s="30"/>
       <x:c r="Q25" s="5"/>
       <x:c r="R25" s="5"/>
       <x:c r="S25" s="5"/>
@@ -3589,35 +3633,35 @@
       <x:c r="Y25" s="5"/>
     </x:row>
     <x:row r="26" spans="3:25" ht="20.64999999999999857891">
-      <x:c r="C26" s="26">
+      <x:c r="C26" s="25">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D26" s="24" t="s">
-        <x:v>161</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E26" s="21" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F26" s="21" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G26" s="24" t="s">
-        <x:v>230</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H26" s="24" t="s">
-        <x:v>238</x:v>
-      </x:c>
-      <x:c r="J26" s="65" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="K26" s="66"/>
-      <x:c r="L26" s="67" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="M26" s="68"/>
-      <x:c r="N26" s="68"/>
-      <x:c r="O26" s="69"/>
-      <x:c r="P26" s="34"/>
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="J26" s="64" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="K26" s="65"/>
+      <x:c r="L26" s="66" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="M26" s="67"/>
+      <x:c r="N26" s="67"/>
+      <x:c r="O26" s="68"/>
+      <x:c r="P26" s="33"/>
       <x:c r="Q26" s="5"/>
       <x:c r="R26" s="5"/>
       <x:c r="S26" s="5"/>
@@ -3635,17 +3679,17 @@
       <x:c r="F27" s="13"/>
       <x:c r="G27" s="13"/>
       <x:c r="H27" s="13"/>
-      <x:c r="J27" s="58" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="K27" s="59"/>
-      <x:c r="L27" s="60" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="M27" s="61"/>
-      <x:c r="N27" s="61"/>
-      <x:c r="O27" s="62"/>
-      <x:c r="P27" s="34"/>
+      <x:c r="J27" s="57" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="K27" s="58"/>
+      <x:c r="L27" s="59" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="M27" s="60"/>
+      <x:c r="N27" s="60"/>
+      <x:c r="O27" s="61"/>
+      <x:c r="P27" s="33"/>
       <x:c r="Q27" s="9"/>
       <x:c r="R27" s="9"/>
       <x:c r="S27" s="9"/>
@@ -3662,24 +3706,24 @@
       <x:c r="G28" s="6"/>
       <x:c r="H28" s="6"/>
       <x:c r="J28" s="1" t="s">
-        <x:v>258</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="K28" s="1" t="s">
-        <x:v>245</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="L28" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="M28" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="N28" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="O28" s="1" t="s">
-        <x:v>250</x:v>
-      </x:c>
-      <x:c r="P28" s="34"/>
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="P28" s="33"/>
       <x:c r="Q28" s="9"/>
       <x:c r="R28" s="3"/>
       <x:c r="S28" s="3"/>
@@ -3689,35 +3733,31 @@
       <x:c r="W28" s="5"/>
     </x:row>
     <x:row r="29" spans="3:23" ht="20.64999999999999857891">
-      <x:c r="C29" s="63" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="D29" s="63"/>
-      <x:c r="E29" s="64" t="s">
-        <x:v>185</x:v>
-      </x:c>
-      <x:c r="F29" s="64"/>
-      <x:c r="G29" s="64"/>
-      <x:c r="H29" s="64"/>
-      <x:c r="J29" s="27">
+      <x:c r="C29" s="62"/>
+      <x:c r="D29" s="62"/>
+      <x:c r="E29" s="63"/>
+      <x:c r="F29" s="63"/>
+      <x:c r="G29" s="63"/>
+      <x:c r="H29" s="63"/>
+      <x:c r="J29" s="26">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="K29" s="27" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="L29" s="27" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="M29" s="27" t="s">
-        <x:v>231</x:v>
-      </x:c>
-      <x:c r="N29" s="27" t="s">
-        <x:v>255</x:v>
-      </x:c>
-      <x:c r="O29" s="27" t="s">
-        <x:v>273</x:v>
-      </x:c>
-      <x:c r="P29" s="34"/>
+      <x:c r="K29" s="26" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="L29" s="26" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="M29" s="26" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="N29" s="26" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="O29" s="26" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="P29" s="33"/>
       <x:c r="Q29" s="10"/>
       <x:c r="R29" s="10"/>
       <x:c r="S29" s="10"/>
@@ -3727,33 +3767,29 @@
       <x:c r="W29" s="5"/>
     </x:row>
     <x:row r="30" spans="3:23" ht="20.64999999999999857891">
-      <x:c r="C30" s="63" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="D30" s="63"/>
-      <x:c r="E30" s="64" t="s">
-        <x:v>213</x:v>
-      </x:c>
-      <x:c r="F30" s="64"/>
-      <x:c r="G30" s="64"/>
-      <x:c r="H30" s="64"/>
+      <x:c r="C30" s="62"/>
+      <x:c r="D30" s="62"/>
+      <x:c r="E30" s="63"/>
+      <x:c r="F30" s="63"/>
+      <x:c r="G30" s="63"/>
+      <x:c r="H30" s="63"/>
       <x:c r="J30" s="2">
         <x:v>2</x:v>
       </x:c>
       <x:c r="K30" s="2" t="s">
-        <x:v>169</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="L30" s="2" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M30" s="2" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N30" s="2"/>
       <x:c r="O30" s="2" t="s">
-        <x:v>152</x:v>
-      </x:c>
-      <x:c r="P30" s="34"/>
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="P30" s="33"/>
       <x:c r="Q30" s="9"/>
       <x:c r="R30" s="9"/>
       <x:c r="S30" s="9"/>
@@ -3763,41 +3799,29 @@
       <x:c r="W30" s="5"/>
     </x:row>
     <x:row r="31" spans="3:23" ht="17.80000000000000071054">
-      <x:c r="C31" s="1" t="s">
-        <x:v>258</x:v>
-      </x:c>
-      <x:c r="D31" s="1" t="s">
-        <x:v>245</x:v>
-      </x:c>
-      <x:c r="E31" s="1" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="F31" s="1" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="G31" s="1" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="H31" s="1" t="s">
-        <x:v>250</x:v>
-      </x:c>
+      <x:c r="C31" s="1"/>
+      <x:c r="D31" s="1"/>
+      <x:c r="E31" s="1"/>
+      <x:c r="F31" s="1"/>
+      <x:c r="G31" s="1"/>
+      <x:c r="H31" s="1"/>
       <x:c r="J31" s="2">
         <x:v>3</x:v>
       </x:c>
       <x:c r="K31" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="L31" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M31" s="2" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N31" s="2"/>
       <x:c r="O31" s="2" t="s">
-        <x:v>232</x:v>
-      </x:c>
-      <x:c r="P31" s="34"/>
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="P31" s="33"/>
       <x:c r="Q31" s="9"/>
       <x:c r="R31" s="9"/>
       <x:c r="S31" s="9"/>
@@ -3807,44 +3831,32 @@
       <x:c r="W31" s="5"/>
     </x:row>
     <x:row r="32" spans="3:23" ht="17.25" customHeight="1">
-      <x:c r="C32" s="27">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D32" s="27" t="s">
-        <x:v>253</x:v>
-      </x:c>
-      <x:c r="E32" s="27" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="F32" s="27" t="s">
-        <x:v>231</x:v>
-      </x:c>
-      <x:c r="G32" s="27" t="s">
-        <x:v>255</x:v>
-      </x:c>
-      <x:c r="H32" s="27" t="s">
-        <x:v>273</x:v>
-      </x:c>
+      <x:c r="C32" s="26"/>
+      <x:c r="D32" s="26"/>
+      <x:c r="E32" s="26"/>
+      <x:c r="F32" s="26"/>
+      <x:c r="G32" s="26"/>
+      <x:c r="H32" s="26"/>
       <x:c r="J32" s="19">
         <x:v>4</x:v>
       </x:c>
       <x:c r="K32" s="19" t="s">
-        <x:v>267</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="L32" s="19" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M32" s="19" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N32" s="19" t="s">
-        <x:v>237</x:v>
-      </x:c>
-      <x:c r="O32" s="39" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="P32" s="34" t="s">
-        <x:v>264</x:v>
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="O32" s="38" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="P32" s="33" t="s">
+        <x:v>270</x:v>
       </x:c>
       <x:c r="Q32" s="9"/>
       <x:c r="R32" s="9"/>
@@ -3855,42 +3867,32 @@
       <x:c r="W32" s="5"/>
     </x:row>
     <x:row r="33" spans="3:23" ht="17.25" customHeight="1">
-      <x:c r="C33" s="8">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D33" s="4" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="E33" s="8" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="F33" s="8" t="s">
-        <x:v>231</x:v>
-      </x:c>
+      <x:c r="C33" s="8"/>
+      <x:c r="D33" s="4"/>
+      <x:c r="E33" s="8"/>
+      <x:c r="F33" s="8"/>
       <x:c r="G33" s="4"/>
-      <x:c r="H33" s="4" t="s">
-        <x:v>117</x:v>
-      </x:c>
+      <x:c r="H33" s="4"/>
       <x:c r="J33" s="20">
         <x:v>5</x:v>
       </x:c>
       <x:c r="K33" s="20" t="s">
-        <x:v>261</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="L33" s="19" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M33" s="19" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N33" s="20" t="s">
-        <x:v>237</x:v>
-      </x:c>
-      <x:c r="O33" s="46" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="P33" s="34" t="s">
-        <x:v>244</x:v>
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="O33" s="45" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="P33" s="33" t="s">
+        <x:v>249</x:v>
       </x:c>
       <x:c r="Q33" s="5"/>
       <x:c r="R33" s="5"/>
@@ -3901,41 +3903,31 @@
       <x:c r="W33" s="5"/>
     </x:row>
     <x:row r="34" spans="3:23">
-      <x:c r="C34" s="8">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D34" s="7" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="E34" s="2" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="F34" s="8" t="s">
-        <x:v>231</x:v>
-      </x:c>
+      <x:c r="C34" s="8"/>
+      <x:c r="D34" s="7"/>
+      <x:c r="E34" s="2"/>
+      <x:c r="F34" s="8"/>
       <x:c r="G34" s="7"/>
-      <x:c r="H34" s="7" t="s">
-        <x:v>80</x:v>
-      </x:c>
+      <x:c r="H34" s="7"/>
       <x:c r="J34" s="21">
         <x:v>6</x:v>
       </x:c>
       <x:c r="K34" s="21" t="s">
-        <x:v>150</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="L34" s="21" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M34" s="21" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N34" s="21" t="s">
-        <x:v>230</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="O34" s="21" t="s">
         <x:v>243</x:v>
       </x:c>
-      <x:c r="P34" s="34"/>
+      <x:c r="P34" s="33"/>
       <x:c r="Q34" s="5"/>
       <x:c r="R34" s="5"/>
       <x:c r="S34" s="5"/>
@@ -3945,60 +3937,40 @@
       <x:c r="W34" s="5"/>
     </x:row>
     <x:row r="35" spans="3:16">
-      <x:c r="C35" s="8">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D35" s="4" t="s">
-        <x:v>218</x:v>
-      </x:c>
-      <x:c r="E35" s="7" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="F35" s="8" t="s">
-        <x:v>231</x:v>
-      </x:c>
+      <x:c r="C35" s="8"/>
+      <x:c r="D35" s="4"/>
+      <x:c r="E35" s="7"/>
+      <x:c r="F35" s="8"/>
       <x:c r="G35" s="4"/>
-      <x:c r="H35" s="4" t="s">
-        <x:v>111</x:v>
-      </x:c>
+      <x:c r="H35" s="4"/>
       <x:c r="I35" s="17"/>
       <x:c r="J35" s="24">
         <x:v>7</x:v>
       </x:c>
       <x:c r="K35" s="24" t="s">
-        <x:v>161</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="L35" s="21" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M35" s="21" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N35" s="24" t="s">
-        <x:v>230</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="O35" s="24" t="s">
-        <x:v>238</x:v>
-      </x:c>
-      <x:c r="P35" s="34"/>
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="P35" s="33"/>
     </x:row>
     <x:row r="36" spans="3:16">
-      <x:c r="C36" s="7">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D36" s="4" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="E36" s="7" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="F36" s="7" t="s">
-        <x:v>231</x:v>
-      </x:c>
+      <x:c r="C36" s="7"/>
+      <x:c r="D36" s="4"/>
+      <x:c r="E36" s="7"/>
+      <x:c r="F36" s="7"/>
       <x:c r="G36" s="4"/>
-      <x:c r="H36" s="4" t="s">
-        <x:v>210</x:v>
-      </x:c>
+      <x:c r="H36" s="4"/>
       <x:c r="I36" s="17"/>
       <x:c r="J36" s="16"/>
       <x:c r="K36" s="16"/>
@@ -4006,296 +3978,207 @@
       <x:c r="M36" s="16"/>
       <x:c r="N36" s="16"/>
       <x:c r="O36" s="16"/>
-      <x:c r="P36" s="34"/>
+      <x:c r="P36" s="33"/>
     </x:row>
     <x:row r="37" spans="3:16" ht="20.64999999999999857891">
-      <x:c r="C37" s="7">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D37" s="4" t="s">
-        <x:v>225</x:v>
-      </x:c>
-      <x:c r="E37" s="7" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="F37" s="7" t="s">
-        <x:v>231</x:v>
-      </x:c>
+      <x:c r="C37" s="7"/>
+      <x:c r="D37" s="4"/>
+      <x:c r="E37" s="7"/>
+      <x:c r="F37" s="7"/>
       <x:c r="G37" s="4"/>
-      <x:c r="H37" s="4" t="s">
-        <x:v>222</x:v>
-      </x:c>
+      <x:c r="H37" s="4"/>
       <x:c r="I37" s="17"/>
-      <x:c r="J37" s="58" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="K37" s="59"/>
-      <x:c r="L37" s="60" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="M37" s="61"/>
-      <x:c r="N37" s="61"/>
-      <x:c r="O37" s="62"/>
-      <x:c r="P37" s="34"/>
+      <x:c r="J37" s="57" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="K37" s="58"/>
+      <x:c r="L37" s="59" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="M37" s="60"/>
+      <x:c r="N37" s="60"/>
+      <x:c r="O37" s="61"/>
+      <x:c r="P37" s="33"/>
     </x:row>
     <x:row r="38" spans="3:16" ht="20.64999999999999857891">
-      <x:c r="C38" s="7">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D38" s="4" t="s">
-        <x:v>224</x:v>
-      </x:c>
-      <x:c r="E38" s="7" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="F38" s="7" t="s">
-        <x:v>231</x:v>
-      </x:c>
+      <x:c r="C38" s="7"/>
+      <x:c r="D38" s="4"/>
+      <x:c r="E38" s="7"/>
+      <x:c r="F38" s="7"/>
       <x:c r="G38" s="4"/>
-      <x:c r="H38" s="4" t="s">
-        <x:v>269</x:v>
-      </x:c>
+      <x:c r="H38" s="4"/>
       <x:c r="I38" s="17"/>
-      <x:c r="J38" s="58" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="K38" s="59"/>
-      <x:c r="L38" s="60" t="s">
-        <x:v>265</x:v>
-      </x:c>
-      <x:c r="M38" s="61"/>
-      <x:c r="N38" s="61"/>
-      <x:c r="O38" s="62"/>
-      <x:c r="P38" s="34"/>
+      <x:c r="J38" s="57" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="K38" s="58"/>
+      <x:c r="L38" s="59" t="s">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="M38" s="60"/>
+      <x:c r="N38" s="60"/>
+      <x:c r="O38" s="61"/>
+      <x:c r="P38" s="33"/>
     </x:row>
     <x:row r="39" spans="3:16" ht="17.80000000000000071054">
-      <x:c r="C39" s="7">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D39" s="4" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E39" s="7" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="F39" s="7" t="s">
-        <x:v>231</x:v>
-      </x:c>
+      <x:c r="C39" s="7"/>
+      <x:c r="D39" s="4"/>
+      <x:c r="E39" s="7"/>
+      <x:c r="F39" s="7"/>
       <x:c r="G39" s="4"/>
-      <x:c r="H39" s="4" t="s">
-        <x:v>207</x:v>
-      </x:c>
+      <x:c r="H39" s="4"/>
       <x:c r="I39" s="17"/>
       <x:c r="J39" s="1" t="s">
-        <x:v>258</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="K39" s="1" t="s">
-        <x:v>245</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="L39" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="M39" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="N39" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="O39" s="1" t="s">
-        <x:v>250</x:v>
-      </x:c>
-      <x:c r="P39" s="34"/>
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="P39" s="33"/>
     </x:row>
     <x:row r="40" spans="3:16">
-      <x:c r="C40" s="7">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D40" s="4" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="E40" s="7" t="s">
+      <x:c r="C40" s="7"/>
+      <x:c r="D40" s="4"/>
+      <x:c r="E40" s="7"/>
+      <x:c r="F40" s="7"/>
+      <x:c r="G40" s="4"/>
+      <x:c r="H40" s="4"/>
+      <x:c r="I40" s="17"/>
+      <x:c r="J40" s="26">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K40" s="26" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="L40" s="26" t="s">
         <x:v>175</x:v>
       </x:c>
-      <x:c r="F40" s="7" t="s">
-        <x:v>231</x:v>
-      </x:c>
-      <x:c r="G40" s="4"/>
-      <x:c r="H40" s="4" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="I40" s="17"/>
-      <x:c r="J40" s="27">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K40" s="27" t="s">
-        <x:v>252</x:v>
-      </x:c>
-      <x:c r="L40" s="27" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="M40" s="27" t="s">
-        <x:v>231</x:v>
-      </x:c>
-      <x:c r="N40" s="27" t="s">
-        <x:v>255</x:v>
-      </x:c>
-      <x:c r="O40" s="27" t="s">
-        <x:v>273</x:v>
-      </x:c>
-      <x:c r="P40" s="34"/>
+      <x:c r="M40" s="26" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="N40" s="26" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="O40" s="26" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="P40" s="33"/>
     </x:row>
     <x:row r="41" spans="3:16">
-      <x:c r="C41" s="7">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D41" s="4" t="s">
-        <x:v>153</x:v>
-      </x:c>
-      <x:c r="E41" s="7" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="F41" s="7" t="s">
-        <x:v>231</x:v>
-      </x:c>
+      <x:c r="C41" s="7"/>
+      <x:c r="D41" s="4"/>
+      <x:c r="E41" s="7"/>
+      <x:c r="F41" s="7"/>
       <x:c r="G41" s="4"/>
-      <x:c r="H41" s="4" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="H41" s="4"/>
       <x:c r="I41" s="17"/>
       <x:c r="J41" s="2">
         <x:v>2</x:v>
       </x:c>
       <x:c r="K41" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="L41" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M41" s="2" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N41" s="2"/>
       <x:c r="O41" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="P41" s="34"/>
-    </x:row>
-    <x:row r="42" spans="2:16">
-      <x:c r="B42" t="s">
-        <x:v>155</x:v>
-      </x:c>
-      <x:c r="C42" s="18">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D42" s="19" t="s">
-        <x:v>272</x:v>
-      </x:c>
-      <x:c r="E42" s="19" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="F42" s="19" t="s">
-        <x:v>231</x:v>
-      </x:c>
-      <x:c r="G42" s="19" t="s">
-        <x:v>237</x:v>
-      </x:c>
-      <x:c r="H42" s="19" t="s">
-        <x:v>15</x:v>
-      </x:c>
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="P41" s="33"/>
+    </x:row>
+    <x:row r="42" spans="3:16">
+      <x:c r="C42" s="18"/>
+      <x:c r="D42" s="19"/>
+      <x:c r="E42" s="19"/>
+      <x:c r="F42" s="19"/>
+      <x:c r="G42" s="19"/>
+      <x:c r="H42" s="19"/>
       <x:c r="I42" s="17"/>
       <x:c r="J42" s="2">
         <x:v>3</x:v>
       </x:c>
       <x:c r="K42" s="2" t="s">
-        <x:v>214</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="L42" s="2" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M42" s="2" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N42" s="2"/>
       <x:c r="O42" s="2" t="s">
-        <x:v>206</x:v>
-      </x:c>
-      <x:c r="P42" s="34"/>
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="P42" s="33"/>
     </x:row>
     <x:row r="43" spans="3:16">
-      <x:c r="C43" s="26">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D43" s="21" t="s">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="E43" s="21" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="F43" s="21" t="s">
-        <x:v>231</x:v>
-      </x:c>
-      <x:c r="G43" s="21" t="s">
-        <x:v>230</x:v>
-      </x:c>
-      <x:c r="H43" s="21" t="s">
-        <x:v>243</x:v>
-      </x:c>
+      <x:c r="C43" s="25"/>
+      <x:c r="D43" s="21"/>
+      <x:c r="E43" s="21"/>
+      <x:c r="F43" s="21"/>
+      <x:c r="G43" s="21"/>
+      <x:c r="H43" s="21"/>
       <x:c r="I43" s="17"/>
       <x:c r="J43" s="2">
         <x:v>4</x:v>
       </x:c>
       <x:c r="K43" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="L43" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M43" s="2" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N43" s="2"/>
       <x:c r="O43" s="2" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="P43" s="34"/>
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="P43" s="33"/>
     </x:row>
     <x:row r="44" spans="3:16">
-      <x:c r="C44" s="26">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D44" s="24" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="E44" s="21" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="F44" s="21" t="s">
-        <x:v>231</x:v>
-      </x:c>
-      <x:c r="G44" s="24" t="s">
-        <x:v>230</x:v>
-      </x:c>
-      <x:c r="H44" s="24" t="s">
-        <x:v>238</x:v>
-      </x:c>
+      <x:c r="C44" s="25"/>
+      <x:c r="D44" s="24"/>
+      <x:c r="E44" s="21"/>
+      <x:c r="F44" s="21"/>
+      <x:c r="G44" s="24"/>
+      <x:c r="H44" s="24"/>
       <x:c r="I44" s="17"/>
       <x:c r="J44" s="2">
         <x:v>5</x:v>
       </x:c>
       <x:c r="K44" s="4" t="s">
-        <x:v>221</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="L44" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M44" s="2" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N44" s="4"/>
       <x:c r="O44" s="4" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="P44" s="34"/>
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="P44" s="33"/>
     </x:row>
     <x:row r="45" spans="3:16">
       <x:c r="C45" s="12"/>
@@ -4309,19 +4192,19 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="K45" s="2" t="s">
-        <x:v>145</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="L45" s="2" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M45" s="2" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N45" s="2"/>
       <x:c r="O45" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="P45" s="34"/>
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="P45" s="33"/>
     </x:row>
     <x:row r="46" spans="3:16">
       <x:c r="C46" s="12"/>
@@ -4335,176 +4218,176 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="K46" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="L46" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M46" s="2" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N46" s="4"/>
       <x:c r="O46" s="4" t="s">
-        <x:v>219</x:v>
-      </x:c>
-      <x:c r="P46" s="34"/>
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="P46" s="33"/>
     </x:row>
     <x:row r="47" spans="3:16" ht="20.64999999999999857891">
-      <x:c r="C47" s="63" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="D47" s="63"/>
-      <x:c r="E47" s="64" t="s">
-        <x:v>279</x:v>
-      </x:c>
-      <x:c r="F47" s="64"/>
-      <x:c r="G47" s="64"/>
-      <x:c r="H47" s="64"/>
+      <x:c r="C47" s="62" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="D47" s="62"/>
+      <x:c r="E47" s="63" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="F47" s="63"/>
+      <x:c r="G47" s="63"/>
+      <x:c r="H47" s="63"/>
       <x:c r="I47" s="17"/>
       <x:c r="J47" s="2">
         <x:v>8</x:v>
       </x:c>
       <x:c r="K47" s="4" t="s">
-        <x:v>57</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="L47" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M47" s="2" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N47" s="4"/>
       <x:c r="O47" s="4" t="s">
-        <x:v>228</x:v>
-      </x:c>
-      <x:c r="P47" s="34"/>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="P47" s="33"/>
     </x:row>
     <x:row r="48" spans="3:16" ht="20.64999999999999857891">
-      <x:c r="C48" s="63" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="D48" s="63"/>
-      <x:c r="E48" s="64" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="F48" s="64"/>
-      <x:c r="G48" s="64"/>
-      <x:c r="H48" s="64"/>
+      <x:c r="C48" s="62" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="D48" s="62"/>
+      <x:c r="E48" s="63" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="F48" s="63"/>
+      <x:c r="G48" s="63"/>
+      <x:c r="H48" s="63"/>
       <x:c r="I48" s="17"/>
       <x:c r="J48" s="2">
         <x:v>9</x:v>
       </x:c>
       <x:c r="K48" s="4" t="s">
-        <x:v>92</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="L48" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M48" s="2" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N48" s="4"/>
       <x:c r="O48" s="4" t="s">
-        <x:v>251</x:v>
-      </x:c>
-      <x:c r="P48" s="34"/>
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="P48" s="33"/>
     </x:row>
     <x:row r="49" spans="3:16" ht="17.80000000000000071054">
       <x:c r="C49" s="1" t="s">
-        <x:v>258</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="D49" s="1" t="s">
-        <x:v>245</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="E49" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F49" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="G49" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="H49" s="1" t="s">
-        <x:v>250</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="I49" s="17"/>
       <x:c r="J49" s="21">
         <x:v>10</x:v>
       </x:c>
       <x:c r="K49" s="21" t="s">
-        <x:v>150</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="L49" s="21" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M49" s="21" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N49" s="21" t="s">
-        <x:v>230</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="O49" s="21" t="s">
         <x:v>243</x:v>
       </x:c>
-      <x:c r="P49" s="34"/>
+      <x:c r="P49" s="33"/>
     </x:row>
     <x:row r="50" spans="3:16">
-      <x:c r="C50" s="27">
+      <x:c r="C50" s="26">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D50" s="27" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="E50" s="27" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="F50" s="27" t="s">
-        <x:v>231</x:v>
-      </x:c>
-      <x:c r="G50" s="27" t="s">
-        <x:v>255</x:v>
-      </x:c>
-      <x:c r="H50" s="27" t="s">
-        <x:v>273</x:v>
+      <x:c r="D50" s="26" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="E50" s="26" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="F50" s="26" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G50" s="26" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="H50" s="26" t="s">
+        <x:v>257</x:v>
       </x:c>
       <x:c r="I50" s="17"/>
       <x:c r="J50" s="21">
         <x:v>11</x:v>
       </x:c>
       <x:c r="K50" s="24" t="s">
-        <x:v>161</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="L50" s="21" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M50" s="21" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N50" s="24" t="s">
-        <x:v>230</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="O50" s="24" t="s">
-        <x:v>238</x:v>
-      </x:c>
-      <x:c r="P50" s="34"/>
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="P50" s="33"/>
     </x:row>
     <x:row r="51" spans="3:16">
       <x:c r="C51" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D51" s="4" t="s">
-        <x:v>108</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E51" s="8" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F51" s="8" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G51" s="4"/>
       <x:c r="H51" s="4" t="s">
-        <x:v>194</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I51" s="17"/>
       <x:c r="J51" s="16"/>
@@ -4513,147 +4396,147 @@
       <x:c r="M51" s="16"/>
       <x:c r="N51" s="16"/>
       <x:c r="O51" s="16"/>
-      <x:c r="P51" s="34"/>
+      <x:c r="P51" s="33"/>
     </x:row>
     <x:row r="52" spans="3:16" ht="20.64999999999999857891">
       <x:c r="C52" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D52" s="4" t="s">
-        <x:v>1</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="E52" s="2" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F52" s="7" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G52" s="4"/>
       <x:c r="H52" s="4" t="s">
-        <x:v>114</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="I52" s="17"/>
-      <x:c r="J52" s="58" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="K52" s="59"/>
-      <x:c r="L52" s="60" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="M52" s="61"/>
-      <x:c r="N52" s="61"/>
-      <x:c r="O52" s="62"/>
-      <x:c r="P52" s="34"/>
+      <x:c r="J52" s="57" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="K52" s="58"/>
+      <x:c r="L52" s="59" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="M52" s="60"/>
+      <x:c r="N52" s="60"/>
+      <x:c r="O52" s="61"/>
+      <x:c r="P52" s="33"/>
     </x:row>
     <x:row r="53" spans="3:16" ht="20.64999999999999857891">
       <x:c r="C53" s="8">
         <x:v>4</x:v>
       </x:c>
       <x:c r="D53" s="4" t="s">
-        <x:v>93</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E53" s="2" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F53" s="7" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G53" s="4"/>
       <x:c r="H53" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I53" s="17"/>
-      <x:c r="J53" s="58" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="K53" s="59"/>
-      <x:c r="L53" s="60" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="M53" s="61"/>
-      <x:c r="N53" s="61"/>
-      <x:c r="O53" s="62"/>
-      <x:c r="P53" s="34"/>
+      <x:c r="J53" s="57" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="K53" s="58"/>
+      <x:c r="L53" s="59" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="M53" s="60"/>
+      <x:c r="N53" s="60"/>
+      <x:c r="O53" s="61"/>
+      <x:c r="P53" s="33"/>
     </x:row>
     <x:row r="54" spans="3:16" ht="17.80000000000000071054">
       <x:c r="C54" s="8">
         <x:v>5</x:v>
       </x:c>
       <x:c r="D54" s="4" t="s">
-        <x:v>110</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E54" s="7" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F54" s="7" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G54" s="4"/>
       <x:c r="H54" s="4" t="s">
-        <x:v>66</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="I54" s="17"/>
       <x:c r="J54" s="1" t="s">
-        <x:v>258</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="K54" s="1" t="s">
-        <x:v>245</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="L54" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="M54" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="N54" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="O54" s="1" t="s">
-        <x:v>250</x:v>
-      </x:c>
-      <x:c r="P54" s="34"/>
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="P54" s="33"/>
     </x:row>
     <x:row r="55" spans="3:16">
       <x:c r="C55" s="8">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D55" s="4" t="s">
-        <x:v>178</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E55" s="7" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F55" s="7" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G55" s="4"/>
+      <x:c r="H55" s="28" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="I55" s="17"/>
+      <x:c r="J55" s="26">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K55" s="26" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="L55" s="26" t="s">
         <x:v>175</x:v>
       </x:c>
-      <x:c r="F55" s="7" t="s">
-        <x:v>231</x:v>
-      </x:c>
-      <x:c r="G55" s="4"/>
-      <x:c r="H55" s="29" t="s">
-        <x:v>234</x:v>
-      </x:c>
-      <x:c r="I55" s="17"/>
-      <x:c r="J55" s="27">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K55" s="27" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="L55" s="27" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="M55" s="27" t="s">
-        <x:v>231</x:v>
-      </x:c>
-      <x:c r="N55" s="27" t="s">
-        <x:v>255</x:v>
-      </x:c>
-      <x:c r="O55" s="27" t="s">
-        <x:v>273</x:v>
-      </x:c>
-      <x:c r="P55" s="34"/>
+      <x:c r="M55" s="26" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="N55" s="26" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="O55" s="26" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="P55" s="33"/>
     </x:row>
     <x:row r="56" spans="2:16">
       <x:c r="B56" s="16" t="s">
-        <x:v>68</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C56" s="19">
         <x:v>7</x:v>
@@ -4662,72 +4545,72 @@
       <x:c r="E56" s="18"/>
       <x:c r="F56" s="18"/>
       <x:c r="G56" s="20"/>
-      <x:c r="H56" s="30" t="s">
-        <x:v>244</x:v>
+      <x:c r="H56" s="29" t="s">
+        <x:v>249</x:v>
       </x:c>
       <x:c r="I56" s="17"/>
       <x:c r="J56" s="2">
         <x:v>2</x:v>
       </x:c>
       <x:c r="K56" s="2" t="s">
-        <x:v>126</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="L56" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M56" s="2" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N56" s="2"/>
       <x:c r="O56" s="2" t="s">
-        <x:v>195</x:v>
-      </x:c>
-      <x:c r="P56" s="34"/>
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P56" s="33"/>
     </x:row>
     <x:row r="57" spans="2:16" ht="32.75">
       <x:c r="B57" t="s">
-        <x:v>68</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C57" s="19">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D57" s="20" t="s">
-        <x:v>160</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="E57" s="19" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F57" s="19" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G57" s="20" t="s">
-        <x:v>237</x:v>
-      </x:c>
-      <x:c r="H57" s="33" t="s">
-        <x:v>236</x:v>
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="H57" s="32" t="s">
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I57" s="17"/>
       <x:c r="J57" s="2">
         <x:v>3</x:v>
       </x:c>
       <x:c r="K57" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="L57" s="2" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M57" s="2" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N57" s="2"/>
       <x:c r="O57" s="2" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="P57" s="34"/>
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="P57" s="33"/>
     </x:row>
     <x:row r="58" spans="2:16">
       <x:c r="B58" t="s">
-        <x:v>264</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="C58" s="19">
         <x:v>9</x:v>
@@ -4736,31 +4619,31 @@
       <x:c r="E58" s="18"/>
       <x:c r="F58" s="18"/>
       <x:c r="G58" s="20"/>
-      <x:c r="H58" s="30" t="s">
-        <x:v>166</x:v>
+      <x:c r="H58" s="29" t="s">
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I58" s="17"/>
       <x:c r="J58" s="2">
         <x:v>4</x:v>
       </x:c>
       <x:c r="K58" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="L58" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M58" s="2" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N58" s="2"/>
       <x:c r="O58" s="2" t="s">
-        <x:v>183</x:v>
-      </x:c>
-      <x:c r="P58" s="34"/>
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="P58" s="33"/>
     </x:row>
     <x:row r="59" spans="2:16">
       <x:c r="B59" t="s">
-        <x:v>264</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="C59" s="19">
         <x:v>10</x:v>
@@ -4770,30 +4653,30 @@
       <x:c r="F59" s="18"/>
       <x:c r="G59" s="20"/>
       <x:c r="H59" s="20" t="s">
-        <x:v>98</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I59" s="17"/>
       <x:c r="J59" s="2">
         <x:v>5</x:v>
       </x:c>
       <x:c r="K59" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="L59" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M59" s="2" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N59" s="4"/>
       <x:c r="O59" s="4" t="s">
-        <x:v>208</x:v>
-      </x:c>
-      <x:c r="P59" s="34"/>
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="P59" s="33"/>
     </x:row>
     <x:row r="60" spans="2:16">
       <x:c r="B60" s="16" t="s">
-        <x:v>264</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="C60" s="19">
         <x:v>11</x:v>
@@ -4802,49 +4685,49 @@
       <x:c r="E60" s="18"/>
       <x:c r="F60" s="18"/>
       <x:c r="G60" s="20"/>
-      <x:c r="H60" s="30" t="s">
-        <x:v>46</x:v>
+      <x:c r="H60" s="29" t="s">
+        <x:v>212</x:v>
       </x:c>
       <x:c r="I60" s="17"/>
       <x:c r="J60" s="2">
         <x:v>6</x:v>
       </x:c>
       <x:c r="K60" s="2" t="s">
-        <x:v>131</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="L60" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M60" s="2" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N60" s="2"/>
       <x:c r="O60" s="2" t="s">
-        <x:v>223</x:v>
-      </x:c>
-      <x:c r="P60" s="34"/>
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="P60" s="33"/>
     </x:row>
     <x:row r="61" spans="2:16" ht="32.75">
       <x:c r="B61" s="16" t="s">
-        <x:v>264</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="C61" s="19">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D61" s="20" t="s">
-        <x:v>267</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="E61" s="19" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F61" s="18" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G61" s="20" t="s">
-        <x:v>237</x:v>
-      </x:c>
-      <x:c r="H61" s="36" t="s">
-        <x:v>101</x:v>
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="H61" s="35" t="s">
+        <x:v>110</x:v>
       </x:c>
       <x:c r="I61" s="17"/>
       <x:c r="J61" s="19">
@@ -4854,29 +4737,29 @@
       <x:c r="L61" s="19"/>
       <x:c r="M61" s="19"/>
       <x:c r="N61" s="20"/>
-      <x:c r="O61" s="30" t="s">
-        <x:v>240</x:v>
-      </x:c>
-      <x:c r="P61" s="35" t="s">
-        <x:v>244</x:v>
+      <x:c r="O61" s="29" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="P61" s="34" t="s">
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="2:16">
       <x:c r="B62" s="16"/>
-      <x:c r="C62" s="26">
+      <x:c r="C62" s="25">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D62" s="21" t="s">
-        <x:v>150</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E62" s="21" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F62" s="21" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G62" s="21" t="s">
-        <x:v>230</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H62" s="21" t="s">
         <x:v>243</x:v>
@@ -4889,54 +4772,54 @@
       <x:c r="L62" s="19"/>
       <x:c r="M62" s="19"/>
       <x:c r="N62" s="20"/>
-      <x:c r="O62" s="30" t="s">
-        <x:v>274</x:v>
-      </x:c>
-      <x:c r="P62" s="34" t="s">
-        <x:v>244</x:v>
+      <x:c r="O62" s="29" t="s">
+        <x:v>263</x:v>
+      </x:c>
+      <x:c r="P62" s="33" t="s">
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="2:16" ht="32.75">
       <x:c r="B63" s="16"/>
-      <x:c r="C63" s="26">
+      <x:c r="C63" s="25">
         <x:v>14</x:v>
       </x:c>
       <x:c r="D63" s="24" t="s">
-        <x:v>161</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E63" s="21" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F63" s="21" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G63" s="24" t="s">
-        <x:v>230</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H63" s="24" t="s">
-        <x:v>238</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="I63" s="17"/>
       <x:c r="J63" s="19">
         <x:v>9</x:v>
       </x:c>
       <x:c r="K63" s="20" t="s">
-        <x:v>261</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="L63" s="19" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M63" s="19" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N63" s="20" t="s">
-        <x:v>237</x:v>
-      </x:c>
-      <x:c r="O63" s="30" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="P63" s="34" t="s">
-        <x:v>244</x:v>
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="O63" s="29" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="P63" s="33" t="s">
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="2:16">
@@ -4952,66 +4835,66 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="K64" s="21" t="s">
-        <x:v>150</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="L64" s="21" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M64" s="21" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N64" s="21" t="s">
-        <x:v>230</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="O64" s="21" t="s">
         <x:v>243</x:v>
       </x:c>
-      <x:c r="P64" s="34"/>
+      <x:c r="P64" s="33"/>
     </x:row>
     <x:row r="65" spans="3:16" ht="20.64999999999999857891">
-      <x:c r="C65" s="58" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="D65" s="59"/>
-      <x:c r="E65" s="60" t="s">
-        <x:v>189</x:v>
-      </x:c>
-      <x:c r="F65" s="61"/>
-      <x:c r="G65" s="61"/>
-      <x:c r="H65" s="62"/>
+      <x:c r="C65" s="57" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="D65" s="58"/>
+      <x:c r="E65" s="59" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F65" s="60"/>
+      <x:c r="G65" s="60"/>
+      <x:c r="H65" s="61"/>
       <x:c r="I65" s="17"/>
       <x:c r="J65" s="21">
         <x:v>11</x:v>
       </x:c>
       <x:c r="K65" s="24" t="s">
-        <x:v>161</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="L65" s="21" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M65" s="21" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N65" s="24" t="s">
-        <x:v>230</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="O65" s="24" t="s">
-        <x:v>238</x:v>
-      </x:c>
-      <x:c r="P65" s="34"/>
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="P65" s="33"/>
     </x:row>
     <x:row r="66" spans="2:16" ht="20.64999999999999857891">
       <x:c r="B66" s="17"/>
-      <x:c r="C66" s="58" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="D66" s="59"/>
-      <x:c r="E66" s="60" t="s">
-        <x:v>275</x:v>
-      </x:c>
-      <x:c r="F66" s="61"/>
-      <x:c r="G66" s="61"/>
-      <x:c r="H66" s="62"/>
+      <x:c r="C66" s="57" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="D66" s="58"/>
+      <x:c r="E66" s="59" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="F66" s="60"/>
+      <x:c r="G66" s="60"/>
+      <x:c r="H66" s="61"/>
       <x:c r="I66" s="17"/>
       <x:c r="J66" s="10"/>
       <x:c r="K66" s="6"/>
@@ -5019,27 +4902,27 @@
       <x:c r="M66" s="10"/>
       <x:c r="N66" s="6"/>
       <x:c r="O66" s="6"/>
-      <x:c r="P66" s="34"/>
+      <x:c r="P66" s="33"/>
     </x:row>
     <x:row r="67" spans="2:16" ht="20.64999999999999857891">
       <x:c r="B67" s="17"/>
       <x:c r="C67" s="1" t="s">
-        <x:v>258</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="D67" s="1" t="s">
-        <x:v>245</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="E67" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F67" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="G67" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="H67" s="1" t="s">
-        <x:v>250</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="I67" s="17"/>
       <x:c r="J67" s="14"/>
@@ -5052,35 +4935,35 @@
     </x:row>
     <x:row r="68" spans="2:16" ht="20.64999999999999857891">
       <x:c r="B68" s="17"/>
-      <x:c r="C68" s="27">
+      <x:c r="C68" s="26">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D68" s="27" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="E68" s="27" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="F68" s="27" t="s">
-        <x:v>231</x:v>
-      </x:c>
-      <x:c r="G68" s="27" t="s">
-        <x:v>255</x:v>
-      </x:c>
-      <x:c r="H68" s="27" t="s">
-        <x:v>273</x:v>
+      <x:c r="D68" s="26" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="E68" s="26" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="F68" s="26" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G68" s="26" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="H68" s="26" t="s">
+        <x:v>257</x:v>
       </x:c>
       <x:c r="I68" s="17"/>
-      <x:c r="J68" s="58" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="K68" s="59"/>
-      <x:c r="L68" s="60" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="M68" s="61"/>
-      <x:c r="N68" s="61"/>
-      <x:c r="O68" s="62"/>
+      <x:c r="J68" s="57" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="K68" s="58"/>
+      <x:c r="L68" s="59" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="M68" s="60"/>
+      <x:c r="N68" s="60"/>
+      <x:c r="O68" s="61"/>
       <x:c r="P68" s="16"/>
     </x:row>
     <x:row r="69" spans="2:16" ht="20.64999999999999857891">
@@ -5089,27 +4972,27 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D69" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="E69" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F69" s="2"/>
       <x:c r="G69" s="2"/>
       <x:c r="H69" s="2" t="s">
-        <x:v>99</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="I69" s="17"/>
-      <x:c r="J69" s="58" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="K69" s="59"/>
-      <x:c r="L69" s="60" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="M69" s="61"/>
-      <x:c r="N69" s="61"/>
-      <x:c r="O69" s="62"/>
+      <x:c r="J69" s="57" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="K69" s="58"/>
+      <x:c r="L69" s="59" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="M69" s="60"/>
+      <x:c r="N69" s="60"/>
+      <x:c r="O69" s="61"/>
       <x:c r="P69" s="16"/>
     </x:row>
     <x:row r="70" spans="2:16" ht="17.80000000000000071054">
@@ -5118,34 +5001,34 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D70" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E70" s="8" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F70" s="2"/>
       <x:c r="G70" s="2"/>
       <x:c r="H70" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="I70" s="17"/>
       <x:c r="J70" s="1" t="s">
-        <x:v>258</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="K70" s="1" t="s">
-        <x:v>245</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="L70" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="M70" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="N70" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="O70" s="1" t="s">
-        <x:v>250</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="P70" s="16"/>
     </x:row>
@@ -5155,40 +5038,40 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D71" s="2" t="s">
-        <x:v>118</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E71" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F71" s="2"/>
       <x:c r="G71" s="2"/>
       <x:c r="H71" s="2" t="s">
-        <x:v>216</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I71" s="17"/>
-      <x:c r="J71" s="27">
+      <x:c r="J71" s="26">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="K71" s="27" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="L71" s="27" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="M71" s="27" t="s">
-        <x:v>231</x:v>
-      </x:c>
-      <x:c r="N71" s="27" t="s">
-        <x:v>255</x:v>
-      </x:c>
-      <x:c r="O71" s="27" t="s">
-        <x:v>273</x:v>
+      <x:c r="K71" s="26" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="L71" s="26" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="M71" s="26" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="N71" s="26" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="O71" s="26" t="s">
+        <x:v>257</x:v>
       </x:c>
       <x:c r="P71" s="16"/>
     </x:row>
     <x:row r="72" spans="2:16" ht="32.75">
       <x:c r="B72" s="16" t="s">
-        <x:v>133</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="C72" s="19">
         <x:v>5</x:v>
@@ -5197,29 +5080,29 @@
       <x:c r="E72" s="19"/>
       <x:c r="F72" s="19"/>
       <x:c r="G72" s="20"/>
-      <x:c r="H72" s="55" t="s">
-        <x:v>2</x:v>
+      <x:c r="H72" s="54" t="s">
+        <x:v>230</x:v>
       </x:c>
       <x:c r="I72" s="17"/>
       <x:c r="J72" s="2">
         <x:v>2</x:v>
       </x:c>
       <x:c r="K72" s="2" t="s">
-        <x:v>162</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="L72" s="8" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M72" s="2"/>
       <x:c r="N72" s="2"/>
       <x:c r="O72" s="2" t="s">
-        <x:v>239</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="P72" s="16"/>
     </x:row>
     <x:row r="73" spans="2:16" ht="32.75">
       <x:c r="B73" s="16" t="s">
-        <x:v>133</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="C73" s="19">
         <x:v>6</x:v>
@@ -5228,102 +5111,102 @@
       <x:c r="E73" s="19"/>
       <x:c r="F73" s="19"/>
       <x:c r="G73" s="20"/>
-      <x:c r="H73" s="30" t="s">
-        <x:v>180</x:v>
+      <x:c r="H73" s="29" t="s">
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I73" s="17"/>
       <x:c r="J73" s="2">
         <x:v>3</x:v>
       </x:c>
       <x:c r="K73" s="2" t="s">
-        <x:v>156</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="L73" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M73" s="2"/>
       <x:c r="N73" s="2"/>
-      <x:c r="O73" s="57" t="s">
-        <x:v>278</x:v>
+      <x:c r="O73" s="56" t="s">
+        <x:v>283</x:v>
       </x:c>
       <x:c r="P73" s="16"/>
     </x:row>
     <x:row r="74" spans="2:16" ht="32.75">
       <x:c r="B74" s="16" t="s">
-        <x:v>133</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="C74" s="19">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D74" s="19" t="s">
-        <x:v>247</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="E74" s="19" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F74" s="19"/>
       <x:c r="G74" s="19" t="s">
-        <x:v>237</x:v>
-      </x:c>
-      <x:c r="H74" s="30" t="s">
-        <x:v>186</x:v>
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="H74" s="29" t="s">
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I74" s="17"/>
       <x:c r="J74" s="19">
         <x:v>4</x:v>
       </x:c>
       <x:c r="K74" s="19" t="s">
-        <x:v>160</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="L74" s="19" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M74" s="19"/>
       <x:c r="N74" s="19" t="s">
-        <x:v>237</x:v>
-      </x:c>
-      <x:c r="O74" s="56" t="s">
-        <x:v>226</x:v>
-      </x:c>
-      <x:c r="P74" s="34" t="s">
-        <x:v>68</x:v>
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="O74" s="55" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="P74" s="33" t="s">
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="2:16" ht="32.75">
       <x:c r="B75" s="16" t="s">
-        <x:v>144</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="C75" s="19">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D75" s="19" t="s">
-        <x:v>267</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="E75" s="19" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F75" s="19"/>
       <x:c r="G75" s="19" t="s">
-        <x:v>237</x:v>
-      </x:c>
-      <x:c r="H75" s="55" t="s">
-        <x:v>165</x:v>
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="H75" s="54" t="s">
+        <x:v>171</x:v>
       </x:c>
       <x:c r="I75" s="17"/>
-      <x:c r="J75" s="26">
+      <x:c r="J75" s="25">
         <x:v>5</x:v>
       </x:c>
       <x:c r="K75" s="21" t="s">
-        <x:v>150</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="L75" s="21" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M75" s="21" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N75" s="21" t="s">
-        <x:v>230</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="O75" s="21" t="s">
         <x:v>243</x:v>
@@ -5332,44 +5215,44 @@
     </x:row>
     <x:row r="76" spans="2:16" ht="32.75">
       <x:c r="B76" s="16" t="s">
-        <x:v>144</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="C76" s="19">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D76" s="20" t="s">
-        <x:v>160</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="E76" s="19" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F76" s="19" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G76" s="20" t="s">
-        <x:v>237</x:v>
-      </x:c>
-      <x:c r="H76" s="30" t="s">
-        <x:v>226</x:v>
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="H76" s="29" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="I76" s="17"/>
-      <x:c r="J76" s="26">
+      <x:c r="J76" s="25">
         <x:v>6</x:v>
       </x:c>
       <x:c r="K76" s="24" t="s">
-        <x:v>161</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="L76" s="21" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M76" s="21" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N76" s="24" t="s">
-        <x:v>230</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="O76" s="24" t="s">
-        <x:v>238</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="P76" s="16"/>
     </x:row>
@@ -5379,16 +5262,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D77" s="21" t="s">
-        <x:v>150</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E77" s="21" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F77" s="21" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G77" s="21" t="s">
-        <x:v>230</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H77" s="21" t="s">
         <x:v>243</x:v>
@@ -5399,8 +5282,8 @@
       <x:c r="L77" s="16"/>
       <x:c r="M77" s="16"/>
       <x:c r="N77" s="16"/>
-      <x:c r="O77" s="53"/>
-      <x:c r="P77" s="53"/>
+      <x:c r="O77" s="52"/>
+      <x:c r="P77" s="52"/>
     </x:row>
     <x:row r="78" spans="2:16">
       <x:c r="B78" s="16"/>
@@ -5408,19 +5291,19 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D78" s="24" t="s">
-        <x:v>161</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E78" s="21" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F78" s="21" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G78" s="24" t="s">
-        <x:v>230</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H78" s="24" t="s">
-        <x:v>238</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="I78" s="17"/>
       <x:c r="J78" s="16"/>
@@ -5428,140 +5311,140 @@
       <x:c r="L78" s="16"/>
       <x:c r="M78" s="16"/>
       <x:c r="N78" s="16"/>
-      <x:c r="O78" s="53"/>
-      <x:c r="P78" s="53"/>
+      <x:c r="O78" s="52"/>
+      <x:c r="P78" s="52"/>
     </x:row>
     <x:row r="79" spans="2:16" ht="20.64999999999999857891">
       <x:c r="B79" s="17"/>
-      <x:c r="C79" s="58" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="D79" s="59"/>
-      <x:c r="E79" s="60" t="s">
-        <x:v>211</x:v>
-      </x:c>
-      <x:c r="F79" s="61"/>
-      <x:c r="G79" s="61"/>
-      <x:c r="H79" s="62"/>
+      <x:c r="C79" s="57" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="D79" s="58"/>
+      <x:c r="E79" s="59" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="F79" s="60"/>
+      <x:c r="G79" s="60"/>
+      <x:c r="H79" s="61"/>
       <x:c r="I79" s="17"/>
-      <x:c r="J79" s="58" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="K79" s="59"/>
-      <x:c r="L79" s="70" t="s">
-        <x:v>202</x:v>
-      </x:c>
-      <x:c r="M79" s="71"/>
-      <x:c r="N79" s="71"/>
-      <x:c r="O79" s="72"/>
-      <x:c r="P79" s="34"/>
+      <x:c r="J79" s="57" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="K79" s="58"/>
+      <x:c r="L79" s="69" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="M79" s="70"/>
+      <x:c r="N79" s="70"/>
+      <x:c r="O79" s="71"/>
+      <x:c r="P79" s="33"/>
     </x:row>
     <x:row r="80" spans="2:16" ht="20.64999999999999857891">
       <x:c r="B80" s="17"/>
-      <x:c r="C80" s="58" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="D80" s="59"/>
-      <x:c r="E80" s="60" t="s">
-        <x:v>260</x:v>
-      </x:c>
-      <x:c r="F80" s="61"/>
-      <x:c r="G80" s="61"/>
-      <x:c r="H80" s="62"/>
+      <x:c r="C80" s="57" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="D80" s="58"/>
+      <x:c r="E80" s="59" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="F80" s="60"/>
+      <x:c r="G80" s="60"/>
+      <x:c r="H80" s="61"/>
       <x:c r="I80" s="17"/>
-      <x:c r="J80" s="58" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="K80" s="59"/>
-      <x:c r="L80" s="60" t="s">
-        <x:v>241</x:v>
-      </x:c>
-      <x:c r="M80" s="61"/>
-      <x:c r="N80" s="61"/>
-      <x:c r="O80" s="62"/>
-      <x:c r="P80" s="34"/>
+      <x:c r="J80" s="57" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="K80" s="58"/>
+      <x:c r="L80" s="59" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="M80" s="60"/>
+      <x:c r="N80" s="60"/>
+      <x:c r="O80" s="61"/>
+      <x:c r="P80" s="33"/>
     </x:row>
     <x:row r="81" spans="2:16" ht="17.80000000000000071054">
       <x:c r="B81" s="17"/>
       <x:c r="C81" s="1" t="s">
-        <x:v>258</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="D81" s="1" t="s">
-        <x:v>245</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="E81" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F81" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="G81" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="H81" s="1" t="s">
-        <x:v>250</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="I81" s="17"/>
       <x:c r="J81" s="1" t="s">
-        <x:v>258</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="K81" s="1" t="s">
-        <x:v>245</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="L81" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="M81" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="N81" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="O81" s="1" t="s">
-        <x:v>250</x:v>
-      </x:c>
-      <x:c r="P81" s="34"/>
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="P81" s="33"/>
     </x:row>
     <x:row r="82" spans="2:16">
       <x:c r="B82" s="17"/>
-      <x:c r="C82" s="27">
+      <x:c r="C82" s="26">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D82" s="27" t="s">
-        <x:v>248</x:v>
-      </x:c>
-      <x:c r="E82" s="27" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="F82" s="27" t="s">
-        <x:v>231</x:v>
-      </x:c>
-      <x:c r="G82" s="27" t="s">
-        <x:v>255</x:v>
-      </x:c>
-      <x:c r="H82" s="27" t="s">
-        <x:v>273</x:v>
+      <x:c r="D82" s="26" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="E82" s="26" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="F82" s="26" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G82" s="26" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="H82" s="26" t="s">
+        <x:v>257</x:v>
       </x:c>
       <x:c r="I82" s="17"/>
-      <x:c r="J82" s="27">
+      <x:c r="J82" s="26">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="K82" s="27" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="L82" s="27" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="M82" s="27" t="s">
-        <x:v>231</x:v>
-      </x:c>
-      <x:c r="N82" s="27" t="s">
-        <x:v>255</x:v>
-      </x:c>
-      <x:c r="O82" s="27" t="s">
-        <x:v>273</x:v>
-      </x:c>
-      <x:c r="P82" s="34"/>
+      <x:c r="K82" s="26" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="L82" s="26" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="M82" s="26" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="N82" s="26" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="O82" s="26" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="P82" s="33"/>
     </x:row>
     <x:row r="83" spans="2:16">
       <x:c r="B83" s="17"/>
@@ -5569,34 +5452,34 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D83" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="E83" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F83" s="8"/>
       <x:c r="G83" s="8"/>
       <x:c r="H83" s="8" t="s">
-        <x:v>78</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I83" s="17"/>
       <x:c r="J83" s="2">
         <x:v>2</x:v>
       </x:c>
       <x:c r="K83" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="L83" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M83" s="2" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N83" s="2"/>
       <x:c r="O83" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="P83" s="34"/>
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="P83" s="33"/>
     </x:row>
     <x:row r="84" spans="2:16">
       <x:c r="B84" s="17"/>
@@ -5604,34 +5487,34 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D84" s="8" t="s">
-        <x:v>124</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E84" s="8" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F84" s="8"/>
       <x:c r="G84" s="8"/>
       <x:c r="H84" s="8" t="s">
-        <x:v>227</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I84" s="17"/>
       <x:c r="J84" s="2">
         <x:v>3</x:v>
       </x:c>
       <x:c r="K84" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="L84" s="2" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M84" s="2" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N84" s="2"/>
       <x:c r="O84" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="P84" s="34"/>
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="P84" s="33"/>
     </x:row>
     <x:row r="85" spans="2:16">
       <x:c r="B85" s="17"/>
@@ -5639,34 +5522,34 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D85" s="8" t="s">
-        <x:v>91</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E85" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F85" s="8"/>
       <x:c r="G85" s="8"/>
       <x:c r="H85" s="8" t="s">
-        <x:v>270</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="I85" s="17"/>
       <x:c r="J85" s="2">
         <x:v>4</x:v>
       </x:c>
       <x:c r="K85" s="4" t="s">
-        <x:v>168</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="L85" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M85" s="2" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N85" s="4"/>
       <x:c r="O85" s="4" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="P85" s="34"/>
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="P85" s="33"/>
     </x:row>
     <x:row r="86" spans="2:16">
       <x:c r="B86" s="17"/>
@@ -5674,34 +5557,34 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D86" s="4" t="s">
-        <x:v>184</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E86" s="8" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F86" s="8"/>
       <x:c r="G86" s="4"/>
-      <x:c r="H86" s="29" t="s">
-        <x:v>157</x:v>
+      <x:c r="H86" s="28" t="s">
+        <x:v>181</x:v>
       </x:c>
       <x:c r="I86" s="17"/>
       <x:c r="J86" s="2">
         <x:v>5</x:v>
       </x:c>
       <x:c r="K86" s="2" t="s">
-        <x:v>170</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="L86" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M86" s="2" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N86" s="2"/>
       <x:c r="O86" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="P86" s="34"/>
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="P86" s="33"/>
     </x:row>
     <x:row r="87" spans="2:16">
       <x:c r="B87" s="17"/>
@@ -5709,34 +5592,34 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D87" s="8" t="s">
-        <x:v>233</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E87" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F87" s="8"/>
       <x:c r="G87" s="8"/>
       <x:c r="H87" s="8" t="s">
-        <x:v>88</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="I87" s="17"/>
       <x:c r="J87" s="2">
         <x:v>6</x:v>
       </x:c>
       <x:c r="K87" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="L87" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M87" s="2" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N87" s="2"/>
       <x:c r="O87" s="2" t="s">
-        <x:v>193</x:v>
-      </x:c>
-      <x:c r="P87" s="34"/>
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="P87" s="33"/>
     </x:row>
     <x:row r="88" spans="2:16" ht="32.75">
       <x:c r="B88" s="17"/>
@@ -5744,37 +5627,37 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D88" s="4" t="s">
-        <x:v>119</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="E88" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F88" s="8"/>
       <x:c r="G88" s="4"/>
-      <x:c r="H88" s="29" t="s">
-        <x:v>134</x:v>
+      <x:c r="H88" s="28" t="s">
+        <x:v>142</x:v>
       </x:c>
       <x:c r="I88" s="17"/>
       <x:c r="J88" s="19">
         <x:v>7</x:v>
       </x:c>
       <x:c r="K88" s="19" t="s">
-        <x:v>130</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="L88" s="19" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M88" s="19" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N88" s="19" t="s">
-        <x:v>237</x:v>
-      </x:c>
-      <x:c r="O88" s="39" t="s">
-        <x:v>179</x:v>
-      </x:c>
-      <x:c r="P88" s="34" t="s">
-        <x:v>75</x:v>
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="O88" s="38" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="P88" s="33" t="s">
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="3:16">
@@ -5782,15 +5665,15 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D89" s="8" t="s">
-        <x:v>172</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E89" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F89" s="8"/>
       <x:c r="G89" s="8"/>
       <x:c r="H89" s="8" t="s">
-        <x:v>262</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="I89" s="16"/>
       <x:c r="J89" s="19">
@@ -5800,32 +5683,32 @@
       <x:c r="L89" s="19"/>
       <x:c r="M89" s="19"/>
       <x:c r="N89" s="20"/>
-      <x:c r="O89" s="30" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="P89" s="35" t="s">
-        <x:v>271</x:v>
+      <x:c r="O89" s="29" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="P89" s="34" t="s">
+        <x:v>278</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="2:16" ht="32.75">
       <x:c r="B90" s="16" t="s">
-        <x:v>264</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="C90" s="19">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D90" s="19" t="s">
-        <x:v>267</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="E90" s="19" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F90" s="19"/>
       <x:c r="G90" s="19" t="s">
-        <x:v>237</x:v>
-      </x:c>
-      <x:c r="H90" s="54" t="s">
-        <x:v>165</x:v>
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="H90" s="53" t="s">
+        <x:v>171</x:v>
       </x:c>
       <x:c r="I90" s="16"/>
       <x:c r="J90" s="19">
@@ -5835,32 +5718,32 @@
       <x:c r="L90" s="19"/>
       <x:c r="M90" s="19"/>
       <x:c r="N90" s="20"/>
-      <x:c r="O90" s="30" t="s">
-        <x:v>227</x:v>
-      </x:c>
-      <x:c r="P90" s="35" t="s">
-        <x:v>271</x:v>
+      <x:c r="O90" s="29" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="P90" s="34" t="s">
+        <x:v>278</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="2:16" ht="32.75">
       <x:c r="B91" s="16" t="s">
-        <x:v>125</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="C91" s="19">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D91" s="20" t="s">
-        <x:v>253</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E91" s="19" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F91" s="19"/>
       <x:c r="G91" s="20" t="s">
-        <x:v>237</x:v>
-      </x:c>
-      <x:c r="H91" s="36" t="s">
-        <x:v>209</x:v>
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="H91" s="35" t="s">
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I91" s="16"/>
       <x:c r="J91" s="19">
@@ -5870,32 +5753,32 @@
       <x:c r="L91" s="19"/>
       <x:c r="M91" s="19"/>
       <x:c r="N91" s="20"/>
-      <x:c r="O91" s="30" t="s">
-        <x:v>264</x:v>
-      </x:c>
-      <x:c r="P91" s="35" t="s">
-        <x:v>271</x:v>
+      <x:c r="O91" s="29" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="P91" s="34" t="s">
+        <x:v>278</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="2:16" ht="32.75">
       <x:c r="B92" s="16" t="s">
-        <x:v>104</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C92" s="19">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D92" s="20" t="s">
-        <x:v>106</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E92" s="19" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F92" s="19"/>
       <x:c r="G92" s="20" t="s">
-        <x:v>237</x:v>
-      </x:c>
-      <x:c r="H92" s="30" t="s">
-        <x:v>177</x:v>
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="H92" s="29" t="s">
+        <x:v>11</x:v>
       </x:c>
       <x:c r="J92" s="19">
         <x:v>11</x:v>
@@ -5904,11 +5787,11 @@
       <x:c r="L92" s="19"/>
       <x:c r="M92" s="19"/>
       <x:c r="N92" s="19"/>
-      <x:c r="O92" s="33" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="P92" s="35" t="s">
-        <x:v>271</x:v>
+      <x:c r="O92" s="32" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="P92" s="34" t="s">
+        <x:v>278</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="3:16" ht="32.75">
@@ -5916,16 +5799,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D93" s="21" t="s">
-        <x:v>150</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E93" s="21" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F93" s="21" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G93" s="21" t="s">
-        <x:v>230</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H93" s="21" t="s">
         <x:v>243</x:v>
@@ -5934,22 +5817,22 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="K93" s="20" t="s">
-        <x:v>248</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="L93" s="19" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M93" s="19" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N93" s="20" t="s">
-        <x:v>237</x:v>
-      </x:c>
-      <x:c r="O93" s="30" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="P93" s="35" t="s">
-        <x:v>271</x:v>
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="O93" s="29" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="P93" s="34" t="s">
+        <x:v>278</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="3:16">
@@ -5957,60 +5840,60 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D94" s="24" t="s">
-        <x:v>161</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E94" s="21" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F94" s="21" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G94" s="24" t="s">
-        <x:v>230</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H94" s="24" t="s">
-        <x:v>238</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="J94" s="21">
         <x:v>13</x:v>
       </x:c>
       <x:c r="K94" s="21" t="s">
-        <x:v>150</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="L94" s="21" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M94" s="21" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N94" s="21" t="s">
-        <x:v>230</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="O94" s="21" t="s">
         <x:v>243</x:v>
       </x:c>
-      <x:c r="P94" s="34"/>
+      <x:c r="P94" s="33"/>
     </x:row>
     <x:row r="95" spans="10:16">
       <x:c r="J95" s="21">
         <x:v>14</x:v>
       </x:c>
       <x:c r="K95" s="24" t="s">
-        <x:v>161</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="L95" s="21" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M95" s="21" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N95" s="24" t="s">
-        <x:v>230</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="O95" s="24" t="s">
-        <x:v>238</x:v>
-      </x:c>
-      <x:c r="P95" s="34"/>
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="P95" s="33"/>
     </x:row>
     <x:row r="96" spans="10:16">
       <x:c r="J96" s="16"/>
@@ -6019,287 +5902,287 @@
       <x:c r="M96" s="16"/>
       <x:c r="N96" s="16"/>
       <x:c r="O96" s="16"/>
-      <x:c r="P96" s="34"/>
+      <x:c r="P96" s="33"/>
     </x:row>
     <x:row r="97" spans="3:16" ht="20.64999999999999857891">
-      <x:c r="C97" s="58" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="D97" s="59"/>
-      <x:c r="E97" s="60" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F97" s="61"/>
-      <x:c r="G97" s="61"/>
-      <x:c r="H97" s="62"/>
+      <x:c r="C97" s="57" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="D97" s="58"/>
+      <x:c r="E97" s="59" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="F97" s="60"/>
+      <x:c r="G97" s="60"/>
+      <x:c r="H97" s="61"/>
       <x:c r="J97" s="16"/>
       <x:c r="K97" s="16"/>
       <x:c r="L97" s="16"/>
       <x:c r="M97" s="16"/>
       <x:c r="N97" s="16"/>
       <x:c r="O97" s="16"/>
-      <x:c r="P97" s="34"/>
+      <x:c r="P97" s="33"/>
     </x:row>
     <x:row r="98" spans="3:16" ht="20.64999999999999857891">
-      <x:c r="C98" s="58" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="D98" s="59"/>
-      <x:c r="E98" s="60" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="F98" s="61"/>
-      <x:c r="G98" s="61"/>
-      <x:c r="H98" s="62"/>
-      <x:c r="J98" s="58" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="K98" s="59"/>
-      <x:c r="L98" s="60" t="s">
-        <x:v>277</x:v>
-      </x:c>
-      <x:c r="M98" s="61"/>
-      <x:c r="N98" s="61"/>
-      <x:c r="O98" s="62"/>
-      <x:c r="P98" s="34"/>
+      <x:c r="C98" s="57" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="D98" s="58"/>
+      <x:c r="E98" s="59" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="F98" s="60"/>
+      <x:c r="G98" s="60"/>
+      <x:c r="H98" s="61"/>
+      <x:c r="J98" s="57" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="K98" s="58"/>
+      <x:c r="L98" s="59" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="M98" s="60"/>
+      <x:c r="N98" s="60"/>
+      <x:c r="O98" s="61"/>
+      <x:c r="P98" s="33"/>
     </x:row>
     <x:row r="99" spans="3:16" ht="20.64999999999999857891">
       <x:c r="C99" s="1" t="s">
-        <x:v>258</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="D99" s="1" t="s">
-        <x:v>245</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="E99" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F99" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="G99" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="H99" s="1" t="s">
-        <x:v>250</x:v>
-      </x:c>
-      <x:c r="J99" s="58" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="K99" s="59"/>
-      <x:c r="L99" s="60" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="M99" s="61"/>
-      <x:c r="N99" s="61"/>
-      <x:c r="O99" s="62"/>
-      <x:c r="P99" s="34"/>
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="J99" s="57" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="K99" s="58"/>
+      <x:c r="L99" s="59" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="M99" s="60"/>
+      <x:c r="N99" s="60"/>
+      <x:c r="O99" s="61"/>
+      <x:c r="P99" s="33"/>
     </x:row>
     <x:row r="100" spans="3:16" ht="17.80000000000000071054">
-      <x:c r="C100" s="27">
+      <x:c r="C100" s="26">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D100" s="27" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="E100" s="27" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="F100" s="27" t="s">
-        <x:v>231</x:v>
-      </x:c>
-      <x:c r="G100" s="27" t="s">
-        <x:v>255</x:v>
-      </x:c>
-      <x:c r="H100" s="27" t="s">
-        <x:v>273</x:v>
+      <x:c r="D100" s="26" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="E100" s="26" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="F100" s="26" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G100" s="26" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="H100" s="26" t="s">
+        <x:v>257</x:v>
       </x:c>
       <x:c r="J100" s="1" t="s">
-        <x:v>258</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="K100" s="1" t="s">
-        <x:v>245</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="L100" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="M100" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="N100" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="O100" s="1" t="s">
-        <x:v>250</x:v>
-      </x:c>
-      <x:c r="P100" s="34"/>
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="P100" s="33"/>
     </x:row>
     <x:row r="101" spans="3:16">
       <x:c r="C101" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D101" s="8" t="s">
-        <x:v>151</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E101" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F101" s="8"/>
       <x:c r="G101" s="8"/>
       <x:c r="H101" s="8" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="J101" s="27">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="J101" s="26">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="K101" s="27" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="L101" s="27" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="M101" s="27" t="s">
-        <x:v>231</x:v>
-      </x:c>
-      <x:c r="N101" s="27" t="s">
-        <x:v>255</x:v>
-      </x:c>
-      <x:c r="O101" s="27" t="s">
-        <x:v>273</x:v>
-      </x:c>
-      <x:c r="P101" s="34"/>
+      <x:c r="K101" s="26" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="L101" s="26" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="M101" s="26" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="N101" s="26" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="O101" s="26" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="P101" s="33"/>
     </x:row>
     <x:row r="102" spans="3:16">
       <x:c r="C102" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D102" s="8" t="s">
-        <x:v>137</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="E102" s="8"/>
       <x:c r="F102" s="8"/>
       <x:c r="G102" s="8"/>
       <x:c r="H102" s="8" t="s">
-        <x:v>36</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="J102" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="K102" s="8" t="s">
-        <x:v>149</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="L102" s="8" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M102" s="8"/>
       <x:c r="N102" s="8"/>
       <x:c r="O102" s="8" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="P102" s="34"/>
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="P102" s="33"/>
     </x:row>
     <x:row r="103" spans="3:16">
       <x:c r="C103" s="8">
         <x:v>4</x:v>
       </x:c>
       <x:c r="D103" s="4" t="s">
-        <x:v>164</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="E103" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F103" s="8"/>
       <x:c r="G103" s="4"/>
       <x:c r="H103" s="4" t="s">
-        <x:v>49</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="J103" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="K103" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="L103" s="8" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M103" s="8"/>
       <x:c r="N103" s="8"/>
       <x:c r="O103" s="8" t="s">
-        <x:v>259</x:v>
-      </x:c>
-      <x:c r="P103" s="34"/>
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="P103" s="33"/>
     </x:row>
     <x:row r="104" spans="3:16">
       <x:c r="C104" s="8">
         <x:v>5</x:v>
       </x:c>
       <x:c r="D104" s="8" t="s">
-        <x:v>142</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="E104" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F104" s="8"/>
       <x:c r="G104" s="8"/>
       <x:c r="H104" s="8" t="s">
-        <x:v>176</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="J104" s="8">
         <x:v>4</x:v>
       </x:c>
       <x:c r="K104" s="4" t="s">
-        <x:v>200</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="L104" s="8" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M104" s="8"/>
       <x:c r="N104" s="4"/>
       <x:c r="O104" s="4" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="P104" s="34"/>
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="P104" s="33"/>
     </x:row>
     <x:row r="105" spans="2:16" ht="32.75">
       <x:c r="B105" t="s">
-        <x:v>260</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="C105" s="19">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D105" s="19" t="s">
-        <x:v>248</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="E105" s="19" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F105" s="19"/>
       <x:c r="G105" s="19"/>
-      <x:c r="H105" s="39" t="s">
-        <x:v>116</x:v>
+      <x:c r="H105" s="38" t="s">
+        <x:v>159</x:v>
       </x:c>
       <x:c r="J105" s="19">
         <x:v>5</x:v>
       </x:c>
       <x:c r="K105" s="19" t="s">
-        <x:v>253</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="L105" s="19" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M105" s="19"/>
       <x:c r="N105" s="19" t="s">
-        <x:v>237</x:v>
-      </x:c>
-      <x:c r="O105" s="39" t="s">
-        <x:v>209</x:v>
-      </x:c>
-      <x:c r="P105" s="35" t="s">
-        <x:v>125</x:v>
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="O105" s="38" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="P105" s="34" t="s">
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="2:16" ht="32.75">
       <x:c r="B106" t="s">
-        <x:v>125</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="C106" s="19">
         <x:v>7</x:v>
@@ -6308,120 +6191,120 @@
       <x:c r="E106" s="19"/>
       <x:c r="F106" s="19"/>
       <x:c r="G106" s="19"/>
-      <x:c r="H106" s="33" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="J106" s="40">
+      <x:c r="H106" s="32" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="J106" s="39">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="K106" s="40" t="s">
-        <x:v>267</x:v>
+      <x:c r="K106" s="39" t="s">
+        <x:v>273</x:v>
       </x:c>
       <x:c r="L106" s="19" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="M106" s="40"/>
-      <x:c r="N106" s="40" t="s">
-        <x:v>237</x:v>
-      </x:c>
-      <x:c r="O106" s="41" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="P106" s="34" t="s">
-        <x:v>264</x:v>
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="M106" s="39"/>
+      <x:c r="N106" s="39" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="O106" s="40" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="P106" s="33" t="s">
+        <x:v>270</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="2:16" ht="32.75">
       <x:c r="B107" s="16" t="s">
-        <x:v>125</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="C107" s="19">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D107" s="19" t="s">
-        <x:v>253</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E107" s="19" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F107" s="19"/>
       <x:c r="G107" s="19"/>
-      <x:c r="H107" s="39" t="s">
-        <x:v>209</x:v>
+      <x:c r="H107" s="38" t="s">
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J107" s="21">
         <x:v>7</x:v>
       </x:c>
       <x:c r="K107" s="21" t="s">
-        <x:v>150</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="L107" s="21" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M107" s="21" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N107" s="21" t="s">
-        <x:v>230</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="O107" s="21" t="s">
         <x:v>243</x:v>
       </x:c>
-      <x:c r="P107" s="34"/>
+      <x:c r="P107" s="33"/>
     </x:row>
     <x:row r="108" spans="2:16" ht="32.75">
       <x:c r="B108" s="16" t="s">
-        <x:v>264</x:v>
-      </x:c>
-      <x:c r="C108" s="40">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="C108" s="39">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="D108" s="43" t="s">
-        <x:v>267</x:v>
+      <x:c r="D108" s="42" t="s">
+        <x:v>273</x:v>
       </x:c>
       <x:c r="E108" s="19" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="F108" s="40"/>
-      <x:c r="G108" s="43"/>
-      <x:c r="H108" s="44" t="s">
-        <x:v>165</x:v>
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="F108" s="39"/>
+      <x:c r="G108" s="42"/>
+      <x:c r="H108" s="43" t="s">
+        <x:v>171</x:v>
       </x:c>
       <x:c r="J108" s="21">
         <x:v>8</x:v>
       </x:c>
       <x:c r="K108" s="24" t="s">
-        <x:v>161</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="L108" s="21" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M108" s="21" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N108" s="24" t="s">
-        <x:v>230</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="O108" s="24" t="s">
-        <x:v>238</x:v>
-      </x:c>
-      <x:c r="P108" s="34"/>
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="P108" s="33"/>
     </x:row>
     <x:row r="109" spans="3:16" ht="20.64999999999999857891">
       <x:c r="C109" s="21">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D109" s="21" t="s">
-        <x:v>150</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E109" s="21" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F109" s="21" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G109" s="21" t="s">
-        <x:v>230</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H109" s="21" t="s">
         <x:v>243</x:v>
@@ -6432,34 +6315,34 @@
       <x:c r="M109" s="15"/>
       <x:c r="N109" s="15"/>
       <x:c r="O109" s="15"/>
-      <x:c r="P109" s="34"/>
+      <x:c r="P109" s="33"/>
     </x:row>
     <x:row r="110" spans="3:16" ht="20.64999999999999857891">
       <x:c r="C110" s="21">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D110" s="24" t="s">
-        <x:v>161</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E110" s="21" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F110" s="21" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G110" s="24" t="s">
-        <x:v>230</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H110" s="24" t="s">
-        <x:v>238</x:v>
-      </x:c>
-      <x:c r="J110" s="47"/>
-      <x:c r="K110" s="47"/>
-      <x:c r="L110" s="48"/>
-      <x:c r="M110" s="48"/>
-      <x:c r="N110" s="48"/>
-      <x:c r="O110" s="48"/>
-      <x:c r="P110" s="34"/>
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="J110" s="46"/>
+      <x:c r="K110" s="46"/>
+      <x:c r="L110" s="47"/>
+      <x:c r="M110" s="47"/>
+      <x:c r="N110" s="47"/>
+      <x:c r="O110" s="47"/>
+      <x:c r="P110" s="33"/>
     </x:row>
     <x:row r="111" spans="3:16" ht="20.64999999999999857891">
       <x:c r="C111" s="12"/>
@@ -6467,19 +6350,19 @@
       <x:c r="E111" s="12"/>
       <x:c r="F111" s="12"/>
       <x:c r="G111" s="6"/>
-      <x:c r="H111" s="42"/>
-      <x:c r="J111" s="65" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="K111" s="66"/>
-      <x:c r="L111" s="67" t="s">
-        <x:v>276</x:v>
-      </x:c>
-      <x:c r="M111" s="68"/>
-      <x:c r="N111" s="68"/>
-      <x:c r="O111" s="69"/>
-      <x:c r="P111" s="34" t="s">
-        <x:v>43</x:v>
+      <x:c r="H111" s="41"/>
+      <x:c r="J111" s="64" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="K111" s="65"/>
+      <x:c r="L111" s="66" t="s">
+        <x:v>282</x:v>
+      </x:c>
+      <x:c r="M111" s="67"/>
+      <x:c r="N111" s="67"/>
+      <x:c r="O111" s="68"/>
+      <x:c r="P111" s="33" t="s">
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="3:16" ht="20.64999999999999857891">
@@ -6489,258 +6372,258 @@
       <x:c r="F112" s="12"/>
       <x:c r="G112" s="12"/>
       <x:c r="H112" s="12"/>
-      <x:c r="J112" s="58" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="K112" s="59"/>
-      <x:c r="L112" s="60" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="M112" s="61"/>
-      <x:c r="N112" s="61"/>
-      <x:c r="O112" s="62"/>
-      <x:c r="P112" s="34"/>
+      <x:c r="J112" s="57" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="K112" s="58"/>
+      <x:c r="L112" s="59" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="M112" s="60"/>
+      <x:c r="N112" s="60"/>
+      <x:c r="O112" s="61"/>
+      <x:c r="P112" s="33"/>
     </x:row>
     <x:row r="113" spans="2:16" ht="20.64999999999999857891">
       <x:c r="B113" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C113" s="58" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="D113" s="59"/>
-      <x:c r="E113" s="60" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F113" s="61"/>
-      <x:c r="G113" s="61"/>
-      <x:c r="H113" s="62"/>
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C113" s="57" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="D113" s="58"/>
+      <x:c r="E113" s="59" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="F113" s="60"/>
+      <x:c r="G113" s="60"/>
+      <x:c r="H113" s="61"/>
       <x:c r="J113" s="1" t="s">
-        <x:v>258</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="K113" s="1" t="s">
-        <x:v>245</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="L113" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="M113" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="N113" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="O113" s="1" t="s">
-        <x:v>250</x:v>
-      </x:c>
-      <x:c r="P113" s="34"/>
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="P113" s="33"/>
     </x:row>
     <x:row r="114" spans="3:16" ht="20.64999999999999857891">
-      <x:c r="C114" s="65" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="D114" s="66"/>
-      <x:c r="E114" s="67" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="F114" s="68"/>
-      <x:c r="G114" s="68"/>
-      <x:c r="H114" s="69"/>
-      <x:c r="J114" s="27">
+      <x:c r="C114" s="64" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="D114" s="65"/>
+      <x:c r="E114" s="66" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="F114" s="67"/>
+      <x:c r="G114" s="67"/>
+      <x:c r="H114" s="68"/>
+      <x:c r="J114" s="26">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="K114" s="27" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="L114" s="27" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="M114" s="27" t="s">
-        <x:v>231</x:v>
-      </x:c>
-      <x:c r="N114" s="27" t="s">
-        <x:v>255</x:v>
-      </x:c>
-      <x:c r="O114" s="27" t="s">
-        <x:v>273</x:v>
-      </x:c>
-      <x:c r="P114" s="34"/>
+      <x:c r="K114" s="26" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="L114" s="26" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="M114" s="26" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="N114" s="26" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="O114" s="26" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="P114" s="33"/>
     </x:row>
     <x:row r="115" spans="3:16" ht="17.80000000000000071054">
       <x:c r="C115" s="1" t="s">
-        <x:v>258</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="D115" s="1" t="s">
-        <x:v>245</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="E115" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F115" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="G115" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="H115" s="1" t="s">
-        <x:v>250</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="J115" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="K115" s="8" t="s">
-        <x:v>71</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="L115" s="8" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M115" s="8"/>
       <x:c r="N115" s="8"/>
       <x:c r="O115" s="8" t="s">
-        <x:v>203</x:v>
-      </x:c>
-      <x:c r="P115" s="34"/>
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="P115" s="33"/>
     </x:row>
     <x:row r="116" spans="3:16">
-      <x:c r="C116" s="27">
+      <x:c r="C116" s="26">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D116" s="27" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="E116" s="27" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="F116" s="27" t="s">
-        <x:v>231</x:v>
-      </x:c>
-      <x:c r="G116" s="27" t="s">
-        <x:v>255</x:v>
-      </x:c>
-      <x:c r="H116" s="27" t="s">
-        <x:v>273</x:v>
+      <x:c r="D116" s="26" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="E116" s="26" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="F116" s="26" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G116" s="26" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="H116" s="26" t="s">
+        <x:v>257</x:v>
       </x:c>
       <x:c r="J116" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="K116" s="8" t="s">
-        <x:v>44</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="L116" s="8" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M116" s="8"/>
       <x:c r="N116" s="8"/>
       <x:c r="O116" s="8" t="s">
-        <x:v>201</x:v>
-      </x:c>
-      <x:c r="P116" s="34"/>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="P116" s="33"/>
     </x:row>
     <x:row r="117" spans="3:16">
       <x:c r="C117" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D117" s="8" t="s">
-        <x:v>31</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E117" s="8" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F117" s="8"/>
       <x:c r="G117" s="8"/>
-      <x:c r="H117" s="37" t="s">
-        <x:v>188</x:v>
+      <x:c r="H117" s="36" t="s">
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J117" s="8">
         <x:v>4</x:v>
       </x:c>
       <x:c r="K117" s="4" t="s">
-        <x:v>41</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="L117" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M117" s="8"/>
       <x:c r="N117" s="4"/>
       <x:c r="O117" s="4" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="P117" s="34"/>
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="P117" s="33"/>
     </x:row>
     <x:row r="118" spans="3:16">
       <x:c r="C118" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D118" s="8" t="s">
-        <x:v>191</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E118" s="8" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F118" s="8"/>
       <x:c r="G118" s="8"/>
-      <x:c r="H118" s="37" t="s">
-        <x:v>199</x:v>
+      <x:c r="H118" s="36" t="s">
+        <x:v>45</x:v>
       </x:c>
       <x:c r="J118" s="8">
         <x:v>5</x:v>
       </x:c>
       <x:c r="K118" s="4" t="s">
-        <x:v>30</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="L118" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M118" s="8"/>
       <x:c r="N118" s="4"/>
-      <x:c r="O118" s="29" t="s">
-        <x:v>187</x:v>
-      </x:c>
-      <x:c r="P118" s="34"/>
+      <x:c r="O118" s="28" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="P118" s="33"/>
     </x:row>
     <x:row r="119" spans="2:16" ht="32.75">
       <x:c r="B119" t="s">
-        <x:v>264</x:v>
-      </x:c>
-      <x:c r="C119" s="40">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="C119" s="39">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="D119" s="40" t="s">
-        <x:v>267</x:v>
+      <x:c r="D119" s="39" t="s">
+        <x:v>273</x:v>
       </x:c>
       <x:c r="E119" s="19" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="F119" s="40"/>
-      <x:c r="G119" s="40" t="s">
-        <x:v>237</x:v>
-      </x:c>
-      <x:c r="H119" s="45" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="J119" s="40">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="F119" s="39"/>
+      <x:c r="G119" s="39" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="H119" s="44" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="J119" s="39">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="K119" s="40" t="s">
-        <x:v>248</x:v>
+      <x:c r="K119" s="39" t="s">
+        <x:v>252</x:v>
       </x:c>
       <x:c r="L119" s="19" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="M119" s="40"/>
-      <x:c r="N119" s="40" t="s">
-        <x:v>237</x:v>
-      </x:c>
-      <x:c r="O119" s="45" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="P119" s="34" t="s">
-        <x:v>260</x:v>
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="M119" s="39"/>
+      <x:c r="N119" s="39" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="O119" s="44" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="P119" s="33" t="s">
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="2:16" ht="32.75">
-      <x:c r="B120" s="51" t="s">
-        <x:v>204</x:v>
+      <x:c r="B120" s="50" t="s">
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C120" s="18">
         <x:v>5</x:v>
@@ -6749,85 +6632,85 @@
       <x:c r="E120" s="18"/>
       <x:c r="F120" s="18"/>
       <x:c r="G120" s="18"/>
-      <x:c r="H120" s="50" t="s">
-        <x:v>190</x:v>
-      </x:c>
-      <x:c r="J120" s="40">
+      <x:c r="H120" s="49" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J120" s="39">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="K120" s="40" t="s">
-        <x:v>267</x:v>
+      <x:c r="K120" s="39" t="s">
+        <x:v>273</x:v>
       </x:c>
       <x:c r="L120" s="19" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="M120" s="40"/>
-      <x:c r="N120" s="40" t="s">
-        <x:v>237</x:v>
-      </x:c>
-      <x:c r="O120" s="41" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="P120" s="34" t="s">
-        <x:v>264</x:v>
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="M120" s="39"/>
+      <x:c r="N120" s="39" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="O120" s="40" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="P120" s="33" t="s">
+        <x:v>270</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="2:16" ht="32.75">
-      <x:c r="B121" s="53" t="s">
-        <x:v>204</x:v>
+      <x:c r="B121" s="52" t="s">
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C121" s="18">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D121" s="18" t="s">
-        <x:v>29</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E121" s="18" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F121" s="18"/>
       <x:c r="G121" s="18" t="s">
-        <x:v>237</x:v>
-      </x:c>
-      <x:c r="H121" s="52" t="s">
-        <x:v>0</x:v>
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="H121" s="51" t="s">
+        <x:v>226</x:v>
       </x:c>
       <x:c r="J121" s="19">
         <x:v>8</x:v>
       </x:c>
       <x:c r="K121" s="19" t="s">
-        <x:v>253</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="L121" s="19" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M121" s="19"/>
       <x:c r="N121" s="19" t="s">
-        <x:v>237</x:v>
-      </x:c>
-      <x:c r="O121" s="33" t="s">
-        <x:v>182</x:v>
-      </x:c>
-      <x:c r="P121" s="34" t="s">
-        <x:v>139</x:v>
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="O121" s="32" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="P121" s="33" t="s">
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="2:16">
-      <x:c r="B122" s="49"/>
+      <x:c r="B122" s="48"/>
       <x:c r="C122" s="21">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D122" s="21" t="s">
-        <x:v>150</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E122" s="21" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F122" s="21" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G122" s="21" t="s">
-        <x:v>230</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H122" s="21" t="s">
         <x:v>243</x:v>
@@ -6836,61 +6719,61 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="K122" s="21" t="s">
-        <x:v>150</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="L122" s="21" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M122" s="21" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N122" s="21" t="s">
-        <x:v>230</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="O122" s="21" t="s">
         <x:v>243</x:v>
       </x:c>
-      <x:c r="P122" s="34"/>
+      <x:c r="P122" s="33"/>
     </x:row>
     <x:row r="123" spans="2:16">
-      <x:c r="B123" s="49"/>
+      <x:c r="B123" s="48"/>
       <x:c r="C123" s="21">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D123" s="24" t="s">
-        <x:v>161</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E123" s="21" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F123" s="21" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G123" s="24" t="s">
-        <x:v>230</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H123" s="24" t="s">
-        <x:v>238</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="J123" s="21">
         <x:v>13</x:v>
       </x:c>
       <x:c r="K123" s="24" t="s">
-        <x:v>161</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="L123" s="21" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M123" s="21" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N123" s="24" t="s">
-        <x:v>230</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="O123" s="24" t="s">
-        <x:v>238</x:v>
-      </x:c>
-      <x:c r="P123" s="34"/>
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="P123" s="33"/>
     </x:row>
     <x:row r="124" spans="2:16" ht="20.64999999999999857891">
       <x:c r="B124" s="16"/>
@@ -6906,155 +6789,155 @@
       <x:c r="M124" s="16"/>
       <x:c r="N124" s="16"/>
       <x:c r="O124" s="16"/>
-      <x:c r="P124" s="34"/>
+      <x:c r="P124" s="33"/>
     </x:row>
     <x:row r="125" spans="2:16" ht="20.64999999999999857891">
       <x:c r="B125" s="16"/>
-      <x:c r="C125" s="47"/>
-      <x:c r="D125" s="47"/>
-      <x:c r="E125" s="48"/>
-      <x:c r="F125" s="48"/>
-      <x:c r="G125" s="48"/>
-      <x:c r="H125" s="48"/>
+      <x:c r="C125" s="46"/>
+      <x:c r="D125" s="46"/>
+      <x:c r="E125" s="47"/>
+      <x:c r="F125" s="47"/>
+      <x:c r="G125" s="47"/>
+      <x:c r="H125" s="47"/>
       <x:c r="J125" s="16"/>
       <x:c r="K125" s="16"/>
       <x:c r="L125" s="16"/>
       <x:c r="M125" s="16"/>
       <x:c r="N125" s="16"/>
       <x:c r="O125" s="16"/>
-      <x:c r="P125" s="34"/>
+      <x:c r="P125" s="33"/>
     </x:row>
     <x:row r="126" spans="2:16" ht="20.64999999999999857891">
       <x:c r="B126" s="16" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="C126" s="65" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="D126" s="66"/>
-      <x:c r="E126" s="67" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F126" s="68"/>
-      <x:c r="G126" s="68"/>
-      <x:c r="H126" s="69"/>
-      <x:c r="J126" s="58" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="K126" s="59"/>
-      <x:c r="L126" s="60" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="M126" s="61"/>
-      <x:c r="N126" s="61"/>
-      <x:c r="O126" s="62"/>
-      <x:c r="P126" s="34" t="s">
-        <x:v>58</x:v>
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="C126" s="64" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="D126" s="65"/>
+      <x:c r="E126" s="66" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="F126" s="67"/>
+      <x:c r="G126" s="67"/>
+      <x:c r="H126" s="68"/>
+      <x:c r="J126" s="57" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="K126" s="58"/>
+      <x:c r="L126" s="59" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="M126" s="60"/>
+      <x:c r="N126" s="60"/>
+      <x:c r="O126" s="61"/>
+      <x:c r="P126" s="33" t="s">
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="2:16" ht="20.64999999999999857891">
       <x:c r="B127" s="16"/>
-      <x:c r="C127" s="65" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="D127" s="66"/>
-      <x:c r="E127" s="67" t="s">
-        <x:v>192</x:v>
-      </x:c>
-      <x:c r="F127" s="68"/>
-      <x:c r="G127" s="68"/>
-      <x:c r="H127" s="69"/>
-      <x:c r="J127" s="65" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="K127" s="66"/>
-      <x:c r="L127" s="67" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="M127" s="68"/>
-      <x:c r="N127" s="68"/>
-      <x:c r="O127" s="69"/>
-      <x:c r="P127" s="34"/>
+      <x:c r="C127" s="64" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="D127" s="65"/>
+      <x:c r="E127" s="66" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F127" s="67"/>
+      <x:c r="G127" s="67"/>
+      <x:c r="H127" s="68"/>
+      <x:c r="J127" s="64" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="K127" s="65"/>
+      <x:c r="L127" s="66" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="M127" s="67"/>
+      <x:c r="N127" s="67"/>
+      <x:c r="O127" s="68"/>
+      <x:c r="P127" s="33"/>
     </x:row>
     <x:row r="128" spans="2:16" ht="17.80000000000000071054">
       <x:c r="B128" s="16"/>
       <x:c r="C128" s="1" t="s">
-        <x:v>258</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="D128" s="1" t="s">
-        <x:v>245</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="E128" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F128" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="G128" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="H128" s="1" t="s">
-        <x:v>250</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="J128" s="1" t="s">
-        <x:v>258</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="K128" s="1" t="s">
-        <x:v>245</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="L128" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="M128" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="N128" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="O128" s="1" t="s">
-        <x:v>250</x:v>
-      </x:c>
-      <x:c r="P128" s="34"/>
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="P128" s="33"/>
     </x:row>
     <x:row r="129" spans="2:16">
       <x:c r="B129" s="16"/>
-      <x:c r="C129" s="27">
+      <x:c r="C129" s="26">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D129" s="27" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="E129" s="27" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="F129" s="27" t="s">
-        <x:v>231</x:v>
-      </x:c>
-      <x:c r="G129" s="27" t="s">
-        <x:v>255</x:v>
-      </x:c>
-      <x:c r="H129" s="27" t="s">
-        <x:v>273</x:v>
-      </x:c>
-      <x:c r="J129" s="27">
+      <x:c r="D129" s="26" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="E129" s="26" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="F129" s="26" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G129" s="26" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="H129" s="26" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="J129" s="26">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="K129" s="27" t="s">
-        <x:v>247</x:v>
-      </x:c>
-      <x:c r="L129" s="27" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="M129" s="27" t="s">
-        <x:v>231</x:v>
-      </x:c>
-      <x:c r="N129" s="27" t="s">
-        <x:v>255</x:v>
-      </x:c>
-      <x:c r="O129" s="27" t="s">
-        <x:v>273</x:v>
-      </x:c>
-      <x:c r="P129" s="34"/>
+      <x:c r="K129" s="26" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="L129" s="26" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="M129" s="26" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="N129" s="26" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="O129" s="26" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="P129" s="33"/>
     </x:row>
     <x:row r="130" spans="2:16" ht="32.75">
       <x:c r="B130" s="16"/>
@@ -7062,51 +6945,51 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D130" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="E130" s="8" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F130" s="8"/>
       <x:c r="G130" s="8"/>
-      <x:c r="H130" s="37" t="s">
-        <x:v>190</x:v>
+      <x:c r="H130" s="36" t="s">
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J130" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="K130" s="8" t="s">
-        <x:v>34</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="L130" s="8" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M130" s="8"/>
       <x:c r="N130" s="8"/>
-      <x:c r="O130" s="38" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="P130" s="34"/>
+      <x:c r="O130" s="37" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="P130" s="33"/>
     </x:row>
     <x:row r="131" spans="2:16" ht="32.75">
       <x:c r="B131" s="16" t="s">
-        <x:v>125</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="C131" s="19">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D131" s="19" t="s">
-        <x:v>253</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E131" s="19" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F131" s="19"/>
       <x:c r="G131" s="19" t="s">
-        <x:v>237</x:v>
-      </x:c>
-      <x:c r="H131" s="39" t="s">
-        <x:v>209</x:v>
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="H131" s="38" t="s">
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J131" s="19">
         <x:v>3</x:v>
@@ -7116,50 +6999,50 @@
       <x:c r="M131" s="19"/>
       <x:c r="N131" s="19"/>
       <x:c r="O131" s="19" t="s">
-        <x:v>166</x:v>
-      </x:c>
-      <x:c r="P131" s="34" t="s">
-        <x:v>264</x:v>
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="P131" s="33" t="s">
+        <x:v>270</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="2:16" ht="32.75">
       <x:c r="B132" s="16" t="s">
-        <x:v>264</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="C132" s="19">
         <x:v>4</x:v>
       </x:c>
       <x:c r="D132" s="19" t="s">
-        <x:v>267</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="E132" s="19" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F132" s="19"/>
       <x:c r="G132" s="19" t="s">
-        <x:v>237</x:v>
-      </x:c>
-      <x:c r="H132" s="39" t="s">
-        <x:v>165</x:v>
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="H132" s="38" t="s">
+        <x:v>171</x:v>
       </x:c>
       <x:c r="J132" s="19">
         <x:v>4</x:v>
       </x:c>
       <x:c r="K132" s="20" t="s">
-        <x:v>267</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="L132" s="19" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M132" s="19"/>
       <x:c r="N132" s="20" t="s">
-        <x:v>237</x:v>
-      </x:c>
-      <x:c r="O132" s="46" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="P132" s="35" t="s">
-        <x:v>264</x:v>
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="O132" s="45" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="P132" s="34" t="s">
+        <x:v>270</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="3:16">
@@ -7167,16 +7050,16 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D133" s="21" t="s">
-        <x:v>150</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E133" s="21" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F133" s="21" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G133" s="21" t="s">
-        <x:v>230</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H133" s="21" t="s">
         <x:v>243</x:v>
@@ -7188,11 +7071,11 @@
       <x:c r="L133" s="19"/>
       <x:c r="M133" s="19"/>
       <x:c r="N133" s="20"/>
-      <x:c r="O133" s="30" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="P133" s="34" t="s">
-        <x:v>244</x:v>
+      <x:c r="O133" s="29" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="P133" s="33" t="s">
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="134" spans="3:16" ht="32.75">
@@ -7200,38 +7083,38 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D134" s="24" t="s">
-        <x:v>161</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E134" s="21" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F134" s="21" t="s">
-        <x:v>231</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G134" s="24" t="s">
-        <x:v>230</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H134" s="24" t="s">
-        <x:v>238</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="J134" s="19">
         <x:v>6</x:v>
       </x:c>
       <x:c r="K134" s="20" t="s">
-        <x:v>261</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="L134" s="19" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M134" s="19"/>
       <x:c r="N134" s="20" t="s">
-        <x:v>237</x:v>
-      </x:c>
-      <x:c r="O134" s="30" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="P134" s="34" t="s">
-        <x:v>244</x:v>
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="O134" s="29" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="P134" s="33" t="s">
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="10:16">
@@ -7242,11 +7125,11 @@
       <x:c r="L135" s="19"/>
       <x:c r="M135" s="19"/>
       <x:c r="N135" s="20"/>
-      <x:c r="O135" s="30" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="P135" s="34" t="s">
-        <x:v>144</x:v>
+      <x:c r="O135" s="29" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="P135" s="33" t="s">
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="10:16" ht="32.75">
@@ -7254,78 +7137,78 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="K136" s="20" t="s">
-        <x:v>33</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="L136" s="19" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="M136" s="19"/>
       <x:c r="N136" s="20" t="s">
-        <x:v>237</x:v>
-      </x:c>
-      <x:c r="O136" s="46" t="s">
-        <x:v>226</x:v>
-      </x:c>
-      <x:c r="P136" s="34" t="s">
-        <x:v>144</x:v>
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="O136" s="45" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="P136" s="33" t="s">
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="3:16" ht="20.64999999999999857891">
-      <x:c r="C137" s="58" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="D137" s="59"/>
-      <x:c r="E137" s="60" t="s">
-        <x:v>198</x:v>
-      </x:c>
-      <x:c r="F137" s="61"/>
-      <x:c r="G137" s="61"/>
-      <x:c r="H137" s="62"/>
+      <x:c r="C137" s="57" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="D137" s="58"/>
+      <x:c r="E137" s="59" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F137" s="60"/>
+      <x:c r="G137" s="60"/>
+      <x:c r="H137" s="61"/>
       <x:c r="J137" s="16"/>
       <x:c r="K137" s="16"/>
       <x:c r="L137" s="16"/>
       <x:c r="M137" s="16"/>
       <x:c r="N137" s="16"/>
       <x:c r="O137" s="16"/>
-      <x:c r="P137" s="34"/>
+      <x:c r="P137" s="33"/>
     </x:row>
     <x:row r="138" spans="3:16" ht="20.64999999999999857891">
-      <x:c r="C138" s="65" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="D138" s="66"/>
-      <x:c r="E138" s="67" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="F138" s="68"/>
-      <x:c r="G138" s="68"/>
-      <x:c r="H138" s="69"/>
+      <x:c r="C138" s="64" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="D138" s="65"/>
+      <x:c r="E138" s="66" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="F138" s="67"/>
+      <x:c r="G138" s="67"/>
+      <x:c r="H138" s="68"/>
       <x:c r="J138" s="16"/>
       <x:c r="K138" s="16"/>
       <x:c r="L138" s="16"/>
       <x:c r="M138" s="16"/>
       <x:c r="N138" s="16"/>
       <x:c r="O138" s="16"/>
-      <x:c r="P138" s="34"/>
+      <x:c r="P138" s="33"/>
     </x:row>
     <x:row r="139" spans="3:16" ht="20.64999999999999857891">
       <x:c r="C139" s="1" t="s">
-        <x:v>258</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="D139" s="1" t="s">
-        <x:v>245</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="E139" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F139" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="G139" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="H139" s="1" t="s">
-        <x:v>250</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="J139" s="14"/>
       <x:c r="K139" s="14"/>
@@ -7333,26 +7216,26 @@
       <x:c r="M139" s="15"/>
       <x:c r="N139" s="15"/>
       <x:c r="O139" s="15"/>
-      <x:c r="P139" s="34"/>
+      <x:c r="P139" s="33"/>
     </x:row>
     <x:row r="140" spans="3:16" ht="20.64999999999999857891">
-      <x:c r="C140" s="27">
+      <x:c r="C140" s="26">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D140" s="27" t="s">
-        <x:v>249</x:v>
-      </x:c>
-      <x:c r="E140" s="27" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="F140" s="27" t="s">
-        <x:v>231</x:v>
-      </x:c>
-      <x:c r="G140" s="27" t="s">
-        <x:v>255</x:v>
-      </x:c>
-      <x:c r="H140" s="27" t="s">
-        <x:v>273</x:v>
+      <x:c r="D140" s="26" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="E140" s="26" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="F140" s="26" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G140" s="26" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="H140" s="26" t="s">
+        <x:v>257</x:v>
       </x:c>
       <x:c r="J140" s="14"/>
       <x:c r="K140" s="14"/>
@@ -7360,22 +7243,22 @@
       <x:c r="M140" s="15"/>
       <x:c r="N140" s="15"/>
       <x:c r="O140" s="15"/>
-      <x:c r="P140" s="34"/>
+      <x:c r="P140" s="33"/>
     </x:row>
     <x:row r="141" spans="3:16" ht="17.80000000000000071054">
       <x:c r="C141" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D141" s="8" t="s">
-        <x:v>127</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="E141" s="8" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F141" s="8"/>
       <x:c r="G141" s="8"/>
-      <x:c r="H141" s="37" t="s">
-        <x:v>20</x:v>
+      <x:c r="H141" s="36" t="s">
+        <x:v>206</x:v>
       </x:c>
       <x:c r="J141" s="14"/>
       <x:c r="K141" s="14"/>
@@ -7383,22 +7266,22 @@
       <x:c r="M141" s="14"/>
       <x:c r="N141" s="14"/>
       <x:c r="O141" s="14"/>
-      <x:c r="P141" s="34"/>
+      <x:c r="P141" s="33"/>
     </x:row>
     <x:row r="142" spans="3:16">
       <x:c r="C142" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D142" s="8" t="s">
-        <x:v>52</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E142" s="8" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F142" s="8"/>
       <x:c r="G142" s="8"/>
-      <x:c r="H142" s="37" t="s">
-        <x:v>51</x:v>
+      <x:c r="H142" s="36" t="s">
+        <x:v>83</x:v>
       </x:c>
       <x:c r="J142" s="16"/>
       <x:c r="K142" s="16"/>
@@ -7406,58 +7289,58 @@
       <x:c r="M142" s="16"/>
       <x:c r="N142" s="16"/>
       <x:c r="O142" s="16"/>
-      <x:c r="P142" s="34"/>
+      <x:c r="P142" s="33"/>
     </x:row>
     <x:row r="143" spans="3:16">
       <x:c r="C143" s="8">
         <x:v>4</x:v>
       </x:c>
       <x:c r="D143" s="8" t="s">
-        <x:v>121</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E143" s="8" t="s">
-        <x:v>163</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F143" s="8"/>
       <x:c r="G143" s="8"/>
-      <x:c r="H143" s="37" t="s">
-        <x:v>35</x:v>
+      <x:c r="H143" s="36" t="s">
+        <x:v>216</x:v>
       </x:c>
       <x:c r="J143" s="16"/>
       <x:c r="K143" s="16"/>
       <x:c r="L143" s="16"/>
       <x:c r="M143" s="16"/>
       <x:c r="N143" s="16"/>
-      <x:c r="O143" s="53"/>
-      <x:c r="P143" s="34"/>
+      <x:c r="O143" s="52"/>
+      <x:c r="P143" s="33"/>
     </x:row>
     <x:row r="144" spans="2:16" ht="32.75">
       <x:c r="B144" t="s">
-        <x:v>241</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="C144" s="19">
         <x:v>5</x:v>
       </x:c>
       <x:c r="D144" s="19" t="s">
-        <x:v>97</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E144" s="19" t="s">
-        <x:v>175</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F144" s="19"/>
       <x:c r="G144" s="19" t="s">
-        <x:v>237</x:v>
-      </x:c>
-      <x:c r="H144" s="39" t="s">
-        <x:v>55</x:v>
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="H144" s="38" t="s">
+        <x:v>89</x:v>
       </x:c>
       <x:c r="J144" s="16"/>
       <x:c r="K144" s="16"/>
       <x:c r="L144" s="16"/>
       <x:c r="M144" s="16"/>
       <x:c r="N144" s="16"/>
-      <x:c r="O144" s="53"/>
-      <x:c r="P144" s="34"/>
+      <x:c r="O144" s="52"/>
+      <x:c r="P144" s="33"/>
     </x:row>
     <x:row r="145" spans="10:16">
       <x:c r="J145" s="16"/>
@@ -7465,8 +7348,8 @@
       <x:c r="L145" s="16"/>
       <x:c r="M145" s="16"/>
       <x:c r="N145" s="16"/>
-      <x:c r="O145" s="53"/>
-      <x:c r="P145" s="34"/>
+      <x:c r="O145" s="52"/>
+      <x:c r="P145" s="33"/>
     </x:row>
     <x:row r="146" spans="10:16">
       <x:c r="J146" s="16"/>
@@ -7474,245 +7357,600 @@
       <x:c r="L146" s="16"/>
       <x:c r="M146" s="16"/>
       <x:c r="N146" s="16"/>
-      <x:c r="O146" s="53"/>
-      <x:c r="P146" s="34"/>
-    </x:row>
-    <x:row r="147" spans="10:16">
+      <x:c r="O146" s="52"/>
+      <x:c r="P146" s="33"/>
+    </x:row>
+    <x:row r="147" spans="2:16" ht="20.64999999999999857891">
+      <x:c r="B147" s="16"/>
+      <x:c r="C147" s="62" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="D147" s="62"/>
+      <x:c r="E147" s="63" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F147" s="63"/>
+      <x:c r="G147" s="63"/>
+      <x:c r="H147" s="63"/>
       <x:c r="J147" s="10"/>
       <x:c r="K147" s="6"/>
       <x:c r="L147" s="10"/>
       <x:c r="M147" s="10"/>
       <x:c r="N147" s="6"/>
-      <x:c r="O147" s="42"/>
-      <x:c r="P147" s="35"/>
-    </x:row>
-    <x:row r="148" spans="16:16">
-      <x:c r="P148" s="31"/>
-    </x:row>
-    <x:row r="149" spans="16:16">
-      <x:c r="P149" s="31"/>
-    </x:row>
-    <x:row r="150" spans="16:16">
-      <x:c r="P150" s="31"/>
-    </x:row>
-    <x:row r="151" spans="16:16">
-      <x:c r="P151" s="31"/>
-    </x:row>
-    <x:row r="152" spans="16:16">
-      <x:c r="P152" s="31"/>
-    </x:row>
-    <x:row r="153" spans="16:16">
-      <x:c r="P153" s="31"/>
-    </x:row>
-    <x:row r="154" spans="16:16">
-      <x:c r="P154" s="31"/>
-    </x:row>
-    <x:row r="155" spans="16:16">
-      <x:c r="P155" s="31"/>
-    </x:row>
-    <x:row r="156" spans="16:16">
-      <x:c r="P156" s="31"/>
-    </x:row>
-    <x:row r="157" spans="16:16">
-      <x:c r="P157" s="31"/>
-    </x:row>
-    <x:row r="158" spans="16:16">
-      <x:c r="P158" s="31"/>
-    </x:row>
-    <x:row r="159" spans="16:16">
-      <x:c r="P159" s="31"/>
-    </x:row>
-    <x:row r="160" spans="16:16">
-      <x:c r="P160" s="31"/>
-    </x:row>
-    <x:row r="161" spans="16:16">
-      <x:c r="P161" s="31"/>
-    </x:row>
-    <x:row r="162" spans="16:16">
-      <x:c r="P162" s="31"/>
-    </x:row>
-    <x:row r="163" spans="16:16">
-      <x:c r="P163" s="31"/>
-    </x:row>
-    <x:row r="164" spans="16:16">
-      <x:c r="P164" s="31"/>
-    </x:row>
-    <x:row r="165" spans="16:16">
-      <x:c r="P165" s="31"/>
-    </x:row>
-    <x:row r="166" spans="16:16">
-      <x:c r="P166" s="31"/>
-    </x:row>
-    <x:row r="167" spans="16:16">
-      <x:c r="P167" s="31"/>
-    </x:row>
-    <x:row r="168" spans="16:16">
-      <x:c r="P168" s="31"/>
-    </x:row>
-    <x:row r="169" spans="16:16">
-      <x:c r="P169" s="31"/>
+      <x:c r="O147" s="41"/>
+      <x:c r="P147" s="34"/>
+    </x:row>
+    <x:row r="148" spans="2:16" ht="20.64999999999999857891">
+      <x:c r="B148" s="16"/>
+      <x:c r="C148" s="62" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="D148" s="62"/>
+      <x:c r="E148" s="63" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F148" s="63"/>
+      <x:c r="G148" s="63"/>
+      <x:c r="H148" s="63"/>
+      <x:c r="P148" s="30"/>
+    </x:row>
+    <x:row r="149" spans="2:16" ht="17.80000000000000071054">
+      <x:c r="B149" s="16"/>
+      <x:c r="C149" s="1" t="s">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="D149" s="1" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="E149" s="1" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="F149" s="1" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="G149" s="1" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="H149" s="1" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="P149" s="30"/>
+    </x:row>
+    <x:row r="150" spans="2:16">
+      <x:c r="B150" s="16"/>
+      <x:c r="C150" s="26">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D150" s="26" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="E150" s="26" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="F150" s="26" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G150" s="26" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="H150" s="26" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="P150" s="30"/>
+    </x:row>
+    <x:row r="151" spans="2:16">
+      <x:c r="B151" s="16"/>
+      <x:c r="C151" s="8">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D151" s="4" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E151" s="8" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F151" s="8" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G151" s="4"/>
+      <x:c r="H151" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="P151" s="30"/>
+    </x:row>
+    <x:row r="152" spans="2:16">
+      <x:c r="B152" s="16"/>
+      <x:c r="C152" s="8">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D152" s="7" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E152" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="F152" s="8" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G152" s="7"/>
+      <x:c r="H152" s="7" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="P152" s="30"/>
+    </x:row>
+    <x:row r="153" spans="2:16">
+      <x:c r="B153" s="16"/>
+      <x:c r="C153" s="8">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D153" s="4" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E153" s="7" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F153" s="8" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G153" s="4"/>
+      <x:c r="H153" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="P153" s="30"/>
+    </x:row>
+    <x:row r="154" spans="2:16">
+      <x:c r="B154" s="16"/>
+      <x:c r="C154" s="7">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D154" s="4" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="E154" s="7" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F154" s="7" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G154" s="4"/>
+      <x:c r="H154" s="4" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="P154" s="30"/>
+    </x:row>
+    <x:row r="155" spans="2:16">
+      <x:c r="B155" s="16"/>
+      <x:c r="C155" s="7">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D155" s="4" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E155" s="7" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F155" s="7" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G155" s="4"/>
+      <x:c r="H155" s="4" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="P155" s="30"/>
+    </x:row>
+    <x:row r="156" spans="2:16">
+      <x:c r="B156" s="16"/>
+      <x:c r="C156" s="7">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D156" s="4" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E156" s="7" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F156" s="7" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G156" s="4"/>
+      <x:c r="H156" s="4" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="P156" s="30"/>
+    </x:row>
+    <x:row r="157" spans="2:16">
+      <x:c r="B157" s="16"/>
+      <x:c r="C157" s="7">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D157" s="4" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="E157" s="7" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F157" s="7" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G157" s="4"/>
+      <x:c r="H157" s="4" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P157" s="30"/>
+    </x:row>
+    <x:row r="158" spans="2:16">
+      <x:c r="B158" s="16"/>
+      <x:c r="C158" s="7">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D158" s="4" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="E158" s="7" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F158" s="7" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G158" s="4"/>
+      <x:c r="H158" s="4" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="P158" s="30"/>
+    </x:row>
+    <x:row r="159" spans="2:16">
+      <x:c r="B159" s="16"/>
+      <x:c r="C159" s="7">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D159" s="4" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="E159" s="7" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F159" s="7" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G159" s="4"/>
+      <x:c r="H159" s="4" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="P159" s="30"/>
+    </x:row>
+    <x:row r="160" spans="2:16">
+      <x:c r="B160" s="16"/>
+      <x:c r="C160" s="7">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D160" s="4" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="E160" s="7" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F160" s="7" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G160" s="4"/>
+      <x:c r="H160" s="4" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="P160" s="30"/>
+    </x:row>
+    <x:row r="161" spans="2:16">
+      <x:c r="B161" s="16"/>
+      <x:c r="C161" s="7">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D161" s="4" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="E161" s="7" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F161" s="7" t="s">
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="G161" s="4"/>
+      <x:c r="H161" s="4" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="P161" s="30"/>
+    </x:row>
+    <x:row r="162" spans="2:16">
+      <x:c r="B162" s="16"/>
+      <x:c r="C162" s="7">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D162" s="4" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="E162" s="7" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F162" s="7" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G162" s="4"/>
+      <x:c r="H162" s="4" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P162" s="30"/>
+    </x:row>
+    <x:row r="163" spans="3:16">
+      <x:c r="C163" s="7">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D163" s="4" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="E163" s="7" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F163" s="7" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G163" s="4"/>
+      <x:c r="H163" s="4" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="P163" s="30"/>
+    </x:row>
+    <x:row r="164" spans="2:16">
+      <x:c r="B164" s="16" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="C164" s="18">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D164" s="19" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="E164" s="19" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="F164" s="19" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G164" s="19" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="H164" s="19" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="P164" s="30"/>
+    </x:row>
+    <x:row r="165" spans="3:16">
+      <x:c r="C165" s="25">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D165" s="21" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="E165" s="21" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F165" s="21" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G165" s="21" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="H165" s="21" t="s">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="P165" s="30"/>
+    </x:row>
+    <x:row r="166" spans="3:16">
+      <x:c r="C166" s="25">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D166" s="24" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="E166" s="21" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F166" s="21" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G166" s="24" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="H166" s="24" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="P166" s="30"/>
+    </x:row>
+    <x:row r="167" spans="3:16">
+      <x:c r="C167" s="12"/>
+      <x:c r="D167" s="10"/>
+      <x:c r="E167" s="10"/>
+      <x:c r="F167" s="10"/>
+      <x:c r="G167" s="10"/>
+      <x:c r="H167" s="10"/>
+      <x:c r="P167" s="30"/>
+    </x:row>
+    <x:row r="168" spans="3:16">
+      <x:c r="C168" s="12"/>
+      <x:c r="D168" s="10"/>
+      <x:c r="E168" s="10"/>
+      <x:c r="F168" s="10"/>
+      <x:c r="G168" s="10"/>
+      <x:c r="H168" s="10"/>
+      <x:c r="P168" s="30"/>
+    </x:row>
+    <x:row r="169" spans="3:16">
+      <x:c r="C169" s="12"/>
+      <x:c r="D169" s="6"/>
+      <x:c r="E169" s="10"/>
+      <x:c r="F169" s="10"/>
+      <x:c r="G169" s="6"/>
+      <x:c r="H169" s="6"/>
+      <x:c r="P169" s="30"/>
     </x:row>
     <x:row r="170" spans="16:16">
-      <x:c r="P170" s="31"/>
+      <x:c r="P170" s="30"/>
     </x:row>
     <x:row r="171" spans="16:16">
-      <x:c r="P171" s="31"/>
+      <x:c r="P171" s="30"/>
     </x:row>
     <x:row r="172" spans="16:16">
-      <x:c r="P172" s="31"/>
+      <x:c r="P172" s="30"/>
     </x:row>
     <x:row r="173" spans="16:16">
-      <x:c r="P173" s="31"/>
+      <x:c r="P173" s="30"/>
     </x:row>
     <x:row r="174" spans="16:16">
-      <x:c r="P174" s="31"/>
+      <x:c r="P174" s="30"/>
     </x:row>
     <x:row r="175" spans="16:16">
-      <x:c r="P175" s="31"/>
+      <x:c r="P175" s="30"/>
     </x:row>
     <x:row r="176" spans="16:16">
-      <x:c r="P176" s="31"/>
+      <x:c r="P176" s="30"/>
     </x:row>
     <x:row r="177" spans="16:16">
-      <x:c r="P177" s="31"/>
+      <x:c r="P177" s="30"/>
     </x:row>
     <x:row r="178" spans="16:16">
-      <x:c r="P178" s="31"/>
+      <x:c r="P178" s="30"/>
     </x:row>
     <x:row r="179" spans="16:16">
-      <x:c r="P179" s="31"/>
+      <x:c r="P179" s="30"/>
     </x:row>
     <x:row r="180" spans="16:16">
-      <x:c r="P180" s="31"/>
+      <x:c r="P180" s="30"/>
     </x:row>
     <x:row r="181" spans="16:16">
-      <x:c r="P181" s="31"/>
+      <x:c r="P181" s="30"/>
     </x:row>
     <x:row r="182" spans="16:16">
-      <x:c r="P182" s="31"/>
+      <x:c r="P182" s="30"/>
     </x:row>
     <x:row r="183" spans="16:16">
-      <x:c r="P183" s="31"/>
+      <x:c r="P183" s="30"/>
     </x:row>
     <x:row r="184" spans="16:16">
-      <x:c r="P184" s="31"/>
+      <x:c r="P184" s="30"/>
     </x:row>
     <x:row r="185" spans="16:16">
-      <x:c r="P185" s="31"/>
+      <x:c r="P185" s="30"/>
     </x:row>
     <x:row r="186" spans="16:16">
-      <x:c r="P186" s="31"/>
+      <x:c r="P186" s="30"/>
     </x:row>
     <x:row r="187" spans="16:16">
-      <x:c r="P187" s="31"/>
+      <x:c r="P187" s="30"/>
     </x:row>
     <x:row r="188" spans="16:16">
-      <x:c r="P188" s="31"/>
+      <x:c r="P188" s="30"/>
     </x:row>
     <x:row r="189" spans="16:16">
-      <x:c r="P189" s="31"/>
+      <x:c r="P189" s="30"/>
     </x:row>
     <x:row r="190" spans="16:16">
-      <x:c r="P190" s="31"/>
+      <x:c r="P190" s="30"/>
     </x:row>
     <x:row r="191" spans="16:16">
-      <x:c r="P191" s="31"/>
+      <x:c r="P191" s="30"/>
     </x:row>
     <x:row r="192" spans="16:16">
-      <x:c r="P192" s="31"/>
+      <x:c r="P192" s="30"/>
     </x:row>
     <x:row r="193" spans="16:16">
-      <x:c r="P193" s="31"/>
+      <x:c r="P193" s="30"/>
     </x:row>
     <x:row r="194" spans="16:16">
-      <x:c r="P194" s="31"/>
+      <x:c r="P194" s="30"/>
     </x:row>
     <x:row r="195" spans="16:16">
-      <x:c r="P195" s="31"/>
+      <x:c r="P195" s="30"/>
     </x:row>
     <x:row r="196" spans="16:16">
-      <x:c r="P196" s="31"/>
+      <x:c r="P196" s="30"/>
     </x:row>
     <x:row r="197" spans="16:16">
-      <x:c r="P197" s="31"/>
+      <x:c r="P197" s="30"/>
     </x:row>
     <x:row r="198" spans="16:16">
-      <x:c r="P198" s="31"/>
+      <x:c r="P198" s="30"/>
     </x:row>
     <x:row r="199" spans="16:16">
-      <x:c r="P199" s="31"/>
+      <x:c r="P199" s="30"/>
     </x:row>
     <x:row r="200" spans="16:16">
-      <x:c r="P200" s="31"/>
+      <x:c r="P200" s="30"/>
     </x:row>
     <x:row r="201" spans="16:16">
-      <x:c r="P201" s="31"/>
+      <x:c r="P201" s="30"/>
     </x:row>
     <x:row r="202" spans="16:16">
-      <x:c r="P202" s="31"/>
+      <x:c r="P202" s="30"/>
     </x:row>
     <x:row r="203" spans="16:16">
-      <x:c r="P203" s="31"/>
+      <x:c r="P203" s="30"/>
     </x:row>
     <x:row r="204" spans="16:16">
-      <x:c r="P204" s="31"/>
+      <x:c r="P204" s="30"/>
     </x:row>
     <x:row r="205" spans="16:16">
-      <x:c r="P205" s="31"/>
+      <x:c r="P205" s="30"/>
     </x:row>
     <x:row r="206" spans="16:16">
-      <x:c r="P206" s="31"/>
+      <x:c r="P206" s="30"/>
     </x:row>
     <x:row r="207" spans="16:16">
-      <x:c r="P207" s="31"/>
+      <x:c r="P207" s="30"/>
     </x:row>
     <x:row r="208" spans="16:16">
-      <x:c r="P208" s="31"/>
+      <x:c r="P208" s="30"/>
     </x:row>
     <x:row r="209" spans="16:16">
-      <x:c r="P209" s="31"/>
+      <x:c r="P209" s="30"/>
     </x:row>
     <x:row r="210" spans="16:16">
-      <x:c r="P210" s="31"/>
+      <x:c r="P210" s="30"/>
     </x:row>
     <x:row r="211" spans="16:16">
-      <x:c r="P211" s="31"/>
+      <x:c r="P211" s="30"/>
     </x:row>
     <x:row r="212" spans="16:16">
-      <x:c r="P212" s="31"/>
+      <x:c r="P212" s="30"/>
     </x:row>
     <x:row r="213" spans="16:16">
-      <x:c r="P213" s="31"/>
+      <x:c r="P213" s="30"/>
     </x:row>
     <x:row r="214" spans="16:16">
-      <x:c r="P214" s="31"/>
+      <x:c r="P214" s="30"/>
     </x:row>
     <x:row r="215" spans="16:16">
-      <x:c r="P215" s="31"/>
+      <x:c r="P215" s="30"/>
     </x:row>
     <x:row r="216" spans="16:16">
-      <x:c r="P216" s="31"/>
+      <x:c r="P216" s="30"/>
     </x:row>
     <x:row r="217" spans="16:16">
-      <x:c r="P217" s="31"/>
+      <x:c r="P217" s="30"/>
     </x:row>
     <x:row r="218" spans="16:16">
-      <x:c r="P218" s="31"/>
+      <x:c r="P218" s="30"/>
     </x:row>
     <x:row r="219" spans="16:16">
-      <x:c r="P219" s="31"/>
+      <x:c r="P219" s="30"/>
     </x:row>
     <x:row r="220" spans="16:16">
-      <x:c r="P220" s="31"/>
+      <x:c r="P220" s="30"/>
     </x:row>
     <x:row r="221" spans="16:16">
-      <x:c r="P221" s="31"/>
+      <x:c r="P221" s="30"/>
     </x:row>
     <x:row r="222" spans="16:16">
-      <x:c r="P222" s="31"/>
+      <x:c r="P222" s="30"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="80">
+  <x:mergeCells count="84">
     <x:mergeCell ref="C2:D2"/>
     <x:mergeCell ref="E3:H3"/>
     <x:mergeCell ref="E2:H2"/>
@@ -7721,10 +7959,6 @@
     <x:mergeCell ref="L3:O3"/>
     <x:mergeCell ref="L2:O2"/>
     <x:mergeCell ref="J3:K3"/>
-    <x:mergeCell ref="J15:K15"/>
-    <x:mergeCell ref="L15:O15"/>
-    <x:mergeCell ref="J16:K16"/>
-    <x:mergeCell ref="L16:O16"/>
     <x:mergeCell ref="C8:D8"/>
     <x:mergeCell ref="E9:H9"/>
     <x:mergeCell ref="E8:H8"/>
@@ -7793,13 +8027,21 @@
     <x:mergeCell ref="L68:O68"/>
     <x:mergeCell ref="J69:K69"/>
     <x:mergeCell ref="L69:O69"/>
+    <x:mergeCell ref="C147:D147"/>
+    <x:mergeCell ref="E148:H148"/>
+    <x:mergeCell ref="E147:H147"/>
+    <x:mergeCell ref="C148:D148"/>
+    <x:mergeCell ref="J16:K16"/>
+    <x:mergeCell ref="L16:O16"/>
+    <x:mergeCell ref="J17:K17"/>
+    <x:mergeCell ref="L17:O17"/>
   </x:mergeCells>
   <x:pageMargins left="0.69972223043441772461" right="0.69972223043441772461" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
-  <x:pageSetup paperSize="9" scale="38" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <x:pageSetup paperSize="9" scale="37" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <x:rowBreaks count="3" manualBreakCount="3">
     <x:brk id="1" min="0" max="1048575" man="1" pt="0"/>
     <x:brk id="78" min="0" max="1048575" man="1" pt="0"/>
-    <x:brk id="147" min="0" max="1048575" man="1" pt="0"/>
+    <x:brk id="174" min="0" max="1048575" man="1" pt="0"/>
   </x:rowBreaks>
   <x:colBreaks count="2" manualBreakCount="2">
     <x:brk id="1" min="0" max="16383" man="1" pt="0"/>

--- a/PNS테이블.xlsx
+++ b/PNS테이블.xlsx
@@ -27,7 +27,7 @@
     <x:author>MIT-303</x:author>
   </x:authors>
   <x:commentList>
-    <x:comment ref="H23:H23" authorId="0">
+    <x:comment ref="H22:H22" authorId="0">
       <x:text>
         <x:r>
           <x:rPr>
@@ -55,156 +55,356 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="292">
-  <x:si>
-    <x:t>대표자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업종</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업장 주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상호(법인명)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ipTrueNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ipFalseNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mImageUrl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록일, 수정일 규격</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="274">
+  <x:si>
+    <x:t>sManager</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Not Null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계약 서명(을)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생산계획코드
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조달 상태(ENUM)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계약 서명(갑)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품 종류(ENUM)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출고 상태(ENUM)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생산 계획
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Product(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최소 공급 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>baseEntity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리 매니저 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>oExpectDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uAddress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mComponentType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sBusinessType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sBusinessArray</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bComponentType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dppRequireNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조립 구조
+소모 자재 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tsTotalPrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sAddressExtra</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업체 자재 재고
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BaseEntity(0)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sPhoneDirect</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조립 구조
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mUnitPrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>isAvailable</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업체 자재 재고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>oTotalPrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검수 상태(ENUM)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계약 규격 사이즈</x:t>
   </x:si>
   <x:si>
     <x:t>조달 계획
 외래키</x:t>
   </x:si>
   <x:si>
-    <x:t>dppState</x:t>
-  </x:si>
-  <x:si>
     <x:t>소모되는
 자재의 수</x:t>
   </x:si>
   <x:si>
-    <x:t>oRemarks</x:t>
+    <x:t>ipFalseNum</x:t>
   </x:si>
   <x:si>
     <x:t>납품 지시
 외래키</x:t>
   </x:si>
   <x:si>
+    <x:t>납품 상태(ENUM)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mImageUrl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>varchar2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>oRemarks</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생산 계획 상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록일, 수정일 규격</x:t>
+  </x:si>
+  <x:si>
     <x:t>조립 구조
 자재코드</x:t>
   </x:si>
   <x:si>
+    <x:t>dppState</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ipTrueNum</x:t>
+  </x:si>
+  <x:si>
     <x:t>bRequireNum</x:t>
   </x:si>
   <x:si>
-    <x:t>계약 규격 사이즈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>납품 상태(ENUM)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>varchar2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산 계획 상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조립 구조
+    <x:t>ppid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>psId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>psDgree</x:t>
+  </x:si>
+  <x:si>
+    <x:t>psDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>oCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bom(4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업체측설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발주서확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ppState</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Assy(4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>isNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품
 외래키</x:t>
   </x:si>
   <x:si>
-    <x:t>검수 상태(ENUM)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mUnitPrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>isAvailable</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업체 자재 재고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>oTotalPrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업체 자재 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조달 계획 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입고 상태(ENUM)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산 계획 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Supplier(2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract(0)</x:t>
+    <x:t>자재 공급업체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생산 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>납품 희망일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>psState</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 승인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>반품 상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진척 검수일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공급업체 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>isId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ssId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ssNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>납품 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cSignA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sFax</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단위 가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회사 팩스번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userJob</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ppId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ModDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품 코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>opCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ipNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요구수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DeliveryRequest(6)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InventoryStock(5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SupplierStock(4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ProductionPlan(2)</x:t>
   </x:si>
   <x:si>
     <x:t>협력업체
 외래키</x:t>
   </x:si>
   <x:si>
+    <x:t>Return(8)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mLeadTime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tsUnitPrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입고 상태(ENUM)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Material(3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract(0)</x:t>
+  </x:si>
+  <x:si>
     <x:t>자사 자재 수량</x:t>
   </x:si>
   <x:si>
     <x:t>OutPut(5)</x:t>
   </x:si>
   <x:si>
-    <x:t>userType</x:t>
+    <x:t>진척 검수 차수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계약 부품 이름</x:t>
   </x:si>
   <x:si>
     <x:t>InPut(7)</x:t>
   </x:si>
   <x:si>
-    <x:t>진척 검수 차수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Material(3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Return(8)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mLeadTime</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tsUnitPrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계약 부품 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전체 가용 재고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진척 검수 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산 계획 시작일</x:t>
+    <x:t>Supplier(2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생산 계획 종료일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sContract</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sAddress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uBirthDay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발주 주문 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cMatName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Order(5)</x:t>
   </x:si>
   <x:si>
     <x:t>공급업체
@@ -215,7 +415,13 @@
 재고</x:t>
   </x:si>
   <x:si>
-    <x:t>Order(5)</x:t>
+    <x:t>전체 가용 재고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진척 검수 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생산 계획 시작일</x:t>
   </x:si>
   <x:si>
     <x:t>아이디 및 기본키</x:t>
@@ -227,729 +433,468 @@
     <x:t>공급업체(협력회사)</x:t>
   </x:si>
   <x:si>
-    <x:t>생산 계획 종료일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sAddress</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sContract</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발주 주문 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uBirthDay</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cMatName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uAddress</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리 매니저 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sManager</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출고 상태(ENUM)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산 계획
+    <x:t>수정일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대표자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>oId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업종</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬럼명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무게</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주문일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계약서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>높이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발주서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계약일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발주</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회사 직통전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업장 주소 상세</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sExponent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업체 자재 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ppEnd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>거래 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>float</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발주서
 외래키</x:t>
   </x:si>
   <x:si>
-    <x:t>계약 서명(갑)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계약 서명(을)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품 종류(ENUM)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>oExpectDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Not Null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산계획코드
+    <x:t>uPhone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>협력업체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재
 외래키</x:t>
   </x:si>
   <x:si>
-    <x:t>조달 상태(ENUM)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Product(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최소 공급 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>baseEntity</x:t>
+    <x:t>number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재 코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단위당 가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>drDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조립 구조</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총 금액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sAgree</x:t>
+  </x:si>
+  <x:si>
+    <x:t>drId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>oState</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Null 여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tsId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생산 계획</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tsNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sPhone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>drCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>drState</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rState</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>거래 명세서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RegDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상호(법인명)</x:t>
   </x:si>
   <x:si>
     <x:t>진척 검수</x:t>
   </x:si>
   <x:si>
+    <x:t>생산계획</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업장 주소</x:t>
+  </x:si>
+  <x:si>
     <x:t>sRegNum</x:t>
   </x:si>
   <x:si>
-    <x:t>생산계획</x:t>
-  </x:si>
-  <x:si>
     <x:t>supId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>psNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>납품 지시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>반품 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품 리스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재분류품목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계약 단위</x:t>
   </x:si>
   <x:si>
     <x:t>제품 
 외래키</x:t>
   </x:si>
   <x:si>
+    <x:t>계약 세액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cSignB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조달 납기일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조달시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업자등록번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조달 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mWeight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재 재고</x:t>
+  </x:si>
+  <x:si>
     <x:t>자사쪽설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계약 단위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>반품 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계약 세액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cSignB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출고용설정</x:t>
   </x:si>
   <x:si>
     <x:t>입고
 외래키</x:t>
   </x:si>
   <x:si>
-    <x:t>psNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>납품 지시</x:t>
+    <x:t>유저타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발주 코드</x:t>
   </x:si>
   <x:si>
     <x:t>uEmail</x:t>
   </x:si>
   <x:si>
-    <x:t>입고 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발주 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조달 납기일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조달시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품 리스트</x:t>
+    <x:t>sName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생년월일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재 이름</x:t>
   </x:si>
   <x:si>
     <x:t>rNum</x:t>
   </x:si>
   <x:si>
-    <x:t>자재분류품목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업자등록번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조달 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mWeight</x:t>
-  </x:si>
-  <x:si>
     <x:t>ppStart</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재 재고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생년월일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출고 코드</x:t>
   </x:si>
   <x:si>
     <x:t>자재 
 외래키</x:t>
   </x:si>
   <x:si>
+    <x:t>출고용설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조달 계획</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회사 전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>키 유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mDepth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ipCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cSize</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ipId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>합격 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예상 납기일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dppCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>반품 물품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ipState</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mMinNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cTax</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결함 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>opANum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dppId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mHeight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발주 상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요구 수량</x:t>
+  </x:si>
+  <x:si>
     <x:t>dppNum</x:t>
   </x:si>
   <x:si>
-    <x:t>조달 계획</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결함 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dppCode</x:t>
+    <x:t>ppNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dppDate</x:t>
   </x:si>
   <x:si>
     <x:t>oDate</x:t>
   </x:si>
   <x:si>
-    <x:t>데이터 타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ipId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예상 납기일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dppId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ppNum</x:t>
-  </x:si>
-  <x:si>
     <x:t>pName</x:t>
   </x:si>
   <x:si>
-    <x:t>dppDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>반품 물품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계약코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사 전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mDepth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mMinNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>키 유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ipState</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cSize</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ipCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>합격 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cTax</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요구 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>opANum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mHeight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발주 상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>opId</x:t>
+    <x:t>drNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>oNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공급업체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mWidth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ppCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mName</x:t>
   </x:si>
   <x:si>
     <x:t>opState</x:t>
   </x:si>
   <x:si>
-    <x:t>drNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>oNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공급업체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mWidth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ppCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단위당 가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tsId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>거래 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rState</x:t>
-  </x:si>
-  <x:si>
-    <x:t>drId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>거래 명세서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발주서
-외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ppEnd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>협력업체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>drState</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조립 구조</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Null 여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sPhone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>oState</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산 계획</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tsNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>drCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재
-외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>float</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RegDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>number</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uPhone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>drDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총 금액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sAgree</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mType</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요구수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ppdNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ppdDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ppId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ModDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일일 생산량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>opCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ipNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>oCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>psId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bom(4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ssId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ppdId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공급업체 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>psState</x:t>
-  </x:si>
-  <x:si>
-    <x:t>isNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>납품지시 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cSignA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>반품 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 승인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발주서확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품
-외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>isId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ppState</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재 공급업체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ssNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ppid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>반품 상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Assy(4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진척 검수일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업체측설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>납품 희망일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>psDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>납품 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>psDgree</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단위 가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업체 자재 재고
-외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dppRequireNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sAddressExtra</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mComponentType</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조립 구조
-소모 자재 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BaseEntity(0)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bComponentType</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sBusinessType</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tsTotalPrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userJob</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DeliveryRequest(6)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ProductionPerDay(3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ProductionPlan(2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InventoryStock(5)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SupplierStock(4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무게</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬럼명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>oId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계약일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발주서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>높이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계약서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발주</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sPhoneDirect</x:t>
+    <x:t>ProgressInspection(6)</x:t>
   </x:si>
   <x:si>
     <x:t>TradeSpecification(4)</x:t>
   </x:si>
   <x:si>
-    <x:t>ProgressInspection(6)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산 일자
-(1일차, 2일차 ...)</x:t>
-  </x:si>
-  <x:si>
     <x:t>DeliveryProcurementPlan(4)</x:t>
   </x:si>
   <x:si>
-    <x:t>sFax</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사 팩스번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sBusinessArray</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사 직통전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업장 주소 상세</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sExponent</x:t>
+    <x:t>등록자</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1185,6 +1130,9 @@
       </x:bottom>
     </x:border>
   </x:borders>
+  <x:abstractNums count="1">
+    <x:abstractNum abstractNumType="2" bulletChar="61548"/>
+  </x:abstractNums>
   <x:cellStyleXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <x:alignment horizontal="general" vertical="center"/>
@@ -1193,7 +1141,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="73">
+  <x:cellXfs count="75">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -2023,6 +1971,32 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine" hs:abstractNumType="3" hs:abstractNumId="0"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine" hs:abstractNumType="3" hs:abstractNumId="0"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:cellXfs>
   <x:cellStyles count="2">
     <x:cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2033,6 +2007,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2115,6 +2090,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2149,6 +2125,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2193,6 +2170,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2236,6 +2214,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2320,6 +2299,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2340,6 +2320,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2370,6 +2351,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2681,8 +2663,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="B1:Y222"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A94" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="H112" activeCellId="0" sqref="H112:H112"/>
+    <x:sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A64" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <x:selection activeCell="J68" activeCellId="0" sqref="J68:P76"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -2706,21 +2688,21 @@
     </x:row>
     <x:row r="2" spans="3:16" ht="20.64999999999999857891">
       <x:c r="C2" s="57" t="s">
-        <x:v>172</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D2" s="58"/>
       <x:c r="E2" s="59" t="s">
-        <x:v>231</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F2" s="60"/>
       <x:c r="G2" s="60"/>
       <x:c r="H2" s="61"/>
       <x:c r="J2" s="57" t="s">
-        <x:v>172</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="K2" s="58"/>
       <x:c r="L2" s="59" t="s">
-        <x:v>199</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="M2" s="60"/>
       <x:c r="N2" s="60"/>
@@ -2729,21 +2711,21 @@
     </x:row>
     <x:row r="3" spans="3:16" ht="20.64999999999999857891">
       <x:c r="C3" s="57" t="s">
-        <x:v>179</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D3" s="58"/>
       <x:c r="E3" s="59" t="s">
-        <x:v>10</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F3" s="60"/>
       <x:c r="G3" s="60"/>
       <x:c r="H3" s="61"/>
       <x:c r="J3" s="57" t="s">
-        <x:v>179</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="K3" s="58"/>
       <x:c r="L3" s="59" t="s">
-        <x:v>178</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="M3" s="60"/>
       <x:c r="N3" s="60"/>
@@ -2752,40 +2734,40 @@
     </x:row>
     <x:row r="4" spans="3:16" ht="17.80000000000000071054">
       <x:c r="C4" s="1" t="s">
-        <x:v>275</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E4" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="F4" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="G4" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="H4" s="1" t="s">
-        <x:v>246</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="J4" s="1" t="s">
-        <x:v>275</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="K4" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="L4" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="M4" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="N4" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="O4" s="1" t="s">
-        <x:v>246</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="P4" s="30"/>
     </x:row>
@@ -2794,37 +2776,37 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D5" s="21" t="s">
-        <x:v>174</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E5" s="21" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F5" s="21" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G5" s="21" t="s">
-        <x:v>74</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H5" s="21" t="s">
-        <x:v>243</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J5" s="26">
         <x:v>1</x:v>
       </x:c>
       <x:c r="K5" s="27" t="s">
-        <x:v>277</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="L5" s="26" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M5" s="26" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N5" s="26" t="s">
-        <x:v>272</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="O5" s="26" t="s">
-        <x:v>51</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="P5" s="30"/>
     </x:row>
@@ -2833,35 +2815,35 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>189</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E6" s="22" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F6" s="22" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G6" s="24" t="s">
-        <x:v>74</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>245</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="J6" s="2">
         <x:v>2</x:v>
       </x:c>
       <x:c r="K6" s="2" t="s">
-        <x:v>188</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="L6" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M6" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N6" s="2"/>
       <x:c r="O6" s="2" t="s">
-        <x:v>241</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="P6" s="30"/>
     </x:row>
@@ -2876,17 +2858,17 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="K7" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="L7" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M7" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="N7" s="2"/>
       <x:c r="O7" s="2" t="s">
-        <x:v>267</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="P7" s="30"/>
       <x:c r="Q7" s="5"/>
@@ -2899,11 +2881,11 @@
     </x:row>
     <x:row r="8" spans="3:23" ht="20.64999999999999857891">
       <x:c r="C8" s="62" t="s">
-        <x:v>172</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D8" s="62"/>
       <x:c r="E8" s="63" t="s">
-        <x:v>40</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F8" s="63"/>
       <x:c r="G8" s="63"/>
@@ -2912,17 +2894,17 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="K8" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="L8" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M8" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N8" s="2"/>
       <x:c r="O8" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="P8" s="30"/>
       <x:c r="Q8" s="5"/>
@@ -2935,11 +2917,11 @@
     </x:row>
     <x:row r="9" spans="3:23" ht="20.64999999999999857891">
       <x:c r="C9" s="62" t="s">
-        <x:v>179</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D9" s="62"/>
       <x:c r="E9" s="63" t="s">
-        <x:v>270</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="F9" s="63"/>
       <x:c r="G9" s="63"/>
@@ -2948,17 +2930,17 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="K9" s="2" t="s">
-        <x:v>235</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="L9" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M9" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N9" s="2"/>
       <x:c r="O9" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="P9" s="30"/>
       <x:c r="Q9" s="5"/>
@@ -2971,38 +2953,38 @@
     </x:row>
     <x:row r="10" spans="3:23" ht="17.80000000000000071054">
       <x:c r="C10" s="1" t="s">
-        <x:v>275</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D10" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E10" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="F10" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="G10" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="H10" s="1" t="s">
-        <x:v>246</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="J10" s="2">
         <x:v>6</x:v>
       </x:c>
       <x:c r="K10" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="L10" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M10" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N10" s="2"/>
       <x:c r="O10" s="2" t="s">
-        <x:v>269</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="P10" s="30"/>
       <x:c r="Q10" s="5"/>
@@ -3018,35 +3000,35 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D11" s="26" t="s">
-        <x:v>273</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="E11" s="26" t="s">
-        <x:v>175</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F11" s="26" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G11" s="26" t="s">
-        <x:v>272</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="H11" s="26" t="s">
-        <x:v>257</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="J11" s="2">
         <x:v>7</x:v>
       </x:c>
       <x:c r="K11" s="2" t="s">
-        <x:v>177</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="L11" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M11" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N11" s="2"/>
       <x:c r="O11" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="P11" s="30"/>
       <x:c r="Q11" s="5"/>
@@ -3059,36 +3041,36 @@
     </x:row>
     <x:row r="12" spans="3:23">
       <x:c r="C12" s="8">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D12" s="4" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="E12" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D12" s="7" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="E12" s="7" t="s">
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F12" s="8" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="G12" s="4"/>
-      <x:c r="H12" s="4" t="s">
-        <x:v>87</x:v>
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G12" s="7"/>
+      <x:c r="H12" s="7" t="s">
+        <x:v>208</x:v>
       </x:c>
       <x:c r="J12" s="2">
         <x:v>8</x:v>
       </x:c>
       <x:c r="K12" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="L12" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M12" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="N12" s="2"/>
       <x:c r="O12" s="2" t="s">
-        <x:v>107</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="P12" s="30"/>
       <x:c r="Q12" s="5"/>
@@ -3101,38 +3083,38 @@
     </x:row>
     <x:row r="13" spans="3:23">
       <x:c r="C13" s="8">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D13" s="7" t="s">
-        <x:v>183</x:v>
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D13" s="4" t="s">
+        <x:v>268</x:v>
       </x:c>
       <x:c r="E13" s="7" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="F13" s="8" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="G13" s="7"/>
-      <x:c r="H13" s="7" t="s">
-        <x:v>99</x:v>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F13" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G13" s="4"/>
+      <x:c r="H13" s="4" t="s">
+        <x:v>194</x:v>
       </x:c>
       <x:c r="J13" s="21">
         <x:v>9</x:v>
       </x:c>
       <x:c r="K13" s="21" t="s">
-        <x:v>174</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="L13" s="21" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M13" s="21" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N13" s="21" t="s">
-        <x:v>74</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="O13" s="21" t="s">
-        <x:v>243</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="P13" s="30"/>
       <x:c r="Q13" s="5"/>
@@ -3144,39 +3126,39 @@
       <x:c r="W13" s="5"/>
     </x:row>
     <x:row r="14" spans="3:23">
-      <x:c r="C14" s="8">
-        <x:v>4</x:v>
+      <x:c r="C14" s="7">
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D14" s="4" t="s">
-        <x:v>150</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E14" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F14" s="7" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G14" s="4"/>
       <x:c r="H14" s="4" t="s">
-        <x:v>156</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="J14" s="24">
         <x:v>10</x:v>
       </x:c>
       <x:c r="K14" s="24" t="s">
-        <x:v>189</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="L14" s="21" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M14" s="21" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N14" s="24" t="s">
-        <x:v>74</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="O14" s="24" t="s">
-        <x:v>245</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="P14" s="30"/>
       <x:c r="Q14" s="5"/>
@@ -3189,20 +3171,20 @@
     </x:row>
     <x:row r="15" spans="3:23" ht="20.64999999999999857891">
       <x:c r="C15" s="7">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D15" s="4" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E15" s="7" t="s">
-        <x:v>175</x:v>
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="E15" s="2" t="s">
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F15" s="7" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G15" s="4"/>
       <x:c r="H15" s="4" t="s">
-        <x:v>151</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="J15" s="14"/>
       <x:c r="K15" s="14"/>
@@ -3221,27 +3203,27 @@
     </x:row>
     <x:row r="16" spans="3:23" ht="20.64999999999999857891">
       <x:c r="C16" s="7">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D16" s="4" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="E16" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="E16" s="7" t="s">
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F16" s="7" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G16" s="4"/>
       <x:c r="H16" s="4" t="s">
-        <x:v>73</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="J16" s="62" t="s">
-        <x:v>172</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="K16" s="62"/>
       <x:c r="L16" s="72" t="s">
-        <x:v>72</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="M16" s="72"/>
       <x:c r="N16" s="72"/>
@@ -3257,27 +3239,27 @@
     </x:row>
     <x:row r="17" spans="3:23" ht="20.64999999999999857891">
       <x:c r="C17" s="7">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D17" s="4" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E17" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="E17" s="2" t="s">
+        <x:v>168</x:v>
       </x:c>
       <x:c r="F17" s="7" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G17" s="4"/>
       <x:c r="H17" s="4" t="s">
-        <x:v>271</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="J17" s="57" t="s">
-        <x:v>179</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="K17" s="58"/>
       <x:c r="L17" s="59" t="s">
-        <x:v>249</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="M17" s="60"/>
       <x:c r="N17" s="60"/>
@@ -3293,38 +3275,38 @@
     </x:row>
     <x:row r="18" spans="3:23" ht="17.80000000000000071054">
       <x:c r="C18" s="7">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D18" s="4" t="s">
-        <x:v>130</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="E18" s="2" t="s">
-        <x:v>173</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="F18" s="7" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G18" s="4"/>
       <x:c r="H18" s="4" t="s">
-        <x:v>264</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="J18" s="1" t="s">
-        <x:v>275</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="K18" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="L18" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="M18" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="N18" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="O18" s="1" t="s">
-        <x:v>246</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="P18" s="30"/>
       <x:c r="Q18" s="5"/>
@@ -3337,38 +3319,38 @@
     </x:row>
     <x:row r="19" spans="3:23">
       <x:c r="C19" s="7">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D19" s="4" t="s">
-        <x:v>141</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="E19" s="2" t="s">
-        <x:v>173</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G19" s="4"/>
       <x:c r="H19" s="4" t="s">
-        <x:v>247</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="J19" s="26">
         <x:v>1</x:v>
       </x:c>
       <x:c r="K19" s="26" t="s">
-        <x:v>266</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="L19" s="26" t="s">
-        <x:v>175</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M19" s="26" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N19" s="26" t="s">
-        <x:v>272</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="O19" s="26" t="s">
-        <x:v>257</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="P19" s="30"/>
       <x:c r="Q19" s="5"/>
@@ -3381,36 +3363,36 @@
     </x:row>
     <x:row r="20" spans="3:23">
       <x:c r="C20" s="7">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D20" s="4" t="s">
-        <x:v>148</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="E20" s="2" t="s">
-        <x:v>173</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="F20" s="7" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G20" s="4"/>
       <x:c r="H20" s="4" t="s">
-        <x:v>260</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="J20" s="2">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K20" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="L20" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M20" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N20" s="2"/>
       <x:c r="O20" s="2" t="s">
-        <x:v>137</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="P20" s="30"/>
       <x:c r="Q20" s="5"/>
@@ -3423,38 +3405,42 @@
     </x:row>
     <x:row r="21" spans="3:25">
       <x:c r="C21" s="7">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D21" s="4" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="E21" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E21" s="7" t="s">
         <x:v>173</x:v>
       </x:c>
       <x:c r="F21" s="7" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G21" s="4"/>
       <x:c r="H21" s="4" t="s">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="J21" s="2">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="J21" s="19">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="K21" s="2" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="L21" s="2" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="M21" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="N21" s="2"/>
-      <x:c r="O21" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="P21" s="31"/>
+      <x:c r="K21" s="19" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="L21" s="19" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="M21" s="19" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N21" s="19" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="O21" s="19" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="P21" s="31" t="s">
+        <x:v>165</x:v>
+      </x:c>
       <x:c r="Q21" s="5"/>
       <x:c r="R21" s="5"/>
       <x:c r="S21" s="5"/>
@@ -3467,38 +3453,38 @@
     </x:row>
     <x:row r="22" spans="3:25">
       <x:c r="C22" s="7">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D22" s="4" t="s">
-        <x:v>42</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E22" s="7" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="F22" s="7" t="s">
-        <x:v>69</x:v>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F22" s="8" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G22" s="4"/>
       <x:c r="H22" s="4" t="s">
-        <x:v>96</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="J22" s="21">
         <x:v>5</x:v>
       </x:c>
       <x:c r="K22" s="21" t="s">
-        <x:v>174</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="L22" s="21" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M22" s="21" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N22" s="21" t="s">
-        <x:v>74</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="O22" s="21" t="s">
-        <x:v>243</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="P22" s="30"/>
       <x:c r="Q22" s="5"/>
@@ -3511,40 +3497,45 @@
       <x:c r="X22" s="5"/>
       <x:c r="Y22" s="5"/>
     </x:row>
-    <x:row r="23" spans="3:25">
-      <x:c r="C23" s="7">
+    <x:row r="23" spans="2:25" ht="32.75">
+      <x:c r="B23" s="16" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="C23" s="18">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="D23" s="4" t="s">
-        <x:v>229</x:v>
-      </x:c>
-      <x:c r="E23" s="7" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="F23" s="8" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="G23" s="4"/>
-      <x:c r="H23" s="4" t="s">
-        <x:v>67</x:v>
+      <x:c r="D23" s="20" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="E23" s="19" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="F23" s="18" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G23" s="20" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="H23" s="29" t="s">
+        <x:v>113</x:v>
       </x:c>
       <x:c r="J23" s="24">
         <x:v>6</x:v>
       </x:c>
       <x:c r="K23" s="24" t="s">
-        <x:v>189</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="L23" s="21" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M23" s="21" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N23" s="24" t="s">
-        <x:v>74</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="O23" s="24" t="s">
-        <x:v>245</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="P23" s="30"/>
       <x:c r="Q23" s="5"/>
@@ -3557,27 +3548,24 @@
       <x:c r="X23" s="5"/>
       <x:c r="Y23" s="5"/>
     </x:row>
-    <x:row r="24" spans="2:25" ht="32.75">
-      <x:c r="B24" t="s">
-        <x:v>147</x:v>
-      </x:c>
-      <x:c r="C24" s="18">
+    <x:row r="24" spans="3:25" ht="20.64999999999999857891">
+      <x:c r="C24" s="25">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="D24" s="20" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E24" s="19" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="F24" s="18" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="G24" s="20" t="s">
-        <x:v>242</x:v>
-      </x:c>
-      <x:c r="H24" s="45" t="s">
-        <x:v>48</x:v>
+      <x:c r="D24" s="21" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="E24" s="21" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F24" s="21" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G24" s="21" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H24" s="21" t="s">
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J24" s="14"/>
       <x:c r="K24" s="14"/>
@@ -3600,20 +3588,20 @@
       <x:c r="C25" s="25">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="D25" s="21" t="s">
-        <x:v>174</x:v>
+      <x:c r="D25" s="24" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E25" s="21" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F25" s="21" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="G25" s="21" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="H25" s="21" t="s">
-        <x:v>243</x:v>
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G25" s="24" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H25" s="24" t="s">
+        <x:v>121</x:v>
       </x:c>
       <x:c r="J25" s="46"/>
       <x:c r="K25" s="46"/>
@@ -3633,30 +3621,18 @@
       <x:c r="Y25" s="5"/>
     </x:row>
     <x:row r="26" spans="3:25" ht="20.64999999999999857891">
-      <x:c r="C26" s="25">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D26" s="24" t="s">
-        <x:v>189</x:v>
-      </x:c>
-      <x:c r="E26" s="21" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="F26" s="21" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="G26" s="24" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="H26" s="24" t="s">
-        <x:v>245</x:v>
-      </x:c>
+      <x:c r="C26" s="25"/>
+      <x:c r="D26" s="24"/>
+      <x:c r="E26" s="21"/>
+      <x:c r="F26" s="21"/>
+      <x:c r="G26" s="24"/>
+      <x:c r="H26" s="24"/>
       <x:c r="J26" s="64" t="s">
-        <x:v>172</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="K26" s="65"/>
       <x:c r="L26" s="66" t="s">
-        <x:v>197</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="M26" s="67"/>
       <x:c r="N26" s="67"/>
@@ -3680,11 +3656,11 @@
       <x:c r="G27" s="13"/>
       <x:c r="H27" s="13"/>
       <x:c r="J27" s="57" t="s">
-        <x:v>179</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="K27" s="58"/>
       <x:c r="L27" s="59" t="s">
-        <x:v>97</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="M27" s="60"/>
       <x:c r="N27" s="60"/>
@@ -3706,22 +3682,22 @@
       <x:c r="G28" s="6"/>
       <x:c r="H28" s="6"/>
       <x:c r="J28" s="1" t="s">
-        <x:v>275</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="K28" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="L28" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="M28" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="N28" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="O28" s="1" t="s">
-        <x:v>246</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="P28" s="33"/>
       <x:c r="Q28" s="9"/>
@@ -3743,19 +3719,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="K29" s="26" t="s">
-        <x:v>268</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="L29" s="26" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="M29" s="26" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N29" s="26" t="s">
-        <x:v>272</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="O29" s="26" t="s">
-        <x:v>257</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="P29" s="33"/>
       <x:c r="Q29" s="10"/>
@@ -3777,17 +3753,17 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="K30" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="L30" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="M30" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N30" s="2"/>
       <x:c r="O30" s="2" t="s">
-        <x:v>184</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P30" s="33"/>
       <x:c r="Q30" s="9"/>
@@ -3809,17 +3785,17 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="K31" s="2" t="s">
-        <x:v>232</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="L31" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M31" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N31" s="2"/>
       <x:c r="O31" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="P31" s="33"/>
       <x:c r="Q31" s="9"/>
@@ -3841,22 +3817,22 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="K32" s="19" t="s">
-        <x:v>273</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="L32" s="19" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="M32" s="19" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N32" s="19" t="s">
-        <x:v>242</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="O32" s="38" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="P32" s="33" t="s">
-        <x:v>270</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="Q32" s="9"/>
       <x:c r="R32" s="9"/>
@@ -3877,22 +3853,22 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="K33" s="20" t="s">
-        <x:v>266</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="L33" s="19" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="M33" s="19" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N33" s="20" t="s">
-        <x:v>242</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="O33" s="45" t="s">
-        <x:v>209</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="P33" s="33" t="s">
-        <x:v>249</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="Q33" s="5"/>
       <x:c r="R33" s="5"/>
@@ -3913,19 +3889,19 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="K34" s="21" t="s">
-        <x:v>174</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="L34" s="21" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M34" s="21" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N34" s="21" t="s">
-        <x:v>74</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="O34" s="21" t="s">
-        <x:v>243</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="P34" s="33"/>
       <x:c r="Q34" s="5"/>
@@ -3948,19 +3924,19 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="K35" s="24" t="s">
-        <x:v>189</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="L35" s="21" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M35" s="21" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N35" s="24" t="s">
-        <x:v>74</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="O35" s="24" t="s">
-        <x:v>245</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="P35" s="33"/>
     </x:row>
@@ -3989,11 +3965,11 @@
       <x:c r="H37" s="4"/>
       <x:c r="I37" s="17"/>
       <x:c r="J37" s="57" t="s">
-        <x:v>172</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="K37" s="58"/>
       <x:c r="L37" s="59" t="s">
-        <x:v>33</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="M37" s="60"/>
       <x:c r="N37" s="60"/>
@@ -4009,11 +3985,11 @@
       <x:c r="H38" s="4"/>
       <x:c r="I38" s="17"/>
       <x:c r="J38" s="57" t="s">
-        <x:v>179</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="K38" s="58"/>
       <x:c r="L38" s="59" t="s">
-        <x:v>261</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="M38" s="60"/>
       <x:c r="N38" s="60"/>
@@ -4029,22 +4005,22 @@
       <x:c r="H39" s="4"/>
       <x:c r="I39" s="17"/>
       <x:c r="J39" s="1" t="s">
-        <x:v>275</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="K39" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="L39" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="M39" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="N39" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="O39" s="1" t="s">
-        <x:v>246</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="P39" s="33"/>
     </x:row>
@@ -4060,19 +4036,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="K40" s="26" t="s">
-        <x:v>256</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="L40" s="26" t="s">
-        <x:v>175</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M40" s="26" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N40" s="26" t="s">
-        <x:v>272</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="O40" s="26" t="s">
-        <x:v>257</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="P40" s="33"/>
     </x:row>
@@ -4085,20 +4061,20 @@
       <x:c r="H41" s="4"/>
       <x:c r="I41" s="17"/>
       <x:c r="J41" s="2">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K41" s="2" t="s">
-        <x:v>160</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="L41" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="M41" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N41" s="2"/>
       <x:c r="O41" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="P41" s="33"/>
     </x:row>
@@ -4111,20 +4087,20 @@
       <x:c r="H42" s="19"/>
       <x:c r="I42" s="17"/>
       <x:c r="J42" s="2">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K42" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="L42" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M42" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N42" s="2"/>
       <x:c r="O42" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="P42" s="33"/>
     </x:row>
@@ -4137,20 +4113,20 @@
       <x:c r="H43" s="21"/>
       <x:c r="I43" s="17"/>
       <x:c r="J43" s="2">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="K43" s="2" t="s">
-        <x:v>134</x:v>
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="K43" s="4" t="s">
+        <x:v>119</x:v>
       </x:c>
       <x:c r="L43" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M43" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="N43" s="2"/>
-      <x:c r="O43" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N43" s="4"/>
+      <x:c r="O43" s="4" t="s">
+        <x:v>209</x:v>
       </x:c>
       <x:c r="P43" s="33"/>
     </x:row>
@@ -4163,20 +4139,20 @@
       <x:c r="H44" s="24"/>
       <x:c r="I44" s="17"/>
       <x:c r="J44" s="2">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="K44" s="4" t="s">
-        <x:v>52</x:v>
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="K44" s="2" t="s">
+        <x:v>251</x:v>
       </x:c>
       <x:c r="L44" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="M44" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="N44" s="4"/>
-      <x:c r="O44" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N44" s="2"/>
+      <x:c r="O44" s="2" t="s">
+        <x:v>211</x:v>
       </x:c>
       <x:c r="P44" s="33"/>
     </x:row>
@@ -4189,20 +4165,20 @@
       <x:c r="H45" s="6"/>
       <x:c r="I45" s="17"/>
       <x:c r="J45" s="2">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="K45" s="2" t="s">
-        <x:v>138</x:v>
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="K45" s="4" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="L45" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M45" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="N45" s="2"/>
-      <x:c r="O45" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N45" s="4"/>
+      <x:c r="O45" s="4" t="s">
+        <x:v>5</x:v>
       </x:c>
       <x:c r="P45" s="33"/>
     </x:row>
@@ -4215,120 +4191,122 @@
       <x:c r="H46" s="3"/>
       <x:c r="I46" s="17"/>
       <x:c r="J46" s="2">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K46" s="4" t="s">
-        <x:v>205</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="L46" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M46" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N46" s="4"/>
       <x:c r="O46" s="4" t="s">
-        <x:v>65</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="P46" s="33"/>
     </x:row>
     <x:row r="47" spans="3:16" ht="20.64999999999999857891">
       <x:c r="C47" s="62" t="s">
-        <x:v>172</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D47" s="62"/>
       <x:c r="E47" s="63" t="s">
-        <x:v>284</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="F47" s="63"/>
       <x:c r="G47" s="63"/>
       <x:c r="H47" s="63"/>
       <x:c r="I47" s="17"/>
       <x:c r="J47" s="2">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="K47" s="4" t="s">
-        <x:v>86</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="L47" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M47" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N47" s="4"/>
       <x:c r="O47" s="4" t="s">
-        <x:v>66</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="P47" s="33"/>
     </x:row>
     <x:row r="48" spans="3:16" ht="20.64999999999999857891">
       <x:c r="C48" s="62" t="s">
-        <x:v>179</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D48" s="62"/>
       <x:c r="E48" s="63" t="s">
-        <x:v>112</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="F48" s="63"/>
       <x:c r="G48" s="63"/>
       <x:c r="H48" s="63"/>
       <x:c r="I48" s="17"/>
-      <x:c r="J48" s="2">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="K48" s="4" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="L48" s="2" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="M48" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="N48" s="4"/>
-      <x:c r="O48" s="4" t="s">
-        <x:v>255</x:v>
+      <x:c r="J48" s="21">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K48" s="21" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="L48" s="21" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="M48" s="21" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N48" s="21" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="O48" s="21" t="s">
+        <x:v>134</x:v>
       </x:c>
       <x:c r="P48" s="33"/>
     </x:row>
     <x:row r="49" spans="3:16" ht="17.80000000000000071054">
       <x:c r="C49" s="1" t="s">
-        <x:v>275</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D49" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E49" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="F49" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="G49" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="H49" s="1" t="s">
-        <x:v>246</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="I49" s="17"/>
       <x:c r="J49" s="21">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="K49" s="21" t="s">
-        <x:v>174</x:v>
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="K49" s="24" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="L49" s="21" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M49" s="21" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="N49" s="21" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="O49" s="21" t="s">
-        <x:v>243</x:v>
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N49" s="24" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="O49" s="24" t="s">
+        <x:v>121</x:v>
       </x:c>
       <x:c r="P49" s="33"/>
     </x:row>
@@ -4337,57 +4315,45 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D50" s="26" t="s">
-        <x:v>120</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="E50" s="26" t="s">
-        <x:v>175</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F50" s="26" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G50" s="26" t="s">
-        <x:v>272</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="H50" s="26" t="s">
-        <x:v>257</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="I50" s="17"/>
-      <x:c r="J50" s="21">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="K50" s="24" t="s">
-        <x:v>189</x:v>
-      </x:c>
-      <x:c r="L50" s="21" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="M50" s="21" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="N50" s="24" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="O50" s="24" t="s">
-        <x:v>245</x:v>
-      </x:c>
+      <x:c r="J50" s="21"/>
+      <x:c r="K50" s="24"/>
+      <x:c r="L50" s="21"/>
+      <x:c r="M50" s="21"/>
+      <x:c r="N50" s="24"/>
+      <x:c r="O50" s="24"/>
       <x:c r="P50" s="33"/>
     </x:row>
     <x:row r="51" spans="3:16">
       <x:c r="C51" s="8">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D51" s="4" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="E51" s="8" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="F51" s="8" t="s">
-        <x:v>69</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E51" s="2" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="F51" s="7" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G51" s="4"/>
       <x:c r="H51" s="4" t="s">
-        <x:v>29</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="I51" s="17"/>
       <x:c r="J51" s="16"/>
@@ -4400,28 +4366,28 @@
     </x:row>
     <x:row r="52" spans="3:16" ht="20.64999999999999857891">
       <x:c r="C52" s="8">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D52" s="4" t="s">
-        <x:v>227</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="E52" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F52" s="7" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G52" s="4"/>
       <x:c r="H52" s="4" t="s">
-        <x:v>139</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="I52" s="17"/>
       <x:c r="J52" s="57" t="s">
-        <x:v>172</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="K52" s="58"/>
       <x:c r="L52" s="59" t="s">
-        <x:v>238</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="M52" s="60"/>
       <x:c r="N52" s="60"/>
@@ -4430,28 +4396,28 @@
     </x:row>
     <x:row r="53" spans="3:16" ht="20.64999999999999857891">
       <x:c r="C53" s="8">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D53" s="4" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="E53" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="E53" s="7" t="s">
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F53" s="7" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G53" s="4"/>
       <x:c r="H53" s="4" t="s">
-        <x:v>101</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="I53" s="17"/>
       <x:c r="J53" s="57" t="s">
-        <x:v>179</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="K53" s="58"/>
       <x:c r="L53" s="59" t="s">
-        <x:v>168</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="M53" s="60"/>
       <x:c r="N53" s="60"/>
@@ -4460,367 +4426,360 @@
     </x:row>
     <x:row r="54" spans="3:16" ht="17.80000000000000071054">
       <x:c r="C54" s="8">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D54" s="4" t="s">
-        <x:v>123</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E54" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F54" s="7" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G54" s="4"/>
-      <x:c r="H54" s="4" t="s">
-        <x:v>95</x:v>
+      <x:c r="H54" s="28" t="s">
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I54" s="17"/>
       <x:c r="J54" s="1" t="s">
-        <x:v>275</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="K54" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="L54" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="M54" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="N54" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="O54" s="1" t="s">
-        <x:v>246</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="P54" s="33"/>
     </x:row>
-    <x:row r="55" spans="3:16">
-      <x:c r="C55" s="8">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D55" s="4" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E55" s="7" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="F55" s="7" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="G55" s="4"/>
-      <x:c r="H55" s="28" t="s">
-        <x:v>71</x:v>
+    <x:row r="55" spans="2:16">
+      <x:c r="B55" s="16" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="C55" s="19">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D55" s="20"/>
+      <x:c r="E55" s="18"/>
+      <x:c r="F55" s="18"/>
+      <x:c r="G55" s="20"/>
+      <x:c r="H55" s="29" t="s">
+        <x:v>130</x:v>
       </x:c>
       <x:c r="I55" s="17"/>
       <x:c r="J55" s="26">
         <x:v>1</x:v>
       </x:c>
       <x:c r="K55" s="26" t="s">
-        <x:v>187</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="L55" s="26" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="M55" s="26" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N55" s="26" t="s">
-        <x:v>272</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="O55" s="26" t="s">
-        <x:v>257</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="P55" s="33"/>
     </x:row>
-    <x:row r="56" spans="2:16">
+    <x:row r="56" spans="2:16" ht="32.75">
       <x:c r="B56" s="16" t="s">
-        <x:v>77</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="C56" s="19">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D56" s="20"/>
-      <x:c r="E56" s="18"/>
-      <x:c r="F56" s="18"/>
-      <x:c r="G56" s="20"/>
-      <x:c r="H56" s="29" t="s">
-        <x:v>249</x:v>
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D56" s="20" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E56" s="19" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="F56" s="19" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G56" s="20" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="H56" s="32" t="s">
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I56" s="17"/>
       <x:c r="J56" s="2">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K56" s="2" t="s">
-        <x:v>149</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="L56" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="M56" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N56" s="2"/>
       <x:c r="O56" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="P56" s="33"/>
     </x:row>
-    <x:row r="57" spans="2:16" ht="32.75">
-      <x:c r="B57" t="s">
-        <x:v>77</x:v>
+    <x:row r="57" spans="2:16">
+      <x:c r="B57" s="16" t="s">
+        <x:v>150</x:v>
       </x:c>
       <x:c r="C57" s="19">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D57" s="20" t="s">
-        <x:v>187</x:v>
-      </x:c>
-      <x:c r="E57" s="19" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="F57" s="19" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="G57" s="20" t="s">
-        <x:v>242</x:v>
-      </x:c>
-      <x:c r="H57" s="32" t="s">
-        <x:v>70</x:v>
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D57" s="20"/>
+      <x:c r="E57" s="18"/>
+      <x:c r="F57" s="18"/>
+      <x:c r="G57" s="20"/>
+      <x:c r="H57" s="29" t="s">
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I57" s="17"/>
       <x:c r="J57" s="2">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K57" s="2" t="s">
-        <x:v>121</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="L57" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M57" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N57" s="2"/>
       <x:c r="O57" s="2" t="s">
-        <x:v>213</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="P57" s="33"/>
     </x:row>
     <x:row r="58" spans="2:16">
-      <x:c r="B58" t="s">
-        <x:v>270</x:v>
+      <x:c r="B58" s="16" t="s">
+        <x:v>150</x:v>
       </x:c>
       <x:c r="C58" s="19">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D58" s="20"/>
       <x:c r="E58" s="18"/>
       <x:c r="F58" s="18"/>
       <x:c r="G58" s="20"/>
-      <x:c r="H58" s="29" t="s">
-        <x:v>176</x:v>
+      <x:c r="H58" s="20" t="s">
+        <x:v>228</x:v>
       </x:c>
       <x:c r="I58" s="17"/>
       <x:c r="J58" s="2">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="K58" s="2" t="s">
-        <x:v>211</x:v>
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="K58" s="4" t="s">
+        <x:v>230</x:v>
       </x:c>
       <x:c r="L58" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M58" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="N58" s="2"/>
-      <x:c r="O58" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N58" s="4"/>
+      <x:c r="O58" s="4" t="s">
+        <x:v>117</x:v>
       </x:c>
       <x:c r="P58" s="33"/>
     </x:row>
     <x:row r="59" spans="2:16">
-      <x:c r="B59" t="s">
-        <x:v>270</x:v>
+      <x:c r="B59" s="16" t="s">
+        <x:v>150</x:v>
       </x:c>
       <x:c r="C59" s="19">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D59" s="20"/>
       <x:c r="E59" s="18"/>
       <x:c r="F59" s="18"/>
       <x:c r="G59" s="20"/>
-      <x:c r="H59" s="20" t="s">
-        <x:v>108</x:v>
+      <x:c r="H59" s="29" t="s">
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I59" s="17"/>
       <x:c r="J59" s="2">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="K59" s="4" t="s">
-        <x:v>104</x:v>
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="K59" s="2" t="s">
+        <x:v>166</x:v>
       </x:c>
       <x:c r="L59" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M59" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="N59" s="4"/>
-      <x:c r="O59" s="4" t="s">
-        <x:v>47</x:v>
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N59" s="2"/>
+      <x:c r="O59" s="2" t="s">
+        <x:v>106</x:v>
       </x:c>
       <x:c r="P59" s="33"/>
     </x:row>
-    <x:row r="60" spans="2:16">
+    <x:row r="60" spans="2:16" ht="32.75">
       <x:c r="B60" s="16" t="s">
-        <x:v>270</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="C60" s="19">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D60" s="20" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="E60" s="19" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="F60" s="18" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G60" s="20" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="H60" s="29" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="I60" s="17"/>
+      <x:c r="J60" s="19">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="K60" s="20"/>
+      <x:c r="L60" s="19"/>
+      <x:c r="M60" s="19"/>
+      <x:c r="N60" s="20"/>
+      <x:c r="O60" s="29" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="P60" s="34" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="2:16">
+      <x:c r="B61" s="16"/>
+      <x:c r="C61" s="25">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D61" s="21" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="E61" s="21" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F61" s="21" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G61" s="21" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D60" s="20"/>
-      <x:c r="E60" s="18"/>
-      <x:c r="F60" s="18"/>
-      <x:c r="G60" s="20"/>
-      <x:c r="H60" s="29" t="s">
-        <x:v>212</x:v>
-      </x:c>
-      <x:c r="I60" s="17"/>
-      <x:c r="J60" s="2">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="K60" s="2" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="L60" s="2" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="M60" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="N60" s="2"/>
-      <x:c r="O60" s="2" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="P60" s="33"/>
-    </x:row>
-    <x:row r="61" spans="2:16" ht="32.75">
-      <x:c r="B61" s="16" t="s">
-        <x:v>270</x:v>
-      </x:c>
-      <x:c r="C61" s="19">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D61" s="20" t="s">
-        <x:v>273</x:v>
-      </x:c>
-      <x:c r="E61" s="19" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="F61" s="18" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="G61" s="20" t="s">
-        <x:v>242</x:v>
-      </x:c>
-      <x:c r="H61" s="35" t="s">
-        <x:v>110</x:v>
+      <x:c r="H61" s="21" t="s">
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I61" s="17"/>
       <x:c r="J61" s="19">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K61" s="20"/>
       <x:c r="L61" s="19"/>
       <x:c r="M61" s="19"/>
       <x:c r="N61" s="20"/>
       <x:c r="O61" s="29" t="s">
-        <x:v>241</x:v>
-      </x:c>
-      <x:c r="P61" s="34" t="s">
-        <x:v>249</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="62" spans="2:16">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="P61" s="33" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="2:16" ht="32.75">
       <x:c r="B62" s="16"/>
       <x:c r="C62" s="25">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D62" s="21" t="s">
-        <x:v>174</x:v>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D62" s="24" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E62" s="21" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F62" s="21" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="G62" s="21" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="H62" s="21" t="s">
-        <x:v>243</x:v>
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G62" s="24" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H62" s="24" t="s">
+        <x:v>121</x:v>
       </x:c>
       <x:c r="I62" s="17"/>
       <x:c r="J62" s="19">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="K62" s="20"/>
-      <x:c r="L62" s="19"/>
-      <x:c r="M62" s="19"/>
-      <x:c r="N62" s="20"/>
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K62" s="20" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="L62" s="19" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="M62" s="19" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N62" s="20" t="s">
+        <x:v>124</x:v>
+      </x:c>
       <x:c r="O62" s="29" t="s">
-        <x:v>263</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="P62" s="33" t="s">
-        <x:v>249</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="63" spans="2:16" ht="32.75">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="2:16">
       <x:c r="B63" s="16"/>
-      <x:c r="C63" s="25">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D63" s="24" t="s">
-        <x:v>189</x:v>
-      </x:c>
-      <x:c r="E63" s="21" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="F63" s="21" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="G63" s="24" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="H63" s="24" t="s">
-        <x:v>245</x:v>
-      </x:c>
+      <x:c r="C63" s="25"/>
+      <x:c r="D63" s="24"/>
+      <x:c r="E63" s="21"/>
+      <x:c r="F63" s="21"/>
+      <x:c r="G63" s="24"/>
+      <x:c r="H63" s="24"/>
       <x:c r="I63" s="17"/>
-      <x:c r="J63" s="19">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="K63" s="20" t="s">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="L63" s="19" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="M63" s="19" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="N63" s="20" t="s">
-        <x:v>242</x:v>
-      </x:c>
-      <x:c r="O63" s="29" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="P63" s="33" t="s">
-        <x:v>249</x:v>
-      </x:c>
+      <x:c r="J63" s="21">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K63" s="21" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="L63" s="21" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="M63" s="21" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N63" s="21" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="O63" s="21" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="P63" s="33"/>
     </x:row>
     <x:row r="64" spans="2:16">
       <x:c r="B64" s="5"/>
@@ -4832,65 +4791,53 @@
       <x:c r="H64" s="16"/>
       <x:c r="I64" s="17"/>
       <x:c r="J64" s="21">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="K64" s="21" t="s">
-        <x:v>174</x:v>
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="K64" s="24" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="L64" s="21" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M64" s="21" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="N64" s="21" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="O64" s="21" t="s">
-        <x:v>243</x:v>
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N64" s="24" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="O64" s="24" t="s">
+        <x:v>121</x:v>
       </x:c>
       <x:c r="P64" s="33"/>
     </x:row>
     <x:row r="65" spans="3:16" ht="20.64999999999999857891">
       <x:c r="C65" s="57" t="s">
-        <x:v>172</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D65" s="58"/>
       <x:c r="E65" s="59" t="s">
-        <x:v>36</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F65" s="60"/>
       <x:c r="G65" s="60"/>
       <x:c r="H65" s="61"/>
       <x:c r="I65" s="17"/>
-      <x:c r="J65" s="21">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="K65" s="24" t="s">
-        <x:v>189</x:v>
-      </x:c>
-      <x:c r="L65" s="21" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="M65" s="21" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="N65" s="24" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="O65" s="24" t="s">
-        <x:v>245</x:v>
-      </x:c>
+      <x:c r="J65" s="21"/>
+      <x:c r="K65" s="24"/>
+      <x:c r="L65" s="21"/>
+      <x:c r="M65" s="21"/>
+      <x:c r="N65" s="24"/>
+      <x:c r="O65" s="24"/>
       <x:c r="P65" s="33"/>
     </x:row>
     <x:row r="66" spans="2:16" ht="20.64999999999999857891">
       <x:c r="B66" s="17"/>
       <x:c r="C66" s="57" t="s">
-        <x:v>179</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D66" s="58"/>
       <x:c r="E66" s="59" t="s">
-        <x:v>279</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="F66" s="60"/>
       <x:c r="G66" s="60"/>
@@ -4907,22 +4854,22 @@
     <x:row r="67" spans="2:16" ht="20.64999999999999857891">
       <x:c r="B67" s="17"/>
       <x:c r="C67" s="1" t="s">
-        <x:v>275</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D67" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E67" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="F67" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="G67" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="H67" s="1" t="s">
-        <x:v>246</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="I67" s="17"/>
       <x:c r="J67" s="14"/>
@@ -4939,28 +4886,24 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D68" s="26" t="s">
-        <x:v>143</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E68" s="26" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F68" s="26" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G68" s="26" t="s">
-        <x:v>272</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="H68" s="26" t="s">
-        <x:v>257</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="I68" s="17"/>
-      <x:c r="J68" s="57" t="s">
-        <x:v>172</x:v>
-      </x:c>
+      <x:c r="J68" s="57"/>
       <x:c r="K68" s="58"/>
-      <x:c r="L68" s="59" t="s">
-        <x:v>237</x:v>
-      </x:c>
+      <x:c r="L68" s="59"/>
       <x:c r="M68" s="60"/>
       <x:c r="N68" s="60"/>
       <x:c r="O68" s="61"/>
@@ -4968,28 +4911,16 @@
     </x:row>
     <x:row r="69" spans="2:16" ht="20.64999999999999857891">
       <x:c r="B69" s="17"/>
-      <x:c r="C69" s="2">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D69" s="2" t="s">
-        <x:v>192</x:v>
-      </x:c>
-      <x:c r="E69" s="2" t="s">
-        <x:v>20</x:v>
-      </x:c>
+      <x:c r="C69" s="2"/>
+      <x:c r="D69" s="2"/>
+      <x:c r="E69" s="2"/>
       <x:c r="F69" s="2"/>
       <x:c r="G69" s="2"/>
-      <x:c r="H69" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
+      <x:c r="H69" s="2"/>
       <x:c r="I69" s="17"/>
-      <x:c r="J69" s="57" t="s">
-        <x:v>179</x:v>
-      </x:c>
+      <x:c r="J69" s="57"/>
       <x:c r="K69" s="58"/>
-      <x:c r="L69" s="59" t="s">
-        <x:v>191</x:v>
-      </x:c>
+      <x:c r="L69" s="59"/>
       <x:c r="M69" s="60"/>
       <x:c r="N69" s="60"/>
       <x:c r="O69" s="61"/>
@@ -5001,35 +4932,23 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D70" s="2" t="s">
-        <x:v>140</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="E70" s="8" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F70" s="2"/>
       <x:c r="G70" s="2"/>
       <x:c r="H70" s="2" t="s">
-        <x:v>139</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="I70" s="17"/>
-      <x:c r="J70" s="1" t="s">
-        <x:v>275</x:v>
-      </x:c>
-      <x:c r="K70" s="1" t="s">
-        <x:v>251</x:v>
-      </x:c>
-      <x:c r="L70" s="1" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="M70" s="1" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="N70" s="1" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="O70" s="1" t="s">
-        <x:v>246</x:v>
-      </x:c>
+      <x:c r="J70" s="1"/>
+      <x:c r="K70" s="1"/>
+      <x:c r="L70" s="1"/>
+      <x:c r="M70" s="1"/>
+      <x:c r="N70" s="1"/>
+      <x:c r="O70" s="1"/>
       <x:c r="P70" s="16"/>
     </x:row>
     <x:row r="71" spans="2:16">
@@ -5038,40 +4957,28 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D71" s="2" t="s">
-        <x:v>144</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="E71" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F71" s="2"/>
       <x:c r="G71" s="2"/>
       <x:c r="H71" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I71" s="17"/>
-      <x:c r="J71" s="26">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K71" s="26" t="s">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="L71" s="26" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="M71" s="26" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="N71" s="26" t="s">
-        <x:v>272</x:v>
-      </x:c>
-      <x:c r="O71" s="26" t="s">
-        <x:v>257</x:v>
-      </x:c>
+      <x:c r="J71" s="26"/>
+      <x:c r="K71" s="26"/>
+      <x:c r="L71" s="26"/>
+      <x:c r="M71" s="26"/>
+      <x:c r="N71" s="26"/>
+      <x:c r="O71" s="26"/>
       <x:c r="P71" s="16"/>
     </x:row>
     <x:row r="72" spans="2:16" ht="32.75">
       <x:c r="B72" s="16" t="s">
-        <x:v>164</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="C72" s="19">
         <x:v>5</x:v>
@@ -5081,28 +4988,20 @@
       <x:c r="F72" s="19"/>
       <x:c r="G72" s="20"/>
       <x:c r="H72" s="54" t="s">
-        <x:v>230</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I72" s="17"/>
-      <x:c r="J72" s="2">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="K72" s="2" t="s">
-        <x:v>185</x:v>
-      </x:c>
-      <x:c r="L72" s="8" t="s">
-        <x:v>175</x:v>
-      </x:c>
+      <x:c r="J72" s="2"/>
+      <x:c r="K72" s="2"/>
+      <x:c r="L72" s="8"/>
       <x:c r="M72" s="2"/>
       <x:c r="N72" s="2"/>
-      <x:c r="O72" s="2" t="s">
-        <x:v>248</x:v>
-      </x:c>
+      <x:c r="O72" s="2"/>
       <x:c r="P72" s="16"/>
     </x:row>
     <x:row r="73" spans="2:16" ht="32.75">
       <x:c r="B73" s="16" t="s">
-        <x:v>164</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="C73" s="19">
         <x:v>6</x:v>
@@ -5112,148 +5011,104 @@
       <x:c r="F73" s="19"/>
       <x:c r="G73" s="20"/>
       <x:c r="H73" s="29" t="s">
-        <x:v>16</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I73" s="17"/>
-      <x:c r="J73" s="2">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="K73" s="2" t="s">
-        <x:v>186</x:v>
-      </x:c>
-      <x:c r="L73" s="2" t="s">
-        <x:v>20</x:v>
-      </x:c>
+      <x:c r="J73" s="2"/>
+      <x:c r="K73" s="2"/>
+      <x:c r="L73" s="2"/>
       <x:c r="M73" s="2"/>
       <x:c r="N73" s="2"/>
-      <x:c r="O73" s="56" t="s">
-        <x:v>283</x:v>
-      </x:c>
+      <x:c r="O73" s="56"/>
       <x:c r="P73" s="16"/>
     </x:row>
     <x:row r="74" spans="2:16" ht="32.75">
       <x:c r="B74" s="16" t="s">
-        <x:v>164</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="C74" s="19">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D74" s="19" t="s">
-        <x:v>254</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="E74" s="19" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F74" s="19"/>
       <x:c r="G74" s="19" t="s">
-        <x:v>242</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="H74" s="29" t="s">
-        <x:v>22</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I74" s="17"/>
-      <x:c r="J74" s="19">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="K74" s="19" t="s">
-        <x:v>187</x:v>
-      </x:c>
-      <x:c r="L74" s="19" t="s">
-        <x:v>175</x:v>
-      </x:c>
+      <x:c r="J74" s="19"/>
+      <x:c r="K74" s="19"/>
+      <x:c r="L74" s="19"/>
       <x:c r="M74" s="19"/>
-      <x:c r="N74" s="19" t="s">
-        <x:v>242</x:v>
-      </x:c>
-      <x:c r="O74" s="55" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="P74" s="33" t="s">
-        <x:v>77</x:v>
-      </x:c>
+      <x:c r="N74" s="19"/>
+      <x:c r="O74" s="55"/>
+      <x:c r="P74" s="33"/>
     </x:row>
     <x:row r="75" spans="2:16" ht="32.75">
       <x:c r="B75" s="16" t="s">
-        <x:v>168</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C75" s="19">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D75" s="19" t="s">
-        <x:v>273</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="E75" s="19" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F75" s="19"/>
       <x:c r="G75" s="19" t="s">
-        <x:v>242</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="H75" s="54" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="I75" s="17"/>
-      <x:c r="J75" s="25">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="K75" s="21" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="L75" s="21" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="M75" s="21" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="N75" s="21" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="O75" s="21" t="s">
-        <x:v>243</x:v>
-      </x:c>
+      <x:c r="J75" s="25"/>
+      <x:c r="K75" s="21"/>
+      <x:c r="L75" s="21"/>
+      <x:c r="M75" s="21"/>
+      <x:c r="N75" s="21"/>
+      <x:c r="O75" s="21"/>
       <x:c r="P75" s="16"/>
     </x:row>
     <x:row r="76" spans="2:16" ht="32.75">
       <x:c r="B76" s="16" t="s">
-        <x:v>168</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C76" s="19">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D76" s="20" t="s">
-        <x:v>187</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E76" s="19" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F76" s="19" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G76" s="20" t="s">
-        <x:v>242</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="H76" s="29" t="s">
-        <x:v>64</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I76" s="17"/>
-      <x:c r="J76" s="25">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="K76" s="24" t="s">
-        <x:v>189</x:v>
-      </x:c>
-      <x:c r="L76" s="21" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="M76" s="21" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="N76" s="24" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="O76" s="24" t="s">
-        <x:v>245</x:v>
-      </x:c>
+      <x:c r="J76" s="25"/>
+      <x:c r="K76" s="24"/>
+      <x:c r="L76" s="21"/>
+      <x:c r="M76" s="21"/>
+      <x:c r="N76" s="24"/>
+      <x:c r="O76" s="24"/>
       <x:c r="P76" s="16"/>
     </x:row>
     <x:row r="77" spans="2:16">
@@ -5262,19 +5117,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D77" s="21" t="s">
-        <x:v>174</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E77" s="21" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F77" s="21" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G77" s="21" t="s">
-        <x:v>74</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H77" s="21" t="s">
-        <x:v>243</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I77" s="17"/>
       <x:c r="J77" s="16"/>
@@ -5291,19 +5146,19 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D78" s="24" t="s">
-        <x:v>189</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E78" s="21" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F78" s="21" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G78" s="24" t="s">
-        <x:v>74</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H78" s="24" t="s">
-        <x:v>245</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="I78" s="17"/>
       <x:c r="J78" s="16"/>
@@ -5317,22 +5172,22 @@
     <x:row r="79" spans="2:16" ht="20.64999999999999857891">
       <x:c r="B79" s="17"/>
       <x:c r="C79" s="57" t="s">
-        <x:v>172</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D79" s="58"/>
       <x:c r="E79" s="59" t="s">
-        <x:v>50</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F79" s="60"/>
       <x:c r="G79" s="60"/>
       <x:c r="H79" s="61"/>
       <x:c r="I79" s="17"/>
       <x:c r="J79" s="57" t="s">
-        <x:v>172</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="K79" s="58"/>
       <x:c r="L79" s="69" t="s">
-        <x:v>38</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="M79" s="70"/>
       <x:c r="N79" s="70"/>
@@ -5342,22 +5197,22 @@
     <x:row r="80" spans="2:16" ht="20.64999999999999857891">
       <x:c r="B80" s="17"/>
       <x:c r="C80" s="57" t="s">
-        <x:v>179</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D80" s="58"/>
       <x:c r="E80" s="59" t="s">
-        <x:v>258</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="F80" s="60"/>
       <x:c r="G80" s="60"/>
       <x:c r="H80" s="61"/>
       <x:c r="I80" s="17"/>
       <x:c r="J80" s="57" t="s">
-        <x:v>179</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="K80" s="58"/>
       <x:c r="L80" s="59" t="s">
-        <x:v>253</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="M80" s="60"/>
       <x:c r="N80" s="60"/>
@@ -5367,41 +5222,41 @@
     <x:row r="81" spans="2:16" ht="17.80000000000000071054">
       <x:c r="B81" s="17"/>
       <x:c r="C81" s="1" t="s">
-        <x:v>275</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D81" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E81" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="F81" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="G81" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="H81" s="1" t="s">
-        <x:v>246</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="I81" s="17"/>
       <x:c r="J81" s="1" t="s">
-        <x:v>275</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="K81" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="L81" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="M81" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="N81" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="O81" s="1" t="s">
-        <x:v>246</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="P81" s="33"/>
     </x:row>
@@ -5411,74 +5266,56 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D82" s="26" t="s">
-        <x:v>252</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E82" s="26" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F82" s="26" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G82" s="26" t="s">
-        <x:v>272</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="H82" s="26" t="s">
-        <x:v>257</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="I82" s="17"/>
       <x:c r="J82" s="26">
         <x:v>1</x:v>
       </x:c>
       <x:c r="K82" s="26" t="s">
-        <x:v>118</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="L82" s="26" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="M82" s="26" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N82" s="26" t="s">
-        <x:v>272</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="O82" s="26" t="s">
-        <x:v>257</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="P82" s="33"/>
     </x:row>
     <x:row r="83" spans="2:16">
       <x:c r="B83" s="17"/>
-      <x:c r="C83" s="8">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D83" s="8" t="s">
-        <x:v>194</x:v>
-      </x:c>
-      <x:c r="E83" s="2" t="s">
-        <x:v>20</x:v>
-      </x:c>
+      <x:c r="C83" s="8"/>
+      <x:c r="D83" s="8"/>
+      <x:c r="E83" s="2"/>
       <x:c r="F83" s="8"/>
       <x:c r="G83" s="8"/>
-      <x:c r="H83" s="8" t="s">
-        <x:v>94</x:v>
-      </x:c>
+      <x:c r="H83" s="8"/>
       <x:c r="I83" s="17"/>
-      <x:c r="J83" s="2">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="K83" s="2" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="L83" s="2" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="M83" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
+      <x:c r="J83" s="2"/>
+      <x:c r="K83" s="2"/>
+      <x:c r="L83" s="2"/>
+      <x:c r="M83" s="2"/>
       <x:c r="N83" s="2"/>
-      <x:c r="O83" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
+      <x:c r="O83" s="2"/>
       <x:c r="P83" s="33"/>
     </x:row>
     <x:row r="84" spans="2:16">
@@ -5487,32 +5324,32 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D84" s="8" t="s">
-        <x:v>146</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="E84" s="8" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F84" s="8"/>
       <x:c r="G84" s="8"/>
       <x:c r="H84" s="8" t="s">
-        <x:v>57</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="I84" s="17"/>
       <x:c r="J84" s="2">
         <x:v>3</x:v>
       </x:c>
       <x:c r="K84" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="L84" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="M84" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N84" s="2"/>
       <x:c r="O84" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="P84" s="33"/>
     </x:row>
@@ -5522,32 +5359,32 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D85" s="8" t="s">
-        <x:v>116</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="E85" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F85" s="8"/>
       <x:c r="G85" s="8"/>
       <x:c r="H85" s="8" t="s">
-        <x:v>274</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="I85" s="17"/>
       <x:c r="J85" s="2">
         <x:v>4</x:v>
       </x:c>
       <x:c r="K85" s="4" t="s">
-        <x:v>7</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="L85" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M85" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N85" s="4"/>
       <x:c r="O85" s="4" t="s">
-        <x:v>136</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="P85" s="33"/>
     </x:row>
@@ -5557,32 +5394,32 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D86" s="4" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E86" s="8" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F86" s="8"/>
       <x:c r="G86" s="4"/>
       <x:c r="H86" s="28" t="s">
-        <x:v>181</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="I86" s="17"/>
       <x:c r="J86" s="2">
         <x:v>5</x:v>
       </x:c>
       <x:c r="K86" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="L86" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M86" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N86" s="2"/>
       <x:c r="O86" s="2" t="s">
-        <x:v>113</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="P86" s="33"/>
     </x:row>
@@ -5592,32 +5429,32 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D87" s="8" t="s">
-        <x:v>68</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E87" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F87" s="8"/>
       <x:c r="G87" s="8"/>
       <x:c r="H87" s="8" t="s">
-        <x:v>119</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="I87" s="17"/>
       <x:c r="J87" s="2">
         <x:v>6</x:v>
       </x:c>
       <x:c r="K87" s="2" t="s">
-        <x:v>133</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="L87" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M87" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N87" s="2"/>
       <x:c r="O87" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="P87" s="33"/>
     </x:row>
@@ -5627,37 +5464,37 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D88" s="4" t="s">
-        <x:v>167</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="E88" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F88" s="8"/>
       <x:c r="G88" s="4"/>
       <x:c r="H88" s="28" t="s">
-        <x:v>142</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="I88" s="17"/>
       <x:c r="J88" s="19">
         <x:v>7</x:v>
       </x:c>
       <x:c r="K88" s="19" t="s">
-        <x:v>155</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="L88" s="19" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="M88" s="19" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N88" s="19" t="s">
-        <x:v>242</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="O88" s="38" t="s">
-        <x:v>15</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="P88" s="33" t="s">
-        <x:v>91</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="3:16">
@@ -5665,15 +5502,15 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D89" s="8" t="s">
-        <x:v>14</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E89" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F89" s="8"/>
       <x:c r="G89" s="8"/>
       <x:c r="H89" s="8" t="s">
-        <x:v>259</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="I89" s="16"/>
       <x:c r="J89" s="19">
@@ -5684,31 +5521,31 @@
       <x:c r="M89" s="19"/>
       <x:c r="N89" s="20"/>
       <x:c r="O89" s="29" t="s">
-        <x:v>94</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="P89" s="34" t="s">
-        <x:v>278</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="2:16" ht="32.75">
       <x:c r="B90" s="16" t="s">
-        <x:v>270</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="C90" s="19">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D90" s="19" t="s">
-        <x:v>273</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="E90" s="19" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F90" s="19"/>
       <x:c r="G90" s="19" t="s">
-        <x:v>242</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="H90" s="53" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="I90" s="16"/>
       <x:c r="J90" s="19">
@@ -5719,31 +5556,31 @@
       <x:c r="M90" s="19"/>
       <x:c r="N90" s="20"/>
       <x:c r="O90" s="29" t="s">
-        <x:v>57</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="P90" s="34" t="s">
-        <x:v>278</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="2:16" ht="32.75">
       <x:c r="B91" s="16" t="s">
-        <x:v>147</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="C91" s="19">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D91" s="20" t="s">
-        <x:v>265</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="E91" s="19" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F91" s="19"/>
       <x:c r="G91" s="20" t="s">
-        <x:v>242</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="H91" s="35" t="s">
-        <x:v>48</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="I91" s="16"/>
       <x:c r="J91" s="19">
@@ -5754,31 +5591,31 @@
       <x:c r="M91" s="19"/>
       <x:c r="N91" s="20"/>
       <x:c r="O91" s="29" t="s">
-        <x:v>270</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="P91" s="34" t="s">
-        <x:v>278</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="2:16" ht="32.75">
       <x:c r="B92" s="16" t="s">
-        <x:v>112</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="C92" s="19">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D92" s="20" t="s">
-        <x:v>120</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="E92" s="19" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F92" s="19"/>
       <x:c r="G92" s="20" t="s">
-        <x:v>242</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="H92" s="29" t="s">
-        <x:v>11</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J92" s="19">
         <x:v>11</x:v>
@@ -5788,10 +5625,10 @@
       <x:c r="M92" s="19"/>
       <x:c r="N92" s="19"/>
       <x:c r="O92" s="32" t="s">
-        <x:v>147</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="P92" s="34" t="s">
-        <x:v>278</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="3:16" ht="32.75">
@@ -5799,40 +5636,40 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D93" s="21" t="s">
-        <x:v>174</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E93" s="21" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F93" s="21" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G93" s="21" t="s">
-        <x:v>74</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H93" s="21" t="s">
-        <x:v>243</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J93" s="19">
         <x:v>12</x:v>
       </x:c>
       <x:c r="K93" s="20" t="s">
-        <x:v>252</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="L93" s="19" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="M93" s="19" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N93" s="20" t="s">
-        <x:v>242</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="O93" s="29" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="P93" s="34" t="s">
         <x:v>159</x:v>
-      </x:c>
-      <x:c r="P93" s="34" t="s">
-        <x:v>278</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="3:16">
@@ -5840,37 +5677,37 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D94" s="24" t="s">
-        <x:v>189</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E94" s="21" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F94" s="21" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G94" s="24" t="s">
-        <x:v>74</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H94" s="24" t="s">
-        <x:v>245</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="J94" s="21">
         <x:v>13</x:v>
       </x:c>
       <x:c r="K94" s="21" t="s">
-        <x:v>174</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="L94" s="21" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M94" s="21" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N94" s="21" t="s">
-        <x:v>74</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="O94" s="21" t="s">
-        <x:v>243</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="P94" s="33"/>
     </x:row>
@@ -5879,19 +5716,19 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="K95" s="24" t="s">
-        <x:v>189</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="L95" s="21" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M95" s="21" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N95" s="24" t="s">
-        <x:v>74</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="O95" s="24" t="s">
-        <x:v>245</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="P95" s="33"/>
     </x:row>
@@ -5906,11 +5743,11 @@
     </x:row>
     <x:row r="97" spans="3:16" ht="20.64999999999999857891">
       <x:c r="C97" s="57" t="s">
-        <x:v>172</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D97" s="58"/>
       <x:c r="E97" s="59" t="s">
-        <x:v>236</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F97" s="60"/>
       <x:c r="G97" s="60"/>
@@ -5925,21 +5762,21 @@
     </x:row>
     <x:row r="98" spans="3:16" ht="20.64999999999999857891">
       <x:c r="C98" s="57" t="s">
-        <x:v>179</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D98" s="58"/>
       <x:c r="E98" s="59" t="s">
-        <x:v>91</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="F98" s="60"/>
       <x:c r="G98" s="60"/>
       <x:c r="H98" s="61"/>
       <x:c r="J98" s="57" t="s">
-        <x:v>172</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="K98" s="58"/>
       <x:c r="L98" s="59" t="s">
-        <x:v>281</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="M98" s="60"/>
       <x:c r="N98" s="60"/>
@@ -5948,29 +5785,29 @@
     </x:row>
     <x:row r="99" spans="3:16" ht="20.64999999999999857891">
       <x:c r="C99" s="1" t="s">
-        <x:v>275</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D99" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E99" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="F99" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="G99" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="H99" s="1" t="s">
-        <x:v>246</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="J99" s="57" t="s">
-        <x:v>179</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="K99" s="58"/>
       <x:c r="L99" s="59" t="s">
-        <x:v>158</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="M99" s="60"/>
       <x:c r="N99" s="60"/>
@@ -5982,72 +5819,64 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D100" s="26" t="s">
-        <x:v>155</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="E100" s="26" t="s">
-        <x:v>175</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F100" s="26" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G100" s="26" t="s">
-        <x:v>272</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="H100" s="26" t="s">
-        <x:v>257</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="J100" s="1" t="s">
-        <x:v>275</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="K100" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="L100" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="M100" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="N100" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="O100" s="1" t="s">
-        <x:v>246</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="P100" s="33"/>
     </x:row>
     <x:row r="101" spans="3:16">
-      <x:c r="C101" s="8">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D101" s="8" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="E101" s="2" t="s">
-        <x:v>20</x:v>
-      </x:c>
+      <x:c r="C101" s="8"/>
+      <x:c r="D101" s="8"/>
+      <x:c r="E101" s="2"/>
       <x:c r="F101" s="8"/>
       <x:c r="G101" s="8"/>
-      <x:c r="H101" s="8" t="s">
-        <x:v>204</x:v>
-      </x:c>
+      <x:c r="H101" s="8"/>
       <x:c r="J101" s="26">
         <x:v>1</x:v>
       </x:c>
       <x:c r="K101" s="26" t="s">
-        <x:v>152</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="L101" s="26" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="M101" s="26" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N101" s="26" t="s">
-        <x:v>272</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="O101" s="26" t="s">
-        <x:v>257</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="P101" s="33"/>
     </x:row>
@@ -6056,27 +5885,27 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D102" s="8" t="s">
-        <x:v>145</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="E102" s="8"/>
       <x:c r="F102" s="8"/>
       <x:c r="G102" s="8"/>
       <x:c r="H102" s="8" t="s">
-        <x:v>222</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J102" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="K102" s="8" t="s">
-        <x:v>169</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="L102" s="8" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="M102" s="8"/>
       <x:c r="N102" s="8"/>
       <x:c r="O102" s="8" t="s">
-        <x:v>153</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="P102" s="33"/>
     </x:row>
@@ -6085,29 +5914,29 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D103" s="4" t="s">
-        <x:v>180</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="E103" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F103" s="8"/>
       <x:c r="G103" s="4"/>
       <x:c r="H103" s="4" t="s">
-        <x:v>220</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="J103" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="K103" s="8" t="s">
-        <x:v>234</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="L103" s="8" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="M103" s="8"/>
       <x:c r="N103" s="8"/>
       <x:c r="O103" s="8" t="s">
-        <x:v>262</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="P103" s="33"/>
     </x:row>
@@ -6116,73 +5945,73 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D104" s="8" t="s">
-        <x:v>163</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E104" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F104" s="8"/>
       <x:c r="G104" s="8"/>
       <x:c r="H104" s="8" t="s">
-        <x:v>19</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J104" s="8">
         <x:v>4</x:v>
       </x:c>
       <x:c r="K104" s="4" t="s">
-        <x:v>43</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="L104" s="8" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="M104" s="8"/>
       <x:c r="N104" s="4"/>
       <x:c r="O104" s="4" t="s">
-        <x:v>225</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="P104" s="33"/>
     </x:row>
     <x:row r="105" spans="2:16" ht="32.75">
       <x:c r="B105" t="s">
-        <x:v>258</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C105" s="19">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D105" s="19" t="s">
-        <x:v>252</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E105" s="19" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F105" s="19"/>
       <x:c r="G105" s="19"/>
       <x:c r="H105" s="38" t="s">
-        <x:v>159</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="J105" s="19">
         <x:v>5</x:v>
       </x:c>
       <x:c r="K105" s="19" t="s">
-        <x:v>265</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="L105" s="19" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="M105" s="19"/>
       <x:c r="N105" s="19" t="s">
-        <x:v>242</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="O105" s="38" t="s">
-        <x:v>48</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="P105" s="34" t="s">
-        <x:v>147</x:v>
+        <x:v>265</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="2:16" ht="32.75">
       <x:c r="B106" t="s">
-        <x:v>147</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="C106" s="19">
         <x:v>7</x:v>
@@ -6192,101 +6021,101 @@
       <x:c r="F106" s="19"/>
       <x:c r="G106" s="19"/>
       <x:c r="H106" s="32" t="s">
-        <x:v>201</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="J106" s="39">
         <x:v>6</x:v>
       </x:c>
       <x:c r="K106" s="39" t="s">
-        <x:v>273</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="L106" s="19" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="M106" s="39"/>
       <x:c r="N106" s="39" t="s">
-        <x:v>242</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="O106" s="40" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="P106" s="33" t="s">
-        <x:v>270</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="2:16" ht="32.75">
       <x:c r="B107" s="16" t="s">
-        <x:v>147</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="C107" s="19">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D107" s="19" t="s">
-        <x:v>265</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="E107" s="19" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F107" s="19"/>
       <x:c r="G107" s="19"/>
       <x:c r="H107" s="38" t="s">
-        <x:v>48</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="J107" s="21">
         <x:v>7</x:v>
       </x:c>
       <x:c r="K107" s="21" t="s">
-        <x:v>174</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="L107" s="21" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M107" s="21" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N107" s="21" t="s">
-        <x:v>74</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="O107" s="21" t="s">
-        <x:v>243</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="P107" s="33"/>
     </x:row>
     <x:row r="108" spans="2:16" ht="32.75">
       <x:c r="B108" s="16" t="s">
-        <x:v>270</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="C108" s="39">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D108" s="42" t="s">
-        <x:v>273</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="E108" s="19" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F108" s="39"/>
       <x:c r="G108" s="42"/>
       <x:c r="H108" s="43" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="J108" s="21">
         <x:v>8</x:v>
       </x:c>
       <x:c r="K108" s="24" t="s">
-        <x:v>189</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="L108" s="21" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M108" s="21" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N108" s="24" t="s">
-        <x:v>74</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="O108" s="24" t="s">
-        <x:v>245</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="P108" s="33"/>
     </x:row>
@@ -6295,19 +6124,19 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D109" s="21" t="s">
-        <x:v>174</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E109" s="21" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F109" s="21" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G109" s="21" t="s">
-        <x:v>74</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H109" s="21" t="s">
-        <x:v>243</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J109" s="14"/>
       <x:c r="K109" s="14"/>
@@ -6322,19 +6151,19 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D110" s="24" t="s">
-        <x:v>189</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E110" s="21" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F110" s="21" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G110" s="24" t="s">
-        <x:v>74</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H110" s="24" t="s">
-        <x:v>245</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="J110" s="46"/>
       <x:c r="K110" s="46"/>
@@ -6352,17 +6181,17 @@
       <x:c r="G111" s="6"/>
       <x:c r="H111" s="41"/>
       <x:c r="J111" s="64" t="s">
-        <x:v>172</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="K111" s="65"/>
       <x:c r="L111" s="66" t="s">
-        <x:v>282</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="M111" s="67"/>
       <x:c r="N111" s="67"/>
       <x:c r="O111" s="68"/>
       <x:c r="P111" s="33" t="s">
-        <x:v>208</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="3:16" ht="20.64999999999999857891">
@@ -6373,11 +6202,11 @@
       <x:c r="G112" s="12"/>
       <x:c r="H112" s="12"/>
       <x:c r="J112" s="57" t="s">
-        <x:v>179</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="K112" s="58"/>
       <x:c r="L112" s="59" t="s">
-        <x:v>75</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="M112" s="60"/>
       <x:c r="N112" s="60"/>
@@ -6386,45 +6215,45 @@
     </x:row>
     <x:row r="113" spans="2:16" ht="20.64999999999999857891">
       <x:c r="B113" t="s">
-        <x:v>80</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="C113" s="57" t="s">
-        <x:v>172</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D113" s="58"/>
       <x:c r="E113" s="59" t="s">
-        <x:v>239</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F113" s="60"/>
       <x:c r="G113" s="60"/>
       <x:c r="H113" s="61"/>
       <x:c r="J113" s="1" t="s">
-        <x:v>275</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="K113" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="L113" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="M113" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="N113" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="O113" s="1" t="s">
-        <x:v>246</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="P113" s="33"/>
     </x:row>
     <x:row r="114" spans="3:16" ht="20.64999999999999857891">
       <x:c r="C114" s="64" t="s">
-        <x:v>179</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D114" s="65"/>
       <x:c r="E114" s="66" t="s">
-        <x:v>105</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="F114" s="67"/>
       <x:c r="G114" s="67"/>
@@ -6433,54 +6262,54 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="K114" s="26" t="s">
-        <x:v>196</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L114" s="26" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="M114" s="26" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N114" s="26" t="s">
-        <x:v>272</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="O114" s="26" t="s">
-        <x:v>257</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="P114" s="33"/>
     </x:row>
     <x:row r="115" spans="3:16" ht="17.80000000000000071054">
       <x:c r="C115" s="1" t="s">
-        <x:v>275</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D115" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E115" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="F115" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="G115" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="H115" s="1" t="s">
-        <x:v>246</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="J115" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="K115" s="8" t="s">
-        <x:v>90</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="L115" s="8" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="M115" s="8"/>
       <x:c r="N115" s="8"/>
       <x:c r="O115" s="8" t="s">
-        <x:v>46</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="P115" s="33"/>
     </x:row>
@@ -6489,33 +6318,33 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D116" s="26" t="s">
-        <x:v>210</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E116" s="26" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F116" s="26" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G116" s="26" t="s">
-        <x:v>272</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="H116" s="26" t="s">
-        <x:v>257</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="J116" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="K116" s="8" t="s">
-        <x:v>224</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="L116" s="8" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="M116" s="8"/>
       <x:c r="N116" s="8"/>
       <x:c r="O116" s="8" t="s">
-        <x:v>39</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P116" s="33"/>
     </x:row>
@@ -6524,29 +6353,29 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D117" s="8" t="s">
-        <x:v>203</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E117" s="8" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F117" s="8"/>
       <x:c r="G117" s="8"/>
       <x:c r="H117" s="36" t="s">
-        <x:v>35</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="J117" s="8">
         <x:v>4</x:v>
       </x:c>
       <x:c r="K117" s="4" t="s">
-        <x:v>221</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="L117" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M117" s="8"/>
       <x:c r="N117" s="4"/>
       <x:c r="O117" s="4" t="s">
-        <x:v>218</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="P117" s="33"/>
     </x:row>
@@ -6555,75 +6384,75 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D118" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E118" s="8" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F118" s="8"/>
       <x:c r="G118" s="8"/>
       <x:c r="H118" s="36" t="s">
-        <x:v>45</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="J118" s="8">
         <x:v>5</x:v>
       </x:c>
       <x:c r="K118" s="4" t="s">
-        <x:v>202</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="L118" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M118" s="8"/>
       <x:c r="N118" s="4"/>
       <x:c r="O118" s="28" t="s">
-        <x:v>23</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P118" s="33"/>
     </x:row>
     <x:row r="119" spans="2:16" ht="32.75">
       <x:c r="B119" t="s">
-        <x:v>270</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="C119" s="39">
         <x:v>4</x:v>
       </x:c>
       <x:c r="D119" s="39" t="s">
-        <x:v>273</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="E119" s="19" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F119" s="39"/>
       <x:c r="G119" s="39" t="s">
-        <x:v>242</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="H119" s="44" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="J119" s="39">
         <x:v>6</x:v>
       </x:c>
       <x:c r="K119" s="39" t="s">
-        <x:v>252</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="L119" s="19" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="M119" s="39"/>
       <x:c r="N119" s="39" t="s">
-        <x:v>242</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="O119" s="44" t="s">
-        <x:v>159</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="P119" s="33" t="s">
-        <x:v>258</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="2:16" ht="32.75">
       <x:c r="B120" s="50" t="s">
-        <x:v>49</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C120" s="18">
         <x:v>5</x:v>
@@ -6633,66 +6462,66 @@
       <x:c r="F120" s="18"/>
       <x:c r="G120" s="18"/>
       <x:c r="H120" s="49" t="s">
-        <x:v>28</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="J120" s="39">
         <x:v>7</x:v>
       </x:c>
       <x:c r="K120" s="39" t="s">
-        <x:v>273</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="L120" s="19" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="M120" s="39"/>
       <x:c r="N120" s="39" t="s">
-        <x:v>242</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="O120" s="40" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="P120" s="33" t="s">
-        <x:v>270</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="2:16" ht="32.75">
       <x:c r="B121" s="52" t="s">
-        <x:v>49</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C121" s="18">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D121" s="18" t="s">
-        <x:v>198</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E121" s="18" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F121" s="18"/>
       <x:c r="G121" s="18" t="s">
-        <x:v>242</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="H121" s="51" t="s">
-        <x:v>226</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J121" s="19">
         <x:v>8</x:v>
       </x:c>
       <x:c r="K121" s="19" t="s">
-        <x:v>265</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="L121" s="19" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="M121" s="19"/>
       <x:c r="N121" s="19" t="s">
-        <x:v>242</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="O121" s="32" t="s">
-        <x:v>34</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="P121" s="33" t="s">
-        <x:v>162</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="2:16">
@@ -6701,37 +6530,37 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D122" s="21" t="s">
-        <x:v>174</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E122" s="21" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F122" s="21" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G122" s="21" t="s">
-        <x:v>74</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H122" s="21" t="s">
-        <x:v>243</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J122" s="21">
         <x:v>12</x:v>
       </x:c>
       <x:c r="K122" s="21" t="s">
-        <x:v>174</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="L122" s="21" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M122" s="21" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N122" s="21" t="s">
-        <x:v>74</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="O122" s="21" t="s">
-        <x:v>243</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="P122" s="33"/>
     </x:row>
@@ -6741,37 +6570,37 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D123" s="24" t="s">
-        <x:v>189</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E123" s="21" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F123" s="21" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G123" s="24" t="s">
-        <x:v>74</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H123" s="24" t="s">
-        <x:v>245</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="J123" s="21">
         <x:v>13</x:v>
       </x:c>
       <x:c r="K123" s="24" t="s">
-        <x:v>189</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="L123" s="21" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M123" s="21" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N123" s="24" t="s">
-        <x:v>74</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="O123" s="24" t="s">
-        <x:v>245</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="P123" s="33"/>
     </x:row>
@@ -6809,50 +6638,50 @@
     </x:row>
     <x:row r="126" spans="2:16" ht="20.64999999999999857891">
       <x:c r="B126" s="16" t="s">
-        <x:v>219</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C126" s="64" t="s">
-        <x:v>172</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D126" s="65"/>
       <x:c r="E126" s="66" t="s">
-        <x:v>240</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F126" s="67"/>
       <x:c r="G126" s="67"/>
       <x:c r="H126" s="68"/>
       <x:c r="J126" s="57" t="s">
-        <x:v>172</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="K126" s="58"/>
       <x:c r="L126" s="59" t="s">
-        <x:v>217</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="M126" s="60"/>
       <x:c r="N126" s="60"/>
       <x:c r="O126" s="61"/>
       <x:c r="P126" s="33" t="s">
-        <x:v>88</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="2:16" ht="20.64999999999999857891">
       <x:c r="B127" s="16"/>
       <x:c r="C127" s="64" t="s">
-        <x:v>179</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D127" s="65"/>
       <x:c r="E127" s="66" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F127" s="67"/>
       <x:c r="G127" s="67"/>
       <x:c r="H127" s="68"/>
       <x:c r="J127" s="64" t="s">
-        <x:v>179</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="K127" s="65"/>
       <x:c r="L127" s="66" t="s">
-        <x:v>164</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="M127" s="67"/>
       <x:c r="N127" s="67"/>
@@ -6862,40 +6691,40 @@
     <x:row r="128" spans="2:16" ht="17.80000000000000071054">
       <x:c r="B128" s="16"/>
       <x:c r="C128" s="1" t="s">
-        <x:v>275</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D128" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E128" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="F128" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="G128" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="H128" s="1" t="s">
-        <x:v>246</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="J128" s="1" t="s">
-        <x:v>275</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="K128" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="L128" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="M128" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="N128" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="O128" s="1" t="s">
-        <x:v>246</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="P128" s="33"/>
     </x:row>
@@ -6905,37 +6734,37 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D129" s="26" t="s">
-        <x:v>198</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E129" s="26" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F129" s="26" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G129" s="26" t="s">
-        <x:v>272</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="H129" s="26" t="s">
-        <x:v>257</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="J129" s="26">
         <x:v>1</x:v>
       </x:c>
       <x:c r="K129" s="26" t="s">
-        <x:v>254</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="L129" s="26" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="M129" s="26" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N129" s="26" t="s">
-        <x:v>272</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="O129" s="26" t="s">
-        <x:v>257</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="P129" s="33"/>
     </x:row>
@@ -6945,51 +6774,51 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D130" s="8" t="s">
-        <x:v>214</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E130" s="8" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F130" s="8"/>
       <x:c r="G130" s="8"/>
       <x:c r="H130" s="36" t="s">
-        <x:v>28</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="J130" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="K130" s="8" t="s">
-        <x:v>223</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="L130" s="8" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="M130" s="8"/>
       <x:c r="N130" s="8"/>
       <x:c r="O130" s="37" t="s">
-        <x:v>13</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="P130" s="33"/>
     </x:row>
     <x:row r="131" spans="2:16" ht="32.75">
       <x:c r="B131" s="16" t="s">
-        <x:v>147</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="C131" s="19">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D131" s="19" t="s">
-        <x:v>265</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="E131" s="19" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F131" s="19"/>
       <x:c r="G131" s="19" t="s">
-        <x:v>242</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="H131" s="38" t="s">
-        <x:v>48</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="J131" s="19">
         <x:v>3</x:v>
@@ -7002,47 +6831,47 @@
         <x:v>176</x:v>
       </x:c>
       <x:c r="P131" s="33" t="s">
-        <x:v>270</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="2:16" ht="32.75">
       <x:c r="B132" s="16" t="s">
-        <x:v>270</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="C132" s="19">
         <x:v>4</x:v>
       </x:c>
       <x:c r="D132" s="19" t="s">
-        <x:v>273</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="E132" s="19" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F132" s="19"/>
       <x:c r="G132" s="19" t="s">
-        <x:v>242</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="H132" s="38" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="J132" s="19">
         <x:v>4</x:v>
       </x:c>
       <x:c r="K132" s="20" t="s">
-        <x:v>273</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="L132" s="19" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="M132" s="19"/>
       <x:c r="N132" s="20" t="s">
-        <x:v>242</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="O132" s="45" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="P132" s="34" t="s">
-        <x:v>270</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="3:16">
@@ -7050,19 +6879,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D133" s="21" t="s">
-        <x:v>174</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E133" s="21" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F133" s="21" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G133" s="21" t="s">
-        <x:v>74</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H133" s="21" t="s">
-        <x:v>243</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J133" s="19">
         <x:v>5</x:v>
@@ -7072,10 +6901,10 @@
       <x:c r="M133" s="19"/>
       <x:c r="N133" s="20"/>
       <x:c r="O133" s="29" t="s">
-        <x:v>190</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="P133" s="33" t="s">
-        <x:v>249</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="134" spans="3:16" ht="32.75">
@@ -7083,38 +6912,38 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D134" s="24" t="s">
-        <x:v>189</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E134" s="21" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F134" s="21" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G134" s="24" t="s">
-        <x:v>74</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H134" s="24" t="s">
-        <x:v>245</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="J134" s="19">
         <x:v>6</x:v>
       </x:c>
       <x:c r="K134" s="20" t="s">
-        <x:v>266</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="L134" s="19" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="M134" s="19"/>
       <x:c r="N134" s="20" t="s">
-        <x:v>242</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="O134" s="29" t="s">
-        <x:v>209</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="P134" s="33" t="s">
-        <x:v>249</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="10:16">
@@ -7126,10 +6955,10 @@
       <x:c r="M135" s="19"/>
       <x:c r="N135" s="20"/>
       <x:c r="O135" s="29" t="s">
-        <x:v>213</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="P135" s="33" t="s">
-        <x:v>168</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="10:16" ht="32.75">
@@ -7137,29 +6966,29 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="K136" s="20" t="s">
-        <x:v>215</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="L136" s="19" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="M136" s="19"/>
       <x:c r="N136" s="20" t="s">
-        <x:v>242</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="O136" s="45" t="s">
-        <x:v>64</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="P136" s="33" t="s">
-        <x:v>168</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="3:16" ht="20.64999999999999857891">
       <x:c r="C137" s="57" t="s">
-        <x:v>172</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D137" s="58"/>
       <x:c r="E137" s="59" t="s">
-        <x:v>41</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F137" s="60"/>
       <x:c r="G137" s="60"/>
@@ -7174,11 +7003,11 @@
     </x:row>
     <x:row r="138" spans="3:16" ht="20.64999999999999857891">
       <x:c r="C138" s="64" t="s">
-        <x:v>179</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D138" s="65"/>
       <x:c r="E138" s="66" t="s">
-        <x:v>124</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="F138" s="67"/>
       <x:c r="G138" s="67"/>
@@ -7193,22 +7022,22 @@
     </x:row>
     <x:row r="139" spans="3:16" ht="20.64999999999999857891">
       <x:c r="C139" s="1" t="s">
-        <x:v>275</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D139" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E139" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="F139" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="G139" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="H139" s="1" t="s">
-        <x:v>246</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="J139" s="14"/>
       <x:c r="K139" s="14"/>
@@ -7223,19 +7052,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D140" s="26" t="s">
-        <x:v>250</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="E140" s="26" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F140" s="26" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G140" s="26" t="s">
-        <x:v>272</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="H140" s="26" t="s">
-        <x:v>257</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="J140" s="14"/>
       <x:c r="K140" s="14"/>
@@ -7246,20 +7075,12 @@
       <x:c r="P140" s="33"/>
     </x:row>
     <x:row r="141" spans="3:16" ht="17.80000000000000071054">
-      <x:c r="C141" s="8">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D141" s="8" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="E141" s="8" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="F141" s="8"/>
-      <x:c r="G141" s="8"/>
-      <x:c r="H141" s="36" t="s">
-        <x:v>206</x:v>
-      </x:c>
+      <x:c r="C141" s="73"/>
+      <x:c r="D141" s="73"/>
+      <x:c r="E141" s="73"/>
+      <x:c r="F141" s="73"/>
+      <x:c r="G141" s="73"/>
+      <x:c r="H141" s="74"/>
       <x:c r="J141" s="14"/>
       <x:c r="K141" s="14"/>
       <x:c r="L141" s="14"/>
@@ -7273,15 +7094,15 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D142" s="8" t="s">
-        <x:v>98</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E142" s="8" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F142" s="8"/>
       <x:c r="G142" s="8"/>
       <x:c r="H142" s="36" t="s">
-        <x:v>83</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="J142" s="16"/>
       <x:c r="K142" s="16"/>
@@ -7296,15 +7117,15 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D143" s="8" t="s">
-        <x:v>154</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="E143" s="8" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F143" s="8"/>
       <x:c r="G143" s="8"/>
       <x:c r="H143" s="36" t="s">
-        <x:v>216</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="J143" s="16"/>
       <x:c r="K143" s="16"/>
@@ -7316,23 +7137,23 @@
     </x:row>
     <x:row r="144" spans="2:16" ht="32.75">
       <x:c r="B144" t="s">
-        <x:v>253</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C144" s="19">
         <x:v>5</x:v>
       </x:c>
       <x:c r="D144" s="19" t="s">
-        <x:v>118</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="E144" s="19" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F144" s="19"/>
       <x:c r="G144" s="19" t="s">
-        <x:v>242</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="H144" s="38" t="s">
-        <x:v>89</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="J144" s="16"/>
       <x:c r="K144" s="16"/>
@@ -7363,11 +7184,11 @@
     <x:row r="147" spans="2:16" ht="20.64999999999999857891">
       <x:c r="B147" s="16"/>
       <x:c r="C147" s="62" t="s">
-        <x:v>172</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D147" s="62"/>
       <x:c r="E147" s="63" t="s">
-        <x:v>32</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F147" s="63"/>
       <x:c r="G147" s="63"/>
@@ -7383,11 +7204,11 @@
     <x:row r="148" spans="2:16" ht="20.64999999999999857891">
       <x:c r="B148" s="16"/>
       <x:c r="C148" s="62" t="s">
-        <x:v>179</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D148" s="62"/>
       <x:c r="E148" s="63" t="s">
-        <x:v>53</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F148" s="63"/>
       <x:c r="G148" s="63"/>
@@ -7397,22 +7218,22 @@
     <x:row r="149" spans="2:16" ht="17.80000000000000071054">
       <x:c r="B149" s="16"/>
       <x:c r="C149" s="1" t="s">
-        <x:v>275</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D149" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E149" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="F149" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="G149" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="H149" s="1" t="s">
-        <x:v>246</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="P149" s="30"/>
     </x:row>
@@ -7422,19 +7243,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D150" s="26" t="s">
-        <x:v>265</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="E150" s="26" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F150" s="26" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G150" s="26" t="s">
-        <x:v>272</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="H150" s="26" t="s">
-        <x:v>257</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="P150" s="30"/>
     </x:row>
@@ -7444,17 +7265,17 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D151" s="4" t="s">
-        <x:v>106</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="E151" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F151" s="8" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G151" s="4"/>
       <x:c r="H151" s="4" t="s">
-        <x:v>6</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="P151" s="30"/>
     </x:row>
@@ -7464,17 +7285,17 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D152" s="7" t="s">
-        <x:v>76</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="E152" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F152" s="8" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G152" s="7"/>
       <x:c r="H152" s="7" t="s">
-        <x:v>100</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="P152" s="30"/>
     </x:row>
@@ -7484,17 +7305,17 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D153" s="4" t="s">
-        <x:v>55</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E153" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F153" s="8" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G153" s="4"/>
       <x:c r="H153" s="4" t="s">
-        <x:v>5</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="P153" s="30"/>
     </x:row>
@@ -7504,17 +7325,17 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D154" s="4" t="s">
-        <x:v>228</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E154" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F154" s="7" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G154" s="4"/>
       <x:c r="H154" s="4" t="s">
-        <x:v>290</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="P154" s="30"/>
     </x:row>
@@ -7524,17 +7345,17 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D155" s="4" t="s">
-        <x:v>62</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E155" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F155" s="7" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G155" s="4"/>
       <x:c r="H155" s="4" t="s">
-        <x:v>61</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="P155" s="30"/>
     </x:row>
@@ -7544,17 +7365,17 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D156" s="4" t="s">
-        <x:v>56</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E156" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F156" s="7" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G156" s="4"/>
       <x:c r="H156" s="4" t="s">
-        <x:v>276</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="P156" s="30"/>
     </x:row>
@@ -7564,17 +7385,17 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D157" s="4" t="s">
-        <x:v>233</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E157" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F157" s="7" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G157" s="4"/>
       <x:c r="H157" s="4" t="s">
-        <x:v>1</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="P157" s="30"/>
     </x:row>
@@ -7584,17 +7405,17 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D158" s="4" t="s">
-        <x:v>287</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E158" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F158" s="7" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G158" s="4"/>
       <x:c r="H158" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="P158" s="30"/>
     </x:row>
@@ -7604,17 +7425,17 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D159" s="4" t="s">
-        <x:v>166</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E159" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F159" s="7" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G159" s="4"/>
       <x:c r="H159" s="4" t="s">
-        <x:v>128</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="P159" s="30"/>
     </x:row>
@@ -7624,17 +7445,17 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D160" s="4" t="s">
-        <x:v>285</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E160" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F160" s="7" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G160" s="4"/>
       <x:c r="H160" s="4" t="s">
-        <x:v>286</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P160" s="30"/>
     </x:row>
@@ -7644,17 +7465,17 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D161" s="4" t="s">
-        <x:v>280</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E161" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F161" s="7" t="s">
-        <x:v>289</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G161" s="4"/>
       <x:c r="H161" s="4" t="s">
-        <x:v>288</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="P161" s="30"/>
     </x:row>
@@ -7664,17 +7485,17 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D162" s="4" t="s">
-        <x:v>291</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="E162" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F162" s="7" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G162" s="4"/>
       <x:c r="H162" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="P162" s="30"/>
     </x:row>
@@ -7683,41 +7504,41 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D163" s="4" t="s">
-        <x:v>182</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="E163" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F163" s="7" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G163" s="4"/>
       <x:c r="H163" s="4" t="s">
-        <x:v>207</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="P163" s="30"/>
     </x:row>
     <x:row r="164" spans="2:16">
       <x:c r="B164" s="16" t="s">
-        <x:v>178</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C164" s="18">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D164" s="19" t="s">
-        <x:v>277</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E164" s="19" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F164" s="19" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G164" s="19" t="s">
-        <x:v>242</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="H164" s="19" t="s">
-        <x:v>195</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="P164" s="30"/>
     </x:row>
@@ -7726,19 +7547,19 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D165" s="21" t="s">
-        <x:v>174</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E165" s="21" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F165" s="21" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G165" s="21" t="s">
-        <x:v>74</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H165" s="21" t="s">
-        <x:v>243</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="P165" s="30"/>
     </x:row>
@@ -7747,19 +7568,19 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D166" s="24" t="s">
-        <x:v>189</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E166" s="21" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F166" s="21" t="s">
-        <x:v>69</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G166" s="24" t="s">
-        <x:v>74</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H166" s="24" t="s">
-        <x:v>245</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="P166" s="30"/>
     </x:row>

--- a/PNS테이블.xlsx
+++ b/PNS테이블.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11340"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="11310"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -55,31 +55,642 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="274">
-  <x:si>
-    <x:t>sManager</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Not Null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계약 서명(을)</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="272">
+  <x:si>
+    <x:t>회사 전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ipId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>합격 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조달 계획</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조달 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생년월일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ipCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조달 납기일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입고
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uEmail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ppStart</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발주 코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재 
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출고용설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자사쪽설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cSignB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재 재고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업자등록번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mWeight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mDepth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cSize</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조달시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>키 유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>oNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공급업체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>opState</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요구 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ppNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ppCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발주 상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>반품 물품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결함 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mMinNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mWidth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mHeight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>opANum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dppNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ipState</x:t>
+  </x:si>
+  <x:si>
+    <x:t>drNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예상 납기일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dppCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cTax</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dppId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dppDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>납품 희망일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ppid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ssNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Assy(4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>isNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>psId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단위 가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재 공급업체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bom(4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진척 검수일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공급업체 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>납품 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>psDgree</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sFax</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발주서확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업체측설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ppState</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 승인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생산 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>반품 상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>oCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>psState</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cSignA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>isId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ssId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>psDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userJob</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품 코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ppId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요구수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ppEnd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>거래 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ipNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>float</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회사 팩스번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ModDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>opCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uPhone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발주서
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>협력업체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tsNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Null 여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재 코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rState</x:t>
+  </x:si>
+  <x:si>
+    <x:t>거래 명세서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총 금액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>oState</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단위당 가격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생산 계획</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RegDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상호(법인명)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sRegNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>supId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>반품 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sAgree</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품 리스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>drCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진척 검수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>psNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조립 구조</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생산계획</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업장 주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>drId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sPhone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>납품 지시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>drDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tsId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>drState</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재분류품목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계약 세액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계약 단위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품 
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계약 규격 사이즈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조달 계획
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>varchar2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조립 구조
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mUnitPrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소모되는
+자재의 수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ipFalseNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업체 자재 재고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>납품 지시
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>납품 상태(ENUM)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>isAvailable</x:t>
+  </x:si>
+  <x:si>
+    <x:t>oTotalPrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검수 상태(ENUM)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mImageUrl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조립 구조
+자재코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록일, 수정일 규격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dppState</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bRequireNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>oRemarks</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생산 계획 상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ipTrueNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Return(8)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>협력업체
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract(0)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Supplier(2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OutPut(5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진척 검수 차수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입고 상태(ENUM)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>userType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sContract</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mLeadTime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생산 계획 종료일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uBirthDay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InPut(7)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sAddress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자사 자재 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계약 부품 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Material(3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tsUnitPrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전체 가용 재고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진척 검수 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발주 주문 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생산 계획 시작일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cMatName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디 및 기본키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cUnitPrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공급업체
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업체 자재
+재고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Order(5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공급업체(협력회사)</x:t>
   </x:si>
   <x:si>
     <x:t>생산계획코드
 외래키</x:t>
   </x:si>
   <x:si>
+    <x:t>Not Null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계약 서명(을)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sManager</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계약 서명(갑)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리 매니저 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>baseEntity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>oExpectDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uAddress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출고 상태(ENUM)</x:t>
+  </x:si>
+  <x:si>
     <x:t>조달 상태(ENUM)</x:t>
   </x:si>
   <x:si>
-    <x:t>계약 서명(갑)</x:t>
-  </x:si>
-  <x:si>
     <x:t>부품 종류(ENUM)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출고 상태(ENUM)</x:t>
   </x:si>
   <x:si>
     <x:t>생산 계획
@@ -92,243 +703,54 @@
     <x:t>최소 공급 수량</x:t>
   </x:si>
   <x:si>
-    <x:t>baseEntity</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리 매니저 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>oExpectDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uAddress</x:t>
+    <x:t>회사 직통전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사업장 주소 상세</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업체 자재 수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sExponent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sAddressExtra</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업체 자재 재고
+외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sPhoneDirect</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tsTotalPrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sBusinessType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BaseEntity(0)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bComponentType</x:t>
   </x:si>
   <x:si>
     <x:t>mComponentType</x:t>
   </x:si>
   <x:si>
-    <x:t>sBusinessType</x:t>
-  </x:si>
-  <x:si>
     <x:t>sBusinessArray</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bComponentType</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dppRequireNum</x:t>
   </x:si>
   <x:si>
     <x:t>조립 구조
 소모 자재 수량</x:t>
   </x:si>
   <x:si>
-    <x:t>tsTotalPrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sAddressExtra</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업체 자재 재고
-외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BaseEntity(0)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sPhoneDirect</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조립 구조
-외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mUnitPrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>isAvailable</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업체 자재 재고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>oTotalPrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검수 상태(ENUM)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계약 규격 사이즈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조달 계획
-외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소모되는
-자재의 수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ipFalseNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>납품 지시
-외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>납품 상태(ENUM)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mImageUrl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>varchar2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>oRemarks</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산 계획 상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록일, 수정일 규격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조립 구조
-자재코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dppState</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ipTrueNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bRequireNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ppid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>psId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>psDgree</x:t>
-  </x:si>
-  <x:si>
-    <x:t>psDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>oCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bom(4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업체측설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발주서확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ppState</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Assy(4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>isNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품
-외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재 공급업체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>납품 희망일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>psState</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 승인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>반품 상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진척 검수일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공급업체 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>isId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ssId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ssNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>납품 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cSignA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sFax</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단위 가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사 팩스번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userJob</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ppId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ModDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>opCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ipNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mType</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요구수량</x:t>
+    <x:t>dppRequireNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SupplierStock(4)</x:t>
   </x:si>
   <x:si>
     <x:t>DeliveryRequest(6)</x:t>
@@ -337,564 +759,136 @@
     <x:t>InventoryStock(5)</x:t>
   </x:si>
   <x:si>
-    <x:t>SupplierStock(4)</x:t>
-  </x:si>
-  <x:si>
     <x:t>ProductionPlan(2)</x:t>
   </x:si>
   <x:si>
-    <x:t>협력업체
-외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Return(8)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mLeadTime</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tsUnitPrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입고 상태(ENUM)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>userType</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Material(3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract(0)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자사 자재 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OutPut(5)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진척 검수 차수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계약 부품 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InPut(7)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Supplier(2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산 계획 종료일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sContract</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sAddress</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uBirthDay</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발주 주문 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cMatName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Order(5)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공급업체
-외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업체 자재
-재고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전체 가용 재고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진척 검수 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산 계획 시작일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디 및 기본키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cUnitPrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공급업체(협력회사)</x:t>
+    <x:t>제품</x:t>
   </x:si>
   <x:si>
     <x:t>수정일</x:t>
   </x:si>
   <x:si>
+    <x:t>부서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무게</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록일</x:t>
+  </x:si>
+  <x:si>
     <x:t>대표자</x:t>
   </x:si>
   <x:si>
+    <x:t>총액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>높이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계약서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계약일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발주서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>번호</x:t>
+  </x:si>
+  <x:si>
     <x:t>oId</x:t>
   </x:si>
   <x:si>
-    <x:t>FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부서</x:t>
-  </x:si>
-  <x:si>
     <x:t>업종</x:t>
   </x:si>
   <x:si>
-    <x:t>설명</x:t>
+    <x:t>컬럼명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가로</x:t>
   </x:si>
   <x:si>
     <x:t>세로</x:t>
   </x:si>
   <x:si>
-    <x:t>컬럼명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무게</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주문일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계약서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>높이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발주서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계약일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
     <x:t>aId</x:t>
   </x:si>
   <x:si>
+    <x:t>이미지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>uId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발주</x:t>
+  </x:si>
+  <x:si>
     <x:t>sId</x:t>
   </x:si>
   <x:si>
+    <x:t>계약</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
     <x:t>코드</x:t>
   </x:si>
   <x:si>
-    <x:t>주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발주</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사 직통전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업장 주소 상세</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sExponent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업체 자재 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ppEnd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>거래 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>float</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발주서
-외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uPhone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>협력업체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재
-외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>number</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단위당 가격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>drDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조립 구조</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총 금액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sAgree</x:t>
-  </x:si>
-  <x:si>
-    <x:t>drId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>oState</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Null 여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tsId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산 계획</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tsNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sPhone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>drCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>drState</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rState</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>거래 명세서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RegDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상호(법인명)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진척 검수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생산계획</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업장 주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sRegNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>supId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>psNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>납품 지시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>반품 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품 리스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재분류품목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계약 단위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품 
-외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계약 세액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cSignB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조달 납기일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조달시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사업자등록번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조달 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mWeight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재 재고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자사쪽설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입고
-외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발주 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uEmail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생년월일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ppStart</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재 
-외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출고용설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조달 계획</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사 전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>키 유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mDepth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ipCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cSize</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ipId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>합격 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예상 납기일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dppCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>반품 물품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ipState</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mMinNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cTax</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결함 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>opANum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dppId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mHeight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발주 상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요구 수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dppNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ppNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dppDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>oDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>drNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>oNum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공급업체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mWidth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ppCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>opState</x:t>
+    <x:t>TradeSpecification(4)</x:t>
   </x:si>
   <x:si>
     <x:t>ProgressInspection(6)</x:t>
   </x:si>
   <x:si>
-    <x:t>TradeSpecification(4)</x:t>
-  </x:si>
-  <x:si>
     <x:t>DeliveryProcurementPlan(4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록자</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1765,214 +1759,6 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine" hs:abstractNumType="3" hs:abstractNumId="0"/>
@@ -1994,6 +1780,214 @@
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -2007,7 +2001,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2090,7 +2083,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2125,7 +2117,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2170,7 +2161,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2214,7 +2204,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2299,7 +2288,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2320,7 +2308,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2351,7 +2338,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2663,8 +2649,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="B1:Y222"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A64" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="J68" activeCellId="0" sqref="J68:P76"/>
+    <x:sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A76" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <x:selection activeCell="H85" activeCellId="0" sqref="C85:H85"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -2687,87 +2673,87 @@
       <x:c r="P1" s="30"/>
     </x:row>
     <x:row r="2" spans="3:16" ht="20.64999999999999857891">
-      <x:c r="C2" s="57" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="D2" s="58"/>
-      <x:c r="E2" s="59" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F2" s="60"/>
-      <x:c r="G2" s="60"/>
-      <x:c r="H2" s="61"/>
-      <x:c r="J2" s="57" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="K2" s="58"/>
-      <x:c r="L2" s="59" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="M2" s="60"/>
-      <x:c r="N2" s="60"/>
-      <x:c r="O2" s="61"/>
+      <x:c r="C2" s="59" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D2" s="60"/>
+      <x:c r="E2" s="61" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="F2" s="62"/>
+      <x:c r="G2" s="62"/>
+      <x:c r="H2" s="63"/>
+      <x:c r="J2" s="59" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="K2" s="60"/>
+      <x:c r="L2" s="61" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="M2" s="62"/>
+      <x:c r="N2" s="62"/>
+      <x:c r="O2" s="63"/>
       <x:c r="P2" s="30"/>
     </x:row>
     <x:row r="3" spans="3:16" ht="20.64999999999999857891">
-      <x:c r="C3" s="57" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="D3" s="58"/>
-      <x:c r="E3" s="59" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F3" s="60"/>
-      <x:c r="G3" s="60"/>
-      <x:c r="H3" s="61"/>
-      <x:c r="J3" s="57" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="K3" s="58"/>
-      <x:c r="L3" s="59" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="M3" s="60"/>
-      <x:c r="N3" s="60"/>
-      <x:c r="O3" s="61"/>
+      <x:c r="C3" s="59" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D3" s="60"/>
+      <x:c r="E3" s="61" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="F3" s="62"/>
+      <x:c r="G3" s="62"/>
+      <x:c r="H3" s="63"/>
+      <x:c r="J3" s="59" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="K3" s="60"/>
+      <x:c r="L3" s="61" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="M3" s="62"/>
+      <x:c r="N3" s="62"/>
+      <x:c r="O3" s="63"/>
       <x:c r="P3" s="30"/>
     </x:row>
     <x:row r="4" spans="3:16" ht="17.80000000000000071054">
       <x:c r="C4" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="E4" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F4" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="G4" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H4" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="J4" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="K4" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="L4" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="M4" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="N4" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O4" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="P4" s="30"/>
     </x:row>
@@ -2776,37 +2762,37 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D5" s="21" t="s">
-        <x:v>196</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E5" s="21" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F5" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G5" s="21" t="s">
-        <x:v>11</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="H5" s="21" t="s">
-        <x:v>134</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="J5" s="26">
         <x:v>1</x:v>
       </x:c>
       <x:c r="K5" s="27" t="s">
-        <x:v>158</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="L5" s="26" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M5" s="26" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N5" s="26" t="s">
-        <x:v>151</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="O5" s="26" t="s">
-        <x:v>118</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="P5" s="30"/>
     </x:row>
@@ -2815,35 +2801,35 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D6" s="23" t="s">
-        <x:v>81</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E6" s="22" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F6" s="22" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G6" s="24" t="s">
-        <x:v>11</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="H6" s="23" t="s">
-        <x:v>121</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="J6" s="2">
         <x:v>2</x:v>
       </x:c>
       <x:c r="K6" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="L6" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M6" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N6" s="2"/>
       <x:c r="O6" s="2" t="s">
-        <x:v>133</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="P6" s="30"/>
     </x:row>
@@ -2858,17 +2844,17 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="K7" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="L7" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M7" s="2" t="s">
-        <x:v>197</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="N7" s="2"/>
       <x:c r="O7" s="2" t="s">
-        <x:v>155</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="P7" s="30"/>
       <x:c r="Q7" s="5"/>
@@ -2880,31 +2866,31 @@
       <x:c r="W7" s="5"/>
     </x:row>
     <x:row r="8" spans="3:23" ht="20.64999999999999857891">
-      <x:c r="C8" s="62" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="D8" s="62"/>
-      <x:c r="E8" s="63" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="F8" s="63"/>
-      <x:c r="G8" s="63"/>
-      <x:c r="H8" s="63"/>
+      <x:c r="C8" s="64" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D8" s="64"/>
+      <x:c r="E8" s="65" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="F8" s="65"/>
+      <x:c r="G8" s="65"/>
+      <x:c r="H8" s="65"/>
       <x:c r="J8" s="2">
         <x:v>4</x:v>
       </x:c>
       <x:c r="K8" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="L8" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M8" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N8" s="2"/>
       <x:c r="O8" s="2" t="s">
-        <x:v>223</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="P8" s="30"/>
       <x:c r="Q8" s="5"/>
@@ -2916,31 +2902,31 @@
       <x:c r="W8" s="5"/>
     </x:row>
     <x:row r="9" spans="3:23" ht="20.64999999999999857891">
-      <x:c r="C9" s="62" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="D9" s="62"/>
-      <x:c r="E9" s="63" t="s">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="F9" s="63"/>
-      <x:c r="G9" s="63"/>
-      <x:c r="H9" s="63"/>
+      <x:c r="C9" s="64" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D9" s="64"/>
+      <x:c r="E9" s="65" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="F9" s="65"/>
+      <x:c r="G9" s="65"/>
+      <x:c r="H9" s="65"/>
       <x:c r="J9" s="2">
         <x:v>5</x:v>
       </x:c>
       <x:c r="K9" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L9" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M9" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N9" s="2"/>
       <x:c r="O9" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="P9" s="30"/>
       <x:c r="Q9" s="5"/>
@@ -2953,38 +2939,38 @@
     </x:row>
     <x:row r="10" spans="3:23" ht="17.80000000000000071054">
       <x:c r="C10" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="D10" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="E10" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F10" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="G10" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H10" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="J10" s="2">
         <x:v>6</x:v>
       </x:c>
       <x:c r="K10" s="2" t="s">
-        <x:v>225</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="L10" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M10" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N10" s="2"/>
       <x:c r="O10" s="2" t="s">
-        <x:v>148</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="P10" s="30"/>
       <x:c r="Q10" s="5"/>
@@ -3000,35 +2986,35 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D11" s="26" t="s">
-        <x:v>233</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E11" s="26" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F11" s="26" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G11" s="26" t="s">
-        <x:v>151</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="H11" s="26" t="s">
-        <x:v>149</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="J11" s="2">
         <x:v>7</x:v>
       </x:c>
       <x:c r="K11" s="2" t="s">
-        <x:v>170</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="L11" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M11" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N11" s="2"/>
       <x:c r="O11" s="2" t="s">
-        <x:v>237</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P11" s="30"/>
       <x:c r="Q11" s="5"/>
@@ -3047,30 +3033,30 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E12" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F12" s="8" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G12" s="7"/>
       <x:c r="H12" s="7" t="s">
-        <x:v>208</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="J12" s="2">
         <x:v>8</x:v>
       </x:c>
       <x:c r="K12" s="2" t="s">
-        <x:v>109</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="L12" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M12" s="2" t="s">
-        <x:v>197</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="N12" s="2"/>
       <x:c r="O12" s="2" t="s">
-        <x:v>227</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="P12" s="30"/>
       <x:c r="Q12" s="5"/>
@@ -3086,35 +3072,35 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D13" s="4" t="s">
-        <x:v>268</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F13" s="7" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G13" s="4"/>
       <x:c r="H13" s="4" t="s">
-        <x:v>194</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="J13" s="21">
         <x:v>9</x:v>
       </x:c>
       <x:c r="K13" s="21" t="s">
-        <x:v>196</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="L13" s="21" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M13" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N13" s="21" t="s">
-        <x:v>11</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="O13" s="21" t="s">
-        <x:v>134</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="P13" s="30"/>
       <x:c r="Q13" s="5"/>
@@ -3130,35 +3116,35 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D14" s="4" t="s">
-        <x:v>27</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E14" s="7" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F14" s="7" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G14" s="4"/>
       <x:c r="H14" s="4" t="s">
-        <x:v>177</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="J14" s="24">
         <x:v>10</x:v>
       </x:c>
       <x:c r="K14" s="24" t="s">
-        <x:v>81</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="L14" s="21" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M14" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N14" s="24" t="s">
-        <x:v>11</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="O14" s="24" t="s">
-        <x:v>121</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="P14" s="30"/>
       <x:c r="Q14" s="5"/>
@@ -3174,17 +3160,17 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D15" s="4" t="s">
-        <x:v>250</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E15" s="2" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F15" s="7" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G15" s="4"/>
       <x:c r="H15" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="J15" s="14"/>
       <x:c r="K15" s="14"/>
@@ -3206,28 +3192,28 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D16" s="4" t="s">
-        <x:v>38</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E16" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F16" s="7" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G16" s="4"/>
       <x:c r="H16" s="4" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="J16" s="62" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="K16" s="62"/>
-      <x:c r="L16" s="72" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="M16" s="72"/>
-      <x:c r="N16" s="72"/>
-      <x:c r="O16" s="72"/>
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="J16" s="64" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="K16" s="64"/>
+      <x:c r="L16" s="74" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="M16" s="74"/>
+      <x:c r="N16" s="74"/>
+      <x:c r="O16" s="74"/>
       <x:c r="P16" s="30"/>
       <x:c r="Q16" s="5"/>
       <x:c r="R16" s="5"/>
@@ -3242,28 +3228,28 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D17" s="4" t="s">
-        <x:v>239</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E17" s="2" t="s">
-        <x:v>168</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="F17" s="7" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G17" s="4"/>
       <x:c r="H17" s="4" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="J17" s="57" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="K17" s="58"/>
-      <x:c r="L17" s="59" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="M17" s="60"/>
-      <x:c r="N17" s="60"/>
-      <x:c r="O17" s="61"/>
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="J17" s="59" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="K17" s="60"/>
+      <x:c r="L17" s="61" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="M17" s="62"/>
+      <x:c r="N17" s="62"/>
+      <x:c r="O17" s="63"/>
       <x:c r="P17" s="30"/>
       <x:c r="Q17" s="5"/>
       <x:c r="R17" s="5"/>
@@ -3278,35 +3264,35 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D18" s="4" t="s">
-        <x:v>255</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E18" s="2" t="s">
-        <x:v>168</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="F18" s="7" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G18" s="4"/>
       <x:c r="H18" s="4" t="s">
-        <x:v>128</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="J18" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="K18" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="L18" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="M18" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="N18" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O18" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="P18" s="30"/>
       <x:c r="Q18" s="5"/>
@@ -3322,35 +3308,35 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D19" s="4" t="s">
-        <x:v>266</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E19" s="2" t="s">
-        <x:v>168</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G19" s="4"/>
       <x:c r="H19" s="4" t="s">
-        <x:v>143</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="J19" s="26">
         <x:v>1</x:v>
       </x:c>
       <x:c r="K19" s="26" t="s">
-        <x:v>212</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="L19" s="26" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M19" s="26" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N19" s="26" t="s">
-        <x:v>151</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="O19" s="26" t="s">
-        <x:v>149</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="P19" s="30"/>
       <x:c r="Q19" s="5"/>
@@ -3366,33 +3352,33 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D20" s="4" t="s">
-        <x:v>218</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E20" s="2" t="s">
-        <x:v>168</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="F20" s="7" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G20" s="4"/>
       <x:c r="H20" s="4" t="s">
-        <x:v>135</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="J20" s="2">
         <x:v>3</x:v>
       </x:c>
       <x:c r="K20" s="2" t="s">
-        <x:v>262</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="L20" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M20" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N20" s="2"/>
       <x:c r="O20" s="2" t="s">
-        <x:v>219</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="P20" s="30"/>
       <x:c r="Q20" s="5"/>
@@ -3408,38 +3394,38 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D21" s="4" t="s">
-        <x:v>94</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E21" s="7" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F21" s="7" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G21" s="4"/>
       <x:c r="H21" s="4" t="s">
-        <x:v>215</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="J21" s="19">
         <x:v>3</x:v>
       </x:c>
       <x:c r="K21" s="19" t="s">
-        <x:v>158</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="L21" s="19" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M21" s="19" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N21" s="19" t="s">
-        <x:v>124</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="O21" s="19" t="s">
-        <x:v>273</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="P21" s="31" t="s">
-        <x:v>165</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="Q21" s="5"/>
       <x:c r="R21" s="5"/>
@@ -3456,35 +3442,35 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D22" s="4" t="s">
-        <x:v>15</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="E22" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F22" s="8" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G22" s="4"/>
       <x:c r="H22" s="4" t="s">
-        <x:v>6</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="J22" s="21">
         <x:v>5</x:v>
       </x:c>
       <x:c r="K22" s="21" t="s">
-        <x:v>196</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="L22" s="21" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M22" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N22" s="21" t="s">
-        <x:v>11</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="O22" s="21" t="s">
-        <x:v>134</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="P22" s="30"/>
       <x:c r="Q22" s="5"/>
@@ -3499,43 +3485,43 @@
     </x:row>
     <x:row r="23" spans="2:25" ht="32.75">
       <x:c r="B23" s="16" t="s">
-        <x:v>265</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C23" s="18">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D23" s="20" t="s">
-        <x:v>203</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E23" s="19" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F23" s="18" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G23" s="20" t="s">
-        <x:v>124</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="H23" s="29" t="s">
-        <x:v>113</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="J23" s="24">
         <x:v>6</x:v>
       </x:c>
       <x:c r="K23" s="24" t="s">
-        <x:v>81</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="L23" s="21" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M23" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N23" s="24" t="s">
-        <x:v>11</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="O23" s="24" t="s">
-        <x:v>121</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="P23" s="30"/>
       <x:c r="Q23" s="5"/>
@@ -3553,19 +3539,19 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D24" s="21" t="s">
-        <x:v>196</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E24" s="21" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F24" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G24" s="21" t="s">
-        <x:v>11</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="H24" s="21" t="s">
-        <x:v>134</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="J24" s="14"/>
       <x:c r="K24" s="14"/>
@@ -3589,19 +3575,19 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D25" s="24" t="s">
-        <x:v>81</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E25" s="21" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F25" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G25" s="24" t="s">
-        <x:v>11</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="H25" s="24" t="s">
-        <x:v>121</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="J25" s="46"/>
       <x:c r="K25" s="46"/>
@@ -3627,16 +3613,16 @@
       <x:c r="F26" s="21"/>
       <x:c r="G26" s="24"/>
       <x:c r="H26" s="24"/>
-      <x:c r="J26" s="64" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="K26" s="65"/>
-      <x:c r="L26" s="66" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="M26" s="67"/>
-      <x:c r="N26" s="67"/>
-      <x:c r="O26" s="68"/>
+      <x:c r="J26" s="66" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="K26" s="67"/>
+      <x:c r="L26" s="68" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="M26" s="69"/>
+      <x:c r="N26" s="69"/>
+      <x:c r="O26" s="70"/>
       <x:c r="P26" s="33"/>
       <x:c r="Q26" s="5"/>
       <x:c r="R26" s="5"/>
@@ -3655,16 +3641,16 @@
       <x:c r="F27" s="13"/>
       <x:c r="G27" s="13"/>
       <x:c r="H27" s="13"/>
-      <x:c r="J27" s="57" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="K27" s="58"/>
-      <x:c r="L27" s="59" t="s">
-        <x:v>207</x:v>
-      </x:c>
-      <x:c r="M27" s="60"/>
-      <x:c r="N27" s="60"/>
-      <x:c r="O27" s="61"/>
+      <x:c r="J27" s="59" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="K27" s="60"/>
+      <x:c r="L27" s="61" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="M27" s="62"/>
+      <x:c r="N27" s="62"/>
+      <x:c r="O27" s="63"/>
       <x:c r="P27" s="33"/>
       <x:c r="Q27" s="9"/>
       <x:c r="R27" s="9"/>
@@ -3682,22 +3668,22 @@
       <x:c r="G28" s="6"/>
       <x:c r="H28" s="6"/>
       <x:c r="J28" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="K28" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="L28" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="M28" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="N28" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O28" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="P28" s="33"/>
       <x:c r="Q28" s="9"/>
@@ -3709,29 +3695,29 @@
       <x:c r="W28" s="5"/>
     </x:row>
     <x:row r="29" spans="3:23" ht="20.64999999999999857891">
-      <x:c r="C29" s="62"/>
-      <x:c r="D29" s="62"/>
-      <x:c r="E29" s="63"/>
-      <x:c r="F29" s="63"/>
-      <x:c r="G29" s="63"/>
-      <x:c r="H29" s="63"/>
+      <x:c r="C29" s="64"/>
+      <x:c r="D29" s="64"/>
+      <x:c r="E29" s="65"/>
+      <x:c r="F29" s="65"/>
+      <x:c r="G29" s="65"/>
+      <x:c r="H29" s="65"/>
       <x:c r="J29" s="26">
         <x:v>1</x:v>
       </x:c>
       <x:c r="K29" s="26" t="s">
-        <x:v>145</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="L29" s="26" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="M29" s="26" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N29" s="26" t="s">
-        <x:v>151</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="O29" s="26" t="s">
-        <x:v>149</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="P29" s="33"/>
       <x:c r="Q29" s="10"/>
@@ -3743,27 +3729,27 @@
       <x:c r="W29" s="5"/>
     </x:row>
     <x:row r="30" spans="3:23" ht="20.64999999999999857891">
-      <x:c r="C30" s="62"/>
-      <x:c r="D30" s="62"/>
-      <x:c r="E30" s="63"/>
-      <x:c r="F30" s="63"/>
-      <x:c r="G30" s="63"/>
-      <x:c r="H30" s="63"/>
+      <x:c r="C30" s="64"/>
+      <x:c r="D30" s="64"/>
+      <x:c r="E30" s="65"/>
+      <x:c r="F30" s="65"/>
+      <x:c r="G30" s="65"/>
+      <x:c r="H30" s="65"/>
       <x:c r="J30" s="2">
         <x:v>2</x:v>
       </x:c>
       <x:c r="K30" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="L30" s="2" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="M30" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N30" s="2"/>
       <x:c r="O30" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="P30" s="33"/>
       <x:c r="Q30" s="9"/>
@@ -3785,17 +3771,17 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="K31" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="L31" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M31" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N31" s="2"/>
       <x:c r="O31" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="P31" s="33"/>
       <x:c r="Q31" s="9"/>
@@ -3817,22 +3803,22 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="K32" s="19" t="s">
-        <x:v>137</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="L32" s="19" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="M32" s="19" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N32" s="19" t="s">
-        <x:v>124</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="O32" s="38" t="s">
-        <x:v>172</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="P32" s="33" t="s">
-        <x:v>150</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="Q32" s="9"/>
       <x:c r="R32" s="9"/>
@@ -3853,22 +3839,22 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="K33" s="20" t="s">
-        <x:v>139</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="L33" s="19" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="M33" s="19" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N33" s="20" t="s">
-        <x:v>124</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="O33" s="45" t="s">
-        <x:v>58</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="P33" s="33" t="s">
-        <x:v>130</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="Q33" s="5"/>
       <x:c r="R33" s="5"/>
@@ -3889,19 +3875,19 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="K34" s="21" t="s">
-        <x:v>196</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="L34" s="21" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M34" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N34" s="21" t="s">
-        <x:v>11</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="O34" s="21" t="s">
-        <x:v>134</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="P34" s="33"/>
       <x:c r="Q34" s="5"/>
@@ -3924,19 +3910,19 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="K35" s="24" t="s">
-        <x:v>81</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="L35" s="21" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M35" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N35" s="24" t="s">
-        <x:v>11</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="O35" s="24" t="s">
-        <x:v>121</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="P35" s="33"/>
     </x:row>
@@ -3964,16 +3950,16 @@
       <x:c r="G37" s="4"/>
       <x:c r="H37" s="4"/>
       <x:c r="I37" s="17"/>
-      <x:c r="J37" s="57" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="K37" s="58"/>
-      <x:c r="L37" s="59" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="M37" s="60"/>
-      <x:c r="N37" s="60"/>
-      <x:c r="O37" s="61"/>
+      <x:c r="J37" s="59" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="K37" s="60"/>
+      <x:c r="L37" s="61" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="M37" s="62"/>
+      <x:c r="N37" s="62"/>
+      <x:c r="O37" s="63"/>
       <x:c r="P37" s="33"/>
     </x:row>
     <x:row r="38" spans="3:16" ht="20.64999999999999857891">
@@ -3984,16 +3970,16 @@
       <x:c r="G38" s="4"/>
       <x:c r="H38" s="4"/>
       <x:c r="I38" s="17"/>
-      <x:c r="J38" s="57" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="K38" s="58"/>
-      <x:c r="L38" s="59" t="s">
-        <x:v>156</x:v>
-      </x:c>
-      <x:c r="M38" s="60"/>
-      <x:c r="N38" s="60"/>
-      <x:c r="O38" s="61"/>
+      <x:c r="J38" s="59" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="K38" s="60"/>
+      <x:c r="L38" s="61" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="M38" s="62"/>
+      <x:c r="N38" s="62"/>
+      <x:c r="O38" s="63"/>
       <x:c r="P38" s="33"/>
     </x:row>
     <x:row r="39" spans="3:16" ht="17.80000000000000071054">
@@ -4005,22 +3991,22 @@
       <x:c r="H39" s="4"/>
       <x:c r="I39" s="17"/>
       <x:c r="J39" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="K39" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="L39" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="M39" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="N39" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O39" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="P39" s="33"/>
     </x:row>
@@ -4036,19 +4022,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="K40" s="26" t="s">
-        <x:v>186</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="L40" s="26" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M40" s="26" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N40" s="26" t="s">
-        <x:v>151</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="O40" s="26" t="s">
-        <x:v>149</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="P40" s="33"/>
     </x:row>
@@ -4064,17 +4050,17 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="K41" s="2" t="s">
-        <x:v>111</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="L41" s="2" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="M41" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N41" s="2"/>
       <x:c r="O41" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="P41" s="33"/>
     </x:row>
@@ -4090,17 +4076,17 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="K42" s="2" t="s">
-        <x:v>242</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="L42" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M42" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N42" s="2"/>
       <x:c r="O42" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="P42" s="33"/>
     </x:row>
@@ -4116,17 +4102,17 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="K43" s="4" t="s">
-        <x:v>119</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="L43" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M43" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N43" s="4"/>
       <x:c r="O43" s="4" t="s">
-        <x:v>209</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="P43" s="33"/>
     </x:row>
@@ -4142,17 +4128,17 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="K44" s="2" t="s">
-        <x:v>251</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="L44" s="2" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="M44" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N44" s="2"/>
       <x:c r="O44" s="2" t="s">
-        <x:v>211</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="P44" s="33"/>
     </x:row>
@@ -4168,17 +4154,17 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="K45" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="L45" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M45" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N45" s="4"/>
       <x:c r="O45" s="4" t="s">
-        <x:v>5</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="P45" s="33"/>
     </x:row>
@@ -4194,119 +4180,119 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="K46" s="4" t="s">
-        <x:v>213</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="L46" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M46" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N46" s="4"/>
       <x:c r="O46" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="P46" s="33"/>
     </x:row>
     <x:row r="47" spans="3:16" ht="20.64999999999999857891">
-      <x:c r="C47" s="62" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="D47" s="62"/>
-      <x:c r="E47" s="63" t="s">
-        <x:v>272</x:v>
-      </x:c>
-      <x:c r="F47" s="63"/>
-      <x:c r="G47" s="63"/>
-      <x:c r="H47" s="63"/>
+      <x:c r="C47" s="64" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D47" s="64"/>
+      <x:c r="E47" s="65" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="F47" s="65"/>
+      <x:c r="G47" s="65"/>
+      <x:c r="H47" s="65"/>
       <x:c r="I47" s="17"/>
       <x:c r="J47" s="2">
         <x:v>9</x:v>
       </x:c>
       <x:c r="K47" s="4" t="s">
-        <x:v>241</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L47" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M47" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N47" s="4"/>
       <x:c r="O47" s="4" t="s">
-        <x:v>147</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="P47" s="33"/>
     </x:row>
     <x:row r="48" spans="3:16" ht="20.64999999999999857891">
-      <x:c r="C48" s="62" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="D48" s="62"/>
-      <x:c r="E48" s="63" t="s">
-        <x:v>234</x:v>
-      </x:c>
-      <x:c r="F48" s="63"/>
-      <x:c r="G48" s="63"/>
-      <x:c r="H48" s="63"/>
+      <x:c r="C48" s="64" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D48" s="64"/>
+      <x:c r="E48" s="65" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F48" s="65"/>
+      <x:c r="G48" s="65"/>
+      <x:c r="H48" s="65"/>
       <x:c r="I48" s="17"/>
       <x:c r="J48" s="21">
         <x:v>10</x:v>
       </x:c>
       <x:c r="K48" s="21" t="s">
-        <x:v>196</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="L48" s="21" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M48" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N48" s="21" t="s">
-        <x:v>11</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="O48" s="21" t="s">
-        <x:v>134</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="P48" s="33"/>
     </x:row>
     <x:row r="49" spans="3:16" ht="17.80000000000000071054">
       <x:c r="C49" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="D49" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="E49" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F49" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="G49" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H49" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="I49" s="17"/>
       <x:c r="J49" s="21">
         <x:v>11</x:v>
       </x:c>
       <x:c r="K49" s="24" t="s">
-        <x:v>81</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="L49" s="21" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M49" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N49" s="24" t="s">
-        <x:v>11</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="O49" s="24" t="s">
-        <x:v>121</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="P49" s="33"/>
     </x:row>
@@ -4315,19 +4301,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D50" s="26" t="s">
-        <x:v>247</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E50" s="26" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F50" s="26" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G50" s="26" t="s">
-        <x:v>151</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="H50" s="26" t="s">
-        <x:v>149</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="I50" s="17"/>
       <x:c r="J50" s="21"/>
@@ -4343,17 +4329,17 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D51" s="4" t="s">
-        <x:v>19</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E51" s="2" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F51" s="7" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G51" s="4"/>
       <x:c r="H51" s="4" t="s">
-        <x:v>257</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I51" s="17"/>
       <x:c r="J51" s="16"/>
@@ -4369,29 +4355,29 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D52" s="4" t="s">
-        <x:v>258</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E52" s="2" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F52" s="7" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G52" s="4"/>
       <x:c r="H52" s="4" t="s">
-        <x:v>217</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I52" s="17"/>
-      <x:c r="J52" s="57" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="K52" s="58"/>
-      <x:c r="L52" s="59" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="M52" s="60"/>
-      <x:c r="N52" s="60"/>
-      <x:c r="O52" s="61"/>
+      <x:c r="J52" s="59" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="K52" s="60"/>
+      <x:c r="L52" s="61" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="M52" s="62"/>
+      <x:c r="N52" s="62"/>
+      <x:c r="O52" s="63"/>
       <x:c r="P52" s="33"/>
     </x:row>
     <x:row r="53" spans="3:16" ht="20.64999999999999857891">
@@ -4399,29 +4385,29 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D53" s="4" t="s">
-        <x:v>260</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E53" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F53" s="7" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G53" s="4"/>
       <x:c r="H53" s="4" t="s">
-        <x:v>214</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I53" s="17"/>
-      <x:c r="J53" s="57" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="K53" s="58"/>
-      <x:c r="L53" s="59" t="s">
-        <x:v>187</x:v>
-      </x:c>
-      <x:c r="M53" s="60"/>
-      <x:c r="N53" s="60"/>
-      <x:c r="O53" s="61"/>
+      <x:c r="J53" s="59" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="K53" s="60"/>
+      <x:c r="L53" s="61" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="M53" s="62"/>
+      <x:c r="N53" s="62"/>
+      <x:c r="O53" s="63"/>
       <x:c r="P53" s="33"/>
     </x:row>
     <x:row r="54" spans="3:16" ht="17.80000000000000071054">
@@ -4429,42 +4415,42 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D54" s="4" t="s">
-        <x:v>44</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="E54" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F54" s="7" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G54" s="4"/>
       <x:c r="H54" s="28" t="s">
-        <x:v>4</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="I54" s="17"/>
       <x:c r="J54" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="K54" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="L54" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="M54" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="N54" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O54" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="P54" s="33"/>
     </x:row>
     <x:row r="55" spans="2:16">
       <x:c r="B55" s="16" t="s">
-        <x:v>200</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C55" s="19">
         <x:v>7</x:v>
@@ -4474,73 +4460,73 @@
       <x:c r="F55" s="18"/>
       <x:c r="G55" s="20"/>
       <x:c r="H55" s="29" t="s">
-        <x:v>130</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="I55" s="17"/>
       <x:c r="J55" s="26">
         <x:v>1</x:v>
       </x:c>
       <x:c r="K55" s="26" t="s">
-        <x:v>267</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="L55" s="26" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="M55" s="26" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N55" s="26" t="s">
-        <x:v>151</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="O55" s="26" t="s">
-        <x:v>149</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="P55" s="33"/>
     </x:row>
     <x:row r="56" spans="2:16" ht="32.75">
       <x:c r="B56" s="16" t="s">
-        <x:v>200</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C56" s="19">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D56" s="20" t="s">
-        <x:v>80</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E56" s="19" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F56" s="19" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G56" s="20" t="s">
-        <x:v>124</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="H56" s="32" t="s">
-        <x:v>3</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="I56" s="17"/>
       <x:c r="J56" s="2">
         <x:v>3</x:v>
       </x:c>
       <x:c r="K56" s="2" t="s">
-        <x:v>259</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="L56" s="2" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="M56" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N56" s="2"/>
       <x:c r="O56" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="P56" s="33"/>
     </x:row>
     <x:row r="57" spans="2:16">
       <x:c r="B57" s="16" t="s">
-        <x:v>150</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="C57" s="19">
         <x:v>9</x:v>
@@ -4550,30 +4536,30 @@
       <x:c r="F57" s="18"/>
       <x:c r="G57" s="20"/>
       <x:c r="H57" s="29" t="s">
-        <x:v>176</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="I57" s="17"/>
       <x:c r="J57" s="2">
         <x:v>4</x:v>
       </x:c>
       <x:c r="K57" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="L57" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M57" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N57" s="2"/>
       <x:c r="O57" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="P57" s="33"/>
     </x:row>
     <x:row r="58" spans="2:16">
       <x:c r="B58" s="16" t="s">
-        <x:v>150</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="C58" s="19">
         <x:v>10</x:v>
@@ -4583,30 +4569,30 @@
       <x:c r="F58" s="18"/>
       <x:c r="G58" s="20"/>
       <x:c r="H58" s="20" t="s">
-        <x:v>228</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I58" s="17"/>
       <x:c r="J58" s="2">
         <x:v>5</x:v>
       </x:c>
       <x:c r="K58" s="4" t="s">
-        <x:v>230</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="L58" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M58" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N58" s="4"/>
       <x:c r="O58" s="4" t="s">
-        <x:v>117</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="P58" s="33"/>
     </x:row>
     <x:row r="59" spans="2:16">
       <x:c r="B59" s="16" t="s">
-        <x:v>150</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="C59" s="19">
         <x:v>11</x:v>
@@ -4616,48 +4602,48 @@
       <x:c r="F59" s="18"/>
       <x:c r="G59" s="20"/>
       <x:c r="H59" s="29" t="s">
-        <x:v>59</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="I59" s="17"/>
       <x:c r="J59" s="2">
         <x:v>6</x:v>
       </x:c>
       <x:c r="K59" s="2" t="s">
-        <x:v>166</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="L59" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M59" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N59" s="2"/>
       <x:c r="O59" s="2" t="s">
-        <x:v>106</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="P59" s="33"/>
     </x:row>
     <x:row r="60" spans="2:16" ht="32.75">
       <x:c r="B60" s="16" t="s">
-        <x:v>150</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="C60" s="19">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D60" s="20" t="s">
-        <x:v>137</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="E60" s="19" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F60" s="18" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G60" s="20" t="s">
-        <x:v>124</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="H60" s="29" t="s">
-        <x:v>231</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I60" s="17"/>
       <x:c r="J60" s="19">
@@ -4668,10 +4654,10 @@
       <x:c r="M60" s="19"/>
       <x:c r="N60" s="20"/>
       <x:c r="O60" s="29" t="s">
-        <x:v>133</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="P60" s="34" t="s">
-        <x:v>130</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="2:16">
@@ -4680,19 +4666,19 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D61" s="21" t="s">
-        <x:v>196</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E61" s="21" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F61" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G61" s="21" t="s">
-        <x:v>11</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="H61" s="21" t="s">
-        <x:v>134</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="I61" s="17"/>
       <x:c r="J61" s="19">
@@ -4703,10 +4689,10 @@
       <x:c r="M61" s="19"/>
       <x:c r="N61" s="20"/>
       <x:c r="O61" s="29" t="s">
-        <x:v>154</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="P61" s="33" t="s">
-        <x:v>130</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="2:16" ht="32.75">
@@ -4715,41 +4701,41 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D62" s="24" t="s">
-        <x:v>81</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E62" s="21" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F62" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G62" s="24" t="s">
-        <x:v>11</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="H62" s="24" t="s">
-        <x:v>121</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="I62" s="17"/>
       <x:c r="J62" s="19">
         <x:v>9</x:v>
       </x:c>
       <x:c r="K62" s="20" t="s">
-        <x:v>139</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="L62" s="19" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="M62" s="19" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N62" s="20" t="s">
-        <x:v>124</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="O62" s="29" t="s">
-        <x:v>210</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="P62" s="33" t="s">
-        <x:v>130</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="2:16">
@@ -4765,19 +4751,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="K63" s="21" t="s">
-        <x:v>196</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="L63" s="21" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M63" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N63" s="21" t="s">
-        <x:v>11</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="O63" s="21" t="s">
-        <x:v>134</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="P63" s="33"/>
     </x:row>
@@ -4794,33 +4780,33 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="K64" s="24" t="s">
-        <x:v>81</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="L64" s="21" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M64" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N64" s="24" t="s">
-        <x:v>11</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="O64" s="24" t="s">
-        <x:v>121</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="P64" s="33"/>
     </x:row>
     <x:row r="65" spans="3:16" ht="20.64999999999999857891">
-      <x:c r="C65" s="57" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="D65" s="58"/>
-      <x:c r="E65" s="59" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="F65" s="60"/>
-      <x:c r="G65" s="60"/>
-      <x:c r="H65" s="61"/>
+      <x:c r="C65" s="59" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D65" s="60"/>
+      <x:c r="E65" s="61" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="F65" s="62"/>
+      <x:c r="G65" s="62"/>
+      <x:c r="H65" s="63"/>
       <x:c r="I65" s="17"/>
       <x:c r="J65" s="21"/>
       <x:c r="K65" s="24"/>
@@ -4832,16 +4818,16 @@
     </x:row>
     <x:row r="66" spans="2:16" ht="20.64999999999999857891">
       <x:c r="B66" s="17"/>
-      <x:c r="C66" s="57" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="D66" s="58"/>
-      <x:c r="E66" s="59" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="F66" s="60"/>
-      <x:c r="G66" s="60"/>
-      <x:c r="H66" s="61"/>
+      <x:c r="C66" s="59" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D66" s="60"/>
+      <x:c r="E66" s="61" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="F66" s="62"/>
+      <x:c r="G66" s="62"/>
+      <x:c r="H66" s="63"/>
       <x:c r="I66" s="17"/>
       <x:c r="J66" s="10"/>
       <x:c r="K66" s="6"/>
@@ -4854,22 +4840,22 @@
     <x:row r="67" spans="2:16" ht="20.64999999999999857891">
       <x:c r="B67" s="17"/>
       <x:c r="C67" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="D67" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="E67" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F67" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="G67" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H67" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="I67" s="17"/>
       <x:c r="J67" s="14"/>
@@ -4886,27 +4872,27 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D68" s="26" t="s">
-        <x:v>84</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E68" s="26" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F68" s="26" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G68" s="26" t="s">
-        <x:v>151</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="H68" s="26" t="s">
-        <x:v>149</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="I68" s="17"/>
-      <x:c r="J68" s="57"/>
-      <x:c r="K68" s="58"/>
-      <x:c r="L68" s="59"/>
-      <x:c r="M68" s="60"/>
-      <x:c r="N68" s="60"/>
-      <x:c r="O68" s="61"/>
+      <x:c r="J68" s="59"/>
+      <x:c r="K68" s="60"/>
+      <x:c r="L68" s="61"/>
+      <x:c r="M68" s="62"/>
+      <x:c r="N68" s="62"/>
+      <x:c r="O68" s="63"/>
       <x:c r="P68" s="16"/>
     </x:row>
     <x:row r="69" spans="2:16" ht="20.64999999999999857891">
@@ -4918,12 +4904,12 @@
       <x:c r="G69" s="2"/>
       <x:c r="H69" s="2"/>
       <x:c r="I69" s="17"/>
-      <x:c r="J69" s="57"/>
-      <x:c r="K69" s="58"/>
-      <x:c r="L69" s="59"/>
-      <x:c r="M69" s="60"/>
-      <x:c r="N69" s="60"/>
-      <x:c r="O69" s="61"/>
+      <x:c r="J69" s="59"/>
+      <x:c r="K69" s="60"/>
+      <x:c r="L69" s="61"/>
+      <x:c r="M69" s="62"/>
+      <x:c r="N69" s="62"/>
+      <x:c r="O69" s="63"/>
       <x:c r="P69" s="16"/>
     </x:row>
     <x:row r="70" spans="2:16" ht="17.80000000000000071054">
@@ -4932,15 +4918,15 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D70" s="2" t="s">
-        <x:v>253</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E70" s="8" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F70" s="2"/>
       <x:c r="G70" s="2"/>
       <x:c r="H70" s="2" t="s">
-        <x:v>257</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I70" s="17"/>
       <x:c r="J70" s="1"/>
@@ -4957,15 +4943,15 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D71" s="2" t="s">
-        <x:v>269</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E71" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F71" s="2"/>
       <x:c r="G71" s="2"/>
       <x:c r="H71" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="I71" s="17"/>
       <x:c r="J71" s="26"/>
@@ -4978,7 +4964,7 @@
     </x:row>
     <x:row r="72" spans="2:16" ht="32.75">
       <x:c r="B72" s="16" t="s">
-        <x:v>179</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C72" s="19">
         <x:v>5</x:v>
@@ -4988,7 +4974,7 @@
       <x:c r="F72" s="19"/>
       <x:c r="G72" s="20"/>
       <x:c r="H72" s="54" t="s">
-        <x:v>20</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="I72" s="17"/>
       <x:c r="J72" s="2"/>
@@ -5001,7 +4987,7 @@
     </x:row>
     <x:row r="73" spans="2:16" ht="32.75">
       <x:c r="B73" s="16" t="s">
-        <x:v>179</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C73" s="19">
         <x:v>6</x:v>
@@ -5011,7 +4997,7 @@
       <x:c r="F73" s="19"/>
       <x:c r="G73" s="20"/>
       <x:c r="H73" s="29" t="s">
-        <x:v>43</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I73" s="17"/>
       <x:c r="J73" s="2"/>
@@ -5024,23 +5010,23 @@
     </x:row>
     <x:row r="74" spans="2:16" ht="32.75">
       <x:c r="B74" s="16" t="s">
-        <x:v>179</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C74" s="19">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D74" s="19" t="s">
-        <x:v>152</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="E74" s="19" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F74" s="19"/>
       <x:c r="G74" s="19" t="s">
-        <x:v>124</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="H74" s="29" t="s">
-        <x:v>26</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="I74" s="17"/>
       <x:c r="J74" s="19"/>
@@ -5053,23 +5039,23 @@
     </x:row>
     <x:row r="75" spans="2:16" ht="32.75">
       <x:c r="B75" s="16" t="s">
-        <x:v>187</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C75" s="19">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D75" s="19" t="s">
-        <x:v>137</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="E75" s="19" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F75" s="19"/>
       <x:c r="G75" s="19" t="s">
-        <x:v>124</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="H75" s="54" t="s">
-        <x:v>172</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="I75" s="17"/>
       <x:c r="J75" s="25"/>
@@ -5082,25 +5068,25 @@
     </x:row>
     <x:row r="76" spans="2:16" ht="32.75">
       <x:c r="B76" s="16" t="s">
-        <x:v>187</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C76" s="19">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D76" s="20" t="s">
-        <x:v>80</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E76" s="19" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F76" s="19" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G76" s="20" t="s">
-        <x:v>124</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="H76" s="29" t="s">
-        <x:v>8</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="I76" s="17"/>
       <x:c r="J76" s="25"/>
@@ -5117,19 +5103,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D77" s="21" t="s">
-        <x:v>196</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E77" s="21" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F77" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G77" s="21" t="s">
-        <x:v>11</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="H77" s="21" t="s">
-        <x:v>134</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="I77" s="17"/>
       <x:c r="J77" s="16"/>
@@ -5146,19 +5132,19 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D78" s="24" t="s">
-        <x:v>81</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E78" s="21" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F78" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G78" s="24" t="s">
-        <x:v>11</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="H78" s="24" t="s">
-        <x:v>121</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="I78" s="17"/>
       <x:c r="J78" s="16"/>
@@ -5171,92 +5157,92 @@
     </x:row>
     <x:row r="79" spans="2:16" ht="20.64999999999999857891">
       <x:c r="B79" s="17"/>
-      <x:c r="C79" s="57" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="D79" s="58"/>
-      <x:c r="E79" s="59" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="F79" s="60"/>
-      <x:c r="G79" s="60"/>
-      <x:c r="H79" s="61"/>
+      <x:c r="C79" s="59" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D79" s="60"/>
+      <x:c r="E79" s="61" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="F79" s="62"/>
+      <x:c r="G79" s="62"/>
+      <x:c r="H79" s="63"/>
       <x:c r="I79" s="17"/>
-      <x:c r="J79" s="57" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="K79" s="58"/>
-      <x:c r="L79" s="69" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="M79" s="70"/>
-      <x:c r="N79" s="70"/>
-      <x:c r="O79" s="71"/>
+      <x:c r="J79" s="59" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="K79" s="60"/>
+      <x:c r="L79" s="71" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="M79" s="72"/>
+      <x:c r="N79" s="72"/>
+      <x:c r="O79" s="73"/>
       <x:c r="P79" s="33"/>
     </x:row>
     <x:row r="80" spans="2:16" ht="20.64999999999999857891">
       <x:c r="B80" s="17"/>
-      <x:c r="C80" s="57" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="D80" s="58"/>
-      <x:c r="E80" s="59" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="F80" s="60"/>
-      <x:c r="G80" s="60"/>
-      <x:c r="H80" s="61"/>
+      <x:c r="C80" s="59" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D80" s="60"/>
+      <x:c r="E80" s="61" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="F80" s="62"/>
+      <x:c r="G80" s="62"/>
+      <x:c r="H80" s="63"/>
       <x:c r="I80" s="17"/>
-      <x:c r="J80" s="57" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="K80" s="58"/>
-      <x:c r="L80" s="59" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="M80" s="60"/>
-      <x:c r="N80" s="60"/>
-      <x:c r="O80" s="61"/>
+      <x:c r="J80" s="59" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="K80" s="60"/>
+      <x:c r="L80" s="61" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="M80" s="62"/>
+      <x:c r="N80" s="62"/>
+      <x:c r="O80" s="63"/>
       <x:c r="P80" s="33"/>
     </x:row>
     <x:row r="81" spans="2:16" ht="17.80000000000000071054">
       <x:c r="B81" s="17"/>
       <x:c r="C81" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="D81" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="E81" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F81" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="G81" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H81" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="I81" s="17"/>
       <x:c r="J81" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="K81" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="L81" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="M81" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="N81" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O81" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="P81" s="33"/>
     </x:row>
@@ -5266,38 +5252,38 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D82" s="26" t="s">
-        <x:v>51</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E82" s="26" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F82" s="26" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G82" s="26" t="s">
-        <x:v>151</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="H82" s="26" t="s">
-        <x:v>149</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="I82" s="17"/>
       <x:c r="J82" s="26">
         <x:v>1</x:v>
       </x:c>
       <x:c r="K82" s="26" t="s">
-        <x:v>240</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="L82" s="26" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="M82" s="26" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N82" s="26" t="s">
-        <x:v>151</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="O82" s="26" t="s">
-        <x:v>149</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="P82" s="33"/>
     </x:row>
@@ -5324,67 +5310,59 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D84" s="8" t="s">
-        <x:v>264</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E84" s="8" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F84" s="8"/>
       <x:c r="G84" s="8"/>
       <x:c r="H84" s="8" t="s">
-        <x:v>110</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="I84" s="17"/>
       <x:c r="J84" s="2">
         <x:v>3</x:v>
       </x:c>
       <x:c r="K84" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="L84" s="2" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="M84" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N84" s="2"/>
       <x:c r="O84" s="2" t="s">
-        <x:v>246</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="P84" s="33"/>
     </x:row>
     <x:row r="85" spans="2:16">
       <x:c r="B85" s="17"/>
-      <x:c r="C85" s="8">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D85" s="8" t="s">
-        <x:v>261</x:v>
-      </x:c>
-      <x:c r="E85" s="2" t="s">
-        <x:v>39</x:v>
-      </x:c>
+      <x:c r="C85" s="8"/>
+      <x:c r="D85" s="8"/>
+      <x:c r="E85" s="2"/>
       <x:c r="F85" s="8"/>
       <x:c r="G85" s="8"/>
-      <x:c r="H85" s="8" t="s">
-        <x:v>138</x:v>
-      </x:c>
+      <x:c r="H85" s="8"/>
       <x:c r="I85" s="17"/>
       <x:c r="J85" s="2">
         <x:v>4</x:v>
       </x:c>
       <x:c r="K85" s="4" t="s">
-        <x:v>45</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="L85" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M85" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N85" s="4"/>
       <x:c r="O85" s="4" t="s">
-        <x:v>244</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="P85" s="33"/>
     </x:row>
@@ -5394,32 +5372,32 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D86" s="4" t="s">
-        <x:v>30</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="E86" s="8" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F86" s="8"/>
       <x:c r="G86" s="4"/>
       <x:c r="H86" s="28" t="s">
-        <x:v>180</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="I86" s="17"/>
       <x:c r="J86" s="2">
         <x:v>5</x:v>
       </x:c>
       <x:c r="K86" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="L86" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M86" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N86" s="2"/>
       <x:c r="O86" s="2" t="s">
-        <x:v>252</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="P86" s="33"/>
     </x:row>
@@ -5429,32 +5407,32 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D87" s="8" t="s">
-        <x:v>13</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="E87" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F87" s="8"/>
       <x:c r="G87" s="8"/>
       <x:c r="H87" s="8" t="s">
-        <x:v>245</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I87" s="17"/>
       <x:c r="J87" s="2">
         <x:v>6</x:v>
       </x:c>
       <x:c r="K87" s="2" t="s">
-        <x:v>249</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L87" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M87" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N87" s="2"/>
       <x:c r="O87" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="P87" s="33"/>
     </x:row>
@@ -5464,37 +5442,37 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D88" s="4" t="s">
-        <x:v>183</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E88" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F88" s="8"/>
       <x:c r="G88" s="4"/>
       <x:c r="H88" s="28" t="s">
-        <x:v>256</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I88" s="17"/>
       <x:c r="J88" s="19">
         <x:v>7</x:v>
       </x:c>
       <x:c r="K88" s="19" t="s">
-        <x:v>182</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="L88" s="19" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="M88" s="19" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N88" s="19" t="s">
-        <x:v>124</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="O88" s="38" t="s">
-        <x:v>36</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="P88" s="33" t="s">
-        <x:v>205</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="3:16">
@@ -5502,15 +5480,15 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D89" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="E89" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F89" s="8"/>
       <x:c r="G89" s="8"/>
       <x:c r="H89" s="8" t="s">
-        <x:v>136</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="I89" s="16"/>
       <x:c r="J89" s="19">
@@ -5521,31 +5499,31 @@
       <x:c r="M89" s="19"/>
       <x:c r="N89" s="20"/>
       <x:c r="O89" s="29" t="s">
-        <x:v>224</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="P89" s="34" t="s">
-        <x:v>159</x:v>
+        <x:v>262</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="2:16" ht="32.75">
       <x:c r="B90" s="16" t="s">
-        <x:v>150</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="C90" s="19">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D90" s="19" t="s">
-        <x:v>137</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="E90" s="19" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F90" s="19"/>
       <x:c r="G90" s="19" t="s">
-        <x:v>124</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="H90" s="53" t="s">
-        <x:v>172</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="I90" s="16"/>
       <x:c r="J90" s="19">
@@ -5556,31 +5534,31 @@
       <x:c r="M90" s="19"/>
       <x:c r="N90" s="20"/>
       <x:c r="O90" s="29" t="s">
-        <x:v>110</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="P90" s="34" t="s">
-        <x:v>159</x:v>
+        <x:v>262</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="2:16" ht="32.75">
       <x:c r="B91" s="16" t="s">
-        <x:v>265</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C91" s="19">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D91" s="20" t="s">
-        <x:v>153</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="E91" s="19" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F91" s="19"/>
       <x:c r="G91" s="20" t="s">
-        <x:v>124</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="H91" s="35" t="s">
-        <x:v>113</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="I91" s="16"/>
       <x:c r="J91" s="19">
@@ -5591,31 +5569,31 @@
       <x:c r="M91" s="19"/>
       <x:c r="N91" s="20"/>
       <x:c r="O91" s="29" t="s">
-        <x:v>150</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="P91" s="34" t="s">
-        <x:v>159</x:v>
+        <x:v>262</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="2:16" ht="32.75">
       <x:c r="B92" s="16" t="s">
-        <x:v>234</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C92" s="19">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D92" s="20" t="s">
-        <x:v>254</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E92" s="19" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F92" s="19"/>
       <x:c r="G92" s="20" t="s">
-        <x:v>124</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="H92" s="29" t="s">
-        <x:v>33</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="J92" s="19">
         <x:v>11</x:v>
@@ -5625,10 +5603,10 @@
       <x:c r="M92" s="19"/>
       <x:c r="N92" s="19"/>
       <x:c r="O92" s="32" t="s">
-        <x:v>265</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="P92" s="34" t="s">
-        <x:v>159</x:v>
+        <x:v>262</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="3:16" ht="32.75">
@@ -5636,40 +5614,40 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D93" s="21" t="s">
-        <x:v>196</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E93" s="21" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F93" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G93" s="21" t="s">
-        <x:v>11</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="H93" s="21" t="s">
-        <x:v>134</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="J93" s="19">
         <x:v>12</x:v>
       </x:c>
       <x:c r="K93" s="20" t="s">
-        <x:v>123</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="L93" s="19" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="M93" s="19" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N93" s="20" t="s">
-        <x:v>124</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="O93" s="29" t="s">
-        <x:v>169</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P93" s="34" t="s">
-        <x:v>159</x:v>
+        <x:v>262</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="3:16">
@@ -5677,37 +5655,37 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D94" s="24" t="s">
-        <x:v>81</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E94" s="21" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F94" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G94" s="24" t="s">
-        <x:v>11</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="H94" s="24" t="s">
-        <x:v>121</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="J94" s="21">
         <x:v>13</x:v>
       </x:c>
       <x:c r="K94" s="21" t="s">
-        <x:v>196</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="L94" s="21" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M94" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N94" s="21" t="s">
-        <x:v>11</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="O94" s="21" t="s">
-        <x:v>134</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="P94" s="33"/>
     </x:row>
@@ -5716,19 +5694,19 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="K95" s="24" t="s">
-        <x:v>81</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="L95" s="21" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M95" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N95" s="24" t="s">
-        <x:v>11</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="O95" s="24" t="s">
-        <x:v>121</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="P95" s="33"/>
     </x:row>
@@ -5742,16 +5720,16 @@
       <x:c r="P96" s="33"/>
     </x:row>
     <x:row r="97" spans="3:16" ht="20.64999999999999857891">
-      <x:c r="C97" s="57" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="D97" s="58"/>
-      <x:c r="E97" s="59" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="F97" s="60"/>
-      <x:c r="G97" s="60"/>
-      <x:c r="H97" s="61"/>
+      <x:c r="C97" s="59" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D97" s="60"/>
+      <x:c r="E97" s="61" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="F97" s="62"/>
+      <x:c r="G97" s="62"/>
+      <x:c r="H97" s="63"/>
       <x:c r="J97" s="16"/>
       <x:c r="K97" s="16"/>
       <x:c r="L97" s="16"/>
@@ -5761,57 +5739,57 @@
       <x:c r="P97" s="33"/>
     </x:row>
     <x:row r="98" spans="3:16" ht="20.64999999999999857891">
-      <x:c r="C98" s="57" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="D98" s="58"/>
-      <x:c r="E98" s="59" t="s">
-        <x:v>205</x:v>
-      </x:c>
-      <x:c r="F98" s="60"/>
-      <x:c r="G98" s="60"/>
-      <x:c r="H98" s="61"/>
-      <x:c r="J98" s="57" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="K98" s="58"/>
-      <x:c r="L98" s="59" t="s">
-        <x:v>271</x:v>
-      </x:c>
-      <x:c r="M98" s="60"/>
-      <x:c r="N98" s="60"/>
-      <x:c r="O98" s="61"/>
+      <x:c r="C98" s="59" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D98" s="60"/>
+      <x:c r="E98" s="61" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="F98" s="62"/>
+      <x:c r="G98" s="62"/>
+      <x:c r="H98" s="63"/>
+      <x:c r="J98" s="59" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="K98" s="60"/>
+      <x:c r="L98" s="61" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="M98" s="62"/>
+      <x:c r="N98" s="62"/>
+      <x:c r="O98" s="63"/>
       <x:c r="P98" s="33"/>
     </x:row>
     <x:row r="99" spans="3:16" ht="20.64999999999999857891">
       <x:c r="C99" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="D99" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="E99" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F99" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="G99" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H99" s="1" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="J99" s="57" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="K99" s="58"/>
-      <x:c r="L99" s="59" t="s">
-        <x:v>195</x:v>
-      </x:c>
-      <x:c r="M99" s="60"/>
-      <x:c r="N99" s="60"/>
-      <x:c r="O99" s="61"/>
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="J99" s="59" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="K99" s="60"/>
+      <x:c r="L99" s="61" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="M99" s="62"/>
+      <x:c r="N99" s="62"/>
+      <x:c r="O99" s="63"/>
       <x:c r="P99" s="33"/>
     </x:row>
     <x:row r="100" spans="3:16" ht="17.80000000000000071054">
@@ -5819,37 +5797,37 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D100" s="26" t="s">
-        <x:v>190</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E100" s="26" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F100" s="26" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G100" s="26" t="s">
-        <x:v>151</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="H100" s="26" t="s">
-        <x:v>149</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="J100" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="K100" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="L100" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="M100" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="N100" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O100" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="P100" s="33"/>
     </x:row>
@@ -5864,19 +5842,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="K101" s="26" t="s">
-        <x:v>185</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="L101" s="26" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="M101" s="26" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N101" s="26" t="s">
-        <x:v>151</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="O101" s="26" t="s">
-        <x:v>149</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="P101" s="33"/>
     </x:row>
@@ -5885,27 +5863,27 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D102" s="8" t="s">
-        <x:v>263</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E102" s="8"/>
       <x:c r="F102" s="8"/>
       <x:c r="G102" s="8"/>
       <x:c r="H102" s="8" t="s">
-        <x:v>72</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="J102" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="K102" s="8" t="s">
-        <x:v>188</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="L102" s="8" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="M102" s="8"/>
       <x:c r="N102" s="8"/>
       <x:c r="O102" s="8" t="s">
-        <x:v>167</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="P102" s="33"/>
     </x:row>
@@ -5914,29 +5892,29 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D103" s="4" t="s">
-        <x:v>178</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="E103" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F103" s="8"/>
       <x:c r="G103" s="4"/>
       <x:c r="H103" s="4" t="s">
-        <x:v>62</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J103" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="K103" s="8" t="s">
-        <x:v>21</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="L103" s="8" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="M103" s="8"/>
       <x:c r="N103" s="8"/>
       <x:c r="O103" s="8" t="s">
-        <x:v>141</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="P103" s="33"/>
     </x:row>
@@ -5945,73 +5923,73 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D104" s="8" t="s">
-        <x:v>191</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="E104" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F104" s="8"/>
       <x:c r="G104" s="8"/>
       <x:c r="H104" s="8" t="s">
-        <x:v>37</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="J104" s="8">
         <x:v>4</x:v>
       </x:c>
       <x:c r="K104" s="4" t="s">
-        <x:v>95</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="L104" s="8" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="M104" s="8"/>
       <x:c r="N104" s="4"/>
       <x:c r="O104" s="4" t="s">
-        <x:v>76</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="P104" s="33"/>
     </x:row>
     <x:row r="105" spans="2:16" ht="32.75">
       <x:c r="B105" t="s">
-        <x:v>146</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="C105" s="19">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D105" s="19" t="s">
-        <x:v>123</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="E105" s="19" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F105" s="19"/>
       <x:c r="G105" s="19"/>
       <x:c r="H105" s="38" t="s">
-        <x:v>169</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J105" s="19">
         <x:v>5</x:v>
       </x:c>
       <x:c r="K105" s="19" t="s">
-        <x:v>153</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="L105" s="19" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="M105" s="19"/>
       <x:c r="N105" s="19" t="s">
-        <x:v>124</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="O105" s="38" t="s">
-        <x:v>113</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="P105" s="34" t="s">
-        <x:v>265</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="2:16" ht="32.75">
       <x:c r="B106" t="s">
-        <x:v>265</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C106" s="19">
         <x:v>7</x:v>
@@ -6021,101 +5999,101 @@
       <x:c r="F106" s="19"/>
       <x:c r="G106" s="19"/>
       <x:c r="H106" s="32" t="s">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="J106" s="39">
         <x:v>6</x:v>
       </x:c>
       <x:c r="K106" s="39" t="s">
-        <x:v>137</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="L106" s="19" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="M106" s="39"/>
       <x:c r="N106" s="39" t="s">
-        <x:v>124</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="O106" s="40" t="s">
-        <x:v>172</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="P106" s="33" t="s">
-        <x:v>150</x:v>
+        <x:v>242</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="2:16" ht="32.75">
       <x:c r="B107" s="16" t="s">
-        <x:v>265</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C107" s="19">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D107" s="19" t="s">
-        <x:v>153</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="E107" s="19" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F107" s="19"/>
       <x:c r="G107" s="19"/>
       <x:c r="H107" s="38" t="s">
-        <x:v>113</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="J107" s="21">
         <x:v>7</x:v>
       </x:c>
       <x:c r="K107" s="21" t="s">
-        <x:v>196</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="L107" s="21" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M107" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N107" s="21" t="s">
-        <x:v>11</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="O107" s="21" t="s">
-        <x:v>134</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="P107" s="33"/>
     </x:row>
     <x:row r="108" spans="2:16" ht="32.75">
       <x:c r="B108" s="16" t="s">
-        <x:v>150</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="C108" s="39">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D108" s="42" t="s">
-        <x:v>137</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="E108" s="19" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F108" s="39"/>
       <x:c r="G108" s="42"/>
       <x:c r="H108" s="43" t="s">
-        <x:v>172</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="J108" s="21">
         <x:v>8</x:v>
       </x:c>
       <x:c r="K108" s="24" t="s">
-        <x:v>81</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="L108" s="21" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M108" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N108" s="24" t="s">
-        <x:v>11</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="O108" s="24" t="s">
-        <x:v>121</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="P108" s="33"/>
     </x:row>
@@ -6124,19 +6102,19 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D109" s="21" t="s">
-        <x:v>196</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E109" s="21" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F109" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G109" s="21" t="s">
-        <x:v>11</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="H109" s="21" t="s">
-        <x:v>134</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="J109" s="14"/>
       <x:c r="K109" s="14"/>
@@ -6151,19 +6129,19 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D110" s="24" t="s">
-        <x:v>81</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E110" s="21" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F110" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G110" s="24" t="s">
-        <x:v>11</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="H110" s="24" t="s">
-        <x:v>121</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="J110" s="46"/>
       <x:c r="K110" s="46"/>
@@ -6180,18 +6158,18 @@
       <x:c r="F111" s="12"/>
       <x:c r="G111" s="6"/>
       <x:c r="H111" s="41"/>
-      <x:c r="J111" s="64" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="K111" s="65"/>
-      <x:c r="L111" s="66" t="s">
+      <x:c r="J111" s="66" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="K111" s="67"/>
+      <x:c r="L111" s="68" t="s">
         <x:v>270</x:v>
       </x:c>
-      <x:c r="M111" s="67"/>
-      <x:c r="N111" s="67"/>
-      <x:c r="O111" s="68"/>
+      <x:c r="M111" s="69"/>
+      <x:c r="N111" s="69"/>
+      <x:c r="O111" s="70"/>
       <x:c r="P111" s="33" t="s">
-        <x:v>54</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="3:16" ht="20.64999999999999857891">
@@ -6201,115 +6179,115 @@
       <x:c r="F112" s="12"/>
       <x:c r="G112" s="12"/>
       <x:c r="H112" s="12"/>
-      <x:c r="J112" s="57" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="K112" s="58"/>
-      <x:c r="L112" s="59" t="s">
-        <x:v>199</x:v>
-      </x:c>
-      <x:c r="M112" s="60"/>
-      <x:c r="N112" s="60"/>
-      <x:c r="O112" s="61"/>
+      <x:c r="J112" s="59" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="K112" s="60"/>
+      <x:c r="L112" s="61" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="M112" s="62"/>
+      <x:c r="N112" s="62"/>
+      <x:c r="O112" s="63"/>
       <x:c r="P112" s="33"/>
     </x:row>
     <x:row r="113" spans="2:16" ht="20.64999999999999857891">
       <x:c r="B113" t="s">
-        <x:v>221</x:v>
-      </x:c>
-      <x:c r="C113" s="57" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="D113" s="58"/>
-      <x:c r="E113" s="59" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="F113" s="60"/>
-      <x:c r="G113" s="60"/>
-      <x:c r="H113" s="61"/>
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C113" s="59" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D113" s="60"/>
+      <x:c r="E113" s="61" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="F113" s="62"/>
+      <x:c r="G113" s="62"/>
+      <x:c r="H113" s="63"/>
       <x:c r="J113" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="K113" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="L113" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="M113" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="N113" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O113" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="P113" s="33"/>
     </x:row>
     <x:row r="114" spans="3:16" ht="20.64999999999999857891">
-      <x:c r="C114" s="64" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="D114" s="65"/>
-      <x:c r="E114" s="66" t="s">
-        <x:v>220</x:v>
-      </x:c>
-      <x:c r="F114" s="67"/>
-      <x:c r="G114" s="67"/>
-      <x:c r="H114" s="68"/>
+      <x:c r="C114" s="66" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D114" s="67"/>
+      <x:c r="E114" s="68" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F114" s="69"/>
+      <x:c r="G114" s="69"/>
+      <x:c r="H114" s="70"/>
       <x:c r="J114" s="26">
         <x:v>1</x:v>
       </x:c>
       <x:c r="K114" s="26" t="s">
-        <x:v>48</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="L114" s="26" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="M114" s="26" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N114" s="26" t="s">
-        <x:v>151</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="O114" s="26" t="s">
-        <x:v>149</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="P114" s="33"/>
     </x:row>
     <x:row r="115" spans="3:16" ht="17.80000000000000071054">
       <x:c r="C115" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="D115" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="E115" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F115" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="G115" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H115" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="J115" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="K115" s="8" t="s">
-        <x:v>204</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="L115" s="8" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="M115" s="8"/>
       <x:c r="N115" s="8"/>
       <x:c r="O115" s="8" t="s">
-        <x:v>116</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="P115" s="33"/>
     </x:row>
@@ -6318,33 +6296,33 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D116" s="26" t="s">
-        <x:v>69</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E116" s="26" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F116" s="26" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G116" s="26" t="s">
-        <x:v>151</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="H116" s="26" t="s">
-        <x:v>149</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="J116" s="8">
         <x:v>3</x:v>
       </x:c>
       <x:c r="K116" s="8" t="s">
-        <x:v>49</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="L116" s="8" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="M116" s="8"/>
       <x:c r="N116" s="8"/>
       <x:c r="O116" s="8" t="s">
-        <x:v>102</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="P116" s="33"/>
     </x:row>
@@ -6353,29 +6331,29 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D117" s="8" t="s">
-        <x:v>57</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E117" s="8" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F117" s="8"/>
       <x:c r="G117" s="8"/>
       <x:c r="H117" s="36" t="s">
-        <x:v>100</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="J117" s="8">
         <x:v>4</x:v>
       </x:c>
       <x:c r="K117" s="4" t="s">
-        <x:v>50</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="L117" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M117" s="8"/>
       <x:c r="N117" s="4"/>
       <x:c r="O117" s="4" t="s">
-        <x:v>67</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="P117" s="33"/>
     </x:row>
@@ -6384,75 +6362,75 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D118" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E118" s="8" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F118" s="8"/>
       <x:c r="G118" s="8"/>
       <x:c r="H118" s="36" t="s">
-        <x:v>115</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="J118" s="8">
         <x:v>5</x:v>
       </x:c>
       <x:c r="K118" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="L118" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M118" s="8"/>
       <x:c r="N118" s="4"/>
       <x:c r="O118" s="28" t="s">
-        <x:v>31</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="P118" s="33"/>
     </x:row>
     <x:row r="119" spans="2:16" ht="32.75">
       <x:c r="B119" t="s">
-        <x:v>150</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="C119" s="39">
         <x:v>4</x:v>
       </x:c>
       <x:c r="D119" s="39" t="s">
-        <x:v>137</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="E119" s="19" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F119" s="39"/>
       <x:c r="G119" s="39" t="s">
-        <x:v>124</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="H119" s="44" t="s">
-        <x:v>172</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="J119" s="39">
         <x:v>6</x:v>
       </x:c>
       <x:c r="K119" s="39" t="s">
-        <x:v>123</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="L119" s="19" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="M119" s="39"/>
       <x:c r="N119" s="39" t="s">
-        <x:v>124</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="O119" s="44" t="s">
-        <x:v>169</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="P119" s="33" t="s">
-        <x:v>146</x:v>
+        <x:v>248</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="2:16" ht="32.75">
       <x:c r="B120" s="50" t="s">
-        <x:v>114</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="C120" s="18">
         <x:v>5</x:v>
@@ -6462,66 +6440,66 @@
       <x:c r="F120" s="18"/>
       <x:c r="G120" s="18"/>
       <x:c r="H120" s="49" t="s">
-        <x:v>164</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="J120" s="39">
         <x:v>7</x:v>
       </x:c>
       <x:c r="K120" s="39" t="s">
-        <x:v>137</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="L120" s="19" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="M120" s="39"/>
       <x:c r="N120" s="39" t="s">
-        <x:v>124</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="O120" s="40" t="s">
-        <x:v>172</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="P120" s="33" t="s">
-        <x:v>150</x:v>
+        <x:v>242</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="2:16" ht="32.75">
       <x:c r="B121" s="52" t="s">
-        <x:v>114</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="C121" s="18">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D121" s="18" t="s">
-        <x:v>70</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E121" s="18" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F121" s="18"/>
       <x:c r="G121" s="18" t="s">
-        <x:v>124</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="H121" s="51" t="s">
-        <x:v>23</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="J121" s="19">
         <x:v>8</x:v>
       </x:c>
       <x:c r="K121" s="19" t="s">
-        <x:v>153</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="L121" s="19" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="M121" s="19"/>
       <x:c r="N121" s="19" t="s">
-        <x:v>124</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="O121" s="32" t="s">
-        <x:v>92</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="P121" s="33" t="s">
-        <x:v>171</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="2:16">
@@ -6530,37 +6508,37 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D122" s="21" t="s">
-        <x:v>196</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E122" s="21" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F122" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G122" s="21" t="s">
-        <x:v>11</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="H122" s="21" t="s">
-        <x:v>134</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="J122" s="21">
         <x:v>12</x:v>
       </x:c>
       <x:c r="K122" s="21" t="s">
-        <x:v>196</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="L122" s="21" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M122" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N122" s="21" t="s">
-        <x:v>11</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="O122" s="21" t="s">
-        <x:v>134</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="P122" s="33"/>
     </x:row>
@@ -6570,37 +6548,37 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D123" s="24" t="s">
-        <x:v>81</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E123" s="21" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F123" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G123" s="24" t="s">
-        <x:v>11</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="H123" s="24" t="s">
-        <x:v>121</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="J123" s="21">
         <x:v>13</x:v>
       </x:c>
       <x:c r="K123" s="24" t="s">
-        <x:v>81</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="L123" s="21" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="M123" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N123" s="24" t="s">
-        <x:v>11</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="O123" s="24" t="s">
-        <x:v>121</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="P123" s="33"/>
     </x:row>
@@ -6638,93 +6616,93 @@
     </x:row>
     <x:row r="126" spans="2:16" ht="20.64999999999999857891">
       <x:c r="B126" s="16" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C126" s="64" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="D126" s="65"/>
-      <x:c r="E126" s="66" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="F126" s="67"/>
-      <x:c r="G126" s="67"/>
-      <x:c r="H126" s="68"/>
-      <x:c r="J126" s="57" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="K126" s="58"/>
-      <x:c r="L126" s="59" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="M126" s="60"/>
-      <x:c r="N126" s="60"/>
-      <x:c r="O126" s="61"/>
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C126" s="66" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D126" s="67"/>
+      <x:c r="E126" s="68" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="F126" s="69"/>
+      <x:c r="G126" s="69"/>
+      <x:c r="H126" s="70"/>
+      <x:c r="J126" s="59" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="K126" s="60"/>
+      <x:c r="L126" s="61" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="M126" s="62"/>
+      <x:c r="N126" s="62"/>
+      <x:c r="O126" s="63"/>
       <x:c r="P126" s="33" t="s">
-        <x:v>232</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="2:16" ht="20.64999999999999857891">
       <x:c r="B127" s="16"/>
-      <x:c r="C127" s="64" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="D127" s="65"/>
-      <x:c r="E127" s="66" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="F127" s="67"/>
-      <x:c r="G127" s="67"/>
-      <x:c r="H127" s="68"/>
-      <x:c r="J127" s="64" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="K127" s="65"/>
-      <x:c r="L127" s="66" t="s">
-        <x:v>179</x:v>
-      </x:c>
-      <x:c r="M127" s="67"/>
-      <x:c r="N127" s="67"/>
-      <x:c r="O127" s="68"/>
+      <x:c r="C127" s="66" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D127" s="67"/>
+      <x:c r="E127" s="68" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="F127" s="69"/>
+      <x:c r="G127" s="69"/>
+      <x:c r="H127" s="70"/>
+      <x:c r="J127" s="66" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="K127" s="67"/>
+      <x:c r="L127" s="68" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="M127" s="69"/>
+      <x:c r="N127" s="69"/>
+      <x:c r="O127" s="70"/>
       <x:c r="P127" s="33"/>
     </x:row>
     <x:row r="128" spans="2:16" ht="17.80000000000000071054">
       <x:c r="B128" s="16"/>
       <x:c r="C128" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="D128" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="E128" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F128" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="G128" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H128" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="J128" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="K128" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="L128" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="M128" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="N128" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O128" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="P128" s="33"/>
     </x:row>
@@ -6734,37 +6712,37 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D129" s="26" t="s">
-        <x:v>70</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E129" s="26" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F129" s="26" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G129" s="26" t="s">
-        <x:v>151</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="H129" s="26" t="s">
-        <x:v>149</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="J129" s="26">
         <x:v>1</x:v>
       </x:c>
       <x:c r="K129" s="26" t="s">
-        <x:v>152</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="L129" s="26" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="M129" s="26" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N129" s="26" t="s">
-        <x:v>151</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="O129" s="26" t="s">
-        <x:v>149</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="P129" s="33"/>
     </x:row>
@@ -6774,51 +6752,51 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D130" s="8" t="s">
-        <x:v>71</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E130" s="8" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F130" s="8"/>
       <x:c r="G130" s="8"/>
       <x:c r="H130" s="36" t="s">
-        <x:v>164</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="J130" s="8">
         <x:v>2</x:v>
       </x:c>
       <x:c r="K130" s="8" t="s">
-        <x:v>73</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="L130" s="8" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="M130" s="8"/>
       <x:c r="N130" s="8"/>
       <x:c r="O130" s="37" t="s">
-        <x:v>34</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="P130" s="33"/>
     </x:row>
     <x:row r="131" spans="2:16" ht="32.75">
       <x:c r="B131" s="16" t="s">
-        <x:v>265</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C131" s="19">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D131" s="19" t="s">
-        <x:v>153</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="E131" s="19" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F131" s="19"/>
       <x:c r="G131" s="19" t="s">
-        <x:v>124</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="H131" s="38" t="s">
-        <x:v>113</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="J131" s="19">
         <x:v>3</x:v>
@@ -6828,50 +6806,50 @@
       <x:c r="M131" s="19"/>
       <x:c r="N131" s="19"/>
       <x:c r="O131" s="19" t="s">
-        <x:v>176</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="P131" s="33" t="s">
-        <x:v>150</x:v>
+        <x:v>242</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="2:16" ht="32.75">
       <x:c r="B132" s="16" t="s">
-        <x:v>150</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="C132" s="19">
         <x:v>4</x:v>
       </x:c>
       <x:c r="D132" s="19" t="s">
-        <x:v>137</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="E132" s="19" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F132" s="19"/>
       <x:c r="G132" s="19" t="s">
-        <x:v>124</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="H132" s="38" t="s">
-        <x:v>172</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="J132" s="19">
         <x:v>4</x:v>
       </x:c>
       <x:c r="K132" s="20" t="s">
-        <x:v>137</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="L132" s="19" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="M132" s="19"/>
       <x:c r="N132" s="20" t="s">
-        <x:v>124</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="O132" s="45" t="s">
-        <x:v>172</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="P132" s="34" t="s">
-        <x:v>150</x:v>
+        <x:v>242</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="3:16">
@@ -6879,19 +6857,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D133" s="21" t="s">
-        <x:v>196</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E133" s="21" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F133" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G133" s="21" t="s">
-        <x:v>11</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="H133" s="21" t="s">
-        <x:v>134</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="J133" s="19">
         <x:v>5</x:v>
@@ -6901,10 +6879,10 @@
       <x:c r="M133" s="19"/>
       <x:c r="N133" s="20"/>
       <x:c r="O133" s="29" t="s">
-        <x:v>83</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P133" s="33" t="s">
-        <x:v>130</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="134" spans="3:16" ht="32.75">
@@ -6912,38 +6890,38 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D134" s="24" t="s">
-        <x:v>81</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E134" s="21" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F134" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G134" s="24" t="s">
-        <x:v>11</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="H134" s="24" t="s">
-        <x:v>121</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="J134" s="19">
         <x:v>6</x:v>
       </x:c>
       <x:c r="K134" s="20" t="s">
-        <x:v>139</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="L134" s="19" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="M134" s="19"/>
       <x:c r="N134" s="20" t="s">
-        <x:v>124</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="O134" s="29" t="s">
-        <x:v>58</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="P134" s="33" t="s">
-        <x:v>130</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="10:16">
@@ -6955,10 +6933,10 @@
       <x:c r="M135" s="19"/>
       <x:c r="N135" s="20"/>
       <x:c r="O135" s="29" t="s">
-        <x:v>61</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="P135" s="33" t="s">
-        <x:v>187</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="10:16" ht="32.75">
@@ -6966,33 +6944,33 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="K136" s="20" t="s">
-        <x:v>47</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="L136" s="19" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="M136" s="19"/>
       <x:c r="N136" s="20" t="s">
-        <x:v>124</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="O136" s="45" t="s">
-        <x:v>8</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="P136" s="33" t="s">
-        <x:v>187</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="3:16" ht="20.64999999999999857891">
-      <x:c r="C137" s="57" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="D137" s="58"/>
-      <x:c r="E137" s="59" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="F137" s="60"/>
-      <x:c r="G137" s="60"/>
-      <x:c r="H137" s="61"/>
+      <x:c r="C137" s="59" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D137" s="60"/>
+      <x:c r="E137" s="61" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="F137" s="62"/>
+      <x:c r="G137" s="62"/>
+      <x:c r="H137" s="63"/>
       <x:c r="J137" s="16"/>
       <x:c r="K137" s="16"/>
       <x:c r="L137" s="16"/>
@@ -7002,16 +6980,16 @@
       <x:c r="P137" s="33"/>
     </x:row>
     <x:row r="138" spans="3:16" ht="20.64999999999999857891">
-      <x:c r="C138" s="64" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="D138" s="65"/>
-      <x:c r="E138" s="66" t="s">
-        <x:v>248</x:v>
-      </x:c>
-      <x:c r="F138" s="67"/>
-      <x:c r="G138" s="67"/>
-      <x:c r="H138" s="68"/>
+      <x:c r="C138" s="66" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D138" s="67"/>
+      <x:c r="E138" s="68" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F138" s="69"/>
+      <x:c r="G138" s="69"/>
+      <x:c r="H138" s="70"/>
       <x:c r="J138" s="16"/>
       <x:c r="K138" s="16"/>
       <x:c r="L138" s="16"/>
@@ -7022,22 +7000,22 @@
     </x:row>
     <x:row r="139" spans="3:16" ht="20.64999999999999857891">
       <x:c r="C139" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="D139" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="E139" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F139" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="G139" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H139" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="J139" s="14"/>
       <x:c r="K139" s="14"/>
@@ -7052,19 +7030,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D140" s="26" t="s">
-        <x:v>192</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E140" s="26" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F140" s="26" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G140" s="26" t="s">
-        <x:v>151</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="H140" s="26" t="s">
-        <x:v>149</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="J140" s="14"/>
       <x:c r="K140" s="14"/>
@@ -7075,12 +7053,12 @@
       <x:c r="P140" s="33"/>
     </x:row>
     <x:row r="141" spans="3:16" ht="17.80000000000000071054">
-      <x:c r="C141" s="73"/>
-      <x:c r="D141" s="73"/>
-      <x:c r="E141" s="73"/>
-      <x:c r="F141" s="73"/>
-      <x:c r="G141" s="73"/>
-      <x:c r="H141" s="74"/>
+      <x:c r="C141" s="57"/>
+      <x:c r="D141" s="57"/>
+      <x:c r="E141" s="57"/>
+      <x:c r="F141" s="57"/>
+      <x:c r="G141" s="57"/>
+      <x:c r="H141" s="58"/>
       <x:c r="J141" s="14"/>
       <x:c r="K141" s="14"/>
       <x:c r="L141" s="14"/>
@@ -7094,15 +7072,15 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D142" s="8" t="s">
-        <x:v>229</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E142" s="8" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F142" s="8"/>
       <x:c r="G142" s="8"/>
       <x:c r="H142" s="36" t="s">
-        <x:v>206</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="J142" s="16"/>
       <x:c r="K142" s="16"/>
@@ -7117,15 +7095,15 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D143" s="8" t="s">
-        <x:v>193</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E143" s="8" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F143" s="8"/>
       <x:c r="G143" s="8"/>
       <x:c r="H143" s="36" t="s">
-        <x:v>66</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="J143" s="16"/>
       <x:c r="K143" s="16"/>
@@ -7137,23 +7115,23 @@
     </x:row>
     <x:row r="144" spans="2:16" ht="32.75">
       <x:c r="B144" t="s">
-        <x:v>131</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="C144" s="19">
         <x:v>5</x:v>
       </x:c>
       <x:c r="D144" s="19" t="s">
-        <x:v>243</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E144" s="19" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F144" s="19"/>
       <x:c r="G144" s="19" t="s">
-        <x:v>124</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="H144" s="38" t="s">
-        <x:v>222</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="J144" s="16"/>
       <x:c r="K144" s="16"/>
@@ -7183,16 +7161,16 @@
     </x:row>
     <x:row r="147" spans="2:16" ht="20.64999999999999857891">
       <x:c r="B147" s="16"/>
-      <x:c r="C147" s="62" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="D147" s="62"/>
-      <x:c r="E147" s="63" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="F147" s="63"/>
-      <x:c r="G147" s="63"/>
-      <x:c r="H147" s="63"/>
+      <x:c r="C147" s="64" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D147" s="64"/>
+      <x:c r="E147" s="65" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="F147" s="65"/>
+      <x:c r="G147" s="65"/>
+      <x:c r="H147" s="65"/>
       <x:c r="J147" s="10"/>
       <x:c r="K147" s="6"/>
       <x:c r="L147" s="10"/>
@@ -7203,37 +7181,37 @@
     </x:row>
     <x:row r="148" spans="2:16" ht="20.64999999999999857891">
       <x:c r="B148" s="16"/>
-      <x:c r="C148" s="62" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="D148" s="62"/>
-      <x:c r="E148" s="63" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="F148" s="63"/>
-      <x:c r="G148" s="63"/>
-      <x:c r="H148" s="63"/>
+      <x:c r="C148" s="64" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D148" s="64"/>
+      <x:c r="E148" s="65" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="F148" s="65"/>
+      <x:c r="G148" s="65"/>
+      <x:c r="H148" s="65"/>
       <x:c r="P148" s="30"/>
     </x:row>
     <x:row r="149" spans="2:16" ht="17.80000000000000071054">
       <x:c r="B149" s="16"/>
       <x:c r="C149" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="D149" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="E149" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F149" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="G149" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H149" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="P149" s="30"/>
     </x:row>
@@ -7243,19 +7221,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D150" s="26" t="s">
-        <x:v>153</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="E150" s="26" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F150" s="26" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G150" s="26" t="s">
-        <x:v>151</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="H150" s="26" t="s">
-        <x:v>149</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="P150" s="30"/>
     </x:row>
@@ -7265,17 +7243,17 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D151" s="4" t="s">
-        <x:v>226</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E151" s="8" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F151" s="8" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G151" s="4"/>
       <x:c r="H151" s="4" t="s">
-        <x:v>198</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="P151" s="30"/>
     </x:row>
@@ -7285,17 +7263,17 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D152" s="7" t="s">
-        <x:v>202</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E152" s="2" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F152" s="8" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G152" s="7"/>
       <x:c r="H152" s="7" t="s">
-        <x:v>216</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="P152" s="30"/>
     </x:row>
@@ -7305,17 +7283,17 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D153" s="4" t="s">
-        <x:v>108</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E153" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F153" s="8" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G153" s="4"/>
       <x:c r="H153" s="4" t="s">
-        <x:v>201</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="P153" s="30"/>
     </x:row>
@@ -7325,17 +7303,17 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D154" s="4" t="s">
-        <x:v>22</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="E154" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F154" s="7" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G154" s="4"/>
       <x:c r="H154" s="4" t="s">
-        <x:v>162</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="P154" s="30"/>
     </x:row>
@@ -7345,17 +7323,17 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D155" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E155" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F155" s="7" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G155" s="4"/>
       <x:c r="H155" s="4" t="s">
-        <x:v>12</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="P155" s="30"/>
     </x:row>
@@ -7365,17 +7343,17 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D156" s="4" t="s">
-        <x:v>107</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E156" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F156" s="7" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G156" s="4"/>
       <x:c r="H156" s="4" t="s">
-        <x:v>142</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="P156" s="30"/>
     </x:row>
@@ -7385,17 +7363,17 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D157" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="E157" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F157" s="7" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G157" s="4"/>
       <x:c r="H157" s="4" t="s">
-        <x:v>132</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="P157" s="30"/>
     </x:row>
@@ -7405,17 +7383,17 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D158" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="E158" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F158" s="7" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G158" s="4"/>
       <x:c r="H158" s="4" t="s">
-        <x:v>126</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="P158" s="30"/>
     </x:row>
@@ -7425,17 +7403,17 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D159" s="4" t="s">
-        <x:v>189</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E159" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F159" s="7" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G159" s="4"/>
       <x:c r="H159" s="4" t="s">
-        <x:v>235</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P159" s="30"/>
     </x:row>
@@ -7445,17 +7423,17 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D160" s="4" t="s">
-        <x:v>75</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E160" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F160" s="7" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G160" s="4"/>
       <x:c r="H160" s="4" t="s">
-        <x:v>78</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="P160" s="30"/>
     </x:row>
@@ -7465,17 +7443,17 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D161" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E161" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F161" s="7" t="s">
-        <x:v>77</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="G161" s="4"/>
       <x:c r="H161" s="4" t="s">
-        <x:v>161</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="P161" s="30"/>
     </x:row>
@@ -7485,17 +7463,17 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D162" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="E162" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F162" s="7" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G162" s="4"/>
       <x:c r="H162" s="4" t="s">
-        <x:v>122</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="P162" s="30"/>
     </x:row>
@@ -7504,41 +7482,41 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D163" s="4" t="s">
-        <x:v>181</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E163" s="7" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F163" s="7" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G163" s="4"/>
       <x:c r="H163" s="4" t="s">
-        <x:v>64</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="P163" s="30"/>
     </x:row>
     <x:row r="164" spans="2:16">
       <x:c r="B164" s="16" t="s">
-        <x:v>165</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C164" s="18">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D164" s="19" t="s">
-        <x:v>158</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="E164" s="19" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F164" s="19" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G164" s="19" t="s">
-        <x:v>124</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="H164" s="19" t="s">
-        <x:v>65</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="P164" s="30"/>
     </x:row>
@@ -7547,19 +7525,19 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D165" s="21" t="s">
-        <x:v>196</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E165" s="21" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F165" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G165" s="21" t="s">
-        <x:v>11</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="H165" s="21" t="s">
-        <x:v>134</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="P165" s="30"/>
     </x:row>
@@ -7568,19 +7546,19 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D166" s="24" t="s">
-        <x:v>81</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E166" s="21" t="s">
-        <x:v>39</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F166" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G166" s="24" t="s">
-        <x:v>11</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="H166" s="24" t="s">
-        <x:v>121</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="P166" s="30"/>
     </x:row>
